--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="590">
   <si>
     <t>table</t>
   </si>
@@ -41,7 +41,10 @@
     <t>Unique ID</t>
   </si>
   <si>
-    <t>Field Name</t>
+    <t>DWG Field Name</t>
+  </si>
+  <si>
+    <t>HMS Field Name</t>
   </si>
   <si>
     <t>Related to</t>
@@ -95,7 +98,7 @@
     <t>Alias</t>
   </si>
   <si>
-    <t>Name used for this field is for when there is a name conflict.</t>
+    <t>Name used for this field is for when there is a name conflict in queries.</t>
   </si>
   <si>
     <t>When tables with identical names are joined.</t>
@@ -140,12 +143,18 @@
     <t>Unique ID assigned to all DWG fields; non-LINCS fields are assigned an arbitrary unique number.</t>
   </si>
   <si>
-    <t>field_name</t>
+    <t>dwg_field_name</t>
   </si>
   <si>
     <t>Field Name (DWG)</t>
   </si>
   <si>
+    <t>hms_field_name</t>
+  </si>
+  <si>
+    <t>The LINCS DWG assigned field name ('field_name') can be overriden in the HMS LINCS DB UI using this field. </t>
+  </si>
+  <si>
     <t>related_to</t>
   </si>
   <si>
@@ -254,6 +263,9 @@
     <t>Lab Head First</t>
   </si>
   <si>
+    <t>Assay lab head</t>
+  </si>
+  <si>
     <t>lab_head_lastname</t>
   </si>
   <si>
@@ -272,18 +284,27 @@
     <t>Summary</t>
   </si>
   <si>
+    <t>Summary of this dataset</t>
+  </si>
+  <si>
     <t>protocol</t>
   </si>
   <si>
     <t>Protocol</t>
   </si>
   <si>
+    <t>The protocol used when conducting this assay</t>
+  </si>
+  <si>
     <t>protocol_references</t>
   </si>
   <si>
     <t>Protocol Reference</t>
   </si>
   <si>
+    <t>References for the protocol</t>
+  </si>
+  <si>
     <t>library</t>
   </si>
   <si>
@@ -296,12 +317,120 @@
     <t>Library Name</t>
   </si>
   <si>
+    <t>The full name of this library</t>
+  </si>
+  <si>
     <t>short_name</t>
   </si>
   <si>
     <t>Library Name (short)</t>
   </si>
   <si>
+    <t>The abbreviated name of this library</t>
+  </si>
+  <si>
+    <t>date_first_plated</t>
+  </si>
+  <si>
+    <t>Date First Plated</t>
+  </si>
+  <si>
+    <t>When the compounds for this library were transferred to screening plates</t>
+  </si>
+  <si>
+    <t>date_data_received</t>
+  </si>
+  <si>
+    <t>Date Data Received</t>
+  </si>
+  <si>
+    <t>Date that data were received</t>
+  </si>
+  <si>
+    <t>date_publicly_available</t>
+  </si>
+  <si>
+    <t>Date Publicly Available</t>
+  </si>
+  <si>
+    <t>Date that data were made publicly available</t>
+  </si>
+  <si>
+    <t>date_loaded</t>
+  </si>
+  <si>
+    <t>Date Loaded</t>
+  </si>
+  <si>
+    <t>Date that data were loaded</t>
+  </si>
+  <si>
+    <t>is_restricted</t>
+  </si>
+  <si>
+    <t>Is Restricted</t>
+  </si>
+  <si>
+    <t>Indicates that this data are for authenticated viewers only</t>
+  </si>
+  <si>
+    <t>librarymapping</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>The library plate</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>The library well</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>The concentration of the compound on the library plate</t>
+  </si>
+  <si>
+    <t>concentration_unit</t>
+  </si>
+  <si>
+    <t>Concentration Unit</t>
+  </si>
+  <si>
+    <t>One of (nM,uM,mM)</t>
+  </si>
+  <si>
+    <t>well_count</t>
+  </si>
+  <si>
+    <t>Well Count</t>
+  </si>
+  <si>
+    <t>Number of wells in this library</t>
+  </si>
+  <si>
+    <t>plate_count</t>
+  </si>
+  <si>
+    <t>Plate Count</t>
+  </si>
+  <si>
+    <t>Number of plates in this library</t>
+  </si>
+  <si>
     <t>smallmolecule</t>
   </si>
   <si>
@@ -380,6 +509,9 @@
     <t>SM_Center_Sample_ID</t>
   </si>
   <si>
+    <t>Batch ID</t>
+  </si>
+  <si>
     <t>batch</t>
   </si>
   <si>
@@ -437,6 +569,9 @@
     <t>SM_Salt</t>
   </si>
   <si>
+    <t>Salt ID</t>
+  </si>
+  <si>
     <t>Reference to counter-ions and other addends present in the compound’s formulation</t>
   </si>
   <si>
@@ -710,7 +845,7 @@
     <t>chembl_id</t>
   </si>
   <si>
-    <t>ChEMBL</t>
+    <t>ChEMBL ID</t>
   </si>
   <si>
     <t>ChEMBL is a database of bioactive drug-like small molecules, it contains 2-D structures, calculated properties (e.g. logP, Molecular Weight, Lipinski Parameters, etc.) and abstracted bioactivities (e.g. binding constants, pharmacology and ADMET data)</t>
@@ -1146,6 +1281,9 @@
   </si>
   <si>
     <t>CL_ID</t>
+  </si>
+  <si>
+    <t>LINCS ID</t>
   </si>
   <si>
     <t>LINCS internal ID; this is a batch independent ID; canonical cell line ID</t>
@@ -2001,7 +2139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -2014,14 +2152,14 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.6823529411765"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6823529411765"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.556862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.3960784313725"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="54.6823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.8509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.0078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="13.7019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.2078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.0745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.23529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="25.3960784313725"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="54.6823529411765"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="14.8509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.0078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="21.2078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.0745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.23529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="1">
@@ -2058,10 +2196,10 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -2073,530 +2211,555 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="0"/>
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="0"/>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="0"/>
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="0"/>
+      <c r="J5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="I6" s="0"/>
+      <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="I7" s="0"/>
+      <c r="J7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="0"/>
+      <c r="J8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="0"/>
+      <c r="J9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="0"/>
+      <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="0"/>
+      <c r="J11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="12">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="I12" s="0"/>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="I13" s="0"/>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="0"/>
+      <c r="J14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="0"/>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="0"/>
+      <c r="J16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="0"/>
+      <c r="J17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="0"/>
+      <c r="J18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="19">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>67</v>
@@ -2604,24 +2767,25 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="0"/>
+      <c r="J19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="20">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>70</v>
@@ -2629,24 +2793,25 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="0"/>
+      <c r="J20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="21">
       <c r="A21" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>73</v>
@@ -2654,3386 +2819,3784 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="0"/>
+      <c r="J21" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="22">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>76</v>
+      <c r="I22" s="0"/>
+      <c r="J22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="23">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>78</v>
+      <c r="I23" s="0"/>
+      <c r="J23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="24">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>80</v>
+      <c r="I24" s="0"/>
+      <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="25">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="0"/>
+      <c r="J25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="26">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>84</v>
+      <c r="I26" s="0"/>
+      <c r="J26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="27">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>86</v>
+      <c r="I27" s="0"/>
+      <c r="J27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="28">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>88</v>
+      <c r="I28" s="0"/>
+      <c r="J28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>92</v>
+      <c r="I29" s="0"/>
+      <c r="J29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="31" s="9">
-      <c r="A31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="I30" s="0"/>
+      <c r="J30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="0"/>
+      <c r="J31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="L31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="32" s="9">
-      <c r="A32" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="I32" s="0"/>
+      <c r="J32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="L32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" s="8" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="33">
+      <c r="B33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="33" s="9">
-      <c r="A33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I33" s="0"/>
+      <c r="J33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="8" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="34">
+      <c r="B34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="34" s="9">
-      <c r="A34" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L34" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="35" s="9">
-      <c r="A35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="H34" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I34" s="0"/>
+      <c r="J34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="35">
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="36" s="9">
-      <c r="A36" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="H35" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="I35" s="0"/>
+      <c r="J35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="36">
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="37" s="9">
-      <c r="A37" s="9" t="s">
+      <c r="H36" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="I36" s="0"/>
+      <c r="J36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="L36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J37" s="8" t="s">
+      <c r="H37" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K37" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="38" s="9">
-      <c r="A38" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="L37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="39" s="9">
-      <c r="A39" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="H38" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="39">
+      <c r="A39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="40" s="9">
-      <c r="A40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="H39" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="40">
+      <c r="A40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L40" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="41" s="9">
-      <c r="A41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="H40" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="41">
+      <c r="A41" s="7"/>
+      <c r="B41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="I41" s="0"/>
+      <c r="J41" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="42">
+      <c r="A42" s="7"/>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="I42" s="0"/>
+      <c r="J42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="43" s="9">
+      <c r="A43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L41" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P41" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="42" s="9">
-      <c r="A42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L42" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="43" s="9">
-      <c r="A43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>163</v>
+      <c r="C43" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J43" s="8"/>
       <c r="K43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L43" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="44" s="9">
+        <v>143</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M43" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="44" s="9">
       <c r="A44" s="9" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L44" s="11" t="n">
+        <v>143</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="11" t="n">
         <v>1</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="45" s="9">
+      <c r="P44" s="8"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="45" s="9">
+      <c r="A45" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="B45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L45" s="11" t="n">
+        <v>143</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M45" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="M45" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="13"/>
+      <c r="N45" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="13"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="46" s="9">
       <c r="A46" s="9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="J46" s="8" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L46" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>180</v>
+        <v>143</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M46" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="47" s="9">
+      <c r="P46" s="8"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="47" s="9">
       <c r="A47" s="9" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="J47" s="8" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="L47" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="M47" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="O47" s="8"/>
-      <c r="P47" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="48" s="9">
+      <c r="P47" s="8"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="48" s="9">
       <c r="A48" s="9" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="L48" s="11" t="n">
+        <v>165</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M48" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="M48" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N48" s="8"/>
+      <c r="N48" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="O48" s="8"/>
-      <c r="P48" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="49" s="9">
+      <c r="P48" s="8"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="49" s="9">
       <c r="A49" s="9" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L49" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M49" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="50" s="9">
+      <c r="P49" s="8"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="50" s="9">
+      <c r="A50" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="B50" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="L50" s="11" t="n">
+        <v>165</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M50" s="11" t="n">
         <v>2</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="13" t="s">
-        <v>197</v>
-      </c>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="13"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="51" s="9">
       <c r="A51" s="9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M51" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="52" s="9">
+      <c r="A52" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="53" s="9">
+      <c r="A53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="J53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L53" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="M53" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" s="8" t="s">
+      <c r="O53" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="L51" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="52" s="9">
-      <c r="A52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="P53" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H52" s="10" t="s">
+      <c r="Q53" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="54" s="9">
+      <c r="A54" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L52" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="53" s="9">
-      <c r="A53" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="L53" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="54" s="9">
-      <c r="A54" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="E54" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="J54" s="8"/>
       <c r="K54" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L54" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="N54" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M54" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="O54" s="8"/>
-      <c r="P54" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="55" s="9">
+      <c r="P54" s="8"/>
+      <c r="Q54" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="55" s="9">
       <c r="A55" s="9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="J55" s="8"/>
       <c r="K55" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L55" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M55" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M55" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="56" s="9">
+      <c r="P55" s="8"/>
+      <c r="Q55" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="56" s="9">
       <c r="A56" s="9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="J56" s="8"/>
       <c r="K56" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="L56" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="N56" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M56" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="O56" s="8"/>
-      <c r="P56" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="57" s="9">
+      <c r="P56" s="8"/>
+      <c r="Q56" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="57" s="9">
       <c r="B57" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H57" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="M57" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="58" s="9">
+      <c r="A58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="M58" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K57" s="8" t="s">
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="59" s="9">
+      <c r="A59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="L57" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="13"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="58" s="9">
-      <c r="A58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="I59" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="9" t="n">
-        <v>1001</v>
-      </c>
-      <c r="I58" s="9" t="s">
+      <c r="J59" s="8"/>
+      <c r="K59" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L59" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59" s="9">
-      <c r="A59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="9" t="n">
-        <v>1002</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="60">
+      <c r="M59" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="60" s="9">
       <c r="A60" s="9" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="9"/>
+        <v>213</v>
+      </c>
       <c r="E60" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M60" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="61" s="9">
+      <c r="A61" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="M61" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I60" s="17" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="62" s="9">
+      <c r="B62" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J60" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="L60" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="N60" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="O60" s="17"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="61">
-      <c r="A61" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="L61" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="62">
-      <c r="A62" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="E62" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H62" s="17" t="s">
+      <c r="G62" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M62" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="63" s="9">
+      <c r="A63" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M63" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="64" s="9">
+      <c r="A64" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="E64" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K62" s="17" t="s">
+      <c r="I64" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="L62" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="17" t="s">
+      <c r="J64" s="8"/>
+      <c r="K64" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L64" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="N62" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="O62" s="17" t="s">
+      <c r="M64" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65" s="9">
+      <c r="A65" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="P62" s="19" t="s">
+      <c r="E65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="Q62" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="63">
-      <c r="A63" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="I65" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H63" s="17" t="s">
+      <c r="J65" s="8"/>
+      <c r="K65" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L65" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="I63" s="17" t="s">
+      <c r="M65" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J63" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K63" s="17" t="s">
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="66" s="9">
+      <c r="A66" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="L63" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="17" t="s">
+      <c r="E66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="N63" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="O63" s="17" t="s">
+      <c r="I66" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="P63" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q63" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="64">
-      <c r="A64" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H64" s="17" t="s">
+      <c r="J66" s="8"/>
+      <c r="K66" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L66" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I64" s="17" t="s">
+      <c r="M66" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="67" s="9">
+      <c r="A67" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J64" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K64" s="17" t="s">
+      <c r="E67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="L64" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17" t="s">
+      <c r="I67" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="65">
-      <c r="A65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" s="17" t="s">
+      <c r="J67" s="8"/>
+      <c r="K67" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="M67" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="68" s="9">
+      <c r="A68" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="J65" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K65" s="17" t="s">
+      <c r="E68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="L65" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17" t="s">
+      <c r="I68" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="66">
-      <c r="A66" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="J68" s="8"/>
+      <c r="K68" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H66" s="17" t="s">
+      <c r="M68" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="69" s="9">
+      <c r="B69" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="D69" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J66" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K66" s="17" t="s">
+      <c r="I69" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="L66" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" s="17" t="s">
+      <c r="J69" s="8"/>
+      <c r="K69" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17" t="s">
+      <c r="M69" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="70" s="9">
+      <c r="A70" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="67">
-      <c r="A67" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="L67" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="N67" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="O67" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="P67" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q67" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="68">
-      <c r="A68" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="L68" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="O68" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="P68" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q68" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="69">
-      <c r="A69" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="L69" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="O69" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="P69" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q69" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="70">
-      <c r="A70" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="L70" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="O70" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="P70" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q70" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="71">
+      <c r="H70" s="9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I70" s="0"/>
+      <c r="J70" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71" s="9">
       <c r="A71" s="9" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+        <v>275</v>
+      </c>
       <c r="E71" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="J71" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K71" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L71" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M71" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="N71" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="O71" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="P71" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q71" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="72">
+      <c r="H71" s="9" t="n">
+        <v>1002</v>
+      </c>
+      <c r="I71" s="0"/>
+      <c r="J71" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="72">
       <c r="A72" s="9" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>121</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="J72" s="17"/>
       <c r="K72" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="L72" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="M72" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="P72" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q72" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="73">
+        <v>286</v>
+      </c>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="73">
       <c r="A73" s="9" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J73" s="17"/>
       <c r="K73" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>319</v>
+        <v>283</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="M73" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="P73" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q73" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="74">
+        <v>290</v>
+      </c>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="74">
       <c r="A74" s="9" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="J74" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J74" s="17"/>
       <c r="K74" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="L74" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M74" s="17" t="s">
-        <v>312</v>
+        <v>283</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="M74" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="P74" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q74" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="75">
+        <v>286</v>
+      </c>
+      <c r="P74" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q74" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="R74" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="75">
       <c r="A75" s="9" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="J75" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J75" s="17"/>
       <c r="K75" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="L75" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M75" s="17" t="s">
-        <v>332</v>
+        <v>283</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="M75" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="O75" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="P75" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q75" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="76">
+        <v>286</v>
+      </c>
+      <c r="P75" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q75" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="R75" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="76">
       <c r="A76" s="9" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="J76" s="17" t="s">
-        <v>121</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="J76" s="17"/>
       <c r="K76" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="L76" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="O76" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="P76" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q76" s="17"/>
+        <v>165</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="M76" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="77">
       <c r="A77" s="9" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>343</v>
+        <v>173</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="M77" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="78">
+      <c r="A78" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="M78" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="79">
+      <c r="A79" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="M79" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="O79" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P79" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R79" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="80">
+      <c r="A80" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="M80" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="O80" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="P80" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q80" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="R80" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="81">
+      <c r="A81" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="M81" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q81" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="R81" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="82">
+      <c r="A82" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="M82" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q82" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="L77" s="18" t="n">
+      <c r="R82" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="83">
+      <c r="A83" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="M83" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="O77" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="P77" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q77" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="78">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H78" s="17" t="s">
+      <c r="N83" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="I78" s="17" t="s">
+      <c r="O83" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="P83" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="Q83" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="R83" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="84">
+      <c r="A84" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="K78" s="17" t="s">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="L78" s="18" t="n">
+      <c r="I84" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="M84" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="P84" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q84" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="R84" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="85">
+      <c r="A85" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="M85" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="N85" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="O85" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="P85" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="R85" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="86">
+      <c r="A86" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="M86" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="O86" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="P86" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q86" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="R86" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="87">
+      <c r="A87" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M87" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="O87" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="P87" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q87" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="R87" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="88">
+      <c r="A88" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="M88" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="P88" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q88" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="R88" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="89">
+      <c r="A89" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="M89" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="P89" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q89" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="R89" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="90">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="M90" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="O78" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="P78" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q78" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="79">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="L79" s="18" t="n">
+      <c r="N90" s="17"/>
+      <c r="O90" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="P90" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q90" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="R90" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="91">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="M91" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="O79" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="P79" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q79" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="80">
-      <c r="A80" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K80" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="L80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="N80" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="O80" s="22"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="R80" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="S80" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="T80" s="24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="81">
-      <c r="A81" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="J81" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K81" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="L81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="N81" s="21"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="82">
-      <c r="A82" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="J82" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K82" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="L82" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M82" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="N82" s="21"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
-      <c r="T82" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
-      <c r="A83" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="J83" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K83" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="L83" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M83" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="N83" s="21"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
-      <c r="A84" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="J84" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="N84" s="21"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
-      <c r="A85" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="0"/>
-      <c r="E85" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="I85" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="J85" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="K85" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="L85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="N85" s="21"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="86">
-      <c r="A86" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="J86" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="K86" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="L86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="N86" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="O86" s="22"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="R86" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="S86" s="24" t="s">
+      <c r="N91" s="17"/>
+      <c r="O91" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="P91" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="T86" s="24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="87">
-      <c r="A87" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H87" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="I87" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="J87" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="K87" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="L87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="N87" s="21"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="88">
-      <c r="A88" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="J88" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="K88" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="L88" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="N88" s="21"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="89">
-      <c r="A89" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H89" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="J89" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K89" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="L89" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="N89" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="O89" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="90">
-      <c r="A90" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="I90" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="J90" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="L90" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="O90" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="91">
-      <c r="A91" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H91" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="I91" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="J91" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K91" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="L91" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="N91" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="O91" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="R91" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="S91" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="T91" s="24" t="s">
-        <v>439</v>
-      </c>
+      <c r="Q91" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="R91" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>440</v>
+        <v>97</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="J92" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="J92" s="21"/>
       <c r="K92" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="L92" s="21" t="n">
+        <v>411</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="M92" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M92" s="26" t="s">
-        <v>444</v>
-      </c>
       <c r="N92" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="O92" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="P92" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q92" s="24"/>
+        <v>413</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="23"/>
       <c r="R92" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="S92" s="24"/>
-      <c r="T92" s="24"/>
+        <v>415</v>
+      </c>
+      <c r="S92" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="T92" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="U92" s="24" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="I93" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="K93" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="L93" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="M93" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="N93" s="26"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q93" s="24"/>
+        <v>408</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="M93" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="O93" s="21"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="23"/>
       <c r="R93" s="24"/>
       <c r="S93" s="24"/>
       <c r="T93" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="94">
+      <c r="U93" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="J94" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="J94" s="21"/>
       <c r="K94" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="L94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" s="21" t="s">
-        <v>460</v>
+        <v>411</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="M94" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="N94" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="O94" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="P94" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q94" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="R94" s="24" t="s">
-        <v>465</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O94" s="21"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="24"/>
       <c r="S94" s="24"/>
-      <c r="T94" s="24" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="95">
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="J95" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="J95" s="21"/>
       <c r="K95" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="L95" s="21" t="n">
+        <v>411</v>
+      </c>
+      <c r="L95" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="M95" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="M95" s="21" t="s">
-        <v>471</v>
-      </c>
       <c r="N95" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="O95" s="22"/>
-      <c r="P95" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q95" s="24"/>
+        <v>432</v>
+      </c>
+      <c r="O95" s="21"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="23"/>
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
       <c r="T95" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="96">
+      <c r="U95" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H96" s="21" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J96" s="21"/>
       <c r="K96" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="L96" s="21" t="n">
+        <v>436</v>
+      </c>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M96" s="21"/>
       <c r="N96" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="O96" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="P96" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q96" s="24" t="s">
-        <v>480</v>
-      </c>
-      <c r="R96" s="24" t="s">
-        <v>481</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O96" s="21"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="24"/>
       <c r="S96" s="24"/>
-      <c r="T96" s="24" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="97">
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>483</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C97" s="0"/>
       <c r="E97" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H97" s="21" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>366</v>
+        <v>68</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="L97" s="21" t="n">
+        <v>436</v>
+      </c>
+      <c r="L97" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="M97" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M97" s="21" t="s">
-        <v>487</v>
-      </c>
       <c r="N97" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="O97" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="P97" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q97" s="24"/>
+        <v>441</v>
+      </c>
+      <c r="O97" s="21"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="23"/>
       <c r="R97" s="24"/>
       <c r="S97" s="24"/>
       <c r="T97" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="98">
+      <c r="U97" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="J98" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="J98" s="21"/>
       <c r="K98" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="L98" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M98" s="21" t="s">
-        <v>494</v>
+        <v>445</v>
+      </c>
+      <c r="L98" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="M98" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="N98" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="O98" s="22"/>
-      <c r="P98" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q98" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="99">
+        <v>447</v>
+      </c>
+      <c r="O98" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="S98" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="T98" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="U98" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>497</v>
+        <v>173</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="J99" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="J99" s="21"/>
       <c r="K99" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="L99" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M99" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="N99" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="O99" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="P99" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q99" s="24"/>
+        <v>445</v>
+      </c>
+      <c r="L99" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="M99" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="O99" s="21"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="23"/>
       <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
-      <c r="T99" s="24" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="100">
+      <c r="S99" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="T99" s="24"/>
+      <c r="U99" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>505</v>
+        <v>312</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="J100" s="21" t="s">
-        <v>399</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="J100" s="21"/>
       <c r="K100" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="L100" s="21" t="n">
+        <v>445</v>
+      </c>
+      <c r="L100" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="M100" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M100" s="21" t="s">
-        <v>509</v>
-      </c>
       <c r="N100" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="O100" s="22"/>
-      <c r="P100" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24" t="s">
-        <v>512</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="O100" s="21"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="R100" s="24"/>
       <c r="S100" s="24"/>
       <c r="T100" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="101">
+      <c r="U100" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="I101" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="J101" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="J101" s="21"/>
       <c r="K101" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="L101" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M101" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="N101" s="21"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
+        <v>411</v>
+      </c>
+      <c r="L101" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="M101" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="O101" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="P101" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="24" t="s">
+        <v>470</v>
+      </c>
       <c r="S101" s="24"/>
       <c r="T101" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="102">
+      <c r="U101" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="J102" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="J102" s="21"/>
       <c r="K102" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="L102" s="21" t="n">
+        <v>411</v>
+      </c>
+      <c r="L102" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="M102" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="M102" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="N102" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="O102" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="P102" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q102" s="24"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="P102" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q102" s="23"/>
       <c r="R102" s="24"/>
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="103">
+      <c r="U102" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L103" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="M103" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="P103" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="S103" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="T103" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="U103" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="104">
+      <c r="A104" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L104" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="M104" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="O104" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="P104" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q104" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="105">
+      <c r="A105" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="M105" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="O105" s="26"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24"/>
+      <c r="T105" s="24"/>
+      <c r="U105" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="106">
+      <c r="A106" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="I106" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L106" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="M106" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="O106" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="P106" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q106" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="R106" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="S106" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="T106" s="24"/>
+      <c r="U106" s="24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="107">
+      <c r="A107" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="I107" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L107" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="M107" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="O107" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="108">
+      <c r="A108" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I108" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L108" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="M108" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="P108" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q108" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="R108" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="S108" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H103" s="21" t="s">
+      <c r="T108" s="24"/>
+      <c r="U108" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="I103" s="21" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="109">
+      <c r="A109" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J103" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K103" s="21" t="s">
+      <c r="E109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H109" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="L103" s="21" t="n">
+      <c r="I109" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L109" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="M109" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="O109" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="P109" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q109" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="110">
+      <c r="A110" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="I110" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L110" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="M110" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="M103" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="N103" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="O103" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="P103" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q103" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="104">
-      <c r="A104" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H104" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="I104" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="J104" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="K104" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="L104" s="21" t="n">
+      <c r="N110" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="O110" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="R110" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="S110" s="24"/>
+      <c r="T110" s="24"/>
+      <c r="U110" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="111">
+      <c r="A111" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="I111" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L111" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="M111" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="M104" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="N104" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="O104" s="22"/>
-      <c r="P104" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q104" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24" t="s">
-        <v>543</v>
+      <c r="N111" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O111" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="P111" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q111" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="112">
+      <c r="A112" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="I112" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="L112" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="M112" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="O112" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="T112" s="24"/>
+      <c r="U112" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="113">
+      <c r="A113" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H113" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="I113" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="J113" s="26"/>
+      <c r="K113" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L113" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="M113" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="O113" s="21"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="24"/>
+      <c r="U113" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="114">
+      <c r="A114" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="I114" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L114" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="M114" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="O114" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="P114" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q114" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="R114" s="24"/>
+      <c r="S114" s="24"/>
+      <c r="T114" s="24"/>
+      <c r="U114" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="115">
+      <c r="A115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L115" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="M115" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="O115" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="P115" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q115" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="R115" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="S115" s="24"/>
+      <c r="T115" s="24"/>
+      <c r="U115" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="116">
+      <c r="A116" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H116" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="I116" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="L116" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="M116" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="O116" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="R116" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="S116" s="24"/>
+      <c r="T116" s="24"/>
+      <c r="U116" s="24" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://sites.google.com/site/lincsdwgdevelopment/standards-and-use" ref="K8" r:id="rId1"/>
+    <hyperlink display="https://sites.google.com/site/lincsdwgdevelopment/standards-and-use" ref="L8" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="66" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="3" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="647">
   <si>
     <t>table</t>
   </si>
@@ -377,7 +377,7 @@
     <t>Lab Head Email</t>
   </si>
   <si>
-    <t>lab_head </t>
+    <t>lab_head</t>
   </si>
   <si>
     <t>Lab Head</t>
@@ -608,12 +608,39 @@
     <t>Center specific compound ID of the (parent structure) assigned by the center</t>
   </si>
   <si>
+    <t>facility_salt</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Facility and Salt ID</t>
+  </si>
+  <si>
+    <t>Combination of HMS Facility ID and Salt ID</t>
+  </si>
+  <si>
+    <t>facility_salt_batch</t>
+  </si>
+  <si>
     <t>smallmoleculebatch</t>
   </si>
   <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Facility-Salt-Batch ID</t>
+  </si>
+  <si>
+    <t>Combination of HMS Facility ID (SM:4 – SM_Center_Compound_ID) , Salt ID, and Batch ID (SM:5 - SM_Center_Sample_ID)</t>
+  </si>
+  <si>
     <t>facility_batch_id</t>
   </si>
   <si>
+    <t>batch</t>
+  </si>
+  <si>
     <t>SM:5</t>
   </si>
   <si>
@@ -623,9 +650,6 @@
     <t>Batch ID</t>
   </si>
   <si>
-    <t>batch</t>
-  </si>
-  <si>
     <t>Sample ID of the tested compound, referring to  of the tested sample; assigned after local registry of the compound (center specific)</t>
   </si>
   <si>
@@ -948,6 +972,15 @@
   </si>
   <si>
     <t>The actual (measured) aqueous solubility of the compound in mg / mL or g / L</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
   </si>
   <si>
     <t>logp_hydrophobicity_score</t>
@@ -2180,7 +2213,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2250,32 +2283,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:X126"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A2" activeCellId="0" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="F19" activeCellId="0" pane="bottomRight" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.7372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.7372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.7372549019608"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.6941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.521568627451"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="54.9529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.2274509803922"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.7764705882353"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.3176470588235"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.1803921568627"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.27843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.27843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.7882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.7882352941176"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.7882352941176"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.6509803921569"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="55.2235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.4509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.8470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.4274509803922"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.2823529411765"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.32549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="1">
@@ -3976,7 +4005,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>22</v>
@@ -4028,7 +4057,7 @@
         <v>22</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>22</v>
@@ -4078,7 +4107,7 @@
         <v>22</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>22</v>
@@ -4119,54 +4148,44 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="52">
-      <c r="A52" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="52">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K52" s="10" t="s">
+      <c r="L52" s="8"/>
+      <c r="M52" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="N52" s="8"/>
+      <c r="O52" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M52" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P52" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="13"/>
@@ -4175,52 +4194,44 @@
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="53">
-      <c r="A53" s="7" t="s">
-        <v>197</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="53">
+      <c r="A53" s="0"/>
       <c r="B53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="0"/>
+      <c r="D53" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="P53" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
       <c r="T53" s="13"/>
@@ -4229,26 +4240,28 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="54">
       <c r="A54" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>22</v>
@@ -4257,22 +4270,26 @@
         <v>177</v>
       </c>
       <c r="K54" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O54" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="P54" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q54" s="8"/>
+      <c r="Q54" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="13"/>
@@ -4281,12 +4298,12 @@
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="55">
       <c r="A55" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -4300,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>22</v>
@@ -4309,22 +4326,24 @@
         <v>177</v>
       </c>
       <c r="K55" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L55" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="P55" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="P55" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="13"/>
@@ -4333,9 +4352,9 @@
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="56">
       <c r="A56" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>218</v>
@@ -4352,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>22</v>
@@ -4366,26 +4385,20 @@
       <c r="L56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="8"/>
+      <c r="N56" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O56" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="P56" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q56" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="13" t="s">
-        <v>224</v>
-      </c>
+      <c r="T56" s="13"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
@@ -4393,22 +4406,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="57">
       <c r="A57" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="7"/>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>22</v>
@@ -4417,33 +4432,25 @@
         <v>177</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P57" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="S57" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>232</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="13"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
@@ -4454,19 +4461,21 @@
         <v>175</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>22</v>
@@ -4475,31 +4484,31 @@
         <v>177</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="M58" s="8"/>
+        <v>228</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="N58" s="8" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P58" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="S58" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="T58" s="13"/>
+        <v>231</v>
+      </c>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="13" t="s">
+        <v>232</v>
+      </c>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
@@ -4510,100 +4519,114 @@
         <v>175</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>177</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P59" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="13"/>
+        <v>237</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="S59" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="60">
       <c r="A60" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>177</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P60" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="13" t="s">
-        <v>249</v>
-      </c>
+      <c r="Q60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="T60" s="13"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
@@ -4614,7 +4637,7 @@
         <v>175</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -4626,7 +4649,7 @@
         <v>22</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>23</v>
@@ -4635,23 +4658,23 @@
         <v>177</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P61" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
@@ -4661,22 +4684,24 @@
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="62">
-      <c r="A62" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="62">
+      <c r="A62" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="B62" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>23</v>
@@ -4685,38 +4710,38 @@
         <v>177</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P62" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>244</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
-      <c r="T62" s="13"/>
+      <c r="T62" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4728,7 +4753,7 @@
         <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>23</v>
@@ -4744,16 +4769,16 @@
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>261</v>
       </c>
       <c r="P63" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
@@ -4763,24 +4788,22 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="64">
-      <c r="A64" s="7" t="s">
-        <v>197</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="64">
+      <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D64" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>23</v>
@@ -4789,27 +4812,27 @@
         <v>177</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P64" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
-      <c r="T64" s="13" t="s">
-        <v>249</v>
-      </c>
+      <c r="T64" s="13"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
@@ -4817,10 +4840,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
       <c r="A65" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4832,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>23</v>
@@ -4841,23 +4864,23 @@
         <v>177</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M65" s="8"/>
       <c r="N65" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P65" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
@@ -4867,12 +4890,12 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="66">
       <c r="A66" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4884,24 +4907,26 @@
         <v>22</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>177</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
+      <c r="N66" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="O66" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P66" s="11" t="n">
         <v>2</v>
@@ -4909,30 +4934,32 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
-      <c r="T66" s="12" t="s">
-        <v>273</v>
+      <c r="T66" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="67">
-      <c r="A67" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
+      <c r="A67" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="B67" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>23</v>
@@ -4941,40 +4968,38 @@
         <v>177</v>
       </c>
       <c r="K67" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P67" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
-      <c r="T67" s="13" t="s">
-        <v>279</v>
-      </c>
+      <c r="T67" s="13"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="68">
       <c r="A68" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -4986,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>281</v>
+        <v>90</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
@@ -4995,79 +5020,77 @@
         <v>177</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M68" s="8"/>
-      <c r="N68" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="N68" s="8"/>
       <c r="O68" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P68" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="8" t="s">
-        <v>262</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="13"/>
+      <c r="T68" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="69">
-      <c r="A69" s="7" t="s">
-        <v>197</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="69">
+      <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D69" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>177</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P69" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
-      <c r="T69" s="13"/>
+      <c r="T69" s="13" t="s">
+        <v>287</v>
+      </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
@@ -5075,10 +5098,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -5090,7 +5113,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
@@ -5099,23 +5122,23 @@
         <v>177</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P70" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
@@ -5125,12 +5148,12 @@
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5142,7 +5165,7 @@
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
@@ -5151,23 +5174,23 @@
         <v>177</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P71" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
@@ -5177,12 +5200,12 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5194,7 +5217,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
@@ -5203,22 +5226,24 @@
         <v>177</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P72" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="Q72" s="8"/>
+      <c r="Q72" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="13"/>
@@ -5227,12 +5252,12 @@
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5244,7 +5269,7 @@
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>22</v>
@@ -5253,23 +5278,23 @@
         <v>177</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P73" s="11" t="n">
         <v>3</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
@@ -5279,15 +5304,15 @@
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="74">
-      <c r="A74" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="74">
+      <c r="A74" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="B74" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
         <v>22</v>
       </c>
@@ -5296,7 +5321,7 @@
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>22</v>
@@ -5305,24 +5330,22 @@
         <v>177</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P74" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="Q74" s="8" t="s">
-        <v>295</v>
-      </c>
+      <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
       <c r="T74" s="13"/>
@@ -5331,373 +5354,313 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L75" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7" t="s">
+      <c r="M75" s="8"/>
+      <c r="N75" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O75" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N75" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="P75" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="13"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="77">
+      <c r="A77" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="78">
+      <c r="A78" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P79" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="80">
+      <c r="A80" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="77">
-      <c r="A77" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J77" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="K77" s="16" t="s">
+      <c r="B80" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L77" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="P77" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="R77" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="S77" s="16"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="78">
-      <c r="A78" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="K78" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="L78" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="O78" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="P78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="79">
-      <c r="A79" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="K79" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="L79" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="O79" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="P79" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="R79" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="S79" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="T79" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="U79" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="80">
-      <c r="A80" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="L80" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="O80" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="P80" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="R80" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="S80" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="T80" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="U80" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="81">
+      <c r="N80" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="7" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="L81" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="O81" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="P81" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="T81" s="17"/>
-      <c r="U81" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="82">
+        <v>23</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="82">
       <c r="A82" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C82" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
         <v>22</v>
@@ -5709,44 +5672,46 @@
         <v>22</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="M82" s="16"/>
       <c r="N82" s="16" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="P82" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16" t="s">
-        <v>357</v>
-      </c>
+      <c r="Q82" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="R82" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S82" s="16"/>
       <c r="T82" s="17"/>
       <c r="U82" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>358</v>
+        <v>184</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -5760,317 +5725,313 @@
         <v>22</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M83" s="16"/>
       <c r="N83" s="16" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="P83" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="R83" s="16"/>
-      <c r="S83" s="16" t="s">
-        <v>363</v>
-      </c>
+      <c r="S83" s="16"/>
       <c r="T83" s="17"/>
       <c r="U83" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G84" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="M84" s="16"/>
       <c r="N84" s="16" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="P84" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="R84" s="16" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="S84" s="16" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="U84" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G85" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M85" s="16"/>
       <c r="N85" s="16" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="P85" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="R85" s="16" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="S85" s="16" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="U85" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>380</v>
+        <v>213</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="7"/>
+      <c r="F86" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G86" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="M86" s="16"/>
       <c r="N86" s="16" t="s">
-        <v>329</v>
+        <v>207</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="P86" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="16"/>
-      <c r="R86" s="16" t="s">
-        <v>384</v>
-      </c>
+      <c r="R86" s="16"/>
       <c r="S86" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="T86" s="17" t="s">
-        <v>379</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="T86" s="17"/>
       <c r="U86" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="7"/>
+      <c r="F87" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G87" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="M87" s="16"/>
       <c r="N87" s="16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="P87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q87" s="16"/>
-      <c r="R87" s="16" t="s">
-        <v>390</v>
-      </c>
+      <c r="R87" s="16"/>
       <c r="S87" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="T87" s="17" t="s">
-        <v>392</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="T87" s="17"/>
       <c r="U87" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="7"/>
+      <c r="F88" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G88" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M88" s="16"/>
       <c r="N88" s="16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="P88" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="R88" s="16" t="s">
-        <v>390</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="R88" s="16"/>
       <c r="S88" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="T88" s="17" t="s">
-        <v>392</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="T88" s="17"/>
       <c r="U88" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -6082,50 +6043,50 @@
         <v>22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="M89" s="16"/>
       <c r="N89" s="16" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="P89" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="R89" s="16" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="S89" s="16" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="U89" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -6137,50 +6098,50 @@
         <v>22</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="M90" s="16"/>
       <c r="N90" s="16" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="P90" s="5" t="s">
-        <v>409</v>
+        <v>386</v>
+      </c>
+      <c r="P90" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="R90" s="16" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="S90" s="16" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="U90" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -6192,50 +6153,48 @@
         <v>22</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="M91" s="16"/>
       <c r="N91" s="16" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="P91" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Q91" s="16" t="s">
-        <v>403</v>
-      </c>
+      <c r="Q91" s="16"/>
       <c r="R91" s="16" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="S91" s="16" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="U91" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -6247,50 +6206,48 @@
         <v>22</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="M92" s="16"/>
       <c r="N92" s="16" t="s">
-        <v>329</v>
+        <v>207</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="P92" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q92" s="16" t="s">
-        <v>423</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q92" s="16"/>
       <c r="R92" s="16" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="S92" s="16" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="U92" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -6302,48 +6259,50 @@
         <v>22</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="M93" s="16"/>
       <c r="N93" s="16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="P93" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Q93" s="16"/>
+      <c r="Q93" s="16" t="s">
+        <v>408</v>
+      </c>
       <c r="R93" s="16" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="S93" s="16" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="T93" s="17" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="U93" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -6355,579 +6314,592 @@
         <v>22</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
+      <c r="N94" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="O94" s="16" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="P94" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Q94" s="16"/>
+      <c r="Q94" s="16" t="s">
+        <v>414</v>
+      </c>
       <c r="R94" s="16" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="S94" s="16" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="T94" s="17" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="U94" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="95">
-      <c r="A95" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="95">
+      <c r="A95" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="B95" s="7" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="M95" s="16"/>
       <c r="N95" s="16" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="P95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="16"/>
+        <v>419</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q95" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="R95" s="16" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="S95" s="16" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="T95" s="17" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="U95" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="96">
-      <c r="A96" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
+      <c r="A96" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="B96" s="7" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="M96" s="16"/>
       <c r="N96" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="O96" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="P96" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="R96" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S96" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="T96" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="U96" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="K97" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="O97" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="P97" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="R97" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="S97" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="T97" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="U97" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="98">
+      <c r="A98" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="K98" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O98" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="P98" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="S98" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="T98" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="O96" s="16" t="s">
+      <c r="U98" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="99">
+      <c r="A99" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="K99" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="P99" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="S99" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="P96" s="5" t="n">
+      <c r="T99" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="U99" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="100">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="O100" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="P100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="S96" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="T96" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="U96" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="97">
-      <c r="A97" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="S100" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="T100" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="U100" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="K101" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="O101" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="P101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="S101" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="T101" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="U101" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="102">
+      <c r="A102" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="7" t="s">
+      <c r="C102" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="L97" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="O97" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="P97" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="R97" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="S97" s="20"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="V97" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="W97" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="X97" s="22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="98">
-      <c r="A98" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="I102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K98" s="19" t="s">
+      <c r="K102" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="L98" s="19" t="s">
+      <c r="L102" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="M98" s="19" t="s">
+      <c r="M102" s="19"/>
+      <c r="N102" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="N98" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="O98" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="P98" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="19" t="s">
+      <c r="O102" s="19" t="s">
         <v>469</v>
-      </c>
-      <c r="R98" s="19"/>
-      <c r="S98" s="20"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="99">
-      <c r="A99" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K99" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="L99" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="O99" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="P99" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q99" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="R99" s="19"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="100">
-      <c r="A100" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K100" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="L100" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="O100" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="P100" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q100" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="R100" s="19"/>
-      <c r="S100" s="20"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="101">
-      <c r="A101" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K101" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="L101" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="R101" s="19"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="102">
-      <c r="A102" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K102" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="L102" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="M102" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N102" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="O102" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="P102" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="R102" s="19"/>
+        <v>470</v>
+      </c>
+      <c r="R102" s="19" t="s">
+        <v>471</v>
+      </c>
       <c r="S102" s="20"/>
       <c r="T102" s="21"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="103">
+      <c r="U102" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="V102" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="W102" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="X102" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F103" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G103" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="M103" s="19"/>
+        <v>478</v>
+      </c>
+      <c r="M103" s="19" t="s">
+        <v>479</v>
+      </c>
       <c r="N103" s="19" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>492</v>
+        <v>346</v>
       </c>
       <c r="P103" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q103" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="R103" s="19" t="s">
-        <v>494</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="R103" s="19"/>
       <c r="S103" s="20"/>
       <c r="T103" s="21"/>
-      <c r="U103" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="V103" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="W103" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="X103" s="22" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="104">
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F104" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G104" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="M104" s="19"/>
       <c r="N104" s="19" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="P104" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="23" t="s">
-        <v>502</v>
+        <v>2</v>
+      </c>
+      <c r="Q104" s="19" t="s">
+        <v>484</v>
       </c>
       <c r="R104" s="19"/>
       <c r="S104" s="20"/>
       <c r="T104" s="21"/>
       <c r="U104" s="22"/>
-      <c r="V104" s="22" t="s">
-        <v>503</v>
-      </c>
+      <c r="V104" s="22"/>
       <c r="W104" s="22"/>
       <c r="X104" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>22</v>
@@ -6936,107 +6908,94 @@
         <v>22</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="M105" s="19"/>
       <c r="N105" s="19" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="P105" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q105" s="19" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="R105" s="19"/>
       <c r="S105" s="20"/>
-      <c r="T105" s="21" t="s">
-        <v>508</v>
-      </c>
+      <c r="T105" s="21"/>
       <c r="U105" s="22"/>
       <c r="V105" s="22"/>
       <c r="W105" s="22"/>
       <c r="X105" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G106" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="M106" s="19"/>
       <c r="N106" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="O106" s="19" t="s">
-        <v>512</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="O106" s="19"/>
       <c r="P106" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q106" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="R106" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="S106" s="20" t="s">
-        <v>515</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="R106" s="19"/>
+      <c r="S106" s="20"/>
       <c r="T106" s="21"/>
-      <c r="U106" s="22" t="s">
-        <v>516</v>
-      </c>
+      <c r="U106" s="22"/>
       <c r="V106" s="22"/>
       <c r="W106" s="22"/>
       <c r="X106" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>517</v>
+        <v>98</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>22</v>
@@ -7048,173 +7007,159 @@
         <v>22</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="M107" s="19"/>
+        <v>496</v>
+      </c>
+      <c r="M107" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="N107" s="19" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="P107" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="S107" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="Q107" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="R107" s="19"/>
+      <c r="S107" s="20"/>
       <c r="T107" s="21"/>
       <c r="U107" s="22"/>
       <c r="V107" s="22"/>
       <c r="W107" s="22"/>
       <c r="X107" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G108" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="M108" s="19"/>
       <c r="N108" s="19" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="P108" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q108" s="19" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="R108" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="S108" s="20" t="s">
-        <v>522</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="S108" s="20"/>
       <c r="T108" s="21"/>
       <c r="U108" s="22" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="V108" s="22" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="W108" s="22" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="X108" s="22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="109">
+        <v>509</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>532</v>
+        <v>218</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G109" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="M109" s="19"/>
       <c r="N109" s="19" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="P109" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="Q109" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="R109" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="S109" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="T109" s="21" t="s">
-        <v>539</v>
-      </c>
+      <c r="Q109" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="R109" s="19"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="21"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="W109" s="22"/>
       <c r="X109" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>541</v>
+        <v>369</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>22</v>
@@ -7223,49 +7168,49 @@
         <v>22</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K110" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="L110" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="M110" s="24"/>
-      <c r="N110" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="O110" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="P110" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="R110" s="24"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="26" t="s">
-        <v>547</v>
+        <v>465</v>
+      </c>
+      <c r="K110" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="L110" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="O110" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="P110" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="R110" s="19"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="21" t="s">
+        <v>519</v>
       </c>
       <c r="U110" s="22"/>
       <c r="V110" s="22"/>
       <c r="W110" s="22"/>
       <c r="X110" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>22</v>
@@ -7277,226 +7222,231 @@
         <v>22</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="P111" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q111" s="19" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="R111" s="19" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="T111" s="21" t="s">
-        <v>555</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="T111" s="21"/>
       <c r="U111" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="V111" s="22" t="s">
-        <v>557</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="V111" s="22"/>
       <c r="W111" s="22"/>
-      <c r="X111" s="22" t="s">
-        <v>558</v>
-      </c>
+      <c r="X111" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F112" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G112" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O112" s="19" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="P112" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q112" s="19" t="s">
-        <v>563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q112" s="19"/>
       <c r="R112" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="S112" s="20"/>
-      <c r="T112" s="21" t="s">
-        <v>565</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="S112" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="T112" s="21"/>
       <c r="U112" s="22"/>
       <c r="V112" s="22"/>
       <c r="W112" s="22"/>
       <c r="X112" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F113" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G113" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="M113" s="19"/>
       <c r="N113" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O113" s="19" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="P113" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="Q113" s="19"/>
+      <c r="Q113" s="19" t="s">
+        <v>538</v>
+      </c>
       <c r="R113" s="19" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="S113" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="T113" s="21" t="s">
-        <v>571</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="T113" s="21"/>
       <c r="U113" s="22" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="V113" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="W113" s="22"/>
+        <v>540</v>
+      </c>
+      <c r="W113" s="22" t="s">
+        <v>541</v>
+      </c>
       <c r="X113" s="22" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="114">
+        <v>542</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F114" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G114" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="M114" s="19"/>
       <c r="N114" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O114" s="19" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="P114" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="Q114" s="19" t="s">
-        <v>579</v>
+      <c r="Q114" s="24" t="s">
+        <v>547</v>
       </c>
       <c r="R114" s="19" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="S114" s="20" t="s">
-        <v>392</v>
+        <v>549</v>
       </c>
       <c r="T114" s="21" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="U114" s="22"/>
-      <c r="V114" s="22"/>
+      <c r="V114" s="22" t="s">
+        <v>551</v>
+      </c>
       <c r="W114" s="22"/>
       <c r="X114" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>22</v>
@@ -7505,110 +7455,113 @@
         <v>22</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K115" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="L115" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="O115" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="P115" s="19" t="n">
+        <v>465</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="L115" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="M115" s="24"/>
+      <c r="N115" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="O115" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="P115" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="Q115" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="R115" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="S115" s="20"/>
-      <c r="T115" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="U115" s="22" t="s">
-        <v>588</v>
-      </c>
+      <c r="Q115" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="R115" s="24"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="U115" s="22"/>
       <c r="V115" s="22"/>
       <c r="W115" s="22"/>
       <c r="X115" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F116" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G116" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="M116" s="19"/>
       <c r="N116" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O116" s="19" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="P116" s="19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q116" s="19" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="R116" s="19" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="S116" s="20" t="s">
-        <v>392</v>
+        <v>565</v>
       </c>
       <c r="T116" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="U116" s="22"/>
-      <c r="V116" s="22"/>
+        <v>566</v>
+      </c>
+      <c r="U116" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="V116" s="22" t="s">
+        <v>568</v>
+      </c>
       <c r="W116" s="22"/>
       <c r="X116" s="22" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="117">
+        <v>569</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>22</v>
@@ -7617,53 +7570,51 @@
         <v>22</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="M117" s="19"/>
       <c r="N117" s="19" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="P117" s="19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q117" s="19" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="R117" s="19" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="S117" s="20"/>
       <c r="T117" s="21" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="U117" s="22"/>
-      <c r="V117" s="22" t="s">
-        <v>604</v>
-      </c>
+      <c r="V117" s="22"/>
       <c r="W117" s="22"/>
       <c r="X117" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>22</v>
@@ -7672,49 +7623,57 @@
         <v>22</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="L118" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="M118" s="24"/>
+        <v>578</v>
+      </c>
+      <c r="L118" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="M118" s="19"/>
       <c r="N118" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="P118" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q118" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="R118" s="19"/>
-      <c r="S118" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="S118" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="T118" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="U118" s="22"/>
-      <c r="V118" s="22"/>
+        <v>582</v>
+      </c>
+      <c r="U118" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="V118" s="22" t="s">
+        <v>584</v>
+      </c>
       <c r="W118" s="22"/>
-      <c r="X118" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="119">
+      <c r="X118" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
@@ -7723,53 +7682,53 @@
         <v>22</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>291</v>
+        <v>86</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O119" s="19" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="P119" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="Q119" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="R119" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="S119" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="T119" s="26" t="s">
-        <v>618</v>
+      <c r="Q119" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="R119" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="S119" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="T119" s="21" t="s">
+        <v>592</v>
       </c>
       <c r="U119" s="22"/>
       <c r="V119" s="22"/>
       <c r="W119" s="22"/>
       <c r="X119" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
@@ -7778,55 +7737,53 @@
         <v>22</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="L120" s="19" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="M120" s="19"/>
       <c r="N120" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O120" s="19" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="P120" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q120" s="19" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="R120" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="S120" s="20" t="s">
-        <v>343</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="S120" s="20"/>
       <c r="T120" s="21" t="s">
-        <v>625</v>
+        <v>519</v>
       </c>
       <c r="U120" s="22" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="V120" s="22"/>
       <c r="W120" s="22"/>
       <c r="X120" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>22</v>
@@ -7835,47 +7792,322 @@
         <v>22</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="M121" s="19"/>
       <c r="N121" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="P121" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q121" s="19" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="R121" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="S121" s="20"/>
+        <v>605</v>
+      </c>
+      <c r="S121" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="T121" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="U121" s="22" t="s">
-        <v>634</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="U121" s="22"/>
       <c r="V121" s="22"/>
       <c r="W121" s="22"/>
       <c r="X121" s="22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="122">
+      <c r="A122" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K122" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="L122" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="O122" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="P122" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="R122" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="S122" s="20"/>
+      <c r="T122" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="U122" s="22"/>
+      <c r="V122" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="123">
+      <c r="A123" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K123" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="L123" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="M123" s="24"/>
+      <c r="N123" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="O123" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="P123" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="R123" s="19"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22"/>
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="124">
+      <c r="A124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K124" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="L124" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="O124" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="P124" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="R124" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="S124" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="T124" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="U124" s="22"/>
+      <c r="V124" s="22"/>
+      <c r="W124" s="22"/>
+      <c r="X124" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="125">
+      <c r="A125" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K125" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="L125" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="O125" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="P125" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q125" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="R125" s="19" t="s">
         <v>635</v>
+      </c>
+      <c r="S125" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="T125" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="U125" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="126">
+      <c r="A126" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="L126" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="O126" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="P126" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q126" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="R126" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="S126" s="20"/>
+      <c r="T126" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="U126" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="V126" s="22"/>
+      <c r="W126" s="22"/>
+      <c r="X126" s="22" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="680">
   <si>
     <t>table</t>
   </si>
@@ -605,6 +605,9 @@
     <t>SM_Center_Compound_ID</t>
   </si>
   <si>
+    <t>Small Molecule Facility ID</t>
+  </si>
+  <si>
     <t>Center specific compound ID of the (parent structure) assigned by the center</t>
   </si>
   <si>
@@ -614,7 +617,7 @@
     <t>1003</t>
   </si>
   <si>
-    <t>Facility and Salt ID</t>
+    <t>Small Molecule Facility and Salt ID</t>
   </si>
   <si>
     <t>Combination of HMS Facility ID and Salt ID</t>
@@ -629,7 +632,7 @@
     <t>1004</t>
   </si>
   <si>
-    <t>Facility-Salt-Batch ID</t>
+    <t>Small Molecule Facility-Salt-Batch ID</t>
   </si>
   <si>
     <t>Combination of HMS Facility ID (SM:4 – SM_Center_Compound_ID) , Salt ID, and Batch ID (SM:5 - SM_Center_Sample_ID)</t>
@@ -1037,6 +1040,9 @@
     <t>PP_Name</t>
   </si>
   <si>
+    <t>Protein Name</t>
+  </si>
+  <si>
     <t>canonical protein</t>
   </si>
   <si>
@@ -1419,6 +1425,9 @@
   </si>
   <si>
     <t>CL_Name</t>
+  </si>
+  <si>
+    <t>Cell Name</t>
   </si>
   <si>
     <t>canonical cell line</t>
@@ -1961,6 +1970,96 @@
   </si>
   <si>
     <t>Patient Gender</t>
+  </si>
+  <si>
+    <t>attachedfile</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Name portion of the file path</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>relative_path</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Relative Path</t>
+  </si>
+  <si>
+    <t>Path relative to the doc root.</t>
+  </si>
+  <si>
+    <t>facility_id_for</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>Facility ID for</t>
+  </si>
+  <si>
+    <t>The Facility ID of the entity this attached file is for.</t>
+  </si>
+  <si>
+    <t>salt_id_for</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>Salt ID for</t>
+  </si>
+  <si>
+    <t>The Salt ID of the Small Molecule this attached file is for</t>
+  </si>
+  <si>
+    <t>batch_id_for</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>Batch ID for</t>
+  </si>
+  <si>
+    <t>The Batch ID of the Entity this attached file is for.</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Type designation</t>
+  </si>
+  <si>
+    <t>file_date</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>File Date</t>
+  </si>
+  <si>
+    <t>Date entered for this file</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2070,7 @@
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -2075,6 +2174,13 @@
       <color rgb="00A6A6A6"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Monospace"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2129,7 +2235,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -2205,6 +2311,12 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="14" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -2213,7 +2325,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2283,31 +2395,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X126"/>
+  <dimension ref="A1:X134"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomRight" topLeftCell="B98" xSplit="2556" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A98" activeCellId="0" pane="bottomLeft" sqref="A98"/>
+      <selection activeCell="M102" activeCellId="0" pane="bottomRight" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.7882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.7882352941176"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.7882352941176"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.6509803921569"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="55.2235294117647"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.9960784313725"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.4509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.8470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.4274509803922"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.2823529411765"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.32549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1960784313725"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.9725490196078"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.7843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="55.4941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.0666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.6705882352941"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.9176470588235"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.5333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.3882352941176"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.36862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.36862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3420,9 @@
         <v>111</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
@@ -4128,13 +4246,13 @@
         <v>195</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P51" s="11" t="n">
         <v>1</v>
@@ -4148,10 +4266,10 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
@@ -4174,15 +4292,15 @@
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P52" s="11"/>
       <c r="Q52" s="8"/>
@@ -4195,13 +4313,11 @@
       <c r="X52" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="53">
-      <c r="A53" s="0"/>
       <c r="B53" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="0"/>
+        <v>202</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>22</v>
@@ -4220,15 +4336,15 @@
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P53" s="11"/>
       <c r="Q53" s="8"/>
@@ -4242,13 +4358,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="54">
       <c r="A54" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
@@ -4270,25 +4386,25 @@
         <v>177</v>
       </c>
       <c r="K54" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N54" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="O54" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P54" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -4300,10 +4416,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="55">
       <c r="A55" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -4326,23 +4442,23 @@
         <v>177</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P55" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -4354,10 +4470,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="56">
       <c r="A56" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -4380,17 +4496,17 @@
         <v>177</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P56" s="11" t="n">
         <v>1</v>
@@ -4406,10 +4522,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="57">
       <c r="A57" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -4432,17 +4548,17 @@
         <v>177</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P57" s="11" t="n">
         <v>2</v>
@@ -4461,7 +4577,7 @@
         <v>175</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -4484,30 +4600,30 @@
         <v>177</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P58" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
@@ -4519,7 +4635,7 @@
         <v>175</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -4542,32 +4658,32 @@
         <v>177</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P59" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S59" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -4579,7 +4695,7 @@
         <v>175</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -4602,29 +4718,29 @@
         <v>177</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P60" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S60" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T60" s="13"/>
       <c r="U60" s="7"/>
@@ -4637,7 +4753,7 @@
         <v>175</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -4658,23 +4774,23 @@
         <v>177</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P61" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
@@ -4689,7 +4805,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -4710,17 +4826,17 @@
         <v>177</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P62" s="11" t="n">
         <v>2</v>
@@ -4729,7 +4845,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
@@ -4741,7 +4857,7 @@
         <v>175</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4762,23 +4878,23 @@
         <v>177</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P63" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
@@ -4791,11 +4907,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="64">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -4812,23 +4928,23 @@
         <v>177</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P64" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
@@ -4840,10 +4956,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
       <c r="A65" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4864,23 +4980,23 @@
         <v>177</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M65" s="8"/>
       <c r="N65" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P65" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
@@ -4892,10 +5008,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="66">
       <c r="A66" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4916,17 +5032,17 @@
         <v>177</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M66" s="8"/>
       <c r="N66" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P66" s="11" t="n">
         <v>2</v>
@@ -4935,7 +5051,7 @@
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
@@ -4944,10 +5060,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
       <c r="A67" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -4968,23 +5084,23 @@
         <v>177</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P67" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
@@ -4999,7 +5115,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -5020,15 +5136,15 @@
         <v>177</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P68" s="11" t="n">
         <v>2</v>
@@ -5037,7 +5153,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
@@ -5047,11 +5163,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="69">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -5068,28 +5184,28 @@
         <v>177</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
         <v>180</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P69" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -5098,10 +5214,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -5113,7 +5229,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
@@ -5122,23 +5238,23 @@
         <v>177</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P70" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
@@ -5150,10 +5266,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5165,7 +5281,7 @@
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
@@ -5174,23 +5290,23 @@
         <v>177</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P71" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
@@ -5202,10 +5318,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5217,7 +5333,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
@@ -5226,23 +5342,23 @@
         <v>177</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P72" s="11" t="n">
         <v>3</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
@@ -5254,10 +5370,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5269,7 +5385,7 @@
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>22</v>
@@ -5278,23 +5394,23 @@
         <v>177</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P73" s="11" t="n">
         <v>3</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
@@ -5306,10 +5422,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5321,7 +5437,7 @@
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>22</v>
@@ -5330,17 +5446,17 @@
         <v>177</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P74" s="11" t="n">
         <v>3</v>
@@ -5356,10 +5472,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5371,7 +5487,7 @@
         <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>22</v>
@@ -5380,23 +5496,23 @@
         <v>177</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P75" s="11" t="n">
         <v>3</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
@@ -5408,7 +5524,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>142</v>
@@ -5432,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>144</v>
@@ -5443,7 +5559,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>146</v>
@@ -5467,7 +5583,7 @@
         <v>23</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>147</v>
@@ -5478,7 +5594,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>149</v>
@@ -5502,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M78" s="7" t="s">
         <v>150</v>
@@ -5514,11 +5630,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>22</v>
@@ -5528,7 +5644,7 @@
         <v>22</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>22</v>
@@ -5537,23 +5653,23 @@
         <v>177</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P79" s="11" t="n">
         <v>3</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
@@ -5568,7 +5684,7 @@
         <v>175</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -5578,7 +5694,7 @@
         <v>23</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>23</v>
@@ -5589,13 +5705,13 @@
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N80" s="7" t="s">
         <v>180</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
@@ -5612,7 +5728,7 @@
         <v>175</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -5624,7 +5740,7 @@
         <v>23</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>23</v>
@@ -5635,11 +5751,11 @@
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N81" s="7"/>
       <c r="O81" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -5651,15 +5767,15 @@
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="82">
       <c r="A82" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
@@ -5678,29 +5794,31 @@
         <v>22</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="M82" s="16"/>
+        <v>340</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>341</v>
+      </c>
       <c r="N82" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P82" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="R82" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S82" s="16"/>
       <c r="T82" s="17"/>
@@ -5708,7 +5826,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>184</v>
@@ -5731,26 +5849,26 @@
         <v>22</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M83" s="16"/>
       <c r="N83" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P83" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="R83" s="16"/>
       <c r="S83" s="16"/>
@@ -5759,10 +5877,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -5782,44 +5900,44 @@
         <v>22</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M84" s="16"/>
       <c r="N84" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P84" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="R84" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S84" s="16" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U84" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5839,44 +5957,44 @@
         <v>22</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M85" s="16"/>
       <c r="N85" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P85" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="R85" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S85" s="16" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U85" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5896,20 +6014,20 @@
         <v>22</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M86" s="16"/>
       <c r="N86" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P86" s="5" t="n">
         <v>1</v>
@@ -5917,17 +6035,17 @@
       <c r="Q86" s="16"/>
       <c r="R86" s="16"/>
       <c r="S86" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T86" s="17"/>
       <c r="U86" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -5947,20 +6065,20 @@
         <v>22</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M87" s="16"/>
       <c r="N87" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P87" s="5" t="n">
         <v>1</v>
@@ -5968,17 +6086,17 @@
       <c r="Q87" s="16"/>
       <c r="R87" s="16"/>
       <c r="S87" s="16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T87" s="17"/>
       <c r="U87" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -5998,40 +6116,40 @@
         <v>22</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M88" s="16"/>
       <c r="N88" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R88" s="16"/>
       <c r="S88" s="16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="T88" s="17"/>
       <c r="U88" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -6049,44 +6167,44 @@
         <v>22</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M89" s="16"/>
       <c r="N89" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P89" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="R89" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S89" s="16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="T89" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="U89" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -6104,44 +6222,44 @@
         <v>22</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M90" s="16"/>
       <c r="N90" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P90" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R90" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="S90" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T90" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U90" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -6159,42 +6277,42 @@
         <v>22</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M91" s="16"/>
       <c r="N91" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P91" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q91" s="16"/>
       <c r="R91" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="S91" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="T91" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U91" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -6212,42 +6330,42 @@
         <v>22</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M92" s="16"/>
       <c r="N92" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P92" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q92" s="16"/>
       <c r="R92" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S92" s="16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="T92" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="U92" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -6265,44 +6383,44 @@
         <v>22</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M93" s="16"/>
       <c r="N93" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P93" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R93" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S93" s="16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T93" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="U93" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -6320,44 +6438,44 @@
         <v>22</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M94" s="16"/>
       <c r="N94" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P94" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="R94" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S94" s="16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T94" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="U94" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -6375,44 +6493,44 @@
         <v>22</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K95" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M95" s="16"/>
       <c r="N95" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q95" s="16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R95" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S95" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T95" s="17" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U95" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -6430,44 +6548,44 @@
         <v>22</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M96" s="16"/>
       <c r="N96" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P96" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="R96" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="S96" s="16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T96" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U96" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="97">
       <c r="A97" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -6485,44 +6603,44 @@
         <v>22</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M97" s="16"/>
       <c r="N97" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q97" s="16" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="R97" s="16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="S97" s="16" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T97" s="17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="U97" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6540,42 +6658,42 @@
         <v>22</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M98" s="16"/>
       <c r="N98" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q98" s="16"/>
       <c r="R98" s="16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="S98" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T98" s="17" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="U98" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6593,42 +6711,42 @@
         <v>22</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
       <c r="O99" s="16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P99" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q99" s="16"/>
       <c r="R99" s="16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="S99" s="16" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="T99" s="17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="U99" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="100">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -6642,44 +6760,44 @@
         <v>22</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L100" s="16" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M100" s="16"/>
       <c r="N100" s="16" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O100" s="16" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q100" s="16"/>
       <c r="R100" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S100" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="U100" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -6693,45 +6811,45 @@
         <v>22</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L101" s="16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M101" s="16"/>
       <c r="N101" s="16" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O101" s="16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P101" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q101" s="16"/>
       <c r="R101" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="S101" s="16" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T101" s="18" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="U101" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>22</v>
@@ -6749,51 +6867,53 @@
         <v>22</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="M102" s="19"/>
+        <v>469</v>
+      </c>
+      <c r="M102" s="19" t="s">
+        <v>470</v>
+      </c>
       <c r="N102" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P102" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="R102" s="19" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="S102" s="20"/>
       <c r="T102" s="21"/>
       <c r="U102" s="22" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="V102" s="22" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="W102" s="22" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="X102" s="22" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>22</v>
@@ -6811,28 +6931,28 @@
         <v>22</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P103" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q103" s="19" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="R103" s="19"/>
       <c r="S103" s="20"/>
@@ -6844,10 +6964,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>22</v>
@@ -6865,26 +6985,26 @@
         <v>22</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M104" s="19"/>
       <c r="N104" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P104" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q104" s="19" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="R104" s="19"/>
       <c r="S104" s="20"/>
@@ -6896,10 +7016,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>22</v>
@@ -6914,26 +7034,26 @@
         <v>22</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M105" s="19"/>
       <c r="N105" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P105" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q105" s="19" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="R105" s="19"/>
       <c r="S105" s="20"/>
@@ -6945,10 +7065,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>22</v>
@@ -6963,24 +7083,24 @@
         <v>22</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M106" s="19"/>
       <c r="N106" s="19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="O106" s="19"/>
       <c r="P106" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q106" s="19" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="R106" s="19"/>
       <c r="S106" s="20"/>
@@ -6992,7 +7112,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>98</v>
@@ -7013,28 +7133,28 @@
         <v>22</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L107" s="19" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M107" s="19" t="s">
         <v>99</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P107" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q107" s="19" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="R107" s="19"/>
       <c r="S107" s="20"/>
@@ -7046,10 +7166,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>22</v>
@@ -7064,51 +7184,51 @@
         <v>22</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L108" s="19" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M108" s="19"/>
       <c r="N108" s="19" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P108" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q108" s="19" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="R108" s="19" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="S108" s="20"/>
       <c r="T108" s="21"/>
       <c r="U108" s="22" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="V108" s="22" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="W108" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="X108" s="22" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>22</v>
@@ -7123,43 +7243,43 @@
         <v>22</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L109" s="19" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M109" s="19"/>
       <c r="N109" s="19" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P109" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q109" s="23" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="R109" s="19"/>
       <c r="S109" s="20"/>
       <c r="T109" s="21"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="W109" s="22"/>
       <c r="X109" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>22</v>
@@ -7174,31 +7294,31 @@
         <v>22</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L110" s="19" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M110" s="19"/>
       <c r="N110" s="19" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="O110" s="19" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P110" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q110" s="19" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="R110" s="19"/>
       <c r="S110" s="20"/>
       <c r="T110" s="21" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="U110" s="22"/>
       <c r="V110" s="22"/>
@@ -7207,10 +7327,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>22</v>
@@ -7228,36 +7348,36 @@
         <v>22</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P111" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q111" s="19" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="R111" s="19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="T111" s="21"/>
       <c r="U111" s="22" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="V111" s="22"/>
       <c r="W111" s="22"/>
@@ -7265,10 +7385,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>22</v>
@@ -7286,30 +7406,30 @@
         <v>22</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O112" s="19" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P112" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q112" s="19"/>
       <c r="R112" s="19" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="S112" s="20" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="T112" s="21"/>
       <c r="U112" s="22"/>
@@ -7319,10 +7439,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>22</v>
@@ -7340,53 +7460,53 @@
         <v>22</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="M113" s="19"/>
       <c r="N113" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O113" s="19" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="P113" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q113" s="19" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="R113" s="19" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="S113" s="20" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="T113" s="21"/>
       <c r="U113" s="22" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="V113" s="22" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="W113" s="22" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="X113" s="22" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>22</v>
@@ -7404,49 +7524,49 @@
         <v>22</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L114" s="19" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M114" s="19"/>
       <c r="N114" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O114" s="19" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P114" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q114" s="24" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="R114" s="19" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="S114" s="20" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="T114" s="21" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="U114" s="22"/>
       <c r="V114" s="22" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="W114" s="22"/>
       <c r="X114" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>22</v>
@@ -7461,31 +7581,31 @@
         <v>22</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L115" s="24" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M115" s="24"/>
       <c r="N115" s="24" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O115" s="24" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P115" s="24" t="n">
         <v>2</v>
       </c>
       <c r="Q115" s="24" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="R115" s="24"/>
       <c r="S115" s="25"/>
       <c r="T115" s="26" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="U115" s="22"/>
       <c r="V115" s="22"/>
@@ -7494,10 +7614,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
@@ -7515,53 +7635,53 @@
         <v>22</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L116" s="19" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M116" s="19"/>
       <c r="N116" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O116" s="19" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="P116" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q116" s="19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="R116" s="19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="S116" s="20" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="T116" s="21" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="V116" s="22" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="W116" s="22"/>
       <c r="X116" s="22" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>22</v>
@@ -7576,33 +7696,33 @@
         <v>22</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M117" s="19"/>
       <c r="N117" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="P117" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q117" s="19" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="R117" s="19" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="S117" s="20"/>
       <c r="T117" s="21" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="U117" s="22"/>
       <c r="V117" s="22"/>
@@ -7611,10 +7731,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>22</v>
@@ -7629,51 +7749,51 @@
         <v>22</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L118" s="19" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M118" s="19"/>
       <c r="N118" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="P118" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q118" s="19"/>
       <c r="R118" s="19" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="S118" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T118" s="21" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="U118" s="22" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="V118" s="22" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="W118" s="22"/>
       <c r="X118" s="22" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
@@ -7688,35 +7808,35 @@
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L119" s="19" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O119" s="19" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P119" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q119" s="19" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="R119" s="19" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="S119" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T119" s="21" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="U119" s="22"/>
       <c r="V119" s="22"/>
@@ -7725,10 +7845,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
@@ -7743,36 +7863,36 @@
         <v>22</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L120" s="19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M120" s="19"/>
       <c r="N120" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O120" s="19" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P120" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q120" s="19" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="R120" s="19" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="S120" s="20"/>
       <c r="T120" s="21" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="U120" s="22" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="V120" s="22"/>
       <c r="W120" s="22"/>
@@ -7780,10 +7900,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>22</v>
@@ -7798,49 +7918,49 @@
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M121" s="19"/>
       <c r="N121" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P121" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q121" s="19" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="R121" s="19" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="S121" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T121" s="21" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="U121" s="22"/>
       <c r="V121" s="22"/>
       <c r="W121" s="22"/>
       <c r="X121" s="22" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -7849,53 +7969,53 @@
         <v>22</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K122" s="19" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M122" s="19"/>
       <c r="N122" s="19" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="O122" s="19" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P122" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q122" s="19" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="R122" s="19" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="S122" s="20"/>
       <c r="T122" s="21" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="U122" s="22"/>
       <c r="V122" s="22" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="W122" s="22"/>
       <c r="X122" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -7904,37 +8024,37 @@
         <v>22</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="L123" s="24" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M123" s="24"/>
       <c r="N123" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O123" s="19" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="P123" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q123" s="19" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="R123" s="19"/>
       <c r="S123" s="20"/>
       <c r="T123" s="21" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="U123" s="22"/>
       <c r="V123" s="22"/>
@@ -7943,10 +8063,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
@@ -7955,41 +8075,41 @@
         <v>22</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="L124" s="19" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M124" s="19"/>
       <c r="N124" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O124" s="19" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="P124" s="19" t="n">
         <v>1</v>
       </c>
       <c r="Q124" s="24" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="R124" s="24" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="S124" s="24" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="T124" s="26" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="U124" s="22"/>
       <c r="V124" s="22"/>
@@ -7998,10 +8118,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
@@ -8010,44 +8130,44 @@
         <v>22</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L125" s="19" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M125" s="19"/>
       <c r="N125" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O125" s="19" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P125" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q125" s="19" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="R125" s="19" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="S125" s="20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="T125" s="21" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="U125" s="22" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="V125" s="22"/>
       <c r="W125" s="22"/>
@@ -8055,10 +8175,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
@@ -8067,47 +8187,291 @@
         <v>22</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O126" s="19" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="P126" s="19" t="n">
         <v>2</v>
       </c>
       <c r="Q126" s="19" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="R126" s="19" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="S126" s="20"/>
       <c r="T126" s="21" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="U126" s="22" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="V126" s="22"/>
       <c r="W126" s="22"/>
       <c r="X126" s="22" t="s">
-        <v>646</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="127">
+      <c r="A127" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
+      <c r="A128" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="129">
+      <c r="A129" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M129" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="130">
+      <c r="A130" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M130" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="131">
+      <c r="A131" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="M131" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="132">
+      <c r="A132" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="M132" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="M133" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="134">
+      <c r="A134" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M134" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="683">
   <si>
     <t>table</t>
   </si>
@@ -506,6 +506,15 @@
     <t>The library well</t>
   </si>
   <si>
+    <t>is_control</t>
+  </si>
+  <si>
+    <t>Is Control Well</t>
+  </si>
+  <si>
+    <t>This well is a control well (positive or negative, depending on experimental usage)</t>
+  </si>
+  <si>
     <t>concentration</t>
   </si>
   <si>
@@ -540,6 +549,96 @@
   </si>
   <si>
     <t>Number of plates in this library</t>
+  </si>
+  <si>
+    <t>attachedfile</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Name portion of the file path</t>
+  </si>
+  <si>
+    <t>relative_path</t>
+  </si>
+  <si>
+    <t>Relative Path</t>
+  </si>
+  <si>
+    <t>Path relative to the doc root.</t>
+  </si>
+  <si>
+    <t>facility_id_for</t>
+  </si>
+  <si>
+    <t>Facility ID for</t>
+  </si>
+  <si>
+    <t>The Facility ID of the entity this attached file is for.</t>
+  </si>
+  <si>
+    <t>salt_id_for</t>
+  </si>
+  <si>
+    <t>Salt ID for</t>
+  </si>
+  <si>
+    <t>The Salt ID of the Small Molecule this attached file is for</t>
+  </si>
+  <si>
+    <t>batch_id_for</t>
+  </si>
+  <si>
+    <t>Batch ID for</t>
+  </si>
+  <si>
+    <t>The Batch ID of the Entity this attached file is for.</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Type designation</t>
+  </si>
+  <si>
+    <t>file_date</t>
+  </si>
+  <si>
+    <t>File Date</t>
+  </si>
+  <si>
+    <t>Date entered for this file</t>
+  </si>
+  <si>
+    <t>datarecord</t>
+  </si>
+  <si>
+    <t>Recorded Plate</t>
+  </si>
+  <si>
+    <t>The Plate that was recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>Recorded Well</t>
+  </si>
+  <si>
+    <t>The Well that was recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>control_type</t>
+  </si>
+  <si>
+    <t>Control Type</t>
+  </si>
+  <si>
+    <t>The type of Control Well recorded for this Datarecord</t>
   </si>
   <si>
     <t>smallmolecule</t>
@@ -1970,96 +2069,6 @@
   </si>
   <si>
     <t>Patient Gender</t>
-  </si>
-  <si>
-    <t>attachedfile</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Name portion of the file path</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>relative_path</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Relative Path</t>
-  </si>
-  <si>
-    <t>Path relative to the doc root.</t>
-  </si>
-  <si>
-    <t>facility_id_for</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>Facility ID for</t>
-  </si>
-  <si>
-    <t>The Facility ID of the entity this attached file is for.</t>
-  </si>
-  <si>
-    <t>salt_id_for</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>Salt ID for</t>
-  </si>
-  <si>
-    <t>The Salt ID of the Small Molecule this attached file is for</t>
-  </si>
-  <si>
-    <t>batch_id_for</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>Batch ID for</t>
-  </si>
-  <si>
-    <t>The Batch ID of the Entity this attached file is for.</t>
-  </si>
-  <si>
-    <t>file_type</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>File Type</t>
-  </si>
-  <si>
-    <t>Type designation</t>
-  </si>
-  <si>
-    <t>file_date</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>File Date</t>
-  </si>
-  <si>
-    <t>Date entered for this file</t>
   </si>
 </sst>
 </file>
@@ -2120,6 +2129,13 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="Monospace"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
@@ -2173,13 +2189,6 @@
       <family val="2"/>
       <color rgb="00A6A6A6"/>
       <sz val="9"/>
-    </font>
-    <font>
-      <name val="Monospace"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2259,22 +2268,28 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="20">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="165" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
@@ -2287,9 +2302,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="20">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="165" xfId="20">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
@@ -2299,11 +2311,11 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="15" numFmtId="165" xfId="20">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="16" numFmtId="165" xfId="20">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="20">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
@@ -2311,11 +2323,8 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="14" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="15" numFmtId="165" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2395,14 +2404,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X134"/>
+  <dimension ref="A1:X138"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="B98" xSplit="2556" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="C34" xSplit="2556" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
-      <selection activeCell="A98" activeCellId="0" pane="bottomLeft" sqref="A98"/>
-      <selection activeCell="M102" activeCellId="0" pane="bottomRight" sqref="M102"/>
+      <selection activeCell="C1" activeCellId="0" pane="topRight" sqref="C1"/>
+      <selection activeCell="A34" activeCellId="0" pane="bottomLeft" sqref="A34"/>
+      <selection activeCell="C60" activeCellId="0" pane="bottomRight" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -3923,7 +3932,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3987,7 +3996,9 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="46">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>169</v>
       </c>
@@ -4046,859 +4057,591 @@
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="48">
-      <c r="A48" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="48">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="E48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="O48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="49">
+      <c r="A49" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K48" s="10" t="s">
+      <c r="I49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="50">
+      <c r="A50" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="P48" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="8" t="s">
+      <c r="B50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="51">
+      <c r="A51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="R48" s="8" t="s">
+      <c r="E51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="M51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="S48" s="8"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="49">
-      <c r="A49" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="O51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="7" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="52">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
+      <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
+      <c r="A54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
+      <c r="A55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
+      <c r="A56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
+      <c r="A57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
+      <c r="A58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
+      <c r="A59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P49" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="50">
-      <c r="A50" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="P50" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S50" s="8"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="51">
-      <c r="A51" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="P51" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="52">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="53">
-      <c r="B53" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8" t="s">
+      <c r="I59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="54">
-      <c r="A54" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="O59" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="P54" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="55">
-      <c r="A55" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="P55" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="56">
-      <c r="A56" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P56" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="57">
-      <c r="A57" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="P57" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="58">
-      <c r="A58" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P58" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="59">
-      <c r="A59" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="P59" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="S59" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="60">
       <c r="A60" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>243</v>
+      <c r="J60" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P60" s="11" t="n">
-        <v>2</v>
+        <v>214</v>
+      </c>
+      <c r="P60" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="S60" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="T60" s="13"/>
+        <v>216</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="14"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="61">
       <c r="A61" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G61" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>250</v>
+        <v>22</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="P61" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>253</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="P61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
-      <c r="T61" s="13"/>
+      <c r="T61" s="15"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="62">
       <c r="A62" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G62" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>255</v>
+        <v>22</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="P62" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+        <v>224</v>
+      </c>
+      <c r="P62" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="S62" s="8"/>
-      <c r="T62" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="T62" s="15"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>260</v>
+        <v>22</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="M63" s="8"/>
+        <v>228</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="N63" s="8" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="P63" s="11" t="n">
+        <v>230</v>
+      </c>
+      <c r="P63" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" s="8" t="s">
-        <v>253</v>
-      </c>
+      <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
-      <c r="T63" s="13"/>
+      <c r="T63" s="15"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
@@ -4907,358 +4650,362 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="64">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G64" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8" t="s">
-        <v>180</v>
-      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N64" s="8"/>
       <c r="O64" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="P64" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="8" t="s">
-        <v>253</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
-      <c r="T64" s="13"/>
+      <c r="T64" s="15"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
-      <c r="A65" s="7" t="s">
-        <v>203</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="65">
       <c r="B65" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G65" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8" t="s">
-        <v>208</v>
-      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N65" s="8"/>
       <c r="O65" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="P65" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="8" t="s">
-        <v>271</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
-      <c r="T65" s="13"/>
+      <c r="T65" s="15"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="66">
       <c r="A66" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>272</v>
+        <v>22</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="M66" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="N66" s="8" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="P66" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q66" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="P66" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
-      <c r="T66" s="13" t="s">
-        <v>258</v>
-      </c>
+      <c r="T66" s="15"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="67">
       <c r="A67" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>275</v>
+        <v>22</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P67" s="11" t="n">
+        <v>250</v>
+      </c>
+      <c r="P67" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
-      <c r="T67" s="13"/>
+      <c r="T67" s="15"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="68">
       <c r="A68" s="7" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>279</v>
+      <c r="J68" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
+      <c r="N68" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="O68" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="P68" s="11" t="n">
-        <v>2</v>
+        <v>255</v>
+      </c>
+      <c r="P68" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="12" t="s">
-        <v>282</v>
-      </c>
+      <c r="T68" s="15"/>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="69">
-      <c r="A69" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="69">
+      <c r="A69" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="B69" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>284</v>
+        <v>22</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="P69" s="11" t="n">
+        <v>259</v>
+      </c>
+      <c r="P69" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q69" s="8" t="s">
-        <v>287</v>
-      </c>
+      <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
-      <c r="T69" s="13" t="s">
-        <v>288</v>
-      </c>
+      <c r="T69" s="15"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G70" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>291</v>
+      <c r="J70" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="M70" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="N70" s="8" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P70" s="11" t="n">
+        <v>264</v>
+      </c>
+      <c r="P70" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
-      <c r="T70" s="13"/>
+      <c r="T70" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
@@ -5266,114 +5013,128 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G71" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>296</v>
+      <c r="J71" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="P71" s="11" t="n">
-        <v>2</v>
+        <v>270</v>
+      </c>
+      <c r="P71" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="Q71" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="13"/>
+      <c r="R71" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="S71" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G72" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>301</v>
+      <c r="J72" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="P72" s="11" t="n">
-        <v>3</v>
+        <v>278</v>
+      </c>
+      <c r="P72" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="13"/>
+        <v>279</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="T72" s="15"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5385,47 +5146,47 @@
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>307</v>
+        <v>23</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="P73" s="11" t="n">
-        <v>3</v>
+        <v>285</v>
+      </c>
+      <c r="P73" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
-      <c r="T73" s="13"/>
+      <c r="T73" s="15"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5437,45 +5198,47 @@
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>312</v>
+        <v>23</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="P74" s="11" t="n">
-        <v>3</v>
+        <v>290</v>
+      </c>
+      <c r="P74" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
-      <c r="T74" s="13"/>
+      <c r="T74" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5487,155 +5250,204 @@
         <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>317</v>
+        <v>23</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="P75" s="11" t="n">
-        <v>3</v>
+        <v>295</v>
+      </c>
+      <c r="P75" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="13"/>
+      <c r="T75" s="15"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="76">
-      <c r="A76" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="76">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="77">
+      <c r="J76" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="P76" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="M77" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="78">
+      <c r="J77" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P77" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="J78" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="P78" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
-      <c r="A79" s="7"/>
+      <c r="A79" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="B79" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="C79" s="7"/>
-      <c r="D79" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
         <v>22</v>
       </c>
@@ -5644,625 +5456,567 @@
         <v>22</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>325</v>
+        <v>23</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="P79" s="11" t="n">
-        <v>3</v>
+        <v>310</v>
+      </c>
+      <c r="P79" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="Q79" s="8" t="s">
         <v>304</v>
       </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="13"/>
+      <c r="T79" s="15"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="80">
       <c r="A80" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="O80" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="P80" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="14" t="s">
+        <v>315</v>
+      </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
-      <c r="A81" s="7" t="s">
-        <v>175</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="81">
+      <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D81" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>333</v>
+        <v>94</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
+      <c r="J81" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="P81" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="82">
       <c r="A82" s="7" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>337</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="L82" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="M82" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="N82" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O82" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="P82" s="5" t="n">
+      <c r="J82" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P82" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q82" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="R82" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="S82" s="16"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="83">
+      <c r="Q82" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J83" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="L83" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O83" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="P83" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="84">
+      <c r="J83" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="P83" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J84" s="15" t="s">
+      <c r="J84" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="P84" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="85">
+      <c r="A85" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K84" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="L84" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O84" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="P84" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="R84" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="S84" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="T84" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="U84" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="85">
-      <c r="A85" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K85" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="L85" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16" t="s">
+      <c r="J85" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O85" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="O85" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="P85" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="R85" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="S85" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="T85" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="U85" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="86">
+      <c r="P85" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>39</v>
+        <v>344</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K86" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="L86" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O86" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="P86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="T86" s="17"/>
-      <c r="U86" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="87">
+      <c r="J86" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="P86" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J87" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K87" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="L87" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O87" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="P87" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="T87" s="17"/>
-      <c r="U87" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="88">
+      <c r="J87" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="P87" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K88" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="L88" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O88" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="P88" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="T88" s="17"/>
-      <c r="U88" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="89">
+        <v>23</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G89" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K89" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="L89" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O89" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="P89" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="R89" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="S89" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="T89" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="U89" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="90">
+        <v>23</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G90" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K90" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="L90" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O90" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P90" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q90" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R90" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="S90" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="T90" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="U90" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="91">
-      <c r="A91" s="7" t="s">
-        <v>336</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="91">
+      <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="E91" s="7" t="s">
         <v>22</v>
       </c>
@@ -6271,101 +6025,91 @@
         <v>22</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J91" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K91" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="L91" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O91" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="P91" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="S91" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="T91" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="U91" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="92">
+      <c r="J91" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="P91" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>61</v>
+        <v>362</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K92" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="L92" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="11"/>
+      <c r="K92" s="7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+      <c r="A93" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="O92" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="P92" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="S92" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="T92" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="U92" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="93">
-      <c r="A93" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="B93" s="7" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -6374,2104 +6118,2497 @@
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>65</v>
+        <v>366</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J93" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K93" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="L93" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O93" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="P93" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q93" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="R93" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="S93" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="T93" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="U93" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="94">
+        <v>23</v>
+      </c>
+      <c r="J93" s="11"/>
+      <c r="K93" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C94" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G94" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J94" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K94" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="L94" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O94" s="16" t="s">
-        <v>415</v>
+      <c r="J94" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="L94" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="M94" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O94" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="P94" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q94" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="R94" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="S94" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="T94" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="U94" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="95">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="R94" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="S94" s="18"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>418</v>
+        <v>217</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G95" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K95" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="L95" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O95" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="P95" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q95" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="R95" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="S95" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="T95" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="U95" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
+      <c r="J95" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O95" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="P95" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F96" s="7"/>
+      <c r="F96" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G96" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J96" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K96" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="L96" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O96" s="16" t="s">
-        <v>430</v>
+      <c r="J96" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O96" s="18" t="s">
+        <v>386</v>
       </c>
       <c r="P96" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q96" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="R96" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="S96" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="T96" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="U96" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="97">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="R96" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="S96" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="T96" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="U96" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="97">
       <c r="A97" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F97" s="7"/>
+      <c r="F97" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G97" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J97" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K97" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="L97" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O97" s="16" t="s">
-        <v>435</v>
+      <c r="J97" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O97" s="18" t="s">
+        <v>393</v>
       </c>
       <c r="P97" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q97" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="R97" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="S97" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="T97" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="U97" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="98">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="R97" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="S97" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="T97" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="U97" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F98" s="7"/>
+      <c r="F98" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G98" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J98" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K98" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="L98" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="O98" s="16" t="s">
-        <v>443</v>
+      <c r="J98" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K98" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="L98" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O98" s="18" t="s">
+        <v>398</v>
       </c>
       <c r="P98" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="S98" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="T98" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="U98" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="T98" s="19"/>
+      <c r="U98" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>447</v>
+        <v>252</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="7"/>
+      <c r="F99" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G99" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J99" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K99" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="L99" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16" t="s">
-        <v>450</v>
+      <c r="J99" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="L99" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O99" s="18" t="s">
+        <v>402</v>
       </c>
       <c r="P99" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="S99" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="T99" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="U99" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="100">
-      <c r="A100" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="T99" s="19"/>
+      <c r="U99" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="100">
+      <c r="A100" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="B100" s="7" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="C100" s="7"/>
-      <c r="D100" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G100" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J100" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K100" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="L100" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="O100" s="16" t="s">
-        <v>458</v>
+      <c r="J100" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="L100" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O100" s="18" t="s">
+        <v>407</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="S100" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="T100" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="U100" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
-      <c r="A101" s="7"/>
+      <c r="Q100" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="T100" s="19"/>
+      <c r="U100" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="101">
+      <c r="A101" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="B101" s="7" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="C101" s="7"/>
-      <c r="D101" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H101" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="L101" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O101" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="P101" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="R101" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="S101" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="T101" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="U101" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="102">
+      <c r="A102" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K102" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L102" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O102" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="P102" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="R102" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="S102" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="T102" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="U102" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="103">
+      <c r="A103" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="L103" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O103" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="P103" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="S103" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="T103" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="U103" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="104">
+      <c r="A104" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O104" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="P104" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="S104" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="T104" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="U104" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="105">
+      <c r="A105" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O105" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="P105" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="R105" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="S105" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="T105" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="U105" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="106">
+      <c r="A106" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O106" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="P106" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="R106" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="S106" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="T106" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="U106" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="107">
+      <c r="A107" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K107" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="L107" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O107" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q107" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="R107" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="S107" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="T107" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="U107" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="108">
+      <c r="A108" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="L108" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O108" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="P108" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="R108" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="S108" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="T108" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="U108" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="109">
+      <c r="A109" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="L109" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="O109" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="P109" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="R109" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="S109" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="T109" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="U109" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="110">
+      <c r="A110" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="L110" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O110" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="P110" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="S110" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="T110" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="U110" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="111">
+      <c r="A111" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="P111" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="S111" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="T111" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="U111" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="112">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K101" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="L101" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="O101" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="P101" s="5" t="n">
+      <c r="I112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="O112" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="P112" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="S101" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="T101" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="U101" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="102">
-      <c r="A102" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="S112" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="T112" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="U112" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="O113" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="P113" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="S113" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="T113" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="U113" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="114">
+      <c r="A114" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="7" t="s">
+      <c r="C114" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K102" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="L102" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="M102" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="N102" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O102" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="P102" s="19" t="n">
+      <c r="I114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K114" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="L114" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="M114" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="N114" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O114" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="P114" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q102" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="R102" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="S102" s="20"/>
-      <c r="T102" s="21"/>
-      <c r="U102" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="V102" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="W102" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="X102" s="22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="103">
-      <c r="A103" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K103" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="L103" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="M103" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="N103" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O103" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="P103" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="R103" s="19"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="104">
-      <c r="A104" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K104" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="L104" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O104" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="P104" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q104" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="R104" s="19"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="22"/>
-      <c r="V104" s="22"/>
-      <c r="W104" s="22"/>
-      <c r="X104" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="105">
-      <c r="A105" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K105" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="L105" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O105" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="P105" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q105" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="R105" s="19"/>
-      <c r="S105" s="20"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="106">
-      <c r="A106" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="L106" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="R106" s="19"/>
-      <c r="S106" s="20"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="107">
-      <c r="A107" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K107" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="L107" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="M107" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N107" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="O107" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="P107" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="R107" s="19"/>
-      <c r="S107" s="20"/>
-      <c r="T107" s="21"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="108">
-      <c r="A108" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K108" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="L108" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="O108" s="19" t="s">
+      <c r="Q114" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="P108" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="19" t="s">
+      <c r="R114" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="R108" s="19" t="s">
+      <c r="S114" s="22"/>
+      <c r="T114" s="23"/>
+      <c r="U114" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="S108" s="20"/>
-      <c r="T108" s="21"/>
-      <c r="U108" s="22" t="s">
+      <c r="V114" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="V108" s="22" t="s">
+      <c r="W114" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="W108" s="22" t="s">
+      <c r="X114" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="X108" s="22" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="109">
-      <c r="A109" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K109" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="O109" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="P109" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="R109" s="19"/>
-      <c r="S109" s="20"/>
-      <c r="T109" s="21"/>
-      <c r="U109" s="22"/>
-      <c r="V109" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="110">
-      <c r="A110" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K110" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="L110" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="O110" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="P110" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="R110" s="19"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="111">
-      <c r="A111" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K111" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="L111" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O111" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="P111" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="R111" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="S111" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="T111" s="21"/>
-      <c r="U111" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="112">
-      <c r="A112" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K112" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="L112" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O112" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="P112" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="S112" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="T112" s="21"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="113">
-      <c r="A113" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K113" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="L113" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O113" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="P113" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="R113" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="S113" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="T113" s="21"/>
-      <c r="U113" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="V113" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="W113" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="X113" s="22" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="114">
-      <c r="A114" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K114" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="L114" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O114" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="P114" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="R114" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="S114" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="T114" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="U114" s="22"/>
-      <c r="V114" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="W114" s="22"/>
-      <c r="X114" s="22"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K115" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="L115" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="M115" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="N115" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O115" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="P115" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="R115" s="21"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="23"/>
+      <c r="U115" s="24"/>
+      <c r="V115" s="24"/>
+      <c r="W115" s="24"/>
+      <c r="X115" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="116">
+      <c r="A116" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K116" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="L116" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O116" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="P116" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q116" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="R116" s="21"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="23"/>
+      <c r="U116" s="24"/>
+      <c r="V116" s="24"/>
+      <c r="W116" s="24"/>
+      <c r="X116" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="117">
+      <c r="A117" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K117" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="L117" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O117" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="P117" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q117" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="R117" s="21"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="23"/>
+      <c r="U117" s="24"/>
+      <c r="V117" s="24"/>
+      <c r="W117" s="24"/>
+      <c r="X117" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
+      <c r="A118" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K118" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="L118" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="R118" s="21"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="24"/>
+      <c r="W118" s="24"/>
+      <c r="X118" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
+      <c r="A119" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K119" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="L119" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="M119" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="N119" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="O119" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="P119" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="R119" s="21"/>
+      <c r="S119" s="22"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="24"/>
+      <c r="V119" s="24"/>
+      <c r="W119" s="24"/>
+      <c r="X119" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="120">
+      <c r="A120" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K120" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="O120" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="P120" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="R120" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="S120" s="22"/>
+      <c r="T120" s="23"/>
+      <c r="U120" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="V120" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="W120" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="X120" s="24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="121">
+      <c r="A121" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K121" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="L121" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="O121" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="P121" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="R121" s="21"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="23"/>
+      <c r="U121" s="24"/>
+      <c r="V121" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="W121" s="24"/>
+      <c r="X121" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="122">
+      <c r="A122" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K122" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="L122" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="O122" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="P122" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="R122" s="21"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="7" t="s">
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="123">
+      <c r="A123" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K123" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="L123" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O123" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="P123" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="R123" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="S123" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="T123" s="23"/>
+      <c r="U123" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="V123" s="24"/>
+      <c r="W123" s="24"/>
+      <c r="X123" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
+      <c r="A124" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K124" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="L124" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O124" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="P124" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="S124" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="T124" s="23"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="24"/>
+      <c r="W124" s="24"/>
+      <c r="X124" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
+      <c r="A125" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K125" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="L125" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O125" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="P125" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="R125" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="S125" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="T125" s="23"/>
+      <c r="U125" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="V125" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="W125" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="X125" s="24" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="126">
+      <c r="A126" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K126" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="L126" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O126" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="P126" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="R126" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="S126" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="T126" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
+      <c r="A127" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K115" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="L115" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="O115" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="P115" s="24" t="n">
+      <c r="I127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K127" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="L127" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="M127" s="26"/>
+      <c r="N127" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="O127" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="P127" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="Q115" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="R115" s="24"/>
-      <c r="S115" s="25"/>
-      <c r="T115" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="U115" s="22"/>
-      <c r="V115" s="22"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="116">
-      <c r="A116" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" s="7" t="s">
+      <c r="Q127" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="R127" s="26"/>
+      <c r="S127" s="27"/>
+      <c r="T127" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="128">
+      <c r="A128" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K116" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="L116" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O116" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="P116" s="19" t="n">
+      <c r="I128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K128" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="L128" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O128" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="P128" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q116" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="R116" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="S116" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="T116" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="U116" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="V116" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="W116" s="22"/>
-      <c r="X116" s="22" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
-      <c r="A117" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="7" t="s">
+      <c r="Q128" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="R128" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="S128" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="T128" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="U128" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="V128" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="W128" s="24"/>
+      <c r="X128" s="24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
+      <c r="A129" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K117" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="L117" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O117" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="P117" s="19" t="n">
+      <c r="I129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K129" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="L129" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O129" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="P129" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="Q117" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="R117" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="S117" s="20"/>
-      <c r="T117" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="U117" s="22"/>
-      <c r="V117" s="22"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="118">
-      <c r="A118" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="7" t="s">
+      <c r="Q129" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="R129" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="S129" s="22"/>
+      <c r="T129" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="130">
+      <c r="A130" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K118" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="L118" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O118" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="P118" s="19" t="n">
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K130" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="L130" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="M130" s="21"/>
+      <c r="N130" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O130" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="P130" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="S118" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="T118" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="U118" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="V118" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="W118" s="22"/>
-      <c r="X118" s="22" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="119">
-      <c r="A119" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="7" t="s">
+      <c r="Q130" s="21"/>
+      <c r="R130" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="S130" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="T130" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="U130" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="V130" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="W130" s="24"/>
+      <c r="X130" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="131">
+      <c r="A131" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I119" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K119" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="L119" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O119" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="P119" s="19" t="n">
+      <c r="I131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K131" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="L131" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O131" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="P131" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q119" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="R119" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="S119" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="T119" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="U119" s="22"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="120">
-      <c r="A120" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="7" t="s">
+      <c r="Q131" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="R131" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="T131" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="U131" s="24"/>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="132">
+      <c r="A132" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K120" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="L120" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O120" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="P120" s="19" t="n">
+      <c r="I132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K132" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="L132" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="M132" s="21"/>
+      <c r="N132" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O132" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="P132" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="Q120" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="R120" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="S120" s="20"/>
-      <c r="T120" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="121">
-      <c r="A121" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="7" t="s">
+      <c r="Q132" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="R132" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="S132" s="22"/>
+      <c r="T132" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="U132" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="V132" s="24"/>
+      <c r="W132" s="24"/>
+      <c r="X132" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K121" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="L121" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O121" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="P121" s="19" t="n">
+      <c r="I133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K133" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="L133" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O133" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="P133" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="Q121" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="R121" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="S121" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="T121" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="U121" s="22"/>
-      <c r="V121" s="22"/>
-      <c r="W121" s="22"/>
-      <c r="X121" s="22" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="122">
-      <c r="A122" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K122" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="L122" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="O122" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="P122" s="19" t="n">
+      <c r="Q133" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="R133" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="T133" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="U133" s="24"/>
+      <c r="V133" s="24"/>
+      <c r="W133" s="24"/>
+      <c r="X133" s="24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="134">
+      <c r="A134" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K134" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="L134" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="O134" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="P134" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q122" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="R122" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="S122" s="20"/>
-      <c r="T122" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="U122" s="22"/>
-      <c r="V122" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="123">
-      <c r="A123" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K123" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="L123" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="M123" s="24"/>
-      <c r="N123" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O123" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="P123" s="19" t="n">
+      <c r="Q134" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="R134" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="S134" s="22"/>
+      <c r="T134" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="U134" s="24"/>
+      <c r="V134" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="W134" s="24"/>
+      <c r="X134" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="135">
+      <c r="A135" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K135" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="L135" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="M135" s="26"/>
+      <c r="N135" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O135" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="P135" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="Q123" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="R123" s="19"/>
-      <c r="S123" s="20"/>
-      <c r="T123" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="U123" s="22"/>
-      <c r="V123" s="22"/>
-      <c r="W123" s="22"/>
-      <c r="X123" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="124">
-      <c r="A124" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K124" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="L124" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O124" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="P124" s="19" t="n">
+      <c r="Q135" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="R135" s="21"/>
+      <c r="S135" s="22"/>
+      <c r="T135" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="U135" s="24"/>
+      <c r="V135" s="24"/>
+      <c r="W135" s="24"/>
+      <c r="X135" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="136">
+      <c r="A136" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K136" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="L136" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O136" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="P136" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q124" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="R124" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="S124" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="T124" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="U124" s="22"/>
-      <c r="V124" s="22"/>
-      <c r="W124" s="22"/>
-      <c r="X124" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="125">
-      <c r="A125" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K125" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="L125" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O125" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="P125" s="19" t="n">
+      <c r="Q136" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="R136" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="S136" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="T136" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="U136" s="24"/>
+      <c r="V136" s="24"/>
+      <c r="W136" s="24"/>
+      <c r="X136" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="137">
+      <c r="A137" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K137" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="L137" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O137" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="P137" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="Q125" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="R125" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="S125" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="T125" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="U125" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="V125" s="22"/>
-      <c r="W125" s="22"/>
-      <c r="X125" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="126">
-      <c r="A126" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K126" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="L126" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="O126" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="P126" s="19" t="n">
+      <c r="Q137" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="R137" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="S137" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="T137" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="U137" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="V137" s="24"/>
+      <c r="W137" s="24"/>
+      <c r="X137" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="138">
+      <c r="A138" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K138" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="L138" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="O138" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="P138" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="Q126" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="R126" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="S126" s="20"/>
-      <c r="T126" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="U126" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="V126" s="22"/>
-      <c r="W126" s="22"/>
-      <c r="X126" s="22" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="127">
-      <c r="A127" s="27" t="s">
-        <v>650</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>651</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
-      <c r="A128" s="27" t="s">
-        <v>650</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="129">
-      <c r="A129" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M129" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="130">
-      <c r="A130" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M130" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="131">
-      <c r="A131" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="M131" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="132">
-      <c r="A132" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>668</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="M132" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="133">
-      <c r="A133" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="M133" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="134">
-      <c r="A134" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>676</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M134" s="27" t="s">
+      <c r="Q138" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="O134" s="1" t="s">
+      <c r="R138" s="21" t="s">
         <v>679</v>
+      </c>
+      <c r="S138" s="22"/>
+      <c r="T138" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="U138" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="V138" s="24"/>
+      <c r="W138" s="24"/>
+      <c r="X138" s="24" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="684">
   <si>
     <t>table</t>
   </si>
@@ -1194,6 +1194,9 @@
   </si>
   <si>
     <t>PP_Alternate_Name</t>
+  </si>
+  <si>
+    <t>Alternate Names</t>
   </si>
   <si>
     <t>List of synonymous protein names</t>
@@ -2407,11 +2410,11 @@
   <dimension ref="A1:X138"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="C34" xSplit="2556" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A1" xSplit="2556" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="C1" activeCellId="0" pane="topRight" sqref="C1"/>
-      <selection activeCell="A34" activeCellId="0" pane="bottomLeft" sqref="A34"/>
-      <selection activeCell="C60" activeCellId="0" pane="bottomRight" sqref="C60"/>
+      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="B117" activeCellId="0" pane="bottomRight" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6346,24 +6349,26 @@
       <c r="L97" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="M97" s="18"/>
+      <c r="M97" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="N97" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R97" s="18" t="s">
         <v>378</v>
       </c>
       <c r="S97" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T97" s="19" t="s">
         <v>389</v>
@@ -6398,17 +6403,17 @@
         <v>371</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M98" s="18"/>
       <c r="N98" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>1</v>
@@ -6416,7 +6421,7 @@
       <c r="Q98" s="18"/>
       <c r="R98" s="18"/>
       <c r="S98" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T98" s="19"/>
       <c r="U98" s="18"/>
@@ -6449,17 +6454,17 @@
         <v>371</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M99" s="18"/>
       <c r="N99" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P99" s="5" t="n">
         <v>1</v>
@@ -6467,7 +6472,7 @@
       <c r="Q99" s="18"/>
       <c r="R99" s="18"/>
       <c r="S99" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T99" s="19"/>
       <c r="U99" s="18"/>
@@ -6477,7 +6482,7 @@
         <v>369</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -6500,27 +6505,27 @@
         <v>371</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q100" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R100" s="18"/>
       <c r="S100" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T100" s="19"/>
       <c r="U100" s="18"/>
@@ -6530,7 +6535,7 @@
         <v>369</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6551,32 +6556,32 @@
         <v>371</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M101" s="18"/>
       <c r="N101" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P101" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q101" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S101" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T101" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U101" s="18"/>
     </row>
@@ -6585,7 +6590,7 @@
         <v>369</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6606,32 +6611,32 @@
         <v>371</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M102" s="18"/>
       <c r="N102" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P102" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R102" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S102" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T102" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U102" s="18"/>
     </row>
@@ -6640,7 +6645,7 @@
         <v>369</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6661,30 +6666,30 @@
         <v>371</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M103" s="18"/>
       <c r="N103" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P103" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q103" s="18"/>
       <c r="R103" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="S103" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T103" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U103" s="18"/>
     </row>
@@ -6693,7 +6698,7 @@
         <v>369</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6714,30 +6719,30 @@
         <v>371</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P104" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q104" s="18"/>
       <c r="R104" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T104" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U104" s="18"/>
     </row>
@@ -6746,7 +6751,7 @@
         <v>369</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6767,32 +6772,32 @@
         <v>371</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M105" s="18"/>
       <c r="N105" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P105" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q105" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R105" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S105" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T105" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U105" s="18"/>
     </row>
@@ -6801,7 +6806,7 @@
         <v>369</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6822,32 +6827,32 @@
         <v>371</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P106" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q106" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S106" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T106" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U106" s="18"/>
     </row>
@@ -6856,7 +6861,7 @@
         <v>369</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6877,32 +6882,32 @@
         <v>371</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q107" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R107" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="S107" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T107" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="U107" s="18"/>
     </row>
@@ -6911,7 +6916,7 @@
         <v>369</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6932,29 +6937,29 @@
         <v>371</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M108" s="18"/>
       <c r="N108" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P108" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R108" s="18" t="s">
         <v>378</v>
       </c>
       <c r="S108" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T108" s="19" t="s">
         <v>389</v>
@@ -6966,7 +6971,7 @@
         <v>369</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6987,32 +6992,32 @@
         <v>371</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M109" s="18"/>
       <c r="N109" s="18" t="s">
         <v>375</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P109" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q109" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S109" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T109" s="19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="U109" s="18"/>
     </row>
@@ -7021,7 +7026,7 @@
         <v>369</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7042,30 +7047,30 @@
         <v>371</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M110" s="18"/>
       <c r="N110" s="18" t="s">
         <v>241</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P110" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q110" s="18"/>
       <c r="R110" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T110" s="19" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="U110" s="18"/>
     </row>
@@ -7074,7 +7079,7 @@
         <v>369</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7095,35 +7100,35 @@
         <v>371</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M111" s="18"/>
       <c r="N111" s="18"/>
       <c r="O111" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P111" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q111" s="18"/>
       <c r="R111" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T111" s="19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="U111" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="112">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7" t="s">
@@ -7144,37 +7149,37 @@
         <v>371</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M112" s="18"/>
       <c r="N112" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P112" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q112" s="18"/>
       <c r="R112" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T112" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U112" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
@@ -7195,42 +7200,42 @@
         <v>371</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M113" s="18"/>
       <c r="N113" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P113" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S113" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T113" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U113" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>22</v>
@@ -7248,53 +7253,53 @@
         <v>22</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K114" s="21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M114" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N114" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O114" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P114" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q114" s="21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R114" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S114" s="22"/>
       <c r="T114" s="23"/>
       <c r="U114" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V114" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W114" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="X114" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>22</v>
@@ -7312,19 +7317,19 @@
         <v>22</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K115" s="21" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M115" s="21" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N115" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O115" s="21" t="s">
         <v>381</v>
@@ -7333,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="Q115" s="21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
@@ -7345,7 +7350,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>390</v>
@@ -7366,26 +7371,28 @@
         <v>22</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K116" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L116" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="M116" s="21"/>
+        <v>519</v>
+      </c>
+      <c r="M116" s="21" t="s">
+        <v>393</v>
+      </c>
       <c r="N116" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O116" s="21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P116" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q116" s="21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
@@ -7397,10 +7404,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>22</v>
@@ -7415,26 +7422,26 @@
         <v>22</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K117" s="21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M117" s="21"/>
       <c r="N117" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O117" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P117" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
@@ -7446,10 +7453,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>22</v>
@@ -7464,24 +7471,24 @@
         <v>22</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K118" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O118" s="21"/>
       <c r="P118" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q118" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
@@ -7493,7 +7500,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>98</v>
@@ -7514,28 +7521,28 @@
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M119" s="21" t="s">
         <v>99</v>
       </c>
       <c r="N119" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O119" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P119" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
@@ -7547,10 +7554,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
@@ -7565,48 +7572,48 @@
         <v>22</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K120" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M120" s="21"/>
       <c r="N120" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O120" s="21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P120" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R120" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S120" s="22"/>
       <c r="T120" s="23"/>
       <c r="U120" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V120" s="24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="W120" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="X120" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>252</v>
@@ -7624,43 +7631,43 @@
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M121" s="21"/>
       <c r="N121" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O121" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P121" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q121" s="25" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
       <c r="T121" s="23"/>
       <c r="U121" s="24"/>
       <c r="V121" s="24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="W121" s="24"/>
       <c r="X121" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -7675,31 +7682,31 @@
         <v>22</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K122" s="21" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M122" s="21"/>
       <c r="N122" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O122" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P122" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q122" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
       <c r="T122" s="23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="U122" s="24"/>
       <c r="V122" s="24"/>
@@ -7708,10 +7715,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -7729,36 +7736,36 @@
         <v>22</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K123" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P123" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q123" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="R123" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S123" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T123" s="23"/>
       <c r="U123" s="24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="V123" s="24"/>
       <c r="W123" s="24"/>
@@ -7766,10 +7773,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
@@ -7787,30 +7794,30 @@
         <v>22</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M124" s="21"/>
       <c r="N124" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P124" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q124" s="21"/>
       <c r="R124" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S124" s="22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T124" s="23"/>
       <c r="U124" s="24"/>
@@ -7820,10 +7827,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
@@ -7841,53 +7848,53 @@
         <v>22</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M125" s="21"/>
       <c r="N125" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P125" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q125" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R125" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S125" s="22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T125" s="23"/>
       <c r="U125" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="V125" s="24" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="W125" s="24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="X125" s="24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
@@ -7905,49 +7912,49 @@
         <v>22</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M126" s="21"/>
       <c r="N126" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O126" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P126" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q126" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R126" s="21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S126" s="22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T126" s="23" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U126" s="24"/>
       <c r="V126" s="24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>22</v>
@@ -7962,31 +7969,31 @@
         <v>22</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K127" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L127" s="26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M127" s="26"/>
       <c r="N127" s="26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O127" s="26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P127" s="26" t="n">
         <v>2</v>
       </c>
       <c r="Q127" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R127" s="26"/>
       <c r="S127" s="27"/>
       <c r="T127" s="28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="U127" s="24"/>
       <c r="V127" s="24"/>
@@ -7995,10 +8002,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>22</v>
@@ -8016,53 +8023,53 @@
         <v>22</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K128" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M128" s="21"/>
       <c r="N128" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O128" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P128" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q128" s="21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R128" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="S128" s="22" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T128" s="23" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U128" s="24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="V128" s="24" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="W128" s="24"/>
       <c r="X128" s="24" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>22</v>
@@ -8077,33 +8084,33 @@
         <v>22</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K129" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L129" s="21" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M129" s="21"/>
       <c r="N129" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O129" s="21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P129" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q129" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R129" s="21" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="S129" s="22"/>
       <c r="T129" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="U129" s="24"/>
       <c r="V129" s="24"/>
@@ -8112,10 +8119,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>22</v>
@@ -8130,51 +8137,51 @@
         <v>22</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K130" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M130" s="21"/>
       <c r="N130" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O130" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P130" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q130" s="21"/>
       <c r="R130" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="S130" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T130" s="23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="U130" s="24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="V130" s="24" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="W130" s="24"/>
       <c r="X130" s="24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>22</v>
@@ -8189,35 +8196,35 @@
         <v>22</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K131" s="21" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L131" s="21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O131" s="21" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P131" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q131" s="21" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="R131" s="21" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="S131" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T131" s="23" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="U131" s="24"/>
       <c r="V131" s="24"/>
@@ -8226,10 +8233,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>22</v>
@@ -8244,36 +8251,36 @@
         <v>22</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O132" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P132" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q132" s="21" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="R132" s="21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="S132" s="22"/>
       <c r="T132" s="23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="U132" s="24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="V132" s="24"/>
       <c r="W132" s="24"/>
@@ -8281,10 +8288,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>22</v>
@@ -8299,49 +8306,49 @@
         <v>22</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M133" s="21"/>
       <c r="N133" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P133" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R133" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S133" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T133" s="23" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="U133" s="24"/>
       <c r="V133" s="24"/>
       <c r="W133" s="24"/>
       <c r="X133" s="24" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>22</v>
@@ -8356,47 +8363,47 @@
         <v>22</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M134" s="21"/>
       <c r="N134" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O134" s="21" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P134" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q134" s="21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R134" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="S134" s="22"/>
       <c r="T134" s="23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="U134" s="24"/>
       <c r="V134" s="24" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>22</v>
@@ -8411,31 +8418,31 @@
         <v>22</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L135" s="26" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M135" s="26"/>
       <c r="N135" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O135" s="21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P135" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
       <c r="T135" s="23" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="U135" s="24"/>
       <c r="V135" s="24"/>
@@ -8444,10 +8451,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>22</v>
@@ -8462,35 +8469,35 @@
         <v>22</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M136" s="21"/>
       <c r="N136" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O136" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P136" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q136" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R136" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="S136" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T136" s="28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="U136" s="24"/>
       <c r="V136" s="24"/>
@@ -8499,10 +8506,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>22</v>
@@ -8517,38 +8524,38 @@
         <v>22</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L137" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O137" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P137" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="R137" s="21" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="S137" s="22" t="s">
         <v>389</v>
       </c>
       <c r="T137" s="23" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="U137" s="24" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="V137" s="24"/>
       <c r="W137" s="24"/>
@@ -8556,10 +8563,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>22</v>
@@ -8574,41 +8581,41 @@
         <v>22</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M138" s="21"/>
       <c r="N138" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O138" s="21" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P138" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q138" s="21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="R138" s="21" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="S138" s="22"/>
       <c r="T138" s="23" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="U138" s="24" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="V138" s="24"/>
       <c r="W138" s="24"/>
       <c r="X138" s="24" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="688">
   <si>
     <t>table</t>
   </si>
@@ -639,6 +639,18 @@
   </si>
   <si>
     <t>The type of Control Well recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>omero_image_id</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>The image recorded for this Datarecord</t>
   </si>
   <si>
     <t>smallmolecule</t>
@@ -2337,7 +2349,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2407,32 +2419,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X138"/>
+  <dimension ref="A1:X139"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A1" xSplit="2556" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="C49" xSplit="2369" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="B117" activeCellId="0" pane="bottomRight" sqref="B117"/>
+      <selection activeCell="C1" activeCellId="0" pane="topRight" sqref="C1"/>
+      <selection activeCell="A49" activeCellId="0" pane="bottomLeft" sqref="A49"/>
+      <selection activeCell="O61" activeCellId="0" pane="bottomRight" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.8352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.9725490196078"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.7843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="55.4941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.6705882352941"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.9176470588235"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.5333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.3882352941176"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.36862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.36862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.1098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.9137254901961"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="55.7686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.1411764705882"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.8862745098039"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.643137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.4980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.4156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.4156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
@@ -4430,72 +4442,48 @@
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="60">
-      <c r="A60" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
+      <c r="A60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="61">
+      <c r="A61" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="O60" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="P60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="R60" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="S60" s="8"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="61">
-      <c r="A61" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
         <v>22</v>
@@ -4507,42 +4495,46 @@
         <v>22</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P61" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
+      <c r="Q61" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="S61" s="8"/>
-      <c r="T61" s="15"/>
+      <c r="T61" s="14"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="62">
       <c r="A62" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>221</v>
@@ -4559,13 +4551,13 @@
         <v>22</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>222</v>
@@ -4575,7 +4567,7 @@
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>224</v>
@@ -4583,12 +4575,8 @@
       <c r="P62" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q62" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="R62" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="15"/>
       <c r="U62" s="7"/>
@@ -4596,12 +4584,12 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4609,40 +4597,42 @@
         <v>22</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K63" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="M63" s="8"/>
+      <c r="N63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O63" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="P63" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
+      <c r="Q63" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="S63" s="8"/>
       <c r="T63" s="15"/>
       <c r="U63" s="7"/>
@@ -4651,42 +4641,50 @@
       <c r="X63" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="64">
-      <c r="A64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="B64" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="12" t="s">
+      <c r="L64" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="L64" s="8"/>
       <c r="M64" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="N64" s="8"/>
+      <c r="N64" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="O64" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="P64" s="13"/>
+      <c r="P64" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
@@ -4696,12 +4694,14 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
+      <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>22</v>
@@ -4720,15 +4720,15 @@
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P65" s="13"/>
       <c r="Q65" s="8"/>
@@ -4741,55 +4741,41 @@
       <c r="X65" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="66">
-      <c r="A66" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="B66" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="E66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="11"/>
+      <c r="K66" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="L66" s="8"/>
+      <c r="M66" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="L66" s="8" t="s">
+      <c r="N66" s="8"/>
+      <c r="O66" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M66" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P66" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="15"/>
@@ -4798,51 +4784,55 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="67">
       <c r="A67" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K67" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="N67" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O67" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="P67" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
@@ -4852,12 +4842,12 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="68">
       <c r="A68" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -4871,31 +4861,33 @@
         <v>22</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K68" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="L68" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P68" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q68" s="8"/>
+      <c r="Q68" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="15"/>
@@ -4904,9 +4896,9 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="69">
       <c r="A69" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>256</v>
@@ -4923,13 +4915,13 @@
         <v>22</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>257</v>
@@ -4939,13 +4931,13 @@
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O69" s="8" t="s">
         <v>259</v>
       </c>
       <c r="P69" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
@@ -4958,7 +4950,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>260</v>
@@ -4969,19 +4961,19 @@
         <v>22</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>261</v>
@@ -4989,26 +4981,20 @@
       <c r="L70" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M70" s="8" t="s">
+      <c r="M70" s="8"/>
+      <c r="N70" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O70" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="P70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="8" t="s">
-        <v>265</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
-      <c r="T70" s="15" t="s">
-        <v>266</v>
-      </c>
+      <c r="T70" s="15"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
@@ -5016,58 +5002,56 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>22</v>
+      <c r="F71" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K71" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O71" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="P71" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="R71" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="S71" s="16" t="s">
-        <v>273</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
       <c r="T71" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -5076,10 +5060,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5093,40 +5077,42 @@
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P72" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="T72" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="P72" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q72" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="R72" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="S72" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="T72" s="15"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
@@ -5134,62 +5120,68 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G73" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P73" s="13" t="n">
         <v>2</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="S73" s="16" t="s">
+        <v>285</v>
+      </c>
       <c r="T73" s="15"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5201,47 +5193,47 @@
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K74" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L74" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q74" s="8"/>
+      <c r="Q74" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
-      <c r="T74" s="15" t="s">
-        <v>291</v>
-      </c>
+      <c r="T74" s="15"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5253,82 +5245,84 @@
         <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K75" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="L75" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="8" t="s">
-        <v>286</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="15"/>
+      <c r="T75" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="76">
-      <c r="A76" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="76">
+      <c r="A76" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="B76" s="7" t="s">
         <v>296</v>
       </c>
       <c r="C76" s="7"/>
-      <c r="D76" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K76" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L76" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P76" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
@@ -5339,48 +5333,46 @@
       <c r="X76" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="77">
-      <c r="A77" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D77" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P77" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
@@ -5390,12 +5382,12 @@
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5407,13 +5399,13 @@
         <v>22</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>305</v>
@@ -5423,7 +5415,7 @@
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>307</v>
@@ -5431,23 +5423,23 @@
       <c r="P78" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q78" s="8"/>
+      <c r="Q78" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
-      <c r="T78" s="15" t="s">
-        <v>291</v>
-      </c>
+      <c r="T78" s="15"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="79">
       <c r="A79" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5459,47 +5451,47 @@
         <v>22</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="8" t="s">
-        <v>304</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="15"/>
+      <c r="T79" s="15" t="s">
+        <v>295</v>
+      </c>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="80">
       <c r="A80" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -5511,13 +5503,13 @@
         <v>22</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>312</v>
@@ -5526,134 +5518,134 @@
         <v>313</v>
       </c>
       <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="N80" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="O80" s="8" t="s">
         <v>314</v>
       </c>
       <c r="P80" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q80" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="14" t="s">
-        <v>315</v>
-      </c>
+      <c r="T80" s="15"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="81">
-      <c r="A81" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="81">
+      <c r="A81" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="B81" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C81" s="7"/>
-      <c r="D81" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K81" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L81" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="P81" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q81" s="8" t="s">
-        <v>320</v>
-      </c>
+      <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="15" t="s">
-        <v>321</v>
+      <c r="T81" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="82">
-      <c r="A82" s="7" t="s">
-        <v>236</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="82">
+      <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D82" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M82" s="8"/>
       <c r="N82" s="8" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P82" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
-      <c r="T82" s="15"/>
+      <c r="T82" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -5665,32 +5657,32 @@
         <v>22</v>
       </c>
       <c r="H83" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K83" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K83" s="12" t="s">
+      <c r="L83" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P83" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
@@ -5700,12 +5692,12 @@
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -5717,32 +5709,32 @@
         <v>22</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K84" s="12" t="s">
+      <c r="L84" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="M84" s="8"/>
       <c r="N84" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P84" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
@@ -5752,12 +5744,12 @@
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5769,32 +5761,32 @@
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="L85" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K85" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P85" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
@@ -5806,10 +5798,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5821,31 +5813,33 @@
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K86" s="12" t="s">
+      <c r="L86" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P86" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q86" s="8"/>
+      <c r="Q86" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="15"/>
@@ -5854,12 +5848,12 @@
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -5871,33 +5865,31 @@
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="L87" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q87" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
       <c r="T87" s="15"/>
@@ -5906,47 +5898,64 @@
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="P88" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>156</v>
@@ -5967,21 +5976,21 @@
         <v>23</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>156</v>
@@ -6002,123 +6011,112 @@
         <v>23</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M90" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="91">
+      <c r="A91" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M91" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="91">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K91" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O91" s="8" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="92">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P91" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="92">
-      <c r="A92" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="D92" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7" t="s">
+      <c r="L92" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="N92" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="O92" s="7" t="s">
+      <c r="M92" s="8"/>
+      <c r="N92" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O92" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
+      <c r="P92" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="15"/>
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
       <c r="W92" s="7"/>
       <c r="X92" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>365</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7" t="s">
         <v>23</v>
@@ -6131,13 +6129,15 @@
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="7" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="N93" s="7"/>
+      <c r="N93" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="O93" s="7" t="s">
         <v>368</v>
       </c>
@@ -6151,71 +6151,60 @@
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>370</v>
-      </c>
+      <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>24</v>
+        <v>370</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="11"/>
+      <c r="K94" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K94" s="18" t="s">
+      <c r="N94" s="7"/>
+      <c r="O94" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="L94" s="18" t="s">
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="95">
+      <c r="A95" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M94" s="18" t="s">
+      <c r="B95" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="N94" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="O94" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="P94" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="R94" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="S94" s="18"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="95">
-      <c r="A95" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
         <v>22</v>
@@ -6227,44 +6216,48 @@
         <v>22</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K95" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="M95" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="N95" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="L95" s="18" t="s">
+      <c r="O95" s="18" t="s">
         <v>380</v>
-      </c>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="O95" s="18" t="s">
-        <v>381</v>
       </c>
       <c r="P95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q95" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="R95" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="R95" s="18"/>
       <c r="S95" s="18"/>
       <c r="T95" s="19"/>
       <c r="U95" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>383</v>
+        <v>221</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -6278,50 +6271,44 @@
         <v>22</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K96" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="L96" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="L96" s="18" t="s">
-        <v>385</v>
       </c>
       <c r="M96" s="18"/>
       <c r="N96" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q96" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="R96" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="S96" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="T96" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="U96" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="97">
-      <c r="A97" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -6335,52 +6322,50 @@
         <v>22</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="M97" s="18" t="s">
-        <v>393</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M97" s="18"/>
       <c r="N97" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R97" s="18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="S97" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="T97" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="U97" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6394,44 +6379,52 @@
         <v>22</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K98" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="L98" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="M98" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="L98" s="18" t="s">
+      <c r="N98" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="O98" s="18" t="s">
         <v>398</v>
-      </c>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="O98" s="18" t="s">
-        <v>399</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
+      <c r="Q98" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="R98" s="18" t="s">
+        <v>382</v>
+      </c>
       <c r="S98" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="T98" s="19"/>
+      <c r="T98" s="19" t="s">
+        <v>393</v>
+      </c>
       <c r="U98" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6445,13 +6438,13 @@
         <v>22</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K99" s="18" t="s">
         <v>401</v>
@@ -6461,7 +6454,7 @@
       </c>
       <c r="M99" s="18"/>
       <c r="N99" s="18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O99" s="18" t="s">
         <v>403</v>
@@ -6479,10 +6472,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>405</v>
+        <v>256</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -6496,101 +6489,97 @@
         <v>22</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K100" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="L100" s="18" t="s">
         <v>406</v>
-      </c>
-      <c r="L100" s="18" t="s">
-        <v>407</v>
       </c>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q100" s="18" t="s">
-        <v>409</v>
-      </c>
+      <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
       <c r="S100" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T100" s="19"/>
       <c r="U100" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F101" s="7"/>
+      <c r="F101" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G101" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M101" s="18"/>
       <c r="N101" s="18" t="s">
-        <v>375</v>
+        <v>245</v>
       </c>
       <c r="O101" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="P101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="P101" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q101" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="R101" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="S101" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="T101" s="19" t="s">
-        <v>418</v>
-      </c>
+      <c r="T101" s="19"/>
       <c r="U101" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6602,50 +6591,50 @@
         <v>22</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M102" s="18"/>
       <c r="N102" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P102" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q102" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="R102" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="S102" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="T102" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="U102" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="103">
+      <c r="A103" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="R102" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="S102" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="T102" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="U102" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="103">
-      <c r="A103" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6657,48 +6646,50 @@
         <v>22</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M103" s="18"/>
       <c r="N103" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P103" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Q103" s="18"/>
+      <c r="Q103" s="18" t="s">
+        <v>427</v>
+      </c>
       <c r="R103" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="S103" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="T103" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="U103" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="104">
+      <c r="A104" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="S103" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="T103" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="U103" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="104">
-      <c r="A104" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6710,48 +6701,48 @@
         <v>22</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P104" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q104" s="18"/>
       <c r="R104" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="S104" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="T104" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="U104" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="105">
+      <c r="A105" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="S104" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="T104" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="U104" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="105">
-      <c r="A105" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6763,50 +6754,48 @@
         <v>22</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M105" s="18"/>
       <c r="N105" s="18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O105" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="P105" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="S105" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="T105" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="P105" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q105" s="18" t="s">
+      <c r="U105" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="106">
+      <c r="A106" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="R105" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="S105" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="T105" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="U105" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="106">
-      <c r="A106" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6818,50 +6807,50 @@
         <v>22</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P106" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q106" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="R106" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="S106" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="T106" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="U106" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="107">
+      <c r="A107" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="R106" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="S106" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="T106" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="U106" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="107">
-      <c r="A107" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6873,50 +6862,50 @@
         <v>22</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
-        <v>375</v>
+        <v>245</v>
       </c>
       <c r="O107" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="P107" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="R107" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="S107" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="P107" s="5" t="s">
+      <c r="T107" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="U107" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="108">
+      <c r="A108" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q107" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="R107" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="S107" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="T107" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="U107" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="108">
-      <c r="A108" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6928,50 +6917,50 @@
         <v>22</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M108" s="18"/>
       <c r="N108" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O108" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q108" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="R108" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="S108" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="T108" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="P108" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q108" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="R108" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="S108" s="18" t="s">
+      <c r="U108" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="109">
+      <c r="A109" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="T108" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="U108" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="109">
-      <c r="A109" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6983,50 +6972,50 @@
         <v>22</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K109" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="L109" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="L109" s="18" t="s">
-        <v>468</v>
       </c>
       <c r="M109" s="18"/>
       <c r="N109" s="18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O109" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="P109" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="R109" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="S109" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="P109" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q109" s="18" t="s">
+      <c r="T109" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="U109" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="110">
+      <c r="A110" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="R109" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="S109" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="T109" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="U109" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="110">
-      <c r="A110" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7038,48 +7027,50 @@
         <v>22</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M110" s="18"/>
       <c r="N110" s="18" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="O110" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="P110" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="R110" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="S110" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="T110" s="19" t="s">
         <v>477</v>
-      </c>
-      <c r="P110" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="S110" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="T110" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="U110" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7091,99 +7082,101 @@
         <v>22</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
+      <c r="N111" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="O111" s="18" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P111" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q111" s="18"/>
       <c r="R111" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="S111" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="T111" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="U111" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="112">
+      <c r="A112" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="S111" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="T111" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="U111" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="112">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="C112" s="7"/>
-      <c r="D112" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M112" s="18"/>
-      <c r="N112" s="18" t="s">
-        <v>491</v>
-      </c>
+      <c r="N112" s="18"/>
       <c r="O112" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P112" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q112" s="18"/>
       <c r="R112" s="18" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="T112" s="19" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="U112" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="113">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -7197,163 +7190,160 @@
         <v>22</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M113" s="18"/>
       <c r="N113" s="18" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P113" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="18" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="S113" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="T113" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="U113" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="114">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="T113" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="U113" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="114">
-      <c r="A114" s="1" t="s">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="K114" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="L114" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="O114" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="P114" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="S114" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="T114" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="U114" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="115">
+      <c r="A115" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="7" t="s">
+      <c r="C115" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K114" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="L114" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="M114" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="N114" s="21" t="s">
+      <c r="I115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="O114" s="21" t="s">
+      <c r="K115" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="P114" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="21" t="s">
+      <c r="L115" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="R114" s="21" t="s">
+      <c r="M115" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="S114" s="22"/>
-      <c r="T114" s="23"/>
-      <c r="U114" s="24" t="s">
+      <c r="N115" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="V114" s="24" t="s">
+      <c r="O115" s="21" t="s">
         <v>510</v>
-      </c>
-      <c r="W114" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="X114" s="24" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="115">
-      <c r="A115" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K115" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="L115" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="M115" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="N115" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="O115" s="21" t="s">
-        <v>381</v>
       </c>
       <c r="P115" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="R115" s="21"/>
+        <v>511</v>
+      </c>
+      <c r="R115" s="21" t="s">
+        <v>512</v>
+      </c>
       <c r="S115" s="22"/>
       <c r="T115" s="23"/>
-      <c r="U115" s="24"/>
-      <c r="V115" s="24"/>
-      <c r="W115" s="24"/>
-      <c r="X115" s="24"/>
+      <c r="U115" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="V115" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="W115" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="X115" s="24" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>390</v>
+        <v>517</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
@@ -7365,13 +7355,13 @@
         <v>22</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K116" s="21" t="s">
         <v>518</v>
@@ -7380,16 +7370,16 @@
         <v>519</v>
       </c>
       <c r="M116" s="21" t="s">
-        <v>393</v>
+        <v>520</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O116" s="21" t="s">
-        <v>520</v>
+        <v>385</v>
       </c>
       <c r="P116" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q116" s="21" t="s">
         <v>521</v>
@@ -7402,46 +7392,51 @@
       <c r="W116" s="24"/>
       <c r="X116" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K117" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K117" s="21" t="s">
+      <c r="L117" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="L117" s="21" t="s">
+      <c r="M117" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="N117" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O117" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="O117" s="21" t="s">
-        <v>525</v>
       </c>
       <c r="P117" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
@@ -7453,42 +7448,44 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K118" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K118" s="21" t="s">
+      <c r="L118" s="21" t="s">
         <v>528</v>
-      </c>
-      <c r="L118" s="21" t="s">
-        <v>529</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O118" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="P118" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q118" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="21" t="s">
-        <v>531</v>
       </c>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
@@ -7500,28 +7497,25 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>98</v>
+        <v>531</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G119" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K119" s="21" t="s">
         <v>532</v>
@@ -7529,15 +7523,11 @@
       <c r="L119" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="M119" s="21" t="s">
-        <v>99</v>
-      </c>
+      <c r="M119" s="21"/>
       <c r="N119" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="O119" s="21" t="s">
         <v>534</v>
       </c>
+      <c r="O119" s="21"/>
       <c r="P119" s="21" t="n">
         <v>1</v>
       </c>
@@ -7552,71 +7542,66 @@
       <c r="W119" s="24"/>
       <c r="X119" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K120" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K120" s="21" t="s">
+      <c r="L120" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="L120" s="21" t="s">
+      <c r="M120" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="N120" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="O120" s="21" t="s">
         <v>538</v>
-      </c>
-      <c r="M120" s="21"/>
-      <c r="N120" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="O120" s="21" t="s">
-        <v>540</v>
       </c>
       <c r="P120" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="R120" s="21" t="s">
-        <v>542</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="R120" s="21"/>
       <c r="S120" s="22"/>
       <c r="T120" s="23"/>
-      <c r="U120" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="V120" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="W120" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="X120" s="24" t="s">
-        <v>546</v>
-      </c>
+      <c r="U120" s="24"/>
+      <c r="V120" s="24"/>
+      <c r="W120" s="24"/>
+      <c r="X120" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>252</v>
+        <v>540</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>22</v>
@@ -7625,158 +7610,159 @@
         <v>22</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M121" s="21"/>
       <c r="N121" s="21" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="O121" s="21" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="P121" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q121" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="R121" s="21"/>
+      <c r="Q121" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="R121" s="21" t="s">
+        <v>546</v>
+      </c>
       <c r="S121" s="22"/>
       <c r="T121" s="23"/>
-      <c r="U121" s="24"/>
+      <c r="U121" s="24" t="s">
+        <v>547</v>
+      </c>
       <c r="V121" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="W121" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="X121" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="122">
+      <c r="A122" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K122" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="W121" s="24"/>
-      <c r="X121" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="122">
-      <c r="A122" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K122" s="21" t="s">
+      <c r="L122" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="L122" s="21" t="s">
-        <v>553</v>
       </c>
       <c r="M122" s="21"/>
       <c r="N122" s="21" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="O122" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P122" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q122" s="21" t="s">
-        <v>555</v>
+      <c r="Q122" s="25" t="s">
+        <v>554</v>
       </c>
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
-      <c r="T122" s="23" t="s">
-        <v>556</v>
-      </c>
+      <c r="T122" s="23"/>
       <c r="U122" s="24"/>
-      <c r="V122" s="24"/>
+      <c r="V122" s="24" t="s">
+        <v>555</v>
+      </c>
       <c r="W122" s="24"/>
       <c r="X122" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K123" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="L123" s="21" t="s">
         <v>557</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K123" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="L123" s="21" t="s">
-        <v>559</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="21" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P123" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q123" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="R123" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="S123" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="T123" s="23"/>
-      <c r="U123" s="24" t="s">
-        <v>564</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="R123" s="21"/>
+      <c r="S123" s="22"/>
+      <c r="T123" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="U123" s="24"/>
       <c r="V123" s="24"/>
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
@@ -7788,510 +7774,513 @@
         <v>22</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M124" s="21"/>
       <c r="N124" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P124" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q124" s="21"/>
+      <c r="Q124" s="21" t="s">
+        <v>565</v>
+      </c>
       <c r="R124" s="21" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="S124" s="22" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="T124" s="23"/>
-      <c r="U124" s="24"/>
+      <c r="U124" s="24" t="s">
+        <v>568</v>
+      </c>
       <c r="V124" s="24"/>
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K125" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="L125" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K125" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="L125" s="21" t="s">
-        <v>573</v>
       </c>
       <c r="M125" s="21"/>
       <c r="N125" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P125" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q125" s="21" t="s">
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="S125" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="T125" s="23"/>
+      <c r="U125" s="24"/>
+      <c r="V125" s="24"/>
+      <c r="W125" s="24"/>
+      <c r="X125" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="126">
+      <c r="A126" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="R125" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="S125" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="T125" s="23"/>
-      <c r="U125" s="24" t="s">
+      <c r="E126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K126" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="V125" s="24" t="s">
+      <c r="L126" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="W125" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="X125" s="24" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="126">
-      <c r="A126" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K126" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="L126" s="21" t="s">
-        <v>582</v>
       </c>
       <c r="M126" s="21"/>
       <c r="N126" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O126" s="21" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="P126" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q126" s="26" t="s">
+      <c r="Q126" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="R126" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="S126" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="T126" s="23"/>
+      <c r="U126" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="V126" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="W126" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="X126" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="127">
+      <c r="A127" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="R126" s="21" t="s">
+      <c r="E127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K127" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="S126" s="22" t="s">
+      <c r="L127" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="T126" s="23" t="s">
+      <c r="M127" s="21"/>
+      <c r="N127" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O127" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="U126" s="24"/>
-      <c r="V126" s="24" t="s">
+      <c r="P127" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="W126" s="24"/>
-      <c r="X126" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
-      <c r="A127" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="R127" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K127" s="26" t="s">
+      <c r="S127" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="L127" s="26" t="s">
+      <c r="T127" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="M127" s="26"/>
-      <c r="N127" s="26" t="s">
+      <c r="U127" s="24"/>
+      <c r="V127" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="O127" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="P127" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q127" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="R127" s="26"/>
-      <c r="S127" s="27"/>
-      <c r="T127" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="U127" s="24"/>
-      <c r="V127" s="24"/>
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K128" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="L128" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="M128" s="26"/>
+      <c r="N128" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="E128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="7" t="s">
+      <c r="O128" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="P128" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q128" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="R128" s="26"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="U128" s="24"/>
+      <c r="V128" s="24"/>
+      <c r="W128" s="24"/>
+      <c r="X128" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="129">
+      <c r="A129" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K128" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="L128" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="M128" s="21"/>
-      <c r="N128" s="21" t="s">
+      <c r="I129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="O128" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="P128" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="R128" s="21" t="s">
+      <c r="K129" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="S128" s="22" t="s">
+      <c r="L129" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="T128" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="U128" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="V128" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
-      <c r="A129" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K129" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="L129" s="21" t="s">
-        <v>609</v>
       </c>
       <c r="M129" s="21"/>
       <c r="N129" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O129" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="P129" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="R129" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="S129" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="T129" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="U129" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="V129" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="130">
+      <c r="A130" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="O129" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="P129" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q129" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="R129" s="21" t="s">
+      <c r="K130" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="S129" s="22"/>
-      <c r="T129" s="23" t="s">
+      <c r="L130" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="130">
-      <c r="A130" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K130" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="L130" s="21" t="s">
-        <v>616</v>
       </c>
       <c r="M130" s="21"/>
       <c r="N130" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O130" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="P130" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q130" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="R130" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="S130" s="22"/>
+      <c r="T130" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="U130" s="24"/>
+      <c r="V130" s="24"/>
+      <c r="W130" s="24"/>
+      <c r="X130" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="131">
+      <c r="A131" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="O130" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="P130" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="21"/>
-      <c r="R130" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="S130" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="T130" s="23" t="s">
+      <c r="K131" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="U130" s="24" t="s">
+      <c r="L131" s="21" t="s">
         <v>620</v>
-      </c>
-      <c r="V130" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="131">
-      <c r="A131" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K131" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="L131" s="21" t="s">
-        <v>625</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O131" s="21" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="P131" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q131" s="21" t="s">
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="T131" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="U131" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="V131" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="132">
+      <c r="A132" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="R131" s="21" t="s">
+      <c r="E132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K132" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="S131" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="T131" s="23" t="s">
+      <c r="L132" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="132">
-      <c r="A132" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K132" s="21" t="s">
-        <v>631</v>
-      </c>
-      <c r="L132" s="21" t="s">
-        <v>632</v>
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O132" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="P132" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="R132" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="S132" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="T132" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="P132" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q132" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="R132" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="S132" s="22"/>
-      <c r="T132" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="U132" s="24" t="s">
-        <v>636</v>
-      </c>
+      <c r="U132" s="24"/>
       <c r="V132" s="24"/>
       <c r="W132" s="24"/>
       <c r="X132" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>22</v>
@@ -8300,55 +8289,53 @@
         <v>22</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M133" s="21"/>
       <c r="N133" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="P133" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R133" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="S133" s="22" t="s">
-        <v>439</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="S133" s="22"/>
       <c r="T133" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="U133" s="24"/>
+        <v>560</v>
+      </c>
+      <c r="U133" s="24" t="s">
+        <v>640</v>
+      </c>
       <c r="V133" s="24"/>
       <c r="W133" s="24"/>
-      <c r="X133" s="24" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="134">
+      <c r="X133" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>22</v>
@@ -8357,159 +8344,161 @@
         <v>22</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M134" s="21"/>
       <c r="N134" s="21" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="O134" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="P134" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q134" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="R134" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="S134" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="T134" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="U134" s="24"/>
+      <c r="V134" s="24"/>
+      <c r="W134" s="24"/>
+      <c r="X134" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="P134" s="21" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="135">
+      <c r="A135" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K135" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="L135" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="O135" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="P135" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q134" s="21" t="s">
-        <v>649</v>
-      </c>
-      <c r="R134" s="21" t="s">
-        <v>650</v>
-      </c>
-      <c r="S134" s="22"/>
-      <c r="T134" s="23" t="s">
-        <v>651</v>
-      </c>
-      <c r="U134" s="24"/>
-      <c r="V134" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="W134" s="24"/>
-      <c r="X134" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="135">
-      <c r="A135" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="Q135" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="E135" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K135" s="21" t="s">
+      <c r="R135" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="L135" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="M135" s="26"/>
-      <c r="N135" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="O135" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="P135" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q135" s="21" t="s">
-        <v>657</v>
-      </c>
-      <c r="R135" s="21"/>
       <c r="S135" s="22"/>
       <c r="T135" s="23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="U135" s="24"/>
-      <c r="V135" s="24"/>
+      <c r="V135" s="24" t="s">
+        <v>656</v>
+      </c>
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K136" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="L136" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="E136" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K136" s="21" t="s">
+      <c r="M136" s="26"/>
+      <c r="N136" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O136" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="L136" s="21" t="s">
+      <c r="P136" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q136" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="O136" s="21" t="s">
+      <c r="R136" s="21"/>
+      <c r="S136" s="22"/>
+      <c r="T136" s="23" t="s">
         <v>662</v>
-      </c>
-      <c r="P136" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="R136" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="S136" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="T136" s="28" t="s">
-        <v>666</v>
       </c>
       <c r="U136" s="24"/>
       <c r="V136" s="24"/>
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>22</v>
@@ -8518,55 +8507,53 @@
         <v>22</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="L137" s="21" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O137" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="P137" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="R137" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="S137" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="T137" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="P137" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q137" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="R137" s="21" t="s">
-        <v>672</v>
-      </c>
-      <c r="S137" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="T137" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="U137" s="24" t="s">
-        <v>674</v>
-      </c>
+      <c r="U137" s="24"/>
       <c r="V137" s="24"/>
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>22</v>
@@ -8575,47 +8562,104 @@
         <v>22</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M138" s="21"/>
       <c r="N138" s="21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O138" s="21" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="P138" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q138" s="21" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="R138" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="S138" s="22"/>
+        <v>676</v>
+      </c>
+      <c r="S138" s="22" t="s">
+        <v>393</v>
+      </c>
       <c r="T138" s="23" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U138" s="24" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="V138" s="24"/>
       <c r="W138" s="24"/>
-      <c r="X138" s="24" t="s">
+      <c r="X138" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="139">
+      <c r="A139" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K139" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="L139" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="O139" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="P139" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q139" s="21" t="s">
         <v>683</v>
+      </c>
+      <c r="R139" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="S139" s="22"/>
+      <c r="T139" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="U139" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="V139" s="24"/>
+      <c r="W139" s="24"/>
+      <c r="X139" s="24" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -2349,7 +2349,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2422,29 +2422,29 @@
   <dimension ref="A1:X139"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="C49" xSplit="2369" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A61" xSplit="2195" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="C1" activeCellId="0" pane="topRight" sqref="C1"/>
-      <selection activeCell="A49" activeCellId="0" pane="bottomLeft" sqref="A49"/>
-      <selection activeCell="O61" activeCellId="0" pane="bottomRight" sqref="O61"/>
+      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
+      <selection activeCell="A61" activeCellId="0" pane="bottomLeft" sqref="A61"/>
+      <selection activeCell="H69" activeCellId="0" pane="bottomRight" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.1098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="25.9137254901961"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="55.7686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.1411764705882"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="44.8862745098039"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.9921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.643137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.4980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.4156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.4156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.321568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9450980392157"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.2549019607843"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.0392156862745"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.0470588235294"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.1137254901961"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0627450980392"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.7529411764706"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.6078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.45882352941177"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.45882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
@@ -3963,7 +3963,7 @@
         <v>23</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>23</v>
@@ -3995,7 +3995,7 @@
         <v>23</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>23</v>
@@ -4861,7 +4861,7 @@
         <v>22</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
@@ -7757,7 +7757,7 @@
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>503</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="690">
   <si>
     <t>table</t>
   </si>
@@ -419,18 +419,18 @@
     <t>library_name</t>
   </si>
   <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>The full name of this library</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
     <t>Library Name</t>
   </si>
   <si>
-    <t>The full name of this library</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Library Name (short)</t>
-  </si>
-  <si>
     <t>The abbreviated name of this library</t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>well_count</t>
   </si>
   <si>
-    <t>Well Count</t>
+    <t>Wells</t>
   </si>
   <si>
     <t>Number of wells in this library</t>
@@ -545,12 +545,21 @@
     <t>plate_count</t>
   </si>
   <si>
-    <t>Plate Count</t>
+    <t>Plates</t>
   </si>
   <si>
     <t>Number of plates in this library</t>
   </si>
   <si>
+    <t>sm_count</t>
+  </si>
+  <si>
+    <t>Small Molecules</t>
+  </si>
+  <si>
+    <t>Number of distinct small molecules in this library</t>
+  </si>
+  <si>
     <t>attachedfile</t>
   </si>
   <si>
@@ -642,9 +651,6 @@
   </si>
   <si>
     <t>omero_image_id</t>
-  </si>
-  <si>
-    <t>59</t>
   </si>
   <si>
     <t>Image</t>
@@ -2419,14 +2425,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X139"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A61" xSplit="2195" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A27" xSplit="2195" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A61" activeCellId="0" pane="bottomLeft" sqref="A61"/>
-      <selection activeCell="H69" activeCellId="0" pane="bottomRight" sqref="H69"/>
+      <selection activeCell="A27" activeCellId="0" pane="bottomLeft" sqref="A27"/>
+      <selection activeCell="H45" activeCellId="0" pane="bottomRight" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -3963,7 +3969,7 @@
         <v>23</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>23</v>
@@ -4057,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>23</v>
@@ -4087,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>23</v>
@@ -4103,43 +4109,40 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="C49" s="0"/>
       <c r="E49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="3"/>
       <c r="K49" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="50">
       <c r="A50" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
@@ -4151,7 +4154,7 @@
         <v>23</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>22</v>
@@ -4160,44 +4163,47 @@
         <v>49</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="51">
-      <c r="A51" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>182</v>
+      <c r="A51" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>183</v>
+      <c r="M51" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>185</v>
@@ -4209,7 +4215,7 @@
         <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>23</v>
@@ -4226,7 +4232,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>188</v>
@@ -4238,7 +4244,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>23</v>
@@ -4255,7 +4261,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>191</v>
@@ -4267,7 +4273,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>23</v>
@@ -4284,7 +4290,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>194</v>
@@ -4292,17 +4298,14 @@
       <c r="E55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>54</v>
@@ -4316,7 +4319,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>197</v>
@@ -4331,10 +4334,10 @@
         <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>55</v>
@@ -4348,11 +4351,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="E57" s="1" t="s">
         <v>22</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>23</v>
@@ -4380,10 +4383,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
@@ -4395,7 +4398,7 @@
         <v>23</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
@@ -4404,18 +4407,18 @@
         <v>57</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>22</v>
@@ -4427,7 +4430,7 @@
         <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>23</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>208</v>
@@ -4459,87 +4462,63 @@
         <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="61">
+      <c r="A61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="61">
-      <c r="A61" s="7" t="s">
+      <c r="I61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="O61" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="62">
+      <c r="A62" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K61" s="12" t="s">
+      <c r="C62" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="R61" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S61" s="8"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="62">
-      <c r="A62" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
         <v>22</v>
@@ -4551,45 +4530,49 @@
         <v>22</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P62" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+      <c r="Q62" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="S62" s="8"/>
-      <c r="T62" s="15"/>
+      <c r="T62" s="14"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4603,36 +4586,32 @@
         <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P63" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="R63" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="15"/>
       <c r="U63" s="7"/>
@@ -4640,12 +4619,12 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="64">
       <c r="A64" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4653,40 +4632,42 @@
         <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>233</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M64" s="8"/>
       <c r="N64" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P64" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
+      <c r="Q64" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="S64" s="8"/>
       <c r="T64" s="15"/>
       <c r="U64" s="7"/>
@@ -4695,42 +4676,50 @@
       <c r="X64" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
-      <c r="A65" s="7"/>
+      <c r="A65" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B65" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="12" t="s">
+      <c r="N65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O65" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="P65" s="13"/>
+      <c r="P65" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
@@ -4740,12 +4729,14 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="66">
+      <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>22</v>
@@ -4764,15 +4755,15 @@
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="8"/>
@@ -4785,55 +4776,41 @@
       <c r="X66" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="67">
-      <c r="A67" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="B67" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="N67" s="8"/>
+      <c r="O67" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="P67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>250</v>
-      </c>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="15"/>
@@ -4842,51 +4819,55 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="68">
       <c r="A68" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="M68" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="N68" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P68" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
@@ -4896,12 +4877,12 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="69">
       <c r="A69" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -4915,31 +4896,33 @@
         <v>22</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P69" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" s="8"/>
+      <c r="Q69" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="15"/>
@@ -4948,12 +4931,12 @@
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -4967,29 +4950,29 @@
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P70" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
@@ -5002,10 +4985,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5013,46 +4996,40 @@
         <v>22</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K71" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O71" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="L71" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="P71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="8" t="s">
-        <v>269</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
-      <c r="T71" s="15" t="s">
-        <v>270</v>
-      </c>
+      <c r="T71" s="15"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
@@ -5060,58 +5037,56 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>22</v>
+      <c r="F72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="M72" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="N72" s="8" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P72" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="R72" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="S72" s="16" t="s">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
       <c r="T72" s="15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
@@ -5120,10 +5095,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5137,40 +5112,42 @@
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P73" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="T73" s="15"/>
+        <v>279</v>
+      </c>
+      <c r="T73" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
@@ -5178,62 +5155,68 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G74" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>2</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
+        <v>285</v>
+      </c>
+      <c r="R74" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="S74" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="T74" s="15"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5245,47 +5228,47 @@
         <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P75" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q75" s="8"/>
+      <c r="Q75" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="15" t="s">
-        <v>295</v>
-      </c>
+      <c r="T75" s="15"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5297,82 +5280,84 @@
         <v>22</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P76" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
-      <c r="T76" s="15"/>
+      <c r="T76" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="77">
-      <c r="A77" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="77">
+      <c r="A77" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B77" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C77" s="7"/>
-      <c r="D77" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P77" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
@@ -5383,48 +5368,46 @@
       <c r="X77" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="78">
-      <c r="A78" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D78" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K78" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="L78" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P78" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
@@ -5434,12 +5417,12 @@
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
       <c r="A79" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5451,47 +5434,47 @@
         <v>22</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q79" s="8"/>
+      <c r="Q79" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="15" t="s">
-        <v>295</v>
-      </c>
+      <c r="T79" s="15"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="80">
       <c r="A80" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -5503,47 +5486,47 @@
         <v>22</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K80" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L80" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="8" t="s">
-        <v>308</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="15"/>
+      <c r="T80" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="81">
       <c r="A81" s="7" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -5555,149 +5538,149 @@
         <v>22</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K81" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O81" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="L81" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="P81" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="T81" s="15"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="82">
-      <c r="A82" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="82">
+      <c r="A82" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B82" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C82" s="7"/>
-      <c r="D82" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M82" s="8"/>
-      <c r="N82" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="N82" s="8"/>
       <c r="O82" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P82" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q82" s="8" t="s">
-        <v>324</v>
-      </c>
+      <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
-      <c r="T82" s="15" t="s">
-        <v>325</v>
+      <c r="T82" s="14" t="s">
+        <v>321</v>
       </c>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="83">
-      <c r="A83" s="7" t="s">
-        <v>240</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="83">
+      <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D83" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P83" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
-      <c r="T83" s="15"/>
+      <c r="T83" s="15" t="s">
+        <v>327</v>
+      </c>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -5709,32 +5692,32 @@
         <v>22</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M84" s="8"/>
       <c r="N84" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P84" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
@@ -5744,12 +5727,12 @@
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5761,32 +5744,32 @@
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P85" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
@@ -5796,12 +5779,12 @@
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5813,32 +5796,32 @@
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P86" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
@@ -5850,10 +5833,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -5865,31 +5848,33 @@
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q87" s="8"/>
+      <c r="Q87" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
       <c r="T87" s="15"/>
@@ -5898,12 +5883,12 @@
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -5915,33 +5900,31 @@
         <v>22</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q88" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
       <c r="T88" s="15"/>
@@ -5950,47 +5933,64 @@
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="7"/>
       <c r="G89" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>143</v>
+        <v>355</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L89" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="M89" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="P89" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>156</v>
@@ -6011,21 +6011,21 @@
         <v>23</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>156</v>
@@ -6046,144 +6046,135 @@
         <v>23</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M91" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="92">
+      <c r="A92" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M92" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="92">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K92" s="12" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="93">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="L92" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="P92" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q92" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="93">
-      <c r="A93" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="D93" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H93" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O93" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J93" s="11"/>
-      <c r="K93" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
+      <c r="P93" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="15"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="7" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L94" s="7"/>
       <c r="M94" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="N94" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="O94" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
@@ -6195,71 +6186,60 @@
       <c r="W94" s="7"/>
       <c r="X94" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>373</v>
+        <v>214</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>374</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="11"/>
+      <c r="K95" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
+      <c r="A96" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K95" s="18" t="s">
+      <c r="B96" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L95" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="M95" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="N95" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="O95" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="P95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="R95" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="S95" s="18"/>
-      <c r="T95" s="19"/>
-      <c r="U95" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="96">
-      <c r="A96" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
         <v>22</v>
@@ -6271,44 +6251,48 @@
         <v>22</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="M96" s="18"/>
+        <v>379</v>
+      </c>
+      <c r="M96" s="18" t="s">
+        <v>380</v>
+      </c>
       <c r="N96" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="R96" s="18"/>
+        <v>383</v>
+      </c>
+      <c r="R96" s="18" t="s">
+        <v>384</v>
+      </c>
       <c r="S96" s="18"/>
       <c r="T96" s="19"/>
       <c r="U96" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="97">
       <c r="A97" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>387</v>
+        <v>223</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -6322,50 +6306,44 @@
         <v>22</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M97" s="18"/>
       <c r="N97" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="R97" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="S97" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="T97" s="19" t="s">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="19"/>
       <c r="U97" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6379,52 +6357,50 @@
         <v>22</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>397</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M98" s="18"/>
       <c r="N98" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="R98" s="18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S98" s="18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="T98" s="19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="U98" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6438,44 +6414,52 @@
         <v>22</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="M99" s="18"/>
+        <v>398</v>
+      </c>
+      <c r="M99" s="18" t="s">
+        <v>399</v>
+      </c>
       <c r="N99" s="18" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P99" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
+      <c r="Q99" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="R99" s="18" t="s">
+        <v>384</v>
+      </c>
       <c r="S99" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="T99" s="19"/>
+        <v>402</v>
+      </c>
+      <c r="T99" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="U99" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -6489,26 +6473,26 @@
         <v>22</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
@@ -6516,17 +6500,17 @@
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
       <c r="S100" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T100" s="19"/>
       <c r="U100" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>409</v>
+        <v>258</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6540,101 +6524,97 @@
         <v>22</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M101" s="18"/>
       <c r="N101" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P101" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q101" s="18" t="s">
-        <v>413</v>
-      </c>
+      <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
       <c r="S101" s="18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T101" s="19"/>
       <c r="U101" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F102" s="7"/>
+      <c r="F102" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G102" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M102" s="18"/>
       <c r="N102" s="18" t="s">
-        <v>379</v>
+        <v>247</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P102" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="R102" s="18" t="s">
-        <v>420</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="R102" s="18"/>
       <c r="S102" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="T102" s="19" t="s">
-        <v>422</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="T102" s="19"/>
       <c r="U102" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6646,50 +6626,50 @@
         <v>22</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M103" s="18"/>
       <c r="N103" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P103" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q103" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="R103" s="18" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="S103" s="18" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="T103" s="19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="U103" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6701,48 +6681,50 @@
         <v>22</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P104" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Q104" s="18"/>
+      <c r="Q104" s="18" t="s">
+        <v>429</v>
+      </c>
       <c r="R104" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="T104" s="19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="U104" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6754,48 +6736,48 @@
         <v>22</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M105" s="18"/>
       <c r="N105" s="18" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P105" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q105" s="18"/>
       <c r="R105" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="S105" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="T105" s="19" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="U105" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6807,50 +6789,48 @@
         <v>22</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P106" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q106" s="18" t="s">
-        <v>448</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q106" s="18"/>
       <c r="R106" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S106" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="T106" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="U106" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6862,50 +6842,50 @@
         <v>22</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P107" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q107" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="R107" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S107" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="T107" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="U107" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6917,50 +6897,50 @@
         <v>22</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M108" s="18"/>
       <c r="N108" s="18" t="s">
-        <v>379</v>
+        <v>247</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="P108" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
+      </c>
+      <c r="P108" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R108" s="18" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="S108" s="18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="T108" s="19" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="U108" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6972,50 +6952,50 @@
         <v>22</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M109" s="18"/>
       <c r="N109" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="P109" s="5" t="n">
-        <v>2</v>
+        <v>461</v>
+      </c>
+      <c r="P109" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="Q109" s="18" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="S109" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="T109" s="19" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="U109" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7027,50 +7007,50 @@
         <v>22</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M110" s="18"/>
       <c r="N110" s="18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P110" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q110" s="18" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="R110" s="18" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T110" s="19" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="U110" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7082,48 +7062,50 @@
         <v>22</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M111" s="18"/>
       <c r="N111" s="18" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P111" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q111" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q111" s="18" t="s">
+        <v>476</v>
+      </c>
       <c r="R111" s="18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="T111" s="19" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="U111" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -7135,99 +7117,101 @@
         <v>22</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
+      <c r="N112" s="18" t="s">
+        <v>247</v>
+      </c>
       <c r="O112" s="18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P112" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q112" s="18"/>
       <c r="R112" s="18" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="T112" s="19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="U112" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="113">
-      <c r="A113" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
+      <c r="A113" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="B113" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C113" s="7"/>
-      <c r="D113" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F113" s="7"/>
       <c r="G113" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M113" s="18"/>
-      <c r="N113" s="18" t="s">
-        <v>495</v>
-      </c>
+      <c r="N113" s="18"/>
       <c r="O113" s="18" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P113" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="18" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="S113" s="18" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="T113" s="19" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="U113" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="114">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -7241,163 +7225,160 @@
         <v>22</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L114" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M114" s="18"/>
       <c r="N114" s="18" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P114" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q114" s="18"/>
       <c r="R114" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="S114" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="T114" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="U114" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="115">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="L115" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="T114" s="20" t="s">
+      <c r="M115" s="18"/>
+      <c r="N115" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="O115" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="P115" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="U114" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="115">
-      <c r="A115" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="S115" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="T115" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="U115" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="116">
+      <c r="A116" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="7" t="s">
+      <c r="C116" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K115" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="L115" s="21" t="s">
+      <c r="I116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="M115" s="21" t="s">
+      <c r="K116" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="N115" s="21" t="s">
+      <c r="L116" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="O115" s="21" t="s">
+      <c r="M116" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="P115" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="21" t="s">
+      <c r="N116" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="R115" s="21" t="s">
+      <c r="O116" s="21" t="s">
         <v>512</v>
-      </c>
-      <c r="S115" s="22"/>
-      <c r="T115" s="23"/>
-      <c r="U115" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="V115" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="W115" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="X115" s="24" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="116">
-      <c r="A116" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K116" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="L116" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="M116" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="N116" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="O116" s="21" t="s">
-        <v>385</v>
       </c>
       <c r="P116" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q116" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="R116" s="21"/>
+        <v>513</v>
+      </c>
+      <c r="R116" s="21" t="s">
+        <v>514</v>
+      </c>
       <c r="S116" s="22"/>
       <c r="T116" s="23"/>
-      <c r="U116" s="24"/>
-      <c r="V116" s="24"/>
-      <c r="W116" s="24"/>
-      <c r="X116" s="24"/>
+      <c r="U116" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="V116" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="W116" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="X116" s="24" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>22</v>
@@ -7409,34 +7390,34 @@
         <v>22</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K117" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="L117" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="M117" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="L117" s="21" t="s">
+      <c r="N117" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="O117" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="P117" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="M117" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="N117" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="O117" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="P117" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q117" s="21" t="s">
-        <v>525</v>
       </c>
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
@@ -7446,46 +7427,51 @@
       <c r="W117" s="24"/>
       <c r="X117" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K118" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="L118" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="M118" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="N118" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="O118" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K118" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="L118" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="O118" s="21" t="s">
-        <v>529</v>
       </c>
       <c r="P118" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q118" s="21" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
@@ -7497,10 +7483,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
@@ -7509,30 +7495,32 @@
         <v>22</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M119" s="21"/>
       <c r="N119" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="O119" s="21"/>
+        <v>511</v>
+      </c>
+      <c r="O119" s="21" t="s">
+        <v>531</v>
+      </c>
       <c r="P119" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
@@ -7544,49 +7532,42 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>98</v>
+        <v>533</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G120" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K120" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="L120" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="L120" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="M120" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N120" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="O120" s="21" t="s">
-        <v>538</v>
-      </c>
+      <c r="O120" s="21"/>
       <c r="P120" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
@@ -7596,71 +7577,66 @@
       <c r="W120" s="24"/>
       <c r="X120" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K121" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="L121" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="M121" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="N121" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="O121" s="21" t="s">
         <v>540</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K121" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="L121" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="M121" s="21"/>
-      <c r="N121" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="O121" s="21" t="s">
-        <v>544</v>
       </c>
       <c r="P121" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="R121" s="21" t="s">
-        <v>546</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="R121" s="21"/>
       <c r="S121" s="22"/>
       <c r="T121" s="23"/>
-      <c r="U121" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="V121" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="W121" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="X121" s="24" t="s">
-        <v>550</v>
-      </c>
+      <c r="U121" s="24"/>
+      <c r="V121" s="24"/>
+      <c r="W121" s="24"/>
+      <c r="X121" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -7669,49 +7645,57 @@
         <v>22</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K122" s="21" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M122" s="21"/>
       <c r="N122" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O122" s="21" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P122" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q122" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="R122" s="21"/>
+      <c r="Q122" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="R122" s="21" t="s">
+        <v>548</v>
+      </c>
       <c r="S122" s="22"/>
       <c r="T122" s="23"/>
-      <c r="U122" s="24"/>
+      <c r="U122" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="V122" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="123">
+        <v>550</v>
+      </c>
+      <c r="W122" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="X122" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>409</v>
+        <v>258</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -7720,107 +7704,100 @@
         <v>22</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K123" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P123" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q123" s="21" t="s">
-        <v>559</v>
+      <c r="Q123" s="25" t="s">
+        <v>556</v>
       </c>
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
-      <c r="T123" s="23" t="s">
-        <v>560</v>
-      </c>
+      <c r="T123" s="23"/>
       <c r="U123" s="24"/>
-      <c r="V123" s="24"/>
+      <c r="V123" s="24" t="s">
+        <v>557</v>
+      </c>
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G124" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M124" s="21"/>
       <c r="N124" s="21" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P124" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q124" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="R124" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="S124" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="T124" s="23"/>
-      <c r="U124" s="24" t="s">
-        <v>568</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="R124" s="21"/>
+      <c r="S124" s="22"/>
+      <c r="T124" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="U124" s="24"/>
       <c r="V124" s="24"/>
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
@@ -7832,49 +7809,53 @@
         <v>22</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M125" s="21"/>
       <c r="N125" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P125" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q125" s="21"/>
+      <c r="Q125" s="21" t="s">
+        <v>567</v>
+      </c>
       <c r="R125" s="21" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="S125" s="22" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="T125" s="23"/>
-      <c r="U125" s="24"/>
+      <c r="U125" s="24" t="s">
+        <v>570</v>
+      </c>
       <c r="V125" s="24"/>
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
@@ -7886,456 +7867,455 @@
         <v>22</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M126" s="21"/>
       <c r="N126" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O126" s="21" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P126" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q126" s="21" t="s">
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="S126" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="T126" s="23"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
+      <c r="A127" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K127" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="L127" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="R126" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="S126" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="T126" s="23"/>
-      <c r="U126" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="V126" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="W126" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="X126" s="24" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="127">
-      <c r="A127" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K127" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="L127" s="21" t="s">
-        <v>586</v>
       </c>
       <c r="M127" s="21"/>
       <c r="N127" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O127" s="21" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="P127" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q127" s="26" t="s">
+      <c r="Q127" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="R127" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="S127" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="T127" s="23"/>
+      <c r="U127" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="V127" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="W127" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="X127" s="24" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="128">
+      <c r="A128" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K128" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="L128" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="R127" s="21" t="s">
+      <c r="M128" s="21"/>
+      <c r="N128" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="O128" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="S127" s="22" t="s">
+      <c r="P128" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="T127" s="23" t="s">
+      <c r="R128" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="U127" s="24"/>
-      <c r="V127" s="24" t="s">
+      <c r="S128" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="W127" s="24"/>
-      <c r="X127" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="128">
-      <c r="A128" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="T128" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="E128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K128" s="26" t="s">
+      <c r="U128" s="24"/>
+      <c r="V128" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="L128" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="O128" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="P128" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q128" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="R128" s="26"/>
-      <c r="S128" s="27"/>
-      <c r="T128" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="U128" s="24"/>
-      <c r="V128" s="24"/>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K129" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="L129" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="M129" s="26"/>
+      <c r="N129" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="O129" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="P129" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q129" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="7" t="s">
+      <c r="R129" s="26"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="130">
+      <c r="A130" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I129" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K129" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="L129" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="M129" s="21"/>
-      <c r="N129" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="O129" s="21" t="s">
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K130" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="P129" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q129" s="21" t="s">
+      <c r="L130" s="21" t="s">
         <v>604</v>
-      </c>
-      <c r="R129" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="S129" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="T129" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="U129" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="V129" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="130">
-      <c r="A130" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K130" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="L130" s="21" t="s">
-        <v>613</v>
       </c>
       <c r="M130" s="21"/>
       <c r="N130" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O130" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="P130" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="R130" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="S130" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="T130" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="U130" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="V130" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="W130" s="24"/>
+      <c r="X130" s="24" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="131">
+      <c r="A131" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K131" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="P130" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q130" s="21" t="s">
+      <c r="L131" s="21" t="s">
         <v>615</v>
-      </c>
-      <c r="R130" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="S130" s="22"/>
-      <c r="T130" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="U130" s="24"/>
-      <c r="V130" s="24"/>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="131">
-      <c r="A131" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K131" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="L131" s="21" t="s">
-        <v>620</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O131" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="P131" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q131" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="R131" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="S131" s="22"/>
+      <c r="T131" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="U131" s="24"/>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="132">
+      <c r="A132" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K132" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="P131" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21" t="s">
+      <c r="L132" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="S131" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="T131" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="U131" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="V131" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="132">
-      <c r="A132" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K132" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="L132" s="21" t="s">
-        <v>629</v>
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O132" s="21" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="P132" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q132" s="21" t="s">
+      <c r="Q132" s="21"/>
+      <c r="R132" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="S132" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="T132" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="U132" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="V132" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="W132" s="24"/>
+      <c r="X132" s="24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K133" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="L133" s="21" t="s">
         <v>631</v>
-      </c>
-      <c r="R132" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="S132" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="T132" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="U132" s="24"/>
-      <c r="V132" s="24"/>
-      <c r="W132" s="24"/>
-      <c r="X132" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="133">
-      <c r="A133" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K133" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="L133" s="21" t="s">
-        <v>636</v>
       </c>
       <c r="M133" s="21"/>
       <c r="N133" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="P133" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="R133" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="S133" s="22"/>
+        <v>634</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>445</v>
+      </c>
       <c r="T133" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="U133" s="24" t="s">
-        <v>640</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="U133" s="24"/>
       <c r="V133" s="24"/>
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>22</v>
@@ -8344,55 +8324,53 @@
         <v>22</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M134" s="21"/>
       <c r="N134" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O134" s="21" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="P134" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q134" s="21" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="R134" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="S134" s="22" t="s">
-        <v>443</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="S134" s="22"/>
       <c r="T134" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="U134" s="24"/>
+        <v>562</v>
+      </c>
+      <c r="U134" s="24" t="s">
+        <v>642</v>
+      </c>
       <c r="V134" s="24"/>
       <c r="W134" s="24"/>
-      <c r="X134" s="24" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="135">
+      <c r="X134" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>22</v>
@@ -8401,159 +8379,161 @@
         <v>22</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L135" s="21" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="M135" s="21"/>
       <c r="N135" s="21" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="O135" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="P135" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q135" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="R135" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="S135" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="T135" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="U135" s="24"/>
+      <c r="V135" s="24"/>
+      <c r="W135" s="24"/>
+      <c r="X135" s="24" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="136">
+      <c r="A136" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K136" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="P135" s="21" t="n">
+      <c r="L136" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="O136" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="P136" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q135" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="R135" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="S135" s="22"/>
-      <c r="T135" s="23" t="s">
+      <c r="Q136" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="U135" s="24"/>
-      <c r="V135" s="24" t="s">
+      <c r="R136" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="W135" s="24"/>
-      <c r="X135" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="136">
-      <c r="A136" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K136" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="L136" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="M136" s="26"/>
-      <c r="N136" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="O136" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="P136" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q136" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="R136" s="21"/>
       <c r="S136" s="22"/>
       <c r="T136" s="23" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="U136" s="24"/>
-      <c r="V136" s="24"/>
+      <c r="V136" s="24" t="s">
+        <v>658</v>
+      </c>
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K137" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="L137" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="M137" s="26"/>
+      <c r="N137" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="O137" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="P137" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q137" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="E137" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K137" s="21" t="s">
+      <c r="R137" s="21"/>
+      <c r="S137" s="22"/>
+      <c r="T137" s="23" t="s">
         <v>664</v>
-      </c>
-      <c r="L137" s="21" t="s">
-        <v>665</v>
-      </c>
-      <c r="M137" s="21"/>
-      <c r="N137" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="O137" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="P137" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="R137" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="S137" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="T137" s="28" t="s">
-        <v>670</v>
       </c>
       <c r="U137" s="24"/>
       <c r="V137" s="24"/>
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>22</v>
@@ -8562,55 +8542,53 @@
         <v>22</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="M138" s="21"/>
       <c r="N138" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O138" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="P138" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q138" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="R138" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="S138" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="T138" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="U138" s="24" t="s">
-        <v>678</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q138" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="R138" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="S138" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="T138" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="U138" s="24"/>
       <c r="V138" s="24"/>
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>22</v>
@@ -8619,47 +8597,104 @@
         <v>22</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O139" s="21" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="P139" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q139" s="21" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="S139" s="22"/>
+        <v>678</v>
+      </c>
+      <c r="S139" s="22" t="s">
+        <v>395</v>
+      </c>
       <c r="T139" s="23" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="U139" s="24" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="V139" s="24"/>
       <c r="W139" s="24"/>
-      <c r="X139" s="24" t="s">
+      <c r="X139" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="140">
+      <c r="A140" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K140" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="L140" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="M140" s="21"/>
+      <c r="N140" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="O140" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="P140" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q140" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="R140" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="S140" s="22"/>
+      <c r="T140" s="23" t="s">
         <v>687</v>
+      </c>
+      <c r="U140" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="V140" s="24"/>
+      <c r="W140" s="24"/>
+      <c r="X140" s="24" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="698">
   <si>
     <t>table</t>
   </si>
@@ -314,1327 +314,1351 @@
     <t>facility_id</t>
   </si>
   <si>
+    <t>HMS Dataset ID</t>
+  </si>
+  <si>
+    <t>Center specific ID of the assay assigned by the center</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Assay title</t>
+  </si>
+  <si>
+    <t>lead_screener_firstname</t>
+  </si>
+  <si>
+    <t>Lead Screener First</t>
+  </si>
+  <si>
+    <t>Assay lead screener</t>
+  </si>
+  <si>
+    <t>lead_screener_lastname</t>
+  </si>
+  <si>
+    <t>Lead Screener Last</t>
+  </si>
+  <si>
+    <t>lead_screener_email</t>
+  </si>
+  <si>
+    <t>Lead Screener Email</t>
+  </si>
+  <si>
+    <t>lead_screener</t>
+  </si>
+  <si>
+    <t>Investigator</t>
+  </si>
+  <si>
+    <t>Investigator who ran experiment and provided dataset</t>
+  </si>
+  <si>
+    <t>lab_head_firstname</t>
+  </si>
+  <si>
+    <t>Lab Head First</t>
+  </si>
+  <si>
+    <t>Assay lab head</t>
+  </si>
+  <si>
+    <t>lab_head_lastname</t>
+  </si>
+  <si>
+    <t>Lab Head Last</t>
+  </si>
+  <si>
+    <t>lab_head_email</t>
+  </si>
+  <si>
+    <t>Lab Head Email</t>
+  </si>
+  <si>
+    <t>lab_head</t>
+  </si>
+  <si>
+    <t>Lab Head</t>
+  </si>
+  <si>
+    <t>PI of lab that provided the dataset</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Summary of this dataset</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>The protocol used when conducting this assay</t>
+  </si>
+  <si>
+    <t>protocol_references</t>
+  </si>
+  <si>
+    <t>Protocol Reference</t>
+  </si>
+  <si>
+    <t>References for the protocol</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>library_name</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>The full name of this library</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
+    <t>The abbreviated name of this library</t>
+  </si>
+  <si>
+    <t>date_first_plated</t>
+  </si>
+  <si>
+    <t>Date First Plated</t>
+  </si>
+  <si>
+    <t>When the compounds for this library were transferred to screening plates</t>
+  </si>
+  <si>
+    <t>date_data_received</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Date Data Received</t>
+  </si>
+  <si>
+    <t>Date that data were received</t>
+  </si>
+  <si>
+    <t>date_publicly_available</t>
+  </si>
+  <si>
+    <t>Date Publicly Available</t>
+  </si>
+  <si>
+    <t>Date that data were made publicly available</t>
+  </si>
+  <si>
+    <t>date_loaded</t>
+  </si>
+  <si>
+    <t>Date Loaded</t>
+  </si>
+  <si>
+    <t>Date that data were loaded</t>
+  </si>
+  <si>
+    <t>is_restricted</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Is Restricted</t>
+  </si>
+  <si>
+    <t>Indicates that this data are for authenticated viewers only</t>
+  </si>
+  <si>
+    <t>librarymapping</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>The library plate</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>The library well</t>
+  </si>
+  <si>
+    <t>is_control</t>
+  </si>
+  <si>
+    <t>Is Control Well</t>
+  </si>
+  <si>
+    <t>If True, this well is a control well (positive or negative, depending on experimental usage), and does not contain a test reagent</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>The concentration of the compound on the library plate</t>
+  </si>
+  <si>
+    <t>concentration_unit</t>
+  </si>
+  <si>
+    <t>Concentration Unit</t>
+  </si>
+  <si>
+    <t>One of (nM,uM,mM)</t>
+  </si>
+  <si>
+    <t>well_count</t>
+  </si>
+  <si>
+    <t># Wells</t>
+  </si>
+  <si>
+    <t>Number of wells in this library</t>
+  </si>
+  <si>
+    <t>plate_count</t>
+  </si>
+  <si>
+    <t># Plates</t>
+  </si>
+  <si>
+    <t>Number of plates in this library</t>
+  </si>
+  <si>
+    <t>sm_count</t>
+  </si>
+  <si>
+    <t># Small Molecules</t>
+  </si>
+  <si>
+    <t>Number of distinct small molecules in this library</t>
+  </si>
+  <si>
+    <t>attachedfile</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Name portion of the file path</t>
+  </si>
+  <si>
+    <t>relative_path</t>
+  </si>
+  <si>
+    <t>Relative Path</t>
+  </si>
+  <si>
+    <t>Path relative to the doc root.</t>
+  </si>
+  <si>
+    <t>facility_id_for</t>
+  </si>
+  <si>
+    <t>Facility ID for</t>
+  </si>
+  <si>
+    <t>The Facility ID of the entity this attached file is for.</t>
+  </si>
+  <si>
+    <t>salt_id_for</t>
+  </si>
+  <si>
+    <t>Salt ID for</t>
+  </si>
+  <si>
+    <t>The Salt ID of the Small Molecule this attached file is for</t>
+  </si>
+  <si>
+    <t>batch_id_for</t>
+  </si>
+  <si>
+    <t>Batch ID for</t>
+  </si>
+  <si>
+    <t>The Batch ID of the Entity this attached file is for.</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Type designation</t>
+  </si>
+  <si>
+    <t>file_date</t>
+  </si>
+  <si>
+    <t>File Date</t>
+  </si>
+  <si>
+    <t>Date entered for this file</t>
+  </si>
+  <si>
+    <t>datarecord</t>
+  </si>
+  <si>
+    <t>Recorded Plate</t>
+  </si>
+  <si>
+    <t>The Plate that was recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>Recorded Well</t>
+  </si>
+  <si>
+    <t>The Well that was recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>control_type</t>
+  </si>
+  <si>
+    <t>Control Type</t>
+  </si>
+  <si>
+    <t>The type of Control Well recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>omero_image_id</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>The image recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>smallmolecule</t>
+  </si>
+  <si>
+    <t>sm_name</t>
+  </si>
+  <si>
+    <t>2012-05-04</t>
+  </si>
+  <si>
+    <t>SM:1</t>
+  </si>
+  <si>
+    <t>SM_Name</t>
+  </si>
+  <si>
+    <t>canonical structure</t>
+  </si>
+  <si>
+    <t>The primary name for the (parent) compound (in a standardized representation) as chosen by LINCS</t>
+  </si>
+  <si>
+    <t>common, recognizable, name</t>
+  </si>
+  <si>
+    <t>DrugBank, PubChem, ChEMBL</t>
+  </si>
+  <si>
+    <t>lincs_id</t>
+  </si>
+  <si>
+    <t>SM:2</t>
+  </si>
+  <si>
+    <t>SM_LINCS_ID</t>
+  </si>
+  <si>
+    <t>The global LINCS ID  (parent) compound (in a standardized representaiton)</t>
+  </si>
+  <si>
+    <t>alternative_names</t>
+  </si>
+  <si>
+    <t>SM:3</t>
+  </si>
+  <si>
+    <t>SM_Alternative_Names</t>
+  </si>
+  <si>
+    <t>List of synonymous compound names, drug name (if applicable), and other alternative names</t>
+  </si>
+  <si>
+    <t>drug names can come from common drug name available from DrugBank, TTD, NPC or other resources</t>
+  </si>
+  <si>
+    <t>DrugBank, PubChem, ChEMBL, DrugBank, TTD, NPC</t>
+  </si>
+  <si>
+    <t>SM:4</t>
+  </si>
+  <si>
+    <t>SM_Center_Compound_ID</t>
+  </si>
+  <si>
+    <t>Small Molecule Facility ID</t>
+  </si>
+  <si>
+    <t>Center specific compound ID of the (parent structure) assigned by the center</t>
+  </si>
+  <si>
+    <t>facility_salt</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Small Mol HMS LINCS ID</t>
+  </si>
+  <si>
+    <t>Combination of HMS Facility ID and Salt ID</t>
+  </si>
+  <si>
+    <t>facility_salt_batch</t>
+  </si>
+  <si>
+    <t>smallmoleculebatch</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Combination of HMS Facility ID (SM:4 – SM_Center_Compound_ID) , Salt ID, and Batch ID (SM:5 - SM_Center_Sample_ID)</t>
+  </si>
+  <si>
+    <t>salt_id</t>
+  </si>
+  <si>
+    <t>SM:9</t>
+  </si>
+  <si>
+    <t>SM_Salt</t>
+  </si>
+  <si>
+    <t>Salt ID</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Reference to counter-ions and other addends present in the compound’s formulation</t>
+  </si>
+  <si>
+    <t>HMS LINCS has developed a three digit “salt code” used as part of the facility ID for its compounds</t>
+  </si>
+  <si>
+    <t>need a salt addend DB, which UM can provide</t>
+  </si>
+  <si>
+    <t>pubchem_cid</t>
+  </si>
+  <si>
+    <t>SM:10</t>
+  </si>
+  <si>
+    <t>SM_PubChem_CID</t>
+  </si>
+  <si>
+    <t>CID that corresponds to the standardized parent compound in NCBI’s PubChem database; after applying the same business rules</t>
+  </si>
+  <si>
+    <t>This is the PubChem compound ID, and not to be confused with the substance ID.</t>
+  </si>
+  <si>
+    <t>PubChem</t>
+  </si>
+  <si>
+    <t>http://pubchem.ncbi.nlm.nih.gov/</t>
+  </si>
+  <si>
+    <t>PubChem CID of main LINCS compound representation</t>
+  </si>
+  <si>
+    <t>chebi_id</t>
+  </si>
+  <si>
+    <t>SM:11</t>
+  </si>
+  <si>
+    <t>SM_ChEBI_ID</t>
+  </si>
+  <si>
+    <t>ChEBI ID that corresponds to the standardized parent compound in NCBI’s PubChem database; after applying the same business rules</t>
+  </si>
+  <si>
+    <t>ChEBI ID; ChEBI is curated and we may submit important structure to ChEBI</t>
+  </si>
+  <si>
+    <t>ChEBI</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/chebi/</t>
+  </si>
+  <si>
+    <t>molecular_mass</t>
+  </si>
+  <si>
+    <t>SM:21</t>
+  </si>
+  <si>
+    <t>SM_Molecular_Mass</t>
+  </si>
+  <si>
+    <t>Molecular mass of one molecule (including addends) of the compound in Daltons (unified atomic mass units)</t>
+  </si>
+  <si>
+    <t>this includes salts and addends and no structure canonicalization; full structure</t>
+  </si>
+  <si>
+    <t>molecular_formula</t>
+  </si>
+  <si>
+    <t>SM:22</t>
+  </si>
+  <si>
+    <t>SM_Molecular_Formula</t>
+  </si>
+  <si>
+    <t>String representation of the compound with addends; type and number of the different atoms in the compound; without structural details</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>SM:14</t>
+  </si>
+  <si>
+    <t>SM_SMILES_Parent</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>Canonical SMILES representation of parent (standardized) chemical structure generated by LINCS business rules</t>
+  </si>
+  <si>
+    <t>standardized small molecule representation; documented standardization protocol</t>
+  </si>
+  <si>
+    <t>inchi</t>
+  </si>
+  <si>
+    <t>SM:12</t>
+  </si>
+  <si>
+    <t>SM_InChi_Parent</t>
+  </si>
+  <si>
+    <t>InChi</t>
+  </si>
+  <si>
+    <t>InChi representation of parent (standardized) chemical structure chemical structure generated by LINCS business rules</t>
+  </si>
+  <si>
+    <t>inchi_key</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>SM:13</t>
+  </si>
+  <si>
+    <t>SM_InChi_Key_Parent</t>
+  </si>
+  <si>
+    <t>InChi Key</t>
+  </si>
+  <si>
+    <t>InChi key of parent (standardized) chemical structure generated by LINCS business rules</t>
+  </si>
+  <si>
+    <t>derived from InChi</t>
+  </si>
+  <si>
+    <t>chembl_id</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ChEMBL ID</t>
+  </si>
+  <si>
+    <t>ChEMBL is a database of bioactive drug-like small molecules, it contains 2-D structures, calculated properties (e.g. logP, Molecular Weight, Lipinski Parameters, etc.) and abstracted bioactivities (e.g. binding constants, pharmacology and ADMET data)</t>
+  </si>
+  <si>
+    <t>molfile</t>
+  </si>
+  <si>
+    <t>Molfile</t>
+  </si>
+  <si>
+    <t>Molfile used to generate smiles/inchi</t>
+  </si>
+  <si>
+    <t>canonical_structure</t>
+  </si>
+  <si>
+    <t>_undefined</t>
+  </si>
+  <si>
+    <t>SM:15</t>
+  </si>
+  <si>
+    <t>SM_Image_Parent</t>
+  </si>
+  <si>
+    <t>An image of the parent (standardized) compound produced using structure rendering software</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>SM:19</t>
+  </si>
+  <si>
+    <t>SM_Software</t>
+  </si>
+  <si>
+    <t>Name, Version, Link for Software used to generate InChi and SMILES</t>
+  </si>
+  <si>
+    <t>The software versions are available from IUPAC</t>
+  </si>
+  <si>
+    <t>target_information_references</t>
+  </si>
+  <si>
+    <t>SM:20</t>
+  </si>
+  <si>
+    <t>SM_Target Information_References</t>
+  </si>
+  <si>
+    <t>Information about the pharmacological target(s) of the compound in cells, e.g. proteins or other molecules with which the drug interacts to confer its effect. Appropriate literature references should also be provided.</t>
+  </si>
+  <si>
+    <t>this should include references to other databases where such information can be extracted; it appears unrealistic to maintain the available external biological activity data for LINCS compounds; if we create a database we can reference this; this will be implemented in multiple fields</t>
+  </si>
+  <si>
+    <t>it appears that this should be a separate database that links here</t>
+  </si>
+  <si>
+    <t>facility_batch_id</t>
+  </si>
+  <si>
+    <t>SM:5</t>
+  </si>
+  <si>
+    <t>SM_Center_Sample_ID</t>
+  </si>
+  <si>
+    <t>Batch ID</t>
+  </si>
+  <si>
+    <t>Sample ID of the tested compound, referring to  of the tested sample; assigned after local registry of the compound (center specific)</t>
+  </si>
+  <si>
+    <t>assigned by local LINCS center</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>SM:6</t>
+  </si>
+  <si>
+    <t>SM_Provider</t>
+  </si>
+  <si>
+    <t>Vendor or lab that supplied the compound</t>
+  </si>
+  <si>
+    <t>list of vendor names and other providers</t>
+  </si>
+  <si>
+    <t>provider_catalog_id</t>
+  </si>
+  <si>
+    <t>SM:7</t>
+  </si>
+  <si>
+    <t>SM_Provider_Catalog_ID</t>
+  </si>
+  <si>
+    <t>ID or catalogue number assigned to the specific supplied sample by the vendor or provider</t>
+  </si>
+  <si>
+    <t>provider_sample_id</t>
+  </si>
+  <si>
+    <t>SM:8</t>
+  </si>
+  <si>
+    <t>SM_Provider_Sample_ID</t>
+  </si>
+  <si>
+    <t>Provider Batch ID</t>
+  </si>
+  <si>
+    <t>Sample ID of the compound obtained from the provider or vendor (if available); this should include batch and / or lot number</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>SM:16</t>
+  </si>
+  <si>
+    <t>SM_InChi_Batch</t>
+  </si>
+  <si>
+    <t>InChi representation of the actual sample (batch) structure</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>SM:17</t>
+  </si>
+  <si>
+    <t>SM_InChi_Key_Batch</t>
+  </si>
+  <si>
+    <t>InChi key of the actual sample (batch) structure</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>SM:18</t>
+  </si>
+  <si>
+    <t>SM_SMILES_Batch</t>
+  </si>
+  <si>
+    <t>Canonical SMILES representation of the actual sample (batch) structure</t>
+  </si>
+  <si>
+    <t>chemical_synthesis_reference</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>SM:23</t>
+  </si>
+  <si>
+    <t>SM_Chemical_Synthesis_Reference</t>
+  </si>
+  <si>
+    <t>Reference to the synthetic procedure by which a molecule has been generated</t>
+  </si>
+  <si>
+    <t>suggested by MIABE; if available</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>SM:24</t>
+  </si>
+  <si>
+    <t>SM_Purity</t>
+  </si>
+  <si>
+    <t>Purity of the compound in percent</t>
+  </si>
+  <si>
+    <t>purity_method</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>SM:25</t>
+  </si>
+  <si>
+    <t>SM_Purity_Method</t>
+  </si>
+  <si>
+    <t>Method for determining the purity of the compound</t>
+  </si>
+  <si>
+    <t>aqueous_solubility</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>SM:26</t>
+  </si>
+  <si>
+    <t>SM_Aqueous_Solubility</t>
+  </si>
+  <si>
+    <t>The actual (measured) aqueous solubility of the compound in mg / mL or g / L</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>logp_hydrophobicity_score</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>SM:27</t>
+  </si>
+  <si>
+    <t>SM_LogP</t>
+  </si>
+  <si>
+    <t>The logarithm of the actual (measured) water/octanol partition coefficient (logP) or hydrophobicity score</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>protein_name</t>
+  </si>
+  <si>
+    <t>2012-07-31</t>
+  </si>
+  <si>
+    <t>PP:1</t>
+  </si>
+  <si>
+    <t>PP_Name</t>
+  </si>
+  <si>
+    <t>Protein Name</t>
+  </si>
+  <si>
+    <t>canonical protein</t>
+  </si>
+  <si>
+    <t>The primary name of the protein as chosen by LINCS</t>
+  </si>
+  <si>
+    <t>Should be descriptive and correspond to existing protein names as much as possible; batch independent name. If there are multiple isoforms of a protein, even if each isoform does not have a unique UniProt ID, each isoform should have a unique LINCS ID.</t>
+  </si>
+  <si>
+    <t>UniProt</t>
+  </si>
+  <si>
+    <t>PP:2</t>
+  </si>
+  <si>
+    <t>PP_LINCS_ID</t>
+  </si>
+  <si>
+    <t>Unique LINCS internal identifier</t>
+  </si>
+  <si>
+    <t>LINCS internal ID; this is a batch independent ID; canonical protein ID</t>
+  </si>
+  <si>
+    <t>uniprot_id</t>
+  </si>
+  <si>
+    <t>PP:3</t>
+  </si>
+  <si>
+    <t>PP_UniProt_ID</t>
+  </si>
+  <si>
+    <t>The UniProt accession of the specific protein, if available. If the UniProt ID of a related entity is used instead, this should be documented explicitly.</t>
+  </si>
+  <si>
+    <t>Uniprot accession is typically used as the primary ID</t>
+  </si>
+  <si>
+    <t>UniProt ID</t>
+  </si>
+  <si>
+    <t>http://www.uniprot.org/</t>
+  </si>
+  <si>
+    <t>alternate_name</t>
+  </si>
+  <si>
+    <t>PP:4</t>
+  </si>
+  <si>
+    <t>PP_Alternate_Name</t>
+  </si>
+  <si>
+    <t>Alternate Names</t>
+  </si>
+  <si>
+    <t>List of synonymous protein names</t>
+  </si>
+  <si>
+    <t>Synonyms will be obtained from the UniProt database. All UniProt names (Recommended names and Alternative names) should be imported into this field.</t>
+  </si>
+  <si>
+    <t>UniProt, Entez, …</t>
+  </si>
+  <si>
+    <t>PP:5</t>
+  </si>
+  <si>
+    <t>PP_Provider</t>
+  </si>
+  <si>
+    <t>Vendor or lab that supplied the protein</t>
+  </si>
+  <si>
+    <t>Vendor name</t>
+  </si>
+  <si>
+    <t>PP:6</t>
+  </si>
+  <si>
+    <t>PP_Provider_Catalog_ID</t>
+  </si>
+  <si>
+    <t>Batch ID or catalogue number assigned to the protein by the vendor or provider</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>batch_id</t>
+  </si>
+  <si>
+    <t>PP:7</t>
+  </si>
+  <si>
+    <t>PP_Batch ID</t>
+  </si>
+  <si>
+    <t>Batch or lot number assigned to the protein by the vendor or provider</t>
+  </si>
+  <si>
+    <t>Provided by the protein vendor or provider</t>
+  </si>
+  <si>
+    <t>Vendor batch ID</t>
+  </si>
+  <si>
+    <t>amino_acid_sequence</t>
+  </si>
+  <si>
+    <t>PP:8</t>
+  </si>
+  <si>
+    <t>PP_Amino_Acid_Sequence</t>
+  </si>
+  <si>
+    <t>If the protein is a peptide, protein fragment, or small protein, the amino acid sequence of the perturbagen should be provided</t>
+  </si>
+  <si>
+    <t>This information is usually provided by vendor, but not often referenced to a specific nucleotide sequence. It is more informative than the PRO Name etc.</t>
+  </si>
+  <si>
+    <t>NCBI/Protein</t>
+  </si>
+  <si>
+    <t>Protein sequence</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/protein/</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>PP:9</t>
+  </si>
+  <si>
+    <t>PP_Gene_Symbol</t>
+  </si>
+  <si>
+    <t>The NCBI gene name. In cases where the protein is modified (the protein sequence differs from the sequence encoded by the gene listed), it should be described in PP:18.</t>
+  </si>
+  <si>
+    <t>This information is very useful for queries across datasets, e.g. drug versus ligands versus expression changes.</t>
+  </si>
+  <si>
+    <t>NCBI/Gene</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/gene</t>
+  </si>
+  <si>
+    <t>gene_id</t>
+  </si>
+  <si>
+    <t>PP:10</t>
+  </si>
+  <si>
+    <t>PP_Gene_ID</t>
+  </si>
+  <si>
+    <t>Entrez Gene ID if using NCBI gene name</t>
+  </si>
+  <si>
+    <t>NCBI</t>
+  </si>
+  <si>
+    <t>Gene ID</t>
+  </si>
+  <si>
+    <t>protein_source</t>
+  </si>
+  <si>
+    <t>PP:11</t>
+  </si>
+  <si>
+    <t>PP_Protein_Source</t>
+  </si>
+  <si>
+    <t>A controlled vocabulary describing the source of the protein (e.g. chemically synthesized, recombinantly expressed in E. coli, etc.)</t>
+  </si>
+  <si>
+    <t>BAO</t>
+  </si>
+  <si>
+    <t>Protein preparation method</t>
+  </si>
+  <si>
+    <t>http://bioportal.bioontology.org/ontologies/1533</t>
+  </si>
+  <si>
+    <t>protein_form</t>
+  </si>
+  <si>
+    <t>PP:12</t>
+  </si>
+  <si>
+    <t>PP_Protein_Form</t>
+  </si>
+  <si>
+    <t>A description of a protein's modification status (e.g, if it was mutated, post-translationally modified etc.). If a DNA vector was used to express the modified protein in a cell line, a description of the DNA vector needs to be provided (see below).</t>
+  </si>
+  <si>
+    <t>If available</t>
+  </si>
+  <si>
+    <t>Protein form</t>
+  </si>
+  <si>
+    <t>protein_purity</t>
+  </si>
+  <si>
+    <t>PP:13</t>
+  </si>
+  <si>
+    <t>PP_Protein_Purity</t>
+  </si>
+  <si>
+    <t>A description of a protein's level of purity (e.g., if it was partially purified, purified, unpurified, etc.)</t>
+  </si>
+  <si>
+    <t>This can't be a required field as this information is not always provided by the vendor.</t>
+  </si>
+  <si>
+    <t>Protein purity</t>
+  </si>
+  <si>
+    <t>protein_complex</t>
+  </si>
+  <si>
+    <t>PP:14</t>
+  </si>
+  <si>
+    <t>PP_Protein_Complex</t>
+  </si>
+  <si>
+    <t>The description of a macromolecular complex composed of two or more polypeptide subunits, which may or may not be identical. The individual subunits should be described as being part of a protein complex (e.g. heterotrimer of alpha, beta and gamma subunits), the name of the protein complex, individual subunit protein name, protein ID, gene name and gene ID.</t>
+  </si>
+  <si>
+    <t>1, If relevant</t>
+  </si>
+  <si>
+    <t>If a protein complex is described and given a single LINCS ID, information about each subunit will have to be provided (e.g the entry will have multiple UniProt IDs associated with it….).</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>Protein complex: has part subunit</t>
+  </si>
+  <si>
+    <t>http://bioportal.bioontology.org/ontologies/1062</t>
+  </si>
+  <si>
+    <t>isoform</t>
+  </si>
+  <si>
+    <t>PP:15</t>
+  </si>
+  <si>
+    <t>PP_Isoform</t>
+  </si>
+  <si>
+    <t>This describes whether the protein is an isoform and differs from the initial protein due to either alternative splicing, alternative initiation or ribosomal frameshifting during translation. The isoforms have different protein sequences and hence different protein IDs, though they share the same gene ID.</t>
+  </si>
+  <si>
+    <t>Protein isoform</t>
+  </si>
+  <si>
+    <t>protein_type</t>
+  </si>
+  <si>
+    <t>PP:16</t>
+  </si>
+  <si>
+    <t>PP_Protein_Type</t>
+  </si>
+  <si>
+    <t>A controlled vocabulary, if one exists, specifying whether the protein is a growth factor, peptide, protein, etc.</t>
+  </si>
+  <si>
+    <t>The vocabulary here is important; it gets fuzzy as what is a growth factor vs. a cytokine. This can be made unambiguous by describing these concepts as a role of a protein, whether it functions as a 'ligand: growth factor' or a 'ligand: cytokine'. We agree that this seems important, but no good ontology of protein types exists and so categorizing proteins by type is a very subjective exercise now.</t>
+  </si>
+  <si>
+    <t>_PRO</t>
+  </si>
+  <si>
+    <t>Ligand: growth factor; Ligand: cytokine</t>
+  </si>
+  <si>
+    <t>http://bioportal.bioontology.org/ontologies/45784?p=terms</t>
+  </si>
+  <si>
+    <t>source_organism</t>
+  </si>
+  <si>
+    <t>PP:17</t>
+  </si>
+  <si>
+    <t>PP_Source_Organism</t>
+  </si>
+  <si>
+    <t>A controlled vocabulary describing the source of the protein (e.g. mouse, rabbit, horse, goat, etc.)</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>http://bioportal.bioontology.org/ontologies/1132</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>PP:18</t>
+  </si>
+  <si>
+    <t>PP_Reference</t>
+  </si>
+  <si>
+    <t>Appropriate literature references can be provided.</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/</t>
+  </si>
+  <si>
+    <t>protein_concentration</t>
+  </si>
+  <si>
+    <t>EXP_PP:1</t>
+  </si>
+  <si>
+    <t>PP_Protein_Concentration</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>The final concentration of protein/peptide used in the assay</t>
+  </si>
+  <si>
+    <t>Concentration value; Concentration unit</t>
+  </si>
+  <si>
+    <t>incubation_time</t>
+  </si>
+  <si>
+    <t>EXO_PP:2</t>
+  </si>
+  <si>
+    <t>PP_Incubation_Time</t>
+  </si>
+  <si>
+    <t>The time of treatment with the protein/peptide target in the assay</t>
+  </si>
+  <si>
+    <t>Incubation time</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>cell_name</t>
+  </si>
+  <si>
+    <t>2012-04-12</t>
+  </si>
+  <si>
+    <t>CL:1</t>
+  </si>
+  <si>
+    <t>CL_Name</t>
+  </si>
+  <si>
+    <t>Cell Name</t>
+  </si>
+  <si>
+    <t>canonical cell line</t>
+  </si>
+  <si>
+    <t>The primary name for the cell line as chosen by LINCS</t>
+  </si>
+  <si>
+    <t>Should be descriptive and correspond to existing cell line names as much as possible; batch independent name</t>
+  </si>
+  <si>
+    <t>need terminology for standard cell line name</t>
+  </si>
+  <si>
+    <t>cell_id_atcc/cell id/cell_id_alt</t>
+  </si>
+  <si>
+    <t>CL:name</t>
+  </si>
+  <si>
+    <t>CMT Cell Line</t>
+  </si>
+  <si>
+    <t>Cell Line</t>
+  </si>
+  <si>
+    <t>cl_id</t>
+  </si>
+  <si>
+    <t>CL:2</t>
+  </si>
+  <si>
+    <t>CL_ID</t>
+  </si>
+  <si>
+    <t>LINCS ID</t>
+  </si>
+  <si>
+    <t>LINCS internal ID; this is a batch independent ID; canonical cell line ID</t>
+  </si>
+  <si>
+    <t>CL:3</t>
+  </si>
+  <si>
+    <t>CL_Alternate_Name</t>
+  </si>
+  <si>
+    <t>Other relevant names</t>
+  </si>
+  <si>
+    <t>synonymous or alternative names; but only significantly different names should be captured</t>
+  </si>
+  <si>
+    <t>alternate_id</t>
+  </si>
+  <si>
+    <t>CL:4</t>
+  </si>
+  <si>
+    <t>CL_Alternate_ID</t>
+  </si>
+  <si>
+    <t>Other relevant IDs for cell lines</t>
+  </si>
+  <si>
+    <t>CLO or other common IDs referring to the same cell line</t>
+  </si>
+  <si>
+    <t>center_name</t>
+  </si>
+  <si>
+    <t>CL:5</t>
+  </si>
+  <si>
+    <t>CL_Center_Name</t>
+  </si>
+  <si>
+    <t>canonical and batch</t>
+  </si>
+  <si>
+    <t>LINCS center using the cell line</t>
+  </si>
+  <si>
+    <t>CL:6</t>
+  </si>
+  <si>
+    <t>CL_Center_Specific_ID</t>
+  </si>
+  <si>
     <t>Facility ID</t>
-  </si>
-  <si>
-    <t>Center specific ID of the assay assigned by the center</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Assay title</t>
-  </si>
-  <si>
-    <t>lead_screener_firstname</t>
-  </si>
-  <si>
-    <t>Lead Screener First</t>
-  </si>
-  <si>
-    <t>Assay lead screener</t>
-  </si>
-  <si>
-    <t>lead_screener_lastname</t>
-  </si>
-  <si>
-    <t>Lead Screener Last</t>
-  </si>
-  <si>
-    <t>lead_screener_email</t>
-  </si>
-  <si>
-    <t>Lead Screener Email</t>
-  </si>
-  <si>
-    <t>lead_screener</t>
-  </si>
-  <si>
-    <t>Lead Screener</t>
-  </si>
-  <si>
-    <t>lab_head_firstname</t>
-  </si>
-  <si>
-    <t>Lab Head First</t>
-  </si>
-  <si>
-    <t>Assay lab head</t>
-  </si>
-  <si>
-    <t>lab_head_lastname</t>
-  </si>
-  <si>
-    <t>Lab Head Last</t>
-  </si>
-  <si>
-    <t>lab_head_email</t>
-  </si>
-  <si>
-    <t>Lab Head Email</t>
-  </si>
-  <si>
-    <t>lab_head</t>
-  </si>
-  <si>
-    <t>Lab Head</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Summary of this dataset</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>The protocol used when conducting this assay</t>
-  </si>
-  <si>
-    <t>protocol_references</t>
-  </si>
-  <si>
-    <t>Protocol Reference</t>
-  </si>
-  <si>
-    <t>References for the protocol</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>library_name</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>The full name of this library</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Library Name</t>
-  </si>
-  <si>
-    <t>The abbreviated name of this library</t>
-  </si>
-  <si>
-    <t>date_first_plated</t>
-  </si>
-  <si>
-    <t>Date First Plated</t>
-  </si>
-  <si>
-    <t>When the compounds for this library were transferred to screening plates</t>
-  </si>
-  <si>
-    <t>date_data_received</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Date Data Received</t>
-  </si>
-  <si>
-    <t>Date that data were received</t>
-  </si>
-  <si>
-    <t>date_publicly_available</t>
-  </si>
-  <si>
-    <t>Date Publicly Available</t>
-  </si>
-  <si>
-    <t>Date that data were made publicly available</t>
-  </si>
-  <si>
-    <t>date_loaded</t>
-  </si>
-  <si>
-    <t>Date Loaded</t>
-  </si>
-  <si>
-    <t>Date that data were loaded</t>
-  </si>
-  <si>
-    <t>is_restricted</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>Is Restricted</t>
-  </si>
-  <si>
-    <t>Indicates that this data are for authenticated viewers only</t>
-  </si>
-  <si>
-    <t>librarymapping</t>
-  </si>
-  <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>The library plate</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>The library well</t>
-  </si>
-  <si>
-    <t>is_control</t>
-  </si>
-  <si>
-    <t>Is Control Well</t>
-  </si>
-  <si>
-    <t>This well is a control well (positive or negative, depending on experimental usage)</t>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>The concentration of the compound on the library plate</t>
-  </si>
-  <si>
-    <t>concentration_unit</t>
-  </si>
-  <si>
-    <t>Concentration Unit</t>
-  </si>
-  <si>
-    <t>One of (nM,uM,mM)</t>
-  </si>
-  <si>
-    <t>well_count</t>
-  </si>
-  <si>
-    <t>Wells</t>
-  </si>
-  <si>
-    <t>Number of wells in this library</t>
-  </si>
-  <si>
-    <t>plate_count</t>
-  </si>
-  <si>
-    <t>Plates</t>
-  </si>
-  <si>
-    <t>Number of plates in this library</t>
-  </si>
-  <si>
-    <t>sm_count</t>
-  </si>
-  <si>
-    <t>Small Molecules</t>
-  </si>
-  <si>
-    <t>Number of distinct small molecules in this library</t>
-  </si>
-  <si>
-    <t>attachedfile</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Name portion of the file path</t>
-  </si>
-  <si>
-    <t>relative_path</t>
-  </si>
-  <si>
-    <t>Relative Path</t>
-  </si>
-  <si>
-    <t>Path relative to the doc root.</t>
-  </si>
-  <si>
-    <t>facility_id_for</t>
-  </si>
-  <si>
-    <t>Facility ID for</t>
-  </si>
-  <si>
-    <t>The Facility ID of the entity this attached file is for.</t>
-  </si>
-  <si>
-    <t>salt_id_for</t>
-  </si>
-  <si>
-    <t>Salt ID for</t>
-  </si>
-  <si>
-    <t>The Salt ID of the Small Molecule this attached file is for</t>
-  </si>
-  <si>
-    <t>batch_id_for</t>
-  </si>
-  <si>
-    <t>Batch ID for</t>
-  </si>
-  <si>
-    <t>The Batch ID of the Entity this attached file is for.</t>
-  </si>
-  <si>
-    <t>file_type</t>
-  </si>
-  <si>
-    <t>File Type</t>
-  </si>
-  <si>
-    <t>Type designation</t>
-  </si>
-  <si>
-    <t>file_date</t>
-  </si>
-  <si>
-    <t>File Date</t>
-  </si>
-  <si>
-    <t>Date entered for this file</t>
-  </si>
-  <si>
-    <t>datarecord</t>
-  </si>
-  <si>
-    <t>Recorded Plate</t>
-  </si>
-  <si>
-    <t>The Plate that was recorded for this Datarecord</t>
-  </si>
-  <si>
-    <t>Recorded Well</t>
-  </si>
-  <si>
-    <t>The Well that was recorded for this Datarecord</t>
-  </si>
-  <si>
-    <t>control_type</t>
-  </si>
-  <si>
-    <t>Control Type</t>
-  </si>
-  <si>
-    <t>The type of Control Well recorded for this Datarecord</t>
-  </si>
-  <si>
-    <t>omero_image_id</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>The image recorded for this Datarecord</t>
-  </si>
-  <si>
-    <t>smallmolecule</t>
-  </si>
-  <si>
-    <t>sm_name</t>
-  </si>
-  <si>
-    <t>2012-05-04</t>
-  </si>
-  <si>
-    <t>SM:1</t>
-  </si>
-  <si>
-    <t>SM_Name</t>
-  </si>
-  <si>
-    <t>canonical structure</t>
-  </si>
-  <si>
-    <t>The primary name for the (parent) compound (in a standardized representation) as chosen by LINCS</t>
-  </si>
-  <si>
-    <t>common, recognizable, name</t>
-  </si>
-  <si>
-    <t>DrugBank, PubChem, ChEMBL</t>
-  </si>
-  <si>
-    <t>lincs_id</t>
-  </si>
-  <si>
-    <t>SM:2</t>
-  </si>
-  <si>
-    <t>SM_LINCS_ID</t>
-  </si>
-  <si>
-    <t>The global LINCS ID  (parent) compound (in a standardized representaiton)</t>
-  </si>
-  <si>
-    <t>alternative_names</t>
-  </si>
-  <si>
-    <t>SM:3</t>
-  </si>
-  <si>
-    <t>SM_Alternative_Names</t>
-  </si>
-  <si>
-    <t>List of synonymous compound names, drug name (if applicable), and other alternative names</t>
-  </si>
-  <si>
-    <t>drug names can come from common drug name available from DrugBank, TTD, NPC or other resources</t>
-  </si>
-  <si>
-    <t>DrugBank, PubChem, ChEMBL, DrugBank, TTD, NPC</t>
-  </si>
-  <si>
-    <t>SM:4</t>
-  </si>
-  <si>
-    <t>SM_Center_Compound_ID</t>
-  </si>
-  <si>
-    <t>Small Molecule Facility ID</t>
-  </si>
-  <si>
-    <t>Center specific compound ID of the (parent structure) assigned by the center</t>
-  </si>
-  <si>
-    <t>facility_salt</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>Small Molecule Facility and Salt ID</t>
-  </si>
-  <si>
-    <t>Combination of HMS Facility ID and Salt ID</t>
-  </si>
-  <si>
-    <t>facility_salt_batch</t>
-  </si>
-  <si>
-    <t>smallmoleculebatch</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>Small Molecule Facility-Salt-Batch ID</t>
-  </si>
-  <si>
-    <t>Combination of HMS Facility ID (SM:4 – SM_Center_Compound_ID) , Salt ID, and Batch ID (SM:5 - SM_Center_Sample_ID)</t>
-  </si>
-  <si>
-    <t>facility_batch_id</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>SM:5</t>
-  </si>
-  <si>
-    <t>SM_Center_Sample_ID</t>
-  </si>
-  <si>
-    <t>Batch ID</t>
-  </si>
-  <si>
-    <t>Sample ID of the tested compound, referring to  of the tested sample; assigned after local registry of the compound (center specific)</t>
-  </si>
-  <si>
-    <t>assigned by local LINCS center</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
-    <t>SM:6</t>
-  </si>
-  <si>
-    <t>SM_Provider</t>
-  </si>
-  <si>
-    <t>Vendor or lab that supplied the compound</t>
-  </si>
-  <si>
-    <t>list of vendor names and other providers</t>
-  </si>
-  <si>
-    <t>provider_catalog_id</t>
-  </si>
-  <si>
-    <t>SM:7</t>
-  </si>
-  <si>
-    <t>SM_Provider_Catalog_ID</t>
-  </si>
-  <si>
-    <t>ID or catalogue number assigned to the specific supplied sample by the vendor or provider</t>
-  </si>
-  <si>
-    <t>provider_sample_id</t>
-  </si>
-  <si>
-    <t>SM:8</t>
-  </si>
-  <si>
-    <t>SM_Provider_Sample_ID</t>
-  </si>
-  <si>
-    <t>Sample ID of the compound obtained from the provider or vendor (if available); this should include batch and / or lot number</t>
-  </si>
-  <si>
-    <t>salt_id</t>
-  </si>
-  <si>
-    <t>SM:9</t>
-  </si>
-  <si>
-    <t>SM_Salt</t>
-  </si>
-  <si>
-    <t>Salt ID</t>
-  </si>
-  <si>
-    <t>Reference to counter-ions and other addends present in the compound’s formulation</t>
-  </si>
-  <si>
-    <t>HMS LINCS has developed a three digit “salt code” used as part of the facility ID for its compounds</t>
-  </si>
-  <si>
-    <t>need a salt addend DB, which UM can provide</t>
-  </si>
-  <si>
-    <t>pubchem_cid</t>
-  </si>
-  <si>
-    <t>SM:10</t>
-  </si>
-  <si>
-    <t>SM_PubChem_CID</t>
-  </si>
-  <si>
-    <t>CID that corresponds to the standardized parent compound in NCBI’s PubChem database; after applying the same business rules</t>
-  </si>
-  <si>
-    <t>This is the PubChem compound ID, and not to be confused with the substance ID.</t>
-  </si>
-  <si>
-    <t>PubChem</t>
-  </si>
-  <si>
-    <t>http://pubchem.ncbi.nlm.nih.gov/</t>
-  </si>
-  <si>
-    <t>PubChem CID of main LINCS compound representation</t>
-  </si>
-  <si>
-    <t>chebi_id</t>
-  </si>
-  <si>
-    <t>SM:11</t>
-  </si>
-  <si>
-    <t>SM_ChEBI_ID</t>
-  </si>
-  <si>
-    <t>ChEBI ID that corresponds to the standardized parent compound in NCBI’s PubChem database; after applying the same business rules</t>
-  </si>
-  <si>
-    <t>ChEBI ID; ChEBI is curated and we may submit important structure to ChEBI</t>
-  </si>
-  <si>
-    <t>ChEBI</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/chebi/</t>
-  </si>
-  <si>
-    <t>inchi</t>
-  </si>
-  <si>
-    <t>SM:12</t>
-  </si>
-  <si>
-    <t>SM_InChi_Parent</t>
-  </si>
-  <si>
-    <t>InChi representation of parent (standardized) chemical structure chemical structure generated by LINCS business rules</t>
-  </si>
-  <si>
-    <t>standardized small molecule representation; documented standardization protocol</t>
-  </si>
-  <si>
-    <t>inchi_key</t>
-  </si>
-  <si>
-    <t>SM:13</t>
-  </si>
-  <si>
-    <t>SM_InChi_Key_Parent</t>
-  </si>
-  <si>
-    <t>InChi key of parent (standardized) chemical structure generated by LINCS business rules</t>
-  </si>
-  <si>
-    <t>derived from InChi</t>
-  </si>
-  <si>
-    <t>smiles</t>
-  </si>
-  <si>
-    <t>SM:14</t>
-  </si>
-  <si>
-    <t>SM_SMILES_Parent</t>
-  </si>
-  <si>
-    <t>Canonical SMILES representation of parent (standardized) chemical structure generated by LINCS business rules</t>
-  </si>
-  <si>
-    <t>canonical_structure</t>
-  </si>
-  <si>
-    <t>_undefined</t>
-  </si>
-  <si>
-    <t>SM:15</t>
-  </si>
-  <si>
-    <t>SM_Image_Parent</t>
-  </si>
-  <si>
-    <t>An image of the parent (standardized) compound produced using structure rendering software</t>
-  </si>
-  <si>
-    <t>SM:16</t>
-  </si>
-  <si>
-    <t>SM_InChi_Batch</t>
-  </si>
-  <si>
-    <t>InChi representation of the actual sample (batch) structure</t>
-  </si>
-  <si>
-    <t>this includes salts and addends and no structure canonicalization; full structure</t>
-  </si>
-  <si>
-    <t>SM:17</t>
-  </si>
-  <si>
-    <t>SM_InChi_Key_Batch</t>
-  </si>
-  <si>
-    <t>InChi key of the actual sample (batch) structure</t>
-  </si>
-  <si>
-    <t>SM:18</t>
-  </si>
-  <si>
-    <t>SM_SMILES_Batch</t>
-  </si>
-  <si>
-    <t>Canonical SMILES representation of the actual sample (batch) structure</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>SM:19</t>
-  </si>
-  <si>
-    <t>SM_Software</t>
-  </si>
-  <si>
-    <t>Name, Version, Link for Software used to generate InChi and SMILES</t>
-  </si>
-  <si>
-    <t>The software versions are available from IUPAC</t>
-  </si>
-  <si>
-    <t>target_information_references</t>
-  </si>
-  <si>
-    <t>SM:20</t>
-  </si>
-  <si>
-    <t>SM_Target Information_References</t>
-  </si>
-  <si>
-    <t>Information about the pharmacological target(s) of the compound in cells, e.g. proteins or other molecules with which the drug interacts to confer its effect. Appropriate literature references should also be provided.</t>
-  </si>
-  <si>
-    <t>this should include references to other databases where such information can be extracted; it appears unrealistic to maintain the available external biological activity data for LINCS compounds; if we create a database we can reference this; this will be implemented in multiple fields</t>
-  </si>
-  <si>
-    <t>it appears that this should be a separate database that links here</t>
-  </si>
-  <si>
-    <t>molecular_mass</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>SM:21</t>
-  </si>
-  <si>
-    <t>SM_Molecular_Mass</t>
-  </si>
-  <si>
-    <t>Molecular mass of one molecule (including addends) of the compound in Daltons (unified atomic mass units)</t>
-  </si>
-  <si>
-    <t>molecular_formula</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>SM:22</t>
-  </si>
-  <si>
-    <t>SM_Molecular_Formula</t>
-  </si>
-  <si>
-    <t>String representation of the compound with addends; type and number of the different atoms in the compound; without structural details</t>
-  </si>
-  <si>
-    <t>chemical_synthesis_reference</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>SM:23</t>
-  </si>
-  <si>
-    <t>SM_Chemical_Synthesis_Reference</t>
-  </si>
-  <si>
-    <t>Reference to the synthetic procedure by which a molecule has been generated</t>
-  </si>
-  <si>
-    <t>suggested by MIABE; if available</t>
-  </si>
-  <si>
-    <t>purity</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>SM:24</t>
-  </si>
-  <si>
-    <t>SM_Purity</t>
-  </si>
-  <si>
-    <t>Purity of the compound in percent</t>
-  </si>
-  <si>
-    <t>purity_method</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>SM:25</t>
-  </si>
-  <si>
-    <t>SM_Purity_Method</t>
-  </si>
-  <si>
-    <t>Method for determining the purity of the compound</t>
-  </si>
-  <si>
-    <t>aqueous_solubility</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>SM:26</t>
-  </si>
-  <si>
-    <t>SM_Aqueous_Solubility</t>
-  </si>
-  <si>
-    <t>The actual (measured) aqueous solubility of the compound in mg / mL or g / L</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>logp_hydrophobicity_score</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>SM:27</t>
-  </si>
-  <si>
-    <t>SM_LogP</t>
-  </si>
-  <si>
-    <t>The logarithm of the actual (measured) water/octanol partition coefficient (logP) or hydrophobicity score</t>
-  </si>
-  <si>
-    <t>molfile</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Molfile</t>
-  </si>
-  <si>
-    <t>Molfile used to generate smiles/inchi</t>
-  </si>
-  <si>
-    <t>chembl_id</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>ChEMBL ID</t>
-  </si>
-  <si>
-    <t>ChEMBL is a database of bioactive drug-like small molecules, it contains 2-D structures, calculated properties (e.g. logP, Molecular Weight, Lipinski Parameters, etc.) and abstracted bioactivities (e.g. binding constants, pharmacology and ADMET data)</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>protein_name</t>
-  </si>
-  <si>
-    <t>2012-07-31</t>
-  </si>
-  <si>
-    <t>PP:1</t>
-  </si>
-  <si>
-    <t>PP_Name</t>
-  </si>
-  <si>
-    <t>Protein Name</t>
-  </si>
-  <si>
-    <t>canonical protein</t>
-  </si>
-  <si>
-    <t>The primary name of the protein as chosen by LINCS</t>
-  </si>
-  <si>
-    <t>Should be descriptive and correspond to existing protein names as much as possible; batch independent name. If there are multiple isoforms of a protein, even if each isoform does not have a unique UniProt ID, each isoform should have a unique LINCS ID.</t>
-  </si>
-  <si>
-    <t>UniProt</t>
-  </si>
-  <si>
-    <t>PP:2</t>
-  </si>
-  <si>
-    <t>PP_LINCS_ID</t>
-  </si>
-  <si>
-    <t>Unique LINCS internal identifier</t>
-  </si>
-  <si>
-    <t>LINCS internal ID; this is a batch independent ID; canonical protein ID</t>
-  </si>
-  <si>
-    <t>uniprot_id</t>
-  </si>
-  <si>
-    <t>PP:3</t>
-  </si>
-  <si>
-    <t>PP_UniProt_ID</t>
-  </si>
-  <si>
-    <t>The UniProt accession of the specific protein, if available. If the UniProt ID of a related entity is used instead, this should be documented explicitly.</t>
-  </si>
-  <si>
-    <t>Uniprot accession is typically used as the primary ID</t>
-  </si>
-  <si>
-    <t>UniProt ID</t>
-  </si>
-  <si>
-    <t>http://www.uniprot.org/</t>
-  </si>
-  <si>
-    <t>alternate_name</t>
-  </si>
-  <si>
-    <t>PP:4</t>
-  </si>
-  <si>
-    <t>PP_Alternate_Name</t>
-  </si>
-  <si>
-    <t>Alternate Names</t>
-  </si>
-  <si>
-    <t>List of synonymous protein names</t>
-  </si>
-  <si>
-    <t>Synonyms will be obtained from the UniProt database. All UniProt names (Recommended names and Alternative names) should be imported into this field.</t>
-  </si>
-  <si>
-    <t>UniProt, Entez, …</t>
-  </si>
-  <si>
-    <t>PP:5</t>
-  </si>
-  <si>
-    <t>PP_Provider</t>
-  </si>
-  <si>
-    <t>Vendor or lab that supplied the protein</t>
-  </si>
-  <si>
-    <t>Vendor name</t>
-  </si>
-  <si>
-    <t>PP:6</t>
-  </si>
-  <si>
-    <t>PP_Provider_Catalog_ID</t>
-  </si>
-  <si>
-    <t>Batch ID or catalogue number assigned to the protein by the vendor or provider</t>
-  </si>
-  <si>
-    <t>Vendor ID</t>
-  </si>
-  <si>
-    <t>batch_id</t>
-  </si>
-  <si>
-    <t>PP:7</t>
-  </si>
-  <si>
-    <t>PP_Batch ID</t>
-  </si>
-  <si>
-    <t>Batch or lot number assigned to the protein by the vendor or provider</t>
-  </si>
-  <si>
-    <t>Provided by the protein vendor or provider</t>
-  </si>
-  <si>
-    <t>Vendor batch ID</t>
-  </si>
-  <si>
-    <t>amino_acid_sequence</t>
-  </si>
-  <si>
-    <t>PP:8</t>
-  </si>
-  <si>
-    <t>PP_Amino_Acid_Sequence</t>
-  </si>
-  <si>
-    <t>If the protein is a peptide, protein fragment, or small protein, the amino acid sequence of the perturbagen should be provided</t>
-  </si>
-  <si>
-    <t>This information is usually provided by vendor, but not often referenced to a specific nucleotide sequence. It is more informative than the PRO Name etc.</t>
-  </si>
-  <si>
-    <t>NCBI/Protein</t>
-  </si>
-  <si>
-    <t>Protein sequence</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/protein/</t>
-  </si>
-  <si>
-    <t>gene_symbol</t>
-  </si>
-  <si>
-    <t>PP:9</t>
-  </si>
-  <si>
-    <t>PP_Gene_Symbol</t>
-  </si>
-  <si>
-    <t>The NCBI gene name. In cases where the protein is modified (the protein sequence differs from the sequence encoded by the gene listed), it should be described in PP:18.</t>
-  </si>
-  <si>
-    <t>This information is very useful for queries across datasets, e.g. drug versus ligands versus expression changes.</t>
-  </si>
-  <si>
-    <t>NCBI/Gene</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/gene</t>
-  </si>
-  <si>
-    <t>gene_id</t>
-  </si>
-  <si>
-    <t>PP:10</t>
-  </si>
-  <si>
-    <t>PP_Gene_ID</t>
-  </si>
-  <si>
-    <t>Entrez Gene ID if using NCBI gene name</t>
-  </si>
-  <si>
-    <t>NCBI</t>
-  </si>
-  <si>
-    <t>Gene ID</t>
-  </si>
-  <si>
-    <t>protein_source</t>
-  </si>
-  <si>
-    <t>PP:11</t>
-  </si>
-  <si>
-    <t>PP_Protein_Source</t>
-  </si>
-  <si>
-    <t>A controlled vocabulary describing the source of the protein (e.g. chemically synthesized, recombinantly expressed in E. coli, etc.)</t>
-  </si>
-  <si>
-    <t>BAO</t>
-  </si>
-  <si>
-    <t>Protein preparation method</t>
-  </si>
-  <si>
-    <t>http://bioportal.bioontology.org/ontologies/1533</t>
-  </si>
-  <si>
-    <t>protein_form</t>
-  </si>
-  <si>
-    <t>PP:12</t>
-  </si>
-  <si>
-    <t>PP_Protein_Form</t>
-  </si>
-  <si>
-    <t>A description of a protein's modification status (e.g, if it was mutated, post-translationally modified etc.). If a DNA vector was used to express the modified protein in a cell line, a description of the DNA vector needs to be provided (see below).</t>
-  </si>
-  <si>
-    <t>If available</t>
-  </si>
-  <si>
-    <t>Protein form</t>
-  </si>
-  <si>
-    <t>protein_purity</t>
-  </si>
-  <si>
-    <t>PP:13</t>
-  </si>
-  <si>
-    <t>PP_Protein_Purity</t>
-  </si>
-  <si>
-    <t>A description of a protein's level of purity (e.g., if it was partially purified, purified, unpurified, etc.)</t>
-  </si>
-  <si>
-    <t>This can't be a required field as this information is not always provided by the vendor.</t>
-  </si>
-  <si>
-    <t>Protein purity</t>
-  </si>
-  <si>
-    <t>protein_complex</t>
-  </si>
-  <si>
-    <t>PP:14</t>
-  </si>
-  <si>
-    <t>PP_Protein_Complex</t>
-  </si>
-  <si>
-    <t>The description of a macromolecular complex composed of two or more polypeptide subunits, which may or may not be identical. The individual subunits should be described as being part of a protein complex (e.g. heterotrimer of alpha, beta and gamma subunits), the name of the protein complex, individual subunit protein name, protein ID, gene name and gene ID.</t>
-  </si>
-  <si>
-    <t>1, If relevant</t>
-  </si>
-  <si>
-    <t>If a protein complex is described and given a single LINCS ID, information about each subunit will have to be provided (e.g the entry will have multiple UniProt IDs associated with it….).</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>Protein complex: has part subunit</t>
-  </si>
-  <si>
-    <t>http://bioportal.bioontology.org/ontologies/1062</t>
-  </si>
-  <si>
-    <t>isoform</t>
-  </si>
-  <si>
-    <t>PP:15</t>
-  </si>
-  <si>
-    <t>PP_Isoform</t>
-  </si>
-  <si>
-    <t>This describes whether the protein is an isoform and differs from the initial protein due to either alternative splicing, alternative initiation or ribosomal frameshifting during translation. The isoforms have different protein sequences and hence different protein IDs, though they share the same gene ID.</t>
-  </si>
-  <si>
-    <t>Protein isoform</t>
-  </si>
-  <si>
-    <t>protein_type</t>
-  </si>
-  <si>
-    <t>PP:16</t>
-  </si>
-  <si>
-    <t>PP_Protein_Type</t>
-  </si>
-  <si>
-    <t>A controlled vocabulary, if one exists, specifying whether the protein is a growth factor, peptide, protein, etc.</t>
-  </si>
-  <si>
-    <t>The vocabulary here is important; it gets fuzzy as what is a growth factor vs. a cytokine. This can be made unambiguous by describing these concepts as a role of a protein, whether it functions as a 'ligand: growth factor' or a 'ligand: cytokine'. We agree that this seems important, but no good ontology of protein types exists and so categorizing proteins by type is a very subjective exercise now.</t>
-  </si>
-  <si>
-    <t>_PRO</t>
-  </si>
-  <si>
-    <t>Ligand: growth factor; Ligand: cytokine</t>
-  </si>
-  <si>
-    <t>http://bioportal.bioontology.org/ontologies/45784?p=terms</t>
-  </si>
-  <si>
-    <t>source_organism</t>
-  </si>
-  <si>
-    <t>PP:17</t>
-  </si>
-  <si>
-    <t>PP_Source_Organism</t>
-  </si>
-  <si>
-    <t>A controlled vocabulary describing the source of the protein (e.g. mouse, rabbit, horse, goat, etc.)</t>
-  </si>
-  <si>
-    <t>NCBITaxon</t>
-  </si>
-  <si>
-    <t>Organism</t>
-  </si>
-  <si>
-    <t>http://bioportal.bioontology.org/ontologies/1132</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>PP:18</t>
-  </si>
-  <si>
-    <t>PP_Reference</t>
-  </si>
-  <si>
-    <t>Appropriate literature references can be provided.</t>
-  </si>
-  <si>
-    <t>PubMed</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/pubmed/</t>
-  </si>
-  <si>
-    <t>protein_concentration</t>
-  </si>
-  <si>
-    <t>EXP_PP:1</t>
-  </si>
-  <si>
-    <t>PP_Protein_Concentration</t>
-  </si>
-  <si>
-    <t>experiment</t>
-  </si>
-  <si>
-    <t>The final concentration of protein/peptide used in the assay</t>
-  </si>
-  <si>
-    <t>Concentration value; Concentration unit</t>
-  </si>
-  <si>
-    <t>incubation_time</t>
-  </si>
-  <si>
-    <t>EXO_PP:2</t>
-  </si>
-  <si>
-    <t>PP_Incubation_Time</t>
-  </si>
-  <si>
-    <t>The time of treatment with the protein/peptide target in the assay</t>
-  </si>
-  <si>
-    <t>Incubation time</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>cell_name</t>
-  </si>
-  <si>
-    <t>2012-04-12</t>
-  </si>
-  <si>
-    <t>CL:1</t>
-  </si>
-  <si>
-    <t>CL_Name</t>
-  </si>
-  <si>
-    <t>Cell Name</t>
-  </si>
-  <si>
-    <t>canonical cell line</t>
-  </si>
-  <si>
-    <t>The primary name for the cell line as chosen by LINCS</t>
-  </si>
-  <si>
-    <t>Should be descriptive and correspond to existing cell line names as much as possible; batch independent name</t>
-  </si>
-  <si>
-    <t>need terminology for standard cell line name</t>
-  </si>
-  <si>
-    <t>cell_id_atcc/cell id/cell_id_alt</t>
-  </si>
-  <si>
-    <t>CL:name</t>
-  </si>
-  <si>
-    <t>CMT Cell Line</t>
-  </si>
-  <si>
-    <t>Cell Line</t>
-  </si>
-  <si>
-    <t>cl_id</t>
-  </si>
-  <si>
-    <t>CL:2</t>
-  </si>
-  <si>
-    <t>CL_ID</t>
-  </si>
-  <si>
-    <t>LINCS ID</t>
-  </si>
-  <si>
-    <t>LINCS internal ID; this is a batch independent ID; canonical cell line ID</t>
-  </si>
-  <si>
-    <t>CL:3</t>
-  </si>
-  <si>
-    <t>CL_Alternate_Name</t>
-  </si>
-  <si>
-    <t>Other relevant names</t>
-  </si>
-  <si>
-    <t>synonymous or alternative names; but only significantly different names should be captured</t>
-  </si>
-  <si>
-    <t>alternate_id</t>
-  </si>
-  <si>
-    <t>CL:4</t>
-  </si>
-  <si>
-    <t>CL_Alternate_ID</t>
-  </si>
-  <si>
-    <t>Other relevant IDs for cell lines</t>
-  </si>
-  <si>
-    <t>CLO or other common IDs referring to the same cell line</t>
-  </si>
-  <si>
-    <t>center_name</t>
-  </si>
-  <si>
-    <t>CL:5</t>
-  </si>
-  <si>
-    <t>CL_Center_Name</t>
-  </si>
-  <si>
-    <t>canonical and batch</t>
-  </si>
-  <si>
-    <t>LINCS center using the cell line</t>
-  </si>
-  <si>
-    <t>CL:6</t>
-  </si>
-  <si>
-    <t>CL_Center_Specific_ID</t>
   </si>
   <si>
     <t>LINCS center-specific cell line ID; batch specific ID</t>
@@ -2428,11 +2452,11 @@
   <dimension ref="A1:X140"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A27" xSplit="2195" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A54" xSplit="2195" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A27" activeCellId="0" pane="bottomLeft" sqref="A27"/>
-      <selection activeCell="H45" activeCellId="0" pane="bottomRight" sqref="H45"/>
+      <selection activeCell="A54" activeCellId="0" pane="bottomLeft" sqref="A54"/>
+      <selection activeCell="M67" activeCellId="0" pane="bottomRight" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -3473,7 +3497,7 @@
         <v>112</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="28">
@@ -3481,7 +3505,7 @@
         <v>97</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3500,10 +3524,10 @@
         <v>27</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="29">
@@ -3511,7 +3535,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3530,10 +3554,10 @@
         <v>28</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="30">
@@ -3541,7 +3565,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3560,16 +3584,16 @@
         <v>29</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="31">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3590,10 +3614,10 @@
         <v>30</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="32">
@@ -3601,7 +3625,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3624,10 +3648,10 @@
         <v>31</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="33">
@@ -3635,7 +3659,7 @@
         <v>97</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3656,10 +3680,10 @@
         <v>32</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="34">
@@ -3667,7 +3691,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3688,21 +3712,21 @@
         <v>33</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>22</v>
@@ -3720,18 +3744,18 @@
         <v>34</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>22</v>
@@ -3752,18 +3776,18 @@
         <v>35</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>22</v>
@@ -3781,15 +3805,15 @@
         <v>36</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="38">
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>22</v>
@@ -3798,7 +3822,7 @@
         <v>23</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>23</v>
@@ -3807,15 +3831,15 @@
         <v>37</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="39">
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>22</v>
@@ -3824,7 +3848,7 @@
         <v>23</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>23</v>
@@ -3833,15 +3857,15 @@
         <v>38</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="40">
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>22</v>
@@ -3850,7 +3874,7 @@
         <v>23</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>23</v>
@@ -3859,21 +3883,21 @@
         <v>39</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="41">
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>23</v>
@@ -3882,18 +3906,18 @@
         <v>40</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>22</v>
@@ -3914,18 +3938,18 @@
         <v>41</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>22</v>
@@ -3946,18 +3970,18 @@
         <v>42</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>22</v>
@@ -3978,18 +4002,18 @@
         <v>43</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="45">
       <c r="A45" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>22</v>
@@ -4010,18 +4034,18 @@
         <v>44</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="46">
       <c r="A46" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>22</v>
@@ -4042,16 +4066,16 @@
         <v>45</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="47">
       <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>22</v>
@@ -4072,16 +4096,16 @@
         <v>46</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="48">
       <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>22</v>
@@ -4102,16 +4126,16 @@
         <v>47</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="49">
       <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C49" s="0"/>
       <c r="E49" s="1" t="s">
@@ -4131,18 +4155,18 @@
         <v>48</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="50">
       <c r="A50" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
@@ -4163,15 +4187,15 @@
         <v>49</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="51">
       <c r="A51" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>75</v>
@@ -4203,10 +4227,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -4224,18 +4248,18 @@
         <v>51</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>22</v>
@@ -4253,18 +4277,18 @@
         <v>52</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>22</v>
@@ -4282,18 +4306,18 @@
         <v>53</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>22</v>
@@ -4311,18 +4335,18 @@
         <v>54</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>22</v>
@@ -4343,18 +4367,18 @@
         <v>55</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>22</v>
@@ -4375,18 +4399,18 @@
         <v>56</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
@@ -4407,18 +4431,18 @@
         <v>57</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>22</v>
@@ -4439,18 +4463,18 @@
         <v>58</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>22</v>
@@ -4471,18 +4495,18 @@
         <v>59</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -4503,21 +4527,21 @@
         <v>60</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="62">
       <c r="A62" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
@@ -4536,29 +4560,29 @@
         <v>22</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P62" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S62" s="8"/>
       <c r="T62" s="14"/>
@@ -4569,10 +4593,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="63">
       <c r="A63" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4592,20 +4616,20 @@
         <v>22</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P63" s="13" t="n">
         <v>1</v>
@@ -4621,10 +4645,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="64">
       <c r="A64" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4644,29 +4668,29 @@
         <v>22</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P64" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S64" s="8"/>
       <c r="T64" s="15"/>
@@ -4677,7 +4701,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
       <c r="A65" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>98</v>
@@ -4694,28 +4718,28 @@
         <v>22</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P65" s="13" t="n">
         <v>1</v>
@@ -4732,11 +4756,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="66">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>22</v>
@@ -4755,15 +4779,15 @@
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="8"/>
@@ -4777,10 +4801,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="67">
       <c r="B67" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>22</v>
@@ -4799,15 +4823,15 @@
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P67" s="13"/>
       <c r="Q67" s="8"/>
@@ -4821,14 +4845,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="68">
       <c r="A68" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C68" s="7" t="s">
         <v>247</v>
       </c>
+      <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
         <v>22</v>
@@ -4840,13 +4862,13 @@
         <v>22</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>248</v>
@@ -4858,175 +4880,191 @@
         <v>250</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P68" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="15"/>
+      <c r="T68" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="69">
       <c r="A69" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P69" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="15"/>
+        <v>259</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="S69" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="T69" s="15" t="s">
+        <v>262</v>
+      </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>22</v>
+      <c r="F70" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="S70" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="T70" s="15"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>22</v>
+      <c r="F71" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P71" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q71" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
       <c r="T71" s="15"/>
@@ -5037,57 +5075,53 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>269</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M72" s="8"/>
       <c r="N72" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P72" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="15" t="s">
-        <v>272</v>
-      </c>
+      <c r="T72" s="15"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
@@ -5095,59 +5129,53 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="M73" s="8"/>
+        <v>282</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="N73" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P73" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="R73" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="S73" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="T73" s="15" t="s">
-        <v>280</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="15"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
@@ -5155,43 +5183,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="M74" s="8"/>
+        <v>288</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="N74" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P74" s="13" t="n">
         <v>2</v>
@@ -5199,24 +5227,20 @@
       <c r="Q74" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="R74" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="S74" s="16" t="s">
-        <v>287</v>
-      </c>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
       <c r="T74" s="15"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5228,47 +5252,49 @@
         <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="M75" s="8"/>
+        <v>294</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="N75" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P75" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q75" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="15"/>
+      <c r="T75" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5277,91 +5303,75 @@
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="P76" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="P77" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="15"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
@@ -5370,11 +5380,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="78">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -5382,32 +5392,32 @@
         <v>22</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P78" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
@@ -5417,153 +5427,157 @@
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="79">
       <c r="A79" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M79" s="8"/>
-      <c r="N79" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="N79" s="8"/>
       <c r="O79" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q79" s="8" t="s">
-        <v>310</v>
-      </c>
+      <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="15"/>
+      <c r="T79" s="14" t="s">
+        <v>314</v>
+      </c>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="80">
-      <c r="A80" s="7" t="s">
-        <v>242</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="80">
+      <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D80" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P80" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q80" s="8"/>
+      <c r="Q80" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="15" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="81">
       <c r="A81" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G81" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="M81" s="8"/>
+        <v>323</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="N81" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="P81" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
@@ -5573,152 +5587,158 @@
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="82">
       <c r="A82" s="7" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="N82" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="O82" s="8" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P82" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
-      <c r="T82" s="14" t="s">
-        <v>321</v>
-      </c>
+      <c r="T82" s="15"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="83">
-      <c r="A83" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="83">
+      <c r="A83" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="B83" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G83" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="P83" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q83" s="8" t="s">
-        <v>326</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
-      <c r="T83" s="15" t="s">
-        <v>327</v>
-      </c>
+      <c r="T83" s="15"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G84" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="M84" s="8"/>
+        <v>338</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="N84" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P84" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="8" t="s">
-        <v>310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
       <c r="T84" s="15"/>
@@ -5727,49 +5747,49 @@
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="P85" s="13" t="n">
         <v>2</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
@@ -5779,101 +5799,101 @@
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P86" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q86" s="8" t="s">
-        <v>343</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
-      <c r="T86" s="15"/>
+      <c r="T86" s="15" t="s">
+        <v>297</v>
+      </c>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P87" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="8" t="s">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
@@ -5883,12 +5903,12 @@
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -5900,31 +5920,33 @@
         <v>22</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q88" s="8"/>
+      <c r="Q88" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
       <c r="T88" s="15"/>
@@ -5933,12 +5955,12 @@
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -5950,32 +5972,32 @@
         <v>22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P89" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
@@ -5985,246 +6007,260 @@
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M90" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="91">
+        <v>22</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="P90" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>143</v>
+        <v>370</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="M91" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="P91" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="93">
+      <c r="A93" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="M93" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M92" s="7" t="s">
+      <c r="O93" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O92" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="94">
+      <c r="A94" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="93">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O93" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="P93" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q93" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="94">
-      <c r="A94" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="D94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G94" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>368</v>
+        <v>145</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J94" s="11"/>
-      <c r="K94" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L94" s="7"/>
+      <c r="K94" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="M94" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="95">
-      <c r="A95" s="7" t="s">
-        <v>214</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="95">
+      <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="E95" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" s="11"/>
-      <c r="K95" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="P95" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="15"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
@@ -6232,13 +6268,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
@@ -6257,31 +6293,31 @@
         <v>22</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M96" s="18" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="R96" s="18" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="S96" s="18"/>
       <c r="T96" s="19"/>
@@ -6289,10 +6325,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="97">
       <c r="A97" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -6312,26 +6348,26 @@
         <v>22</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M97" s="18"/>
       <c r="N97" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="R97" s="18"/>
       <c r="S97" s="18"/>
@@ -6340,10 +6376,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6363,44 +6399,44 @@
         <v>22</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M98" s="18"/>
       <c r="N98" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="R98" s="18" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="S98" s="18" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="T98" s="19" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="U98" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6420,46 +6456,46 @@
         <v>22</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P99" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q99" s="18" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="R99" s="18" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="S99" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="T99" s="19" t="s">
         <v>402</v>
-      </c>
-      <c r="T99" s="19" t="s">
-        <v>395</v>
       </c>
       <c r="U99" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -6479,20 +6515,20 @@
         <v>22</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
@@ -6500,17 +6536,17 @@
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
       <c r="S100" s="18" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="T100" s="19"/>
       <c r="U100" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6518,7 +6554,7 @@
         <v>22</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>22</v>
@@ -6530,20 +6566,20 @@
         <v>22</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M101" s="18"/>
       <c r="N101" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P101" s="5" t="n">
         <v>1</v>
@@ -6551,17 +6587,17 @@
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
       <c r="S101" s="18" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="T101" s="19"/>
       <c r="U101" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6569,7 +6605,7 @@
         <v>22</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>22</v>
@@ -6581,40 +6617,40 @@
         <v>22</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M102" s="18"/>
       <c r="N102" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P102" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="R102" s="18"/>
       <c r="S102" s="18" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="T102" s="19"/>
       <c r="U102" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6632,44 +6668,44 @@
         <v>22</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M103" s="18"/>
       <c r="N103" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P103" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q103" s="18" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="R103" s="18" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="S103" s="18" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="T103" s="19" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="U103" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6687,44 +6723,44 @@
         <v>22</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="P104" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q104" s="18" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="R104" s="18" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="T104" s="19" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="U104" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6742,42 +6778,42 @@
         <v>22</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M105" s="18"/>
       <c r="N105" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P105" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q105" s="18"/>
       <c r="R105" s="18" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="S105" s="18" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="T105" s="19" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="U105" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6795,42 +6831,42 @@
         <v>22</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P106" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q106" s="18"/>
       <c r="R106" s="18" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="S106" s="18" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="T106" s="19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="U106" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6848,44 +6884,44 @@
         <v>22</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P107" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q107" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="R107" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="R107" s="18" t="s">
-        <v>443</v>
-      </c>
       <c r="S107" s="18" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="T107" s="19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="U107" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6903,44 +6939,44 @@
         <v>22</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M108" s="18"/>
       <c r="N108" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P108" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="R108" s="18" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="S108" s="18" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="T108" s="19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="U108" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6958,44 +6994,44 @@
         <v>22</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M109" s="18"/>
       <c r="N109" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P109" s="5" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q109" s="18" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="S109" s="18" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="T109" s="19" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="U109" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7013,44 +7049,44 @@
         <v>22</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M110" s="18"/>
       <c r="N110" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P110" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q110" s="18" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="R110" s="18" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="T110" s="19" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="U110" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7068,44 +7104,44 @@
         <v>22</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M111" s="18"/>
       <c r="N111" s="18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P111" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q111" s="18" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="T111" s="19" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="U111" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -7123,42 +7159,42 @@
         <v>22</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M112" s="18"/>
       <c r="N112" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P112" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q112" s="18"/>
       <c r="R112" s="18" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="T112" s="19" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="U112" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -7176,42 +7212,42 @@
         <v>22</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
       <c r="O113" s="18" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P113" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="18" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="S113" s="18" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="T113" s="19" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="U113" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="114">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -7219,50 +7255,50 @@
         <v>22</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L114" s="18" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="M114" s="18"/>
       <c r="N114" s="18" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="P114" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q114" s="18"/>
       <c r="R114" s="18" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="S114" s="18" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="T114" s="19" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="U114" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="115">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -7270,51 +7306,51 @@
         <v>22</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L115" s="18" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M115" s="18"/>
       <c r="N115" s="18" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="P115" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="18"/>
       <c r="R115" s="18" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="S115" s="18" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="T115" s="20" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="U115" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
@@ -7332,59 +7368,59 @@
         <v>22</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K116" s="21" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L116" s="21" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M116" s="21" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O116" s="21" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="P116" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q116" s="21" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="R116" s="21" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="S116" s="22"/>
       <c r="T116" s="23"/>
       <c r="U116" s="24" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="V116" s="24" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="X116" s="24" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>22</v>
@@ -7396,28 +7432,28 @@
         <v>22</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K117" s="21" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M117" s="21" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O117" s="21" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P117" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
@@ -7429,10 +7465,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>22</v>
@@ -7450,28 +7486,28 @@
         <v>22</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K118" s="21" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M118" s="21" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O118" s="21" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P118" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q118" s="21" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
@@ -7483,10 +7519,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
@@ -7501,26 +7537,26 @@
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M119" s="21"/>
       <c r="N119" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O119" s="21" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P119" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
@@ -7532,10 +7568,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
@@ -7550,24 +7586,24 @@
         <v>22</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K120" s="21" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="M120" s="21"/>
       <c r="N120" s="21" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="O120" s="21"/>
       <c r="P120" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
@@ -7579,7 +7615,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>98</v>
@@ -7600,28 +7636,28 @@
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M121" s="21" t="s">
-        <v>99</v>
+        <v>547</v>
       </c>
       <c r="N121" s="21" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="O121" s="21" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="P121" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
@@ -7633,10 +7669,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -7651,51 +7687,51 @@
         <v>22</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K122" s="21" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="M122" s="21"/>
       <c r="N122" s="21" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="O122" s="21" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="P122" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q122" s="21" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="R122" s="21" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="S122" s="22"/>
       <c r="T122" s="23"/>
       <c r="U122" s="24" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="V122" s="24" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="W122" s="24" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="X122" s="24" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -7710,43 +7746,43 @@
         <v>22</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K123" s="21" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="21" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="P123" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q123" s="25" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
       <c r="T123" s="23"/>
       <c r="U123" s="24"/>
       <c r="V123" s="24" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
@@ -7761,31 +7797,31 @@
         <v>22</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="M124" s="21"/>
       <c r="N124" s="21" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="P124" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q124" s="21" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
       <c r="T124" s="23" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="U124" s="24"/>
       <c r="V124" s="24"/>
@@ -7794,10 +7830,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
@@ -7815,36 +7851,36 @@
         <v>22</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M125" s="21"/>
       <c r="N125" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="P125" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q125" s="21" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="R125" s="21" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="S125" s="22" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="T125" s="23"/>
       <c r="U125" s="24" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="V125" s="24"/>
       <c r="W125" s="24"/>
@@ -7852,10 +7888,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
@@ -7873,30 +7909,30 @@
         <v>22</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M126" s="21"/>
       <c r="N126" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O126" s="21" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P126" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q126" s="21"/>
       <c r="R126" s="21" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="S126" s="22" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="T126" s="23"/>
       <c r="U126" s="24"/>
@@ -7906,10 +7942,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>22</v>
@@ -7927,53 +7963,53 @@
         <v>22</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K127" s="21" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="M127" s="21"/>
       <c r="N127" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O127" s="21" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="P127" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q127" s="21" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="R127" s="21" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="S127" s="22" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="T127" s="23"/>
       <c r="U127" s="24" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="V127" s="24" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="W127" s="24" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="X127" s="24" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>22</v>
@@ -7991,49 +8027,49 @@
         <v>22</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K128" s="21" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M128" s="21"/>
       <c r="N128" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O128" s="21" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P128" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q128" s="26" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="R128" s="21" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="S128" s="22" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="T128" s="23" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="U128" s="24"/>
       <c r="V128" s="24" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>22</v>
@@ -8048,31 +8084,31 @@
         <v>22</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K129" s="26" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="L129" s="26" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="M129" s="26"/>
       <c r="N129" s="26" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="O129" s="26" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P129" s="26" t="n">
         <v>2</v>
       </c>
       <c r="Q129" s="26" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="R129" s="26"/>
       <c r="S129" s="27"/>
       <c r="T129" s="28" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="U129" s="24"/>
       <c r="V129" s="24"/>
@@ -8081,10 +8117,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>22</v>
@@ -8102,53 +8138,53 @@
         <v>22</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K130" s="21" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="M130" s="21"/>
       <c r="N130" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O130" s="21" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="P130" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q130" s="21" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="R130" s="21" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="S130" s="22" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="T130" s="23" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="U130" s="24" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="V130" s="24" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="W130" s="24"/>
       <c r="X130" s="24" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>22</v>
@@ -8163,33 +8199,33 @@
         <v>22</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K131" s="21" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="L131" s="21" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O131" s="21" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="P131" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q131" s="21" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="R131" s="21" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="S131" s="22"/>
       <c r="T131" s="23" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="U131" s="24"/>
       <c r="V131" s="24"/>
@@ -8198,10 +8234,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>22</v>
@@ -8216,51 +8252,51 @@
         <v>22</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O132" s="21" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="P132" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q132" s="21"/>
       <c r="R132" s="21" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="S132" s="22" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="T132" s="23" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="U132" s="24" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="V132" s="24" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="W132" s="24"/>
       <c r="X132" s="24" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>22</v>
@@ -8275,35 +8311,35 @@
         <v>22</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="M133" s="21"/>
       <c r="N133" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="P133" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="R133" s="21" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="S133" s="22" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="T133" s="23" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="U133" s="24"/>
       <c r="V133" s="24"/>
@@ -8312,10 +8348,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>22</v>
@@ -8330,36 +8366,36 @@
         <v>22</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="M134" s="21"/>
       <c r="N134" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O134" s="21" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="P134" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q134" s="21" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="R134" s="21" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="S134" s="22"/>
       <c r="T134" s="23" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="U134" s="24" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="V134" s="24"/>
       <c r="W134" s="24"/>
@@ -8367,10 +8403,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>22</v>
@@ -8385,49 +8421,49 @@
         <v>22</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="L135" s="21" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="M135" s="21"/>
       <c r="N135" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O135" s="21" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="P135" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="R135" s="21" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="S135" s="22" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="T135" s="23" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="U135" s="24"/>
       <c r="V135" s="24"/>
       <c r="W135" s="24"/>
       <c r="X135" s="24" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>22</v>
@@ -8436,53 +8472,53 @@
         <v>22</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="M136" s="21"/>
       <c r="N136" s="21" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="O136" s="21" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="P136" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q136" s="21" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="R136" s="21" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="S136" s="22"/>
       <c r="T136" s="23" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="U136" s="24"/>
       <c r="V136" s="24" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>22</v>
@@ -8491,37 +8527,37 @@
         <v>22</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="L137" s="26" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="M137" s="26"/>
       <c r="N137" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O137" s="21" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="P137" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
       <c r="T137" s="23" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="U137" s="24"/>
       <c r="V137" s="24"/>
@@ -8530,10 +8566,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>22</v>
@@ -8542,41 +8578,41 @@
         <v>22</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="M138" s="21"/>
       <c r="N138" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O138" s="21" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="P138" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q138" s="26" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="R138" s="26" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="S138" s="26" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="T138" s="28" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="U138" s="24"/>
       <c r="V138" s="24"/>
@@ -8585,10 +8621,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>22</v>
@@ -8597,44 +8633,44 @@
         <v>22</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O139" s="21" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="P139" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q139" s="21" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="S139" s="22" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="T139" s="23" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="U139" s="24" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="V139" s="24"/>
       <c r="W139" s="24"/>
@@ -8642,10 +8678,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>22</v>
@@ -8654,47 +8690,47 @@
         <v>22</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K140" s="21" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="M140" s="21"/>
       <c r="N140" s="21" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O140" s="21" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="P140" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q140" s="21" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="R140" s="21" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="S140" s="22"/>
       <c r="T140" s="23" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="U140" s="24" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="V140" s="24"/>
       <c r="W140" s="24"/>
       <c r="X140" s="24" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -2452,11 +2452,11 @@
   <dimension ref="A1:X140"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A54" xSplit="2195" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A16" xSplit="2195" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A54" activeCellId="0" pane="bottomLeft" sqref="A54"/>
-      <selection activeCell="M67" activeCellId="0" pane="bottomRight" sqref="M67"/>
+      <selection activeCell="A16" activeCellId="0" pane="bottomLeft" sqref="A16"/>
+      <selection activeCell="F32" activeCellId="0" pane="bottomRight" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -3633,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>23</v>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="697">
   <si>
     <t>table</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>chembl_id</t>
-  </si>
-  <si>
-    <t>34</t>
   </si>
   <si>
     <t>ChEMBL ID</t>
@@ -2452,11 +2449,11 @@
   <dimension ref="A1:X140"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A16" xSplit="2195" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A66" xSplit="2195" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A16" activeCellId="0" pane="bottomLeft" sqref="A16"/>
-      <selection activeCell="F32" activeCellId="0" pane="bottomRight" sqref="F32"/>
+      <selection activeCell="A66" activeCellId="0" pane="bottomLeft" sqref="A66"/>
+      <selection activeCell="H77" activeCellId="0" pane="bottomRight" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5306,7 +5303,7 @@
         <v>23</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
@@ -5317,11 +5314,11 @@
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N76" s="7"/>
       <c r="O76" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
@@ -5338,7 +5335,7 @@
         <v>216</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -5359,13 +5356,13 @@
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>221</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -5380,11 +5377,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="78">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -5401,17 +5398,17 @@
         <v>218</v>
       </c>
       <c r="K78" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="L78" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="M78" s="8"/>
       <c r="N78" s="8" t="s">
         <v>221</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P78" s="13" t="n">
         <v>1</v>
@@ -5432,7 +5429,7 @@
         <v>216</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5453,15 +5450,15 @@
         <v>218</v>
       </c>
       <c r="K79" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L79" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P79" s="13" t="n">
         <v>2</v>
@@ -5470,7 +5467,7 @@
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
       <c r="T79" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -5480,11 +5477,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="80">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -5501,28 +5498,28 @@
         <v>218</v>
       </c>
       <c r="K80" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L80" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8" t="s">
         <v>221</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P80" s="13" t="n">
         <v>2</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
@@ -5534,7 +5531,7 @@
         <v>244</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>251</v>
@@ -5559,25 +5556,25 @@
         <v>218</v>
       </c>
       <c r="K81" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="L81" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="M81" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P81" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
@@ -5592,7 +5589,7 @@
         <v>244</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -5615,23 +5612,23 @@
         <v>218</v>
       </c>
       <c r="K82" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L82" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="M82" s="8"/>
       <c r="N82" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P82" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
@@ -5646,7 +5643,7 @@
         <v>244</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -5669,17 +5666,17 @@
         <v>218</v>
       </c>
       <c r="K83" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L83" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P83" s="13" t="n">
         <v>1</v>
@@ -5698,7 +5695,7 @@
         <v>244</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -5721,19 +5718,19 @@
         <v>218</v>
       </c>
       <c r="K84" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="L84" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="M84" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P84" s="13" t="n">
         <v>2</v>
@@ -5764,7 +5761,7 @@
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>23</v>
@@ -5773,17 +5770,17 @@
         <v>218</v>
       </c>
       <c r="K85" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L85" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P85" s="13" t="n">
         <v>2</v>
@@ -5816,7 +5813,7 @@
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>23</v>
@@ -5825,17 +5822,17 @@
         <v>218</v>
       </c>
       <c r="K86" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="L86" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P86" s="13" t="n">
         <v>2</v>
@@ -5868,7 +5865,7 @@
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>23</v>
@@ -5877,17 +5874,17 @@
         <v>218</v>
       </c>
       <c r="K87" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="L87" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P87" s="13" t="n">
         <v>1</v>
@@ -5908,7 +5905,7 @@
         <v>244</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -5920,7 +5917,7 @@
         <v>22</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>22</v>
@@ -5929,23 +5926,23 @@
         <v>218</v>
       </c>
       <c r="K88" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="L88" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P88" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
@@ -5960,7 +5957,7 @@
         <v>244</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -5972,7 +5969,7 @@
         <v>22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>22</v>
@@ -5981,23 +5978,23 @@
         <v>218</v>
       </c>
       <c r="K89" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L89" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P89" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
@@ -6012,7 +6009,7 @@
         <v>244</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -6024,7 +6021,7 @@
         <v>22</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>22</v>
@@ -6033,17 +6030,17 @@
         <v>218</v>
       </c>
       <c r="K90" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L90" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>3</v>
@@ -6062,7 +6059,7 @@
         <v>244</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -6074,7 +6071,7 @@
         <v>22</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>22</v>
@@ -6083,23 +6080,23 @@
         <v>218</v>
       </c>
       <c r="K91" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L91" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P91" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q91" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
@@ -6135,7 +6132,7 @@
         <v>23</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M92" s="7" t="s">
         <v>146</v>
@@ -6170,7 +6167,7 @@
         <v>23</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M93" s="7" t="s">
         <v>149</v>
@@ -6205,7 +6202,7 @@
         <v>23</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M94" s="7" t="s">
         <v>152</v>
@@ -6217,11 +6214,11 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="95">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>22</v>
@@ -6231,7 +6228,7 @@
         <v>22</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>22</v>
@@ -6240,23 +6237,23 @@
         <v>218</v>
       </c>
       <c r="K95" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L95" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8" t="s">
         <v>251</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P95" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
@@ -6268,13 +6265,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
@@ -6293,31 +6290,31 @@
         <v>22</v>
       </c>
       <c r="J96" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="K96" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="K96" s="18" t="s">
+      <c r="L96" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="L96" s="18" t="s">
+      <c r="M96" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="M96" s="18" t="s">
+      <c r="N96" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="N96" s="18" t="s">
+      <c r="O96" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="O96" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="P96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q96" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="R96" s="18" t="s">
         <v>390</v>
-      </c>
-      <c r="R96" s="18" t="s">
-        <v>391</v>
       </c>
       <c r="S96" s="18"/>
       <c r="T96" s="19"/>
@@ -6325,7 +6322,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="97">
       <c r="A97" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>225</v>
@@ -6348,26 +6345,26 @@
         <v>22</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K97" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="L97" s="18" t="s">
         <v>392</v>
-      </c>
-      <c r="L97" s="18" t="s">
-        <v>393</v>
       </c>
       <c r="M97" s="18"/>
       <c r="N97" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R97" s="18"/>
       <c r="S97" s="18"/>
@@ -6376,10 +6373,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6399,44 +6396,44 @@
         <v>22</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K98" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="L98" s="18" t="s">
         <v>397</v>
-      </c>
-      <c r="L98" s="18" t="s">
-        <v>398</v>
       </c>
       <c r="M98" s="18"/>
       <c r="N98" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q98" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="R98" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="S98" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="R98" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="S98" s="18" t="s">
+      <c r="T98" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="T98" s="19" t="s">
-        <v>402</v>
       </c>
       <c r="U98" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6456,46 +6453,46 @@
         <v>22</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K99" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="L99" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="L99" s="18" t="s">
+      <c r="M99" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="M99" s="18" t="s">
+      <c r="N99" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="O99" s="18" t="s">
         <v>406</v>
-      </c>
-      <c r="N99" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="O99" s="18" t="s">
-        <v>407</v>
       </c>
       <c r="P99" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q99" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="R99" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="S99" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="R99" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="S99" s="18" t="s">
-        <v>409</v>
-      </c>
       <c r="T99" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U99" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -6515,20 +6512,20 @@
         <v>22</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K100" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="L100" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="L100" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
@@ -6536,17 +6533,17 @@
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
       <c r="S100" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T100" s="19"/>
       <c r="U100" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6566,20 +6563,20 @@
         <v>22</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K101" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="L101" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="L101" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="M101" s="18"/>
       <c r="N101" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P101" s="5" t="n">
         <v>1</v>
@@ -6587,17 +6584,17 @@
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
       <c r="S101" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T101" s="19"/>
       <c r="U101" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6617,40 +6614,40 @@
         <v>22</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K102" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="L102" s="18" t="s">
         <v>419</v>
-      </c>
-      <c r="L102" s="18" t="s">
-        <v>420</v>
       </c>
       <c r="M102" s="18"/>
       <c r="N102" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P102" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R102" s="18"/>
       <c r="S102" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T102" s="19"/>
       <c r="U102" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6668,44 +6665,44 @@
         <v>22</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K103" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="L103" s="18" t="s">
         <v>425</v>
-      </c>
-      <c r="L103" s="18" t="s">
-        <v>426</v>
       </c>
       <c r="M103" s="18"/>
       <c r="N103" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P103" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q103" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="R103" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="R103" s="18" t="s">
+      <c r="S103" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="S103" s="18" t="s">
+      <c r="T103" s="19" t="s">
         <v>430</v>
-      </c>
-      <c r="T103" s="19" t="s">
-        <v>431</v>
       </c>
       <c r="U103" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6723,44 +6720,44 @@
         <v>22</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K104" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="L104" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="L104" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P104" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q104" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="R104" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="R104" s="18" t="s">
+      <c r="S104" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="S104" s="18" t="s">
+      <c r="T104" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="T104" s="19" t="s">
-        <v>439</v>
       </c>
       <c r="U104" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6778,42 +6775,42 @@
         <v>22</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K105" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="L105" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="L105" s="18" t="s">
-        <v>442</v>
       </c>
       <c r="M105" s="18"/>
       <c r="N105" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P105" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q105" s="18"/>
       <c r="R105" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="S105" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="S105" s="18" t="s">
-        <v>445</v>
-      </c>
       <c r="T105" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U105" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6831,42 +6828,42 @@
         <v>22</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K106" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="L106" s="18" t="s">
         <v>447</v>
-      </c>
-      <c r="L106" s="18" t="s">
-        <v>448</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P106" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q106" s="18"/>
       <c r="R106" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="S106" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="S106" s="18" t="s">
+      <c r="T106" s="19" t="s">
         <v>451</v>
-      </c>
-      <c r="T106" s="19" t="s">
-        <v>452</v>
       </c>
       <c r="U106" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6884,44 +6881,44 @@
         <v>22</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K107" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="L107" s="18" t="s">
         <v>454</v>
-      </c>
-      <c r="L107" s="18" t="s">
-        <v>455</v>
       </c>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P107" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q107" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="R107" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="S107" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="R107" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="S107" s="18" t="s">
-        <v>458</v>
-      </c>
       <c r="T107" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U107" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6939,44 +6936,44 @@
         <v>22</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K108" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="L108" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="L108" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="M108" s="18"/>
       <c r="N108" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P108" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q108" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="R108" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="S108" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="R108" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="S108" s="18" t="s">
-        <v>464</v>
-      </c>
       <c r="T108" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U108" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6994,44 +6991,44 @@
         <v>22</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K109" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="L109" s="18" t="s">
         <v>466</v>
-      </c>
-      <c r="L109" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="M109" s="18"/>
       <c r="N109" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O109" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="P109" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="P109" s="5" t="s">
+      <c r="Q109" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="Q109" s="18" t="s">
+      <c r="R109" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="R109" s="18" t="s">
+      <c r="S109" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="S109" s="18" t="s">
+      <c r="T109" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="T109" s="19" t="s">
-        <v>473</v>
       </c>
       <c r="U109" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7049,44 +7046,44 @@
         <v>22</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K110" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="L110" s="18" t="s">
         <v>475</v>
-      </c>
-      <c r="L110" s="18" t="s">
-        <v>476</v>
       </c>
       <c r="M110" s="18"/>
       <c r="N110" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P110" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q110" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R110" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T110" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U110" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7104,44 +7101,44 @@
         <v>22</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K111" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="L111" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="L111" s="18" t="s">
-        <v>481</v>
       </c>
       <c r="M111" s="18"/>
       <c r="N111" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P111" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q111" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="R111" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="R111" s="18" t="s">
+      <c r="S111" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="S111" s="18" t="s">
+      <c r="T111" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="T111" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="U111" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -7159,42 +7156,42 @@
         <v>22</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K112" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="L112" s="18" t="s">
         <v>488</v>
-      </c>
-      <c r="L112" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="M112" s="18"/>
       <c r="N112" s="18" t="s">
         <v>251</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P112" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q112" s="18"/>
       <c r="R112" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="S112" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="S112" s="18" t="s">
+      <c r="T112" s="19" t="s">
         <v>492</v>
-      </c>
-      <c r="T112" s="19" t="s">
-        <v>493</v>
       </c>
       <c r="U112" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -7212,42 +7209,42 @@
         <v>22</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K113" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="L113" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="L113" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
       <c r="O113" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P113" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="S113" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="S113" s="18" t="s">
+      <c r="T113" s="19" t="s">
         <v>499</v>
-      </c>
-      <c r="T113" s="19" t="s">
-        <v>500</v>
       </c>
       <c r="U113" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="114">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -7261,44 +7258,44 @@
         <v>22</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K114" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="L114" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="L114" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="M114" s="18"/>
       <c r="N114" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="O114" s="18" t="s">
         <v>504</v>
-      </c>
-      <c r="O114" s="18" t="s">
-        <v>505</v>
       </c>
       <c r="P114" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q114" s="18"/>
       <c r="R114" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S114" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T114" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U114" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="115">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -7312,45 +7309,45 @@
         <v>22</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K115" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="L115" s="18" t="s">
         <v>508</v>
-      </c>
-      <c r="L115" s="18" t="s">
-        <v>509</v>
       </c>
       <c r="M115" s="18"/>
       <c r="N115" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P115" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="18"/>
       <c r="R115" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S115" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T115" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U115" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>22</v>
@@ -7368,53 +7365,53 @@
         <v>22</v>
       </c>
       <c r="J116" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K116" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="K116" s="21" t="s">
+      <c r="L116" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="L116" s="21" t="s">
+      <c r="M116" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="M116" s="21" t="s">
+      <c r="N116" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="N116" s="21" t="s">
+      <c r="O116" s="21" t="s">
         <v>518</v>
-      </c>
-      <c r="O116" s="21" t="s">
-        <v>519</v>
       </c>
       <c r="P116" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q116" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="R116" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="R116" s="21" t="s">
-        <v>521</v>
       </c>
       <c r="S116" s="22"/>
       <c r="T116" s="23"/>
       <c r="U116" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="V116" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="V116" s="24" t="s">
+      <c r="W116" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="W116" s="24" t="s">
+      <c r="X116" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="X116" s="24" t="s">
-        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>23</v>
@@ -7432,28 +7429,28 @@
         <v>22</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K117" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="L117" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="L117" s="21" t="s">
+      <c r="M117" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="M117" s="21" t="s">
-        <v>529</v>
-      </c>
       <c r="N117" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O117" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P117" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
@@ -7465,10 +7462,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>22</v>
@@ -7486,28 +7483,28 @@
         <v>22</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K118" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="L118" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="L118" s="21" t="s">
+      <c r="M118" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="N118" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="O118" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="M118" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="N118" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="O118" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="P118" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q118" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
@@ -7519,10 +7516,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
@@ -7537,26 +7534,26 @@
         <v>22</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K119" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="L119" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="L119" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="M119" s="21"/>
       <c r="N119" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O119" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P119" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
@@ -7568,10 +7565,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>22</v>
@@ -7586,24 +7583,24 @@
         <v>22</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K120" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="L120" s="21" t="s">
         <v>541</v>
-      </c>
-      <c r="L120" s="21" t="s">
-        <v>542</v>
       </c>
       <c r="M120" s="21"/>
       <c r="N120" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O120" s="21"/>
       <c r="P120" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
@@ -7615,7 +7612,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>98</v>
@@ -7636,28 +7633,28 @@
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K121" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="L121" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="L121" s="21" t="s">
+      <c r="M121" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="M121" s="21" t="s">
+      <c r="N121" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="O121" s="21" t="s">
         <v>547</v>
-      </c>
-      <c r="N121" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="O121" s="21" t="s">
-        <v>548</v>
       </c>
       <c r="P121" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
@@ -7669,10 +7666,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>22</v>
@@ -7687,51 +7684,51 @@
         <v>22</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K122" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="L122" s="21" t="s">
         <v>551</v>
-      </c>
-      <c r="L122" s="21" t="s">
-        <v>552</v>
       </c>
       <c r="M122" s="21"/>
       <c r="N122" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="O122" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="O122" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="P122" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q122" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="R122" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="R122" s="21" t="s">
-        <v>556</v>
       </c>
       <c r="S122" s="22"/>
       <c r="T122" s="23"/>
       <c r="U122" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="V122" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="V122" s="24" t="s">
+      <c r="W122" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="W122" s="24" t="s">
+      <c r="X122" s="24" t="s">
         <v>559</v>
-      </c>
-      <c r="X122" s="24" t="s">
-        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -7746,43 +7743,43 @@
         <v>22</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K123" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="L123" s="21" t="s">
         <v>561</v>
-      </c>
-      <c r="L123" s="21" t="s">
-        <v>562</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P123" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q123" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
       <c r="T123" s="23"/>
       <c r="U123" s="24"/>
       <c r="V123" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>22</v>
@@ -7797,31 +7794,31 @@
         <v>22</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K124" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="L124" s="21" t="s">
         <v>566</v>
-      </c>
-      <c r="L124" s="21" t="s">
-        <v>567</v>
       </c>
       <c r="M124" s="21"/>
       <c r="N124" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P124" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q124" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
       <c r="T124" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U124" s="24"/>
       <c r="V124" s="24"/>
@@ -7830,10 +7827,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
@@ -7851,36 +7848,36 @@
         <v>22</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K125" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="L125" s="21" t="s">
         <v>572</v>
-      </c>
-      <c r="L125" s="21" t="s">
-        <v>573</v>
       </c>
       <c r="M125" s="21"/>
       <c r="N125" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P125" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q125" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="R125" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="R125" s="21" t="s">
+      <c r="S125" s="22" t="s">
         <v>576</v>
-      </c>
-      <c r="S125" s="22" t="s">
-        <v>577</v>
       </c>
       <c r="T125" s="23"/>
       <c r="U125" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V125" s="24"/>
       <c r="W125" s="24"/>
@@ -7888,10 +7885,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
@@ -7909,30 +7906,30 @@
         <v>22</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K126" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="L126" s="21" t="s">
         <v>580</v>
-      </c>
-      <c r="L126" s="21" t="s">
-        <v>581</v>
       </c>
       <c r="M126" s="21"/>
       <c r="N126" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O126" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P126" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q126" s="21"/>
       <c r="R126" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="S126" s="22" t="s">
         <v>583</v>
-      </c>
-      <c r="S126" s="22" t="s">
-        <v>584</v>
       </c>
       <c r="T126" s="23"/>
       <c r="U126" s="24"/>
@@ -7942,10 +7939,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>22</v>
@@ -7963,53 +7960,53 @@
         <v>22</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K127" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="L127" s="21" t="s">
         <v>586</v>
-      </c>
-      <c r="L127" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="M127" s="21"/>
       <c r="N127" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O127" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P127" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q127" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R127" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="S127" s="22" t="s">
         <v>583</v>
-      </c>
-      <c r="S127" s="22" t="s">
-        <v>584</v>
       </c>
       <c r="T127" s="23"/>
       <c r="U127" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="V127" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="V127" s="24" t="s">
+      <c r="W127" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="W127" s="24" t="s">
+      <c r="X127" s="24" t="s">
         <v>592</v>
-      </c>
-      <c r="X127" s="24" t="s">
-        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>22</v>
@@ -8027,49 +8024,49 @@
         <v>22</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K128" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="L128" s="21" t="s">
         <v>595</v>
-      </c>
-      <c r="L128" s="21" t="s">
-        <v>596</v>
       </c>
       <c r="M128" s="21"/>
       <c r="N128" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O128" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P128" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q128" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="R128" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="R128" s="21" t="s">
+      <c r="S128" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="S128" s="22" t="s">
+      <c r="T128" s="23" t="s">
         <v>600</v>
-      </c>
-      <c r="T128" s="23" t="s">
-        <v>601</v>
       </c>
       <c r="U128" s="24"/>
       <c r="V128" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>22</v>
@@ -8084,31 +8081,31 @@
         <v>22</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K129" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="L129" s="26" t="s">
         <v>604</v>
-      </c>
-      <c r="L129" s="26" t="s">
-        <v>605</v>
       </c>
       <c r="M129" s="26"/>
       <c r="N129" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="O129" s="26" t="s">
         <v>606</v>
-      </c>
-      <c r="O129" s="26" t="s">
-        <v>607</v>
       </c>
       <c r="P129" s="26" t="n">
         <v>2</v>
       </c>
       <c r="Q129" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R129" s="26"/>
       <c r="S129" s="27"/>
       <c r="T129" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U129" s="24"/>
       <c r="V129" s="24"/>
@@ -8117,10 +8114,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>22</v>
@@ -8138,53 +8135,53 @@
         <v>22</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K130" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="L130" s="21" t="s">
         <v>611</v>
-      </c>
-      <c r="L130" s="21" t="s">
-        <v>612</v>
       </c>
       <c r="M130" s="21"/>
       <c r="N130" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O130" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P130" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q130" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="R130" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="R130" s="21" t="s">
+      <c r="S130" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="S130" s="22" t="s">
+      <c r="T130" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="T130" s="23" t="s">
+      <c r="U130" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="U130" s="24" t="s">
+      <c r="V130" s="24" t="s">
         <v>618</v>
-      </c>
-      <c r="V130" s="24" t="s">
-        <v>619</v>
       </c>
       <c r="W130" s="24"/>
       <c r="X130" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>22</v>
@@ -8199,33 +8196,33 @@
         <v>22</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K131" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="L131" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="L131" s="21" t="s">
-        <v>623</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O131" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P131" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q131" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="R131" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="R131" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="S131" s="22"/>
       <c r="T131" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U131" s="24"/>
       <c r="V131" s="24"/>
@@ -8234,10 +8231,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>22</v>
@@ -8252,51 +8249,51 @@
         <v>22</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K132" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="L132" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="L132" s="21" t="s">
-        <v>630</v>
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O132" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P132" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q132" s="21"/>
       <c r="R132" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="S132" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="T132" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="S132" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="T132" s="23" t="s">
+      <c r="U132" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="U132" s="24" t="s">
+      <c r="V132" s="24" t="s">
         <v>634</v>
-      </c>
-      <c r="V132" s="24" t="s">
-        <v>635</v>
       </c>
       <c r="W132" s="24"/>
       <c r="X132" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>22</v>
@@ -8311,35 +8308,35 @@
         <v>22</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K133" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="L133" s="21" t="s">
         <v>638</v>
-      </c>
-      <c r="L133" s="21" t="s">
-        <v>639</v>
       </c>
       <c r="M133" s="21"/>
       <c r="N133" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P133" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q133" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="R133" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="R133" s="21" t="s">
+      <c r="S133" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="T133" s="23" t="s">
         <v>642</v>
-      </c>
-      <c r="S133" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="T133" s="23" t="s">
-        <v>643</v>
       </c>
       <c r="U133" s="24"/>
       <c r="V133" s="24"/>
@@ -8348,10 +8345,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>22</v>
@@ -8366,36 +8363,36 @@
         <v>22</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K134" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="L134" s="21" t="s">
         <v>645</v>
-      </c>
-      <c r="L134" s="21" t="s">
-        <v>646</v>
       </c>
       <c r="M134" s="21"/>
       <c r="N134" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O134" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P134" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q134" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="R134" s="21" t="s">
         <v>648</v>
-      </c>
-      <c r="R134" s="21" t="s">
-        <v>649</v>
       </c>
       <c r="S134" s="22"/>
       <c r="T134" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U134" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="V134" s="24"/>
       <c r="W134" s="24"/>
@@ -8403,10 +8400,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>22</v>
@@ -8421,49 +8418,49 @@
         <v>22</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K135" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="L135" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="L135" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="M135" s="21"/>
       <c r="N135" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O135" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P135" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q135" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="R135" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="R135" s="21" t="s">
+      <c r="S135" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="T135" s="23" t="s">
         <v>656</v>
-      </c>
-      <c r="S135" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="T135" s="23" t="s">
-        <v>657</v>
       </c>
       <c r="U135" s="24"/>
       <c r="V135" s="24"/>
       <c r="W135" s="24"/>
       <c r="X135" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>22</v>
@@ -8478,47 +8475,47 @@
         <v>22</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K136" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="L136" s="21" t="s">
         <v>660</v>
-      </c>
-      <c r="L136" s="21" t="s">
-        <v>661</v>
       </c>
       <c r="M136" s="21"/>
       <c r="N136" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O136" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P136" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q136" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="R136" s="21" t="s">
         <v>663</v>
-      </c>
-      <c r="R136" s="21" t="s">
-        <v>664</v>
       </c>
       <c r="S136" s="22"/>
       <c r="T136" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U136" s="24"/>
       <c r="V136" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>22</v>
@@ -8533,31 +8530,31 @@
         <v>22</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K137" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="L137" s="26" t="s">
         <v>668</v>
-      </c>
-      <c r="L137" s="26" t="s">
-        <v>669</v>
       </c>
       <c r="M137" s="26"/>
       <c r="N137" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O137" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P137" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
       <c r="T137" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U137" s="24"/>
       <c r="V137" s="24"/>
@@ -8566,53 +8563,53 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K138" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K138" s="21" t="s">
+      <c r="L138" s="21" t="s">
         <v>674</v>
-      </c>
-      <c r="L138" s="21" t="s">
-        <v>675</v>
       </c>
       <c r="M138" s="21"/>
       <c r="N138" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O138" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P138" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q138" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="R138" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="R138" s="26" t="s">
+      <c r="S138" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="S138" s="26" t="s">
+      <c r="T138" s="28" t="s">
         <v>679</v>
-      </c>
-      <c r="T138" s="28" t="s">
-        <v>680</v>
       </c>
       <c r="U138" s="24"/>
       <c r="V138" s="24"/>
@@ -8621,56 +8618,56 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K139" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="E139" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K139" s="21" t="s">
+      <c r="L139" s="21" t="s">
         <v>682</v>
-      </c>
-      <c r="L139" s="21" t="s">
-        <v>683</v>
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O139" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P139" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q139" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="R139" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="R139" s="21" t="s">
+      <c r="S139" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="T139" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="S139" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="T139" s="23" t="s">
+      <c r="U139" s="24" t="s">
         <v>687</v>
-      </c>
-      <c r="U139" s="24" t="s">
-        <v>688</v>
       </c>
       <c r="V139" s="24"/>
       <c r="W139" s="24"/>
@@ -8678,59 +8675,59 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K140" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K140" s="21" t="s">
+      <c r="L140" s="21" t="s">
         <v>690</v>
-      </c>
-      <c r="L140" s="21" t="s">
-        <v>691</v>
       </c>
       <c r="M140" s="21"/>
       <c r="N140" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O140" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P140" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q140" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="R140" s="21" t="s">
         <v>693</v>
-      </c>
-      <c r="R140" s="21" t="s">
-        <v>694</v>
       </c>
       <c r="S140" s="22"/>
       <c r="T140" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="U140" s="24" t="s">
         <v>695</v>
-      </c>
-      <c r="U140" s="24" t="s">
-        <v>696</v>
       </c>
       <c r="V140" s="24"/>
       <c r="W140" s="24"/>
       <c r="X140" s="24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="700">
   <si>
     <t>table</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>When the compounds for this library were transferred to screening plates</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Library Type</t>
+  </si>
+  <si>
+    <t>One of ( “plated”,”non-plated” or “vial” )</t>
   </si>
   <si>
     <t>date_data_received</t>
@@ -2376,7 +2385,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2446,32 +2455,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X141"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A66" xSplit="2195" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A25" xSplit="2036" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A66" activeCellId="0" pane="bottomLeft" sqref="A66"/>
-      <selection activeCell="H77" activeCellId="0" pane="bottomRight" sqref="H77"/>
+      <selection activeCell="A25" activeCellId="0" pane="bottomLeft" sqref="A25"/>
+      <selection activeCell="F49" activeCellId="0" pane="bottomRight" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.8705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.321568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9450980392157"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.2549019607843"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.0392156862745"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.0470588235294"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.1137254901961"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.0627450980392"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.7529411764706"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.6078431372549"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.45882352941177"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.45882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.9764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.4"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.1725490196078"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.3294117647059"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.3411764705882"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.1254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.8588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.7137254901961"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.50588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.50588235294118"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
@@ -3809,17 +3818,23 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>23</v>
@@ -3828,24 +3843,24 @@
         <v>37</v>
       </c>
       <c r="M38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="39">
       <c r="B39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>23</v>
@@ -3871,7 +3886,7 @@
         <v>23</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>23</v>
@@ -3890,11 +3905,14 @@
       <c r="B41" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>23</v>
@@ -3903,30 +3921,21 @@
         <v>40</v>
       </c>
       <c r="M41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O41" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="42">
+      <c r="B42" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="s">
+      <c r="G42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>23</v>
@@ -3935,15 +3944,15 @@
         <v>41</v>
       </c>
       <c r="M42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>162</v>
@@ -3958,7 +3967,7 @@
         <v>23</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>23</v>
@@ -3975,7 +3984,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>165</v>
@@ -3990,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>23</v>
@@ -4006,8 +4015,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="45">
-      <c r="A45" s="7" t="s">
-        <v>158</v>
+      <c r="A45" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>168</v>
@@ -4022,7 +4031,7 @@
         <v>23</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>23</v>
@@ -4039,7 +4048,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="46">
       <c r="A46" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>171</v>
@@ -4054,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>23</v>
@@ -4070,7 +4079,9 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="47">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>174</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>23</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>23</v>
@@ -4108,13 +4119,13 @@
         <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>23</v>
@@ -4134,20 +4145,21 @@
       <c r="B49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="0"/>
       <c r="E49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="K49" s="4" t="n">
         <v>48</v>
       </c>
@@ -4159,43 +4171,39 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>184</v>
-      </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="3"/>
       <c r="K50" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="51">
       <c r="A51" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -4207,7 +4215,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>22</v>
@@ -4216,44 +4224,47 @@
         <v>50</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="52">
-      <c r="A52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>187</v>
+      <c r="A52" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>188</v>
+      <c r="M52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>190</v>
@@ -4265,7 +4276,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>23</v>
@@ -4282,7 +4293,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>193</v>
@@ -4294,7 +4305,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>23</v>
@@ -4311,7 +4322,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>196</v>
@@ -4323,7 +4334,7 @@
         <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>23</v>
@@ -4340,7 +4351,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>199</v>
@@ -4348,17 +4359,14 @@
       <c r="E56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>55</v>
@@ -4372,7 +4380,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>202</v>
@@ -4387,10 +4395,10 @@
         <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>56</v>
@@ -4404,11 +4412,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
       </c>
@@ -4419,7 +4427,7 @@
         <v>23</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
@@ -4436,7 +4444,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>162</v>
@@ -4451,7 +4459,7 @@
         <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>23</v>
@@ -4460,18 +4468,18 @@
         <v>58</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>22</v>
@@ -4483,7 +4491,7 @@
         <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>23</v>
@@ -4500,7 +4508,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>213</v>
@@ -4515,7 +4523,7 @@
         <v>23</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>23</v>
@@ -4530,72 +4538,48 @@
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="62">
-      <c r="A62" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="62">
+      <c r="A62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="E62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="63">
+      <c r="A63" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="L62" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="R62" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="S62" s="8"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="63">
-      <c r="A63" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
         <v>22</v>
@@ -4607,45 +4591,49 @@
         <v>22</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P63" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
+      <c r="Q63" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="S63" s="8"/>
-      <c r="T63" s="15"/>
+      <c r="T63" s="14"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="64">
       <c r="A64" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4659,36 +4647,32 @@
         <v>22</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K64" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L64" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P64" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="R64" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="15"/>
       <c r="U64" s="7"/>
@@ -4696,12 +4680,12 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="65">
       <c r="A65" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4709,40 +4693,42 @@
         <v>22</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K65" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O65" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="P65" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
+      <c r="Q65" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="S65" s="8"/>
       <c r="T65" s="15"/>
       <c r="U65" s="7"/>
@@ -4751,42 +4737,50 @@
       <c r="X65" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="66">
-      <c r="A66" s="7"/>
+      <c r="A66" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="B66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L66" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="12" t="s">
+      <c r="M66" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8" t="s">
+      <c r="N66" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O66" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="P66" s="13"/>
+      <c r="P66" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
@@ -4796,12 +4790,14 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
+      <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>243</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>22</v>
@@ -4820,15 +4816,15 @@
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P67" s="13"/>
       <c r="Q67" s="8"/>
@@ -4841,58 +4837,44 @@
       <c r="X67" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="68">
-      <c r="A68" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="B68" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>218</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J68" s="11"/>
       <c r="K68" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L68" s="8"/>
+      <c r="M68" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="M68" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="P68" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="8" t="s">
-        <v>253</v>
-      </c>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="15" t="s">
-        <v>254</v>
-      </c>
+      <c r="T68" s="15"/>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -4900,58 +4882,56 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="69">
       <c r="A69" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>22</v>
+      <c r="F69" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="M69" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="N69" s="8" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P69" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="R69" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="S69" s="16" t="s">
-        <v>261</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
       <c r="T69" s="15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -4960,10 +4940,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="70">
       <c r="A70" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -4971,57 +4951,59 @@
         <v>22</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P70" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S70" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="T70" s="15"/>
+        <v>264</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>265</v>
+      </c>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
       <c r="A71" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5035,47 +5017,51 @@
         <v>22</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P71" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="S71" s="16" t="s">
+        <v>272</v>
+      </c>
       <c r="T71" s="15"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5089,32 +5075,32 @@
         <v>22</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M72" s="8"/>
       <c r="N72" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P72" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
@@ -5126,49 +5112,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G73" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L73" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K73" s="12" t="s">
+      <c r="M73" s="8"/>
+      <c r="N73" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O73" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="P73" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
@@ -5180,10 +5166,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5195,34 +5181,34 @@
         <v>22</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K74" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O74" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="P74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P74" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
@@ -5232,12 +5218,12 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5249,49 +5235,49 @@
         <v>22</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="M75" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="N75" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O75" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="P75" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q75" s="8"/>
+      <c r="Q75" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="T75" s="15"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5300,67 +5286,77 @@
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7" t="s">
+      <c r="J76" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O76" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7" t="s">
+      <c r="P76" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>301</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="7" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="N77" s="7" t="s">
-        <v>221</v>
-      </c>
+      <c r="N77" s="7"/>
       <c r="O77" s="7" t="s">
         <v>303</v>
       </c>
@@ -5374,261 +5370,251 @@
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="78">
-      <c r="A78" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="78">
+      <c r="A78" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="B78" s="7" t="s">
         <v>304</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
-        <v>305</v>
-      </c>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K78" s="12" t="s">
+      <c r="J78" s="11"/>
+      <c r="K78" s="7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O78" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="L78" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="P78" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="15"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="79">
-      <c r="A79" s="7" t="s">
-        <v>216</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
+      <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="D79" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K79" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L79" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="M79" s="8"/>
+      <c r="N79" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O79" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="P79" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q79" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="14" t="s">
-        <v>313</v>
-      </c>
+      <c r="T79" s="15"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="80">
-      <c r="A80" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="80">
+      <c r="A80" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="B80" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K80" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="P80" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q80" s="8" t="s">
-        <v>318</v>
-      </c>
+      <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="15" t="s">
-        <v>319</v>
+      <c r="T80" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="81">
-      <c r="A81" s="7" t="s">
-        <v>244</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="81">
+      <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O81" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="P81" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="P81" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="15"/>
+      <c r="T81" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="82">
       <c r="A82" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K82" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O82" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="P82" s="13" t="n">
         <v>1</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
@@ -5638,12 +5624,12 @@
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -5657,31 +5643,33 @@
         <v>22</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P83" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q83" s="8"/>
+      <c r="Q83" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
       <c r="T83" s="15"/>
@@ -5690,12 +5678,12 @@
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="84">
       <c r="A84" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -5709,31 +5697,29 @@
         <v>22</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K84" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="L84" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="M84" s="8"/>
+      <c r="N84" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O84" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="M84" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="N84" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="P84" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
@@ -5744,50 +5730,52 @@
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G85" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="L85" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="M85" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="N85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O85" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="P85" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q85" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
       <c r="T85" s="15"/>
@@ -5796,12 +5784,12 @@
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5813,47 +5801,47 @@
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K86" s="12" t="s">
+      <c r="L86" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P86" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="Q86" s="8"/>
+      <c r="Q86" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
-      <c r="T86" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="T86" s="15"/>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -5865,36 +5853,36 @@
         <v>22</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="L87" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P87" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
-      <c r="T87" s="15"/>
+      <c r="T87" s="15" t="s">
+        <v>300</v>
+      </c>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
@@ -5902,47 +5890,47 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H88" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="L88" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P88" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
@@ -5952,12 +5940,12 @@
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -5969,32 +5957,32 @@
         <v>22</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P89" s="13" t="n">
         <v>3</v>
       </c>
       <c r="Q89" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
@@ -6006,10 +5994,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -6021,31 +6009,33 @@
         <v>22</v>
       </c>
       <c r="H90" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="L90" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P90" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q90" s="8"/>
+      <c r="Q90" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="15"/>
@@ -6054,50 +6044,48 @@
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H91" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L91" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K91" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P91" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q91" s="8" t="s">
-        <v>357</v>
-      </c>
+      <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="15"/>
@@ -6106,68 +6094,85 @@
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="M92" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="L92" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O92" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="P92" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="I93" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M93" s="7" t="s">
         <v>149</v>
@@ -6178,13 +6183,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>22</v>
@@ -6196,13 +6201,13 @@
         <v>23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M94" s="7" t="s">
         <v>152</v>
@@ -6211,123 +6216,103 @@
         <v>153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="95">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="95">
+      <c r="A95" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G95" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>377</v>
+        <v>148</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K95" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="L95" s="8" t="s">
+      <c r="M95" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="96">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="O95" s="8" t="s">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P95" s="13" t="n">
+      <c r="I96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="P96" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="Q95" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="15"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="96">
-      <c r="A96" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="Q96" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="15"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="K96" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="L96" s="18" t="s">
+      <c r="C97" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="M96" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="N96" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="O96" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="P96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="R96" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="S96" s="18"/>
-      <c r="T96" s="19"/>
-      <c r="U96" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="97">
-      <c r="A97" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
         <v>22</v>
@@ -6339,44 +6324,48 @@
         <v>22</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K97" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="M97" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="O97" s="18" t="s">
         <v>391</v>
-      </c>
-      <c r="L97" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="O97" s="18" t="s">
-        <v>393</v>
       </c>
       <c r="P97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="R97" s="18"/>
+        <v>392</v>
+      </c>
+      <c r="R97" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="S97" s="18"/>
       <c r="T97" s="19"/>
       <c r="U97" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -6390,50 +6379,44 @@
         <v>22</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M98" s="18"/>
       <c r="N98" s="18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="R98" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="S98" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="T98" s="19" t="s">
-        <v>401</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="19"/>
       <c r="U98" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="99">
       <c r="A99" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -6447,52 +6430,50 @@
         <v>22</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>405</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M99" s="18"/>
       <c r="N99" s="18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P99" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q99" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="R99" s="18" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="S99" s="18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="T99" s="19" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="U99" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -6506,44 +6487,52 @@
         <v>22</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K100" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="L100" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="M100" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="N100" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="O100" s="18" t="s">
         <v>409</v>
-      </c>
-      <c r="L100" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="O100" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="P100" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
+      <c r="Q100" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="R100" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="S100" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="T100" s="19"/>
+        <v>411</v>
+      </c>
+      <c r="T100" s="19" t="s">
+        <v>404</v>
+      </c>
       <c r="U100" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6551,32 +6540,32 @@
         <v>22</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K101" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="L101" s="18" t="s">
         <v>413</v>
-      </c>
-      <c r="L101" s="18" t="s">
-        <v>414</v>
       </c>
       <c r="M101" s="18"/>
       <c r="N101" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P101" s="5" t="n">
         <v>1</v>
@@ -6584,17 +6573,17 @@
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
       <c r="S101" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T101" s="19"/>
       <c r="U101" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6608,101 +6597,97 @@
         <v>22</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M102" s="18"/>
       <c r="N102" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P102" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q102" s="18" t="s">
-        <v>421</v>
-      </c>
+      <c r="Q102" s="18"/>
       <c r="R102" s="18"/>
       <c r="S102" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="T102" s="19"/>
       <c r="U102" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G103" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M103" s="18"/>
       <c r="N103" s="18" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P103" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="R103" s="18" t="s">
-        <v>428</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="R103" s="18"/>
       <c r="S103" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="T103" s="19" t="s">
-        <v>430</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="T103" s="19"/>
       <c r="U103" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6714,50 +6699,50 @@
         <v>22</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M104" s="18"/>
       <c r="N104" s="18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="P104" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q104" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="R104" s="18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="T104" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="U104" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6769,48 +6754,50 @@
         <v>22</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M105" s="18"/>
       <c r="N105" s="18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P105" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Q105" s="18"/>
+      <c r="Q105" s="18" t="s">
+        <v>438</v>
+      </c>
       <c r="R105" s="18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="S105" s="18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="T105" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="U105" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6822,48 +6809,48 @@
         <v>22</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="18" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P106" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q106" s="18"/>
       <c r="R106" s="18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="S106" s="18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="T106" s="19" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="U106" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6875,50 +6862,48 @@
         <v>22</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O107" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="P107" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="S107" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="T107" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="U107" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="108">
+      <c r="A108" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P107" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q107" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="R107" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="S107" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="T107" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="U107" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="108">
-      <c r="A108" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6930,50 +6915,50 @@
         <v>22</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M108" s="18"/>
       <c r="N108" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P108" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R108" s="18" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="S108" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="T108" s="19" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="U108" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6985,50 +6970,50 @@
         <v>22</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M109" s="18"/>
       <c r="N109" s="18" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="O109" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="P109" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="R109" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="S109" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="T109" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="U109" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="110">
+      <c r="A110" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P109" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q109" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="R109" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="S109" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="T109" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="U109" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="110">
-      <c r="A110" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7040,50 +7025,50 @@
         <v>22</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M110" s="18"/>
       <c r="N110" s="18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O110" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q110" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="R110" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="S110" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="T110" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="U110" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="111">
+      <c r="A111" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P110" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="R110" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="S110" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="T110" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="U110" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="111">
-      <c r="A111" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7095,50 +7080,50 @@
         <v>22</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M111" s="18"/>
       <c r="N111" s="18" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O111" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="P111" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="R111" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="S111" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="T111" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="U111" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="112">
+      <c r="A112" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P111" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q111" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="R111" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="S111" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="T111" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="U111" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="112">
-      <c r="A112" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -7150,48 +7135,50 @@
         <v>22</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M112" s="18"/>
       <c r="N112" s="18" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="P112" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q112" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q112" s="18" t="s">
+        <v>485</v>
+      </c>
       <c r="R112" s="18" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="T112" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="U112" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -7203,99 +7190,101 @@
         <v>22</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
+      <c r="N113" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="O113" s="18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P113" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Q113" s="18"/>
       <c r="R113" s="18" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="S113" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="T113" s="19" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="U113" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="114">
-      <c r="A114" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="114">
+      <c r="A114" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="B114" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C114" s="7"/>
-      <c r="D114" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L114" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M114" s="18"/>
-      <c r="N114" s="18" t="s">
-        <v>503</v>
-      </c>
+      <c r="N114" s="18"/>
       <c r="O114" s="18" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P114" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q114" s="18"/>
       <c r="R114" s="18" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="S114" s="18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="T114" s="19" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="U114" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="115">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -7303,208 +7292,205 @@
         <v>22</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L115" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M115" s="18"/>
       <c r="N115" s="18" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P115" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="18"/>
       <c r="R115" s="18" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="S115" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="T115" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="U115" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="116">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="K116" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="T115" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="U115" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="116">
-      <c r="A116" s="1" t="s">
+      <c r="L116" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="M116" s="18"/>
+      <c r="N116" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="O116" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="P116" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="S116" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="T116" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="U116" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="117">
+      <c r="A117" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" s="7" t="s">
+      <c r="C117" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K116" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="L116" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="M116" s="21" t="s">
+      <c r="I117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="N116" s="21" t="s">
+      <c r="K117" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="O116" s="21" t="s">
+      <c r="L117" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="P116" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="21" t="s">
+      <c r="M117" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="R116" s="21" t="s">
+      <c r="N117" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="S116" s="22"/>
-      <c r="T116" s="23"/>
-      <c r="U116" s="24" t="s">
+      <c r="O117" s="21" t="s">
         <v>521</v>
-      </c>
-      <c r="V116" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="W116" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="X116" s="24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="117">
-      <c r="A117" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K117" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="L117" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="M117" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="N117" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="O117" s="21" t="s">
-        <v>393</v>
       </c>
       <c r="P117" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="R117" s="21"/>
+        <v>522</v>
+      </c>
+      <c r="R117" s="21" t="s">
+        <v>523</v>
+      </c>
       <c r="S117" s="22"/>
       <c r="T117" s="23"/>
-      <c r="U117" s="24"/>
-      <c r="V117" s="24"/>
-      <c r="W117" s="24"/>
-      <c r="X117" s="24"/>
+      <c r="U117" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="V117" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="W117" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="X117" s="24" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K118" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="L118" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="L118" s="21" t="s">
+      <c r="M118" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="M118" s="21" t="s">
-        <v>405</v>
-      </c>
       <c r="N118" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O118" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="P118" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="P118" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q118" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
@@ -7514,46 +7500,51 @@
       <c r="W118" s="24"/>
       <c r="X118" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K119" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="L119" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K119" s="21" t="s">
+      <c r="M119" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="N119" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="O119" s="21" t="s">
         <v>535</v>
-      </c>
-      <c r="L119" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="O119" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="P119" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
@@ -7565,42 +7556,44 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K120" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="L120" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K120" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="L120" s="21" t="s">
-        <v>541</v>
       </c>
       <c r="M120" s="21"/>
       <c r="N120" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="O120" s="21"/>
+        <v>520</v>
+      </c>
+      <c r="O120" s="21" t="s">
+        <v>540</v>
+      </c>
       <c r="P120" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q120" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
@@ -7612,49 +7605,42 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>98</v>
+        <v>542</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G121" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K121" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="L121" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="L121" s="21" t="s">
+      <c r="M121" s="21"/>
+      <c r="N121" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="M121" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="N121" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="O121" s="21" t="s">
-        <v>547</v>
-      </c>
+      <c r="O121" s="21"/>
       <c r="P121" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
@@ -7664,71 +7650,66 @@
       <c r="W121" s="24"/>
       <c r="X121" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K122" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="L122" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="M122" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K122" s="21" t="s">
+      <c r="N122" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="O122" s="21" t="s">
         <v>550</v>
-      </c>
-      <c r="L122" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="O122" s="21" t="s">
-        <v>553</v>
       </c>
       <c r="P122" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q122" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="R122" s="21" t="s">
-        <v>555</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="R122" s="21"/>
       <c r="S122" s="22"/>
       <c r="T122" s="23"/>
-      <c r="U122" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="V122" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="W122" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="X122" s="24" t="s">
-        <v>559</v>
-      </c>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>331</v>
+        <v>552</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>22</v>
@@ -7737,158 +7718,159 @@
         <v>22</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K123" s="21" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="21" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="P123" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q123" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="R123" s="21"/>
+      <c r="Q123" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="R123" s="21" t="s">
+        <v>558</v>
+      </c>
       <c r="S123" s="22"/>
       <c r="T123" s="23"/>
-      <c r="U123" s="24"/>
+      <c r="U123" s="24" t="s">
+        <v>559</v>
+      </c>
       <c r="V123" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="W123" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="X123" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="124">
+      <c r="A124" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K124" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="L124" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="W123" s="24"/>
-      <c r="X123" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="124">
-      <c r="A124" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K124" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="L124" s="21" t="s">
-        <v>566</v>
       </c>
       <c r="M124" s="21"/>
       <c r="N124" s="21" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P124" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q124" s="21" t="s">
-        <v>568</v>
+      <c r="Q124" s="25" t="s">
+        <v>566</v>
       </c>
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
-      <c r="T124" s="23" t="s">
-        <v>569</v>
-      </c>
+      <c r="T124" s="23"/>
       <c r="U124" s="24"/>
-      <c r="V124" s="24"/>
+      <c r="V124" s="24" t="s">
+        <v>567</v>
+      </c>
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G125" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M125" s="21"/>
       <c r="N125" s="21" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="P125" s="21" t="n">
         <v>1</v>
       </c>
       <c r="Q125" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="R125" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="S125" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="T125" s="23"/>
-      <c r="U125" s="24" t="s">
-        <v>577</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="R125" s="21"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="U125" s="24"/>
       <c r="V125" s="24"/>
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>22</v>
@@ -7900,49 +7882,53 @@
         <v>22</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="M126" s="21"/>
       <c r="N126" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O126" s="21" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="P126" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q126" s="21"/>
+      <c r="Q126" s="21" t="s">
+        <v>577</v>
+      </c>
       <c r="R126" s="21" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="S126" s="22" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="T126" s="23"/>
-      <c r="U126" s="24"/>
+      <c r="U126" s="24" t="s">
+        <v>580</v>
+      </c>
       <c r="V126" s="24"/>
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>22</v>
@@ -7954,456 +7940,455 @@
         <v>22</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K127" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M127" s="21"/>
       <c r="N127" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O127" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="P127" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q127" s="21" t="s">
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="S127" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="T127" s="23"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="128">
+      <c r="A128" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K128" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="R127" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="S127" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="T127" s="23"/>
-      <c r="U127" s="24" t="s">
+      <c r="L128" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="V127" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="W127" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="X127" s="24" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="128">
-      <c r="A128" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K128" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="L128" s="21" t="s">
-        <v>595</v>
       </c>
       <c r="M128" s="21"/>
       <c r="N128" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O128" s="21" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P128" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q128" s="26" t="s">
+      <c r="Q128" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="R128" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="S128" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="T128" s="23"/>
+      <c r="U128" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="V128" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="W128" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="X128" s="24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="129">
+      <c r="A129" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K129" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="R128" s="21" t="s">
+      <c r="L129" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="S128" s="22" t="s">
+      <c r="M129" s="21"/>
+      <c r="N129" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="O129" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="T128" s="23" t="s">
+      <c r="P129" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="U128" s="24"/>
-      <c r="V128" s="24" t="s">
+      <c r="R129" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
-      <c r="A129" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="S129" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K129" s="26" t="s">
+      <c r="T129" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="L129" s="26" t="s">
+      <c r="U129" s="24"/>
+      <c r="V129" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="M129" s="26"/>
-      <c r="N129" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="O129" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="P129" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q129" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="R129" s="26"/>
-      <c r="S129" s="27"/>
-      <c r="T129" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
       <c r="W129" s="24"/>
       <c r="X129" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K130" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="L130" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="M130" s="26"/>
+      <c r="N130" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="O130" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="E130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="7" t="s">
+      <c r="P130" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q130" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="R130" s="26"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="U130" s="24"/>
+      <c r="V130" s="24"/>
+      <c r="W130" s="24"/>
+      <c r="X130" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="131">
+      <c r="A131" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I130" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K130" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="L130" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="M130" s="21"/>
-      <c r="N130" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="O130" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="P130" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="21" t="s">
+      <c r="I131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K131" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="R130" s="21" t="s">
+      <c r="L131" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="S130" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="T130" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="U130" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="V130" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="131">
-      <c r="A131" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K131" s="21" t="s">
-        <v>621</v>
-      </c>
-      <c r="L131" s="21" t="s">
-        <v>622</v>
       </c>
       <c r="M131" s="21"/>
       <c r="N131" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O131" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="P131" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="R131" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="T131" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="U131" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="V131" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="132">
+      <c r="A132" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="P131" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q131" s="21" t="s">
+      <c r="E132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K132" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="R131" s="21" t="s">
+      <c r="L132" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="S131" s="22"/>
-      <c r="T131" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="132">
-      <c r="A132" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K132" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="L132" s="21" t="s">
-        <v>629</v>
       </c>
       <c r="M132" s="21"/>
       <c r="N132" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O132" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="P132" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q132" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="R132" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="S132" s="22"/>
+      <c r="T132" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="U132" s="24"/>
+      <c r="V132" s="24"/>
+      <c r="W132" s="24"/>
+      <c r="X132" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="P132" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="21"/>
-      <c r="R132" s="21" t="s">
+      <c r="E133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K133" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="S132" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="T132" s="23" t="s">
+      <c r="L133" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="U132" s="24" t="s">
-        <v>633</v>
-      </c>
-      <c r="V132" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="W132" s="24"/>
-      <c r="X132" s="24" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="133">
-      <c r="A133" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K133" s="21" t="s">
-        <v>637</v>
-      </c>
-      <c r="L133" s="21" t="s">
-        <v>638</v>
       </c>
       <c r="M133" s="21"/>
       <c r="N133" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="P133" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q133" s="21" t="s">
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="T133" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="U133" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="V133" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="W133" s="24"/>
+      <c r="X133" s="24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="134">
+      <c r="A134" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K134" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="R133" s="21" t="s">
+      <c r="L134" s="21" t="s">
         <v>641</v>
-      </c>
-      <c r="S133" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="T133" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="U133" s="24"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="134">
-      <c r="A134" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K134" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="L134" s="21" t="s">
-        <v>645</v>
       </c>
       <c r="M134" s="21"/>
       <c r="N134" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O134" s="21" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="P134" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="21" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R134" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="S134" s="22"/>
+        <v>644</v>
+      </c>
+      <c r="S134" s="22" t="s">
+        <v>454</v>
+      </c>
       <c r="T134" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="U134" s="24" t="s">
-        <v>649</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="U134" s="24"/>
       <c r="V134" s="24"/>
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>22</v>
@@ -8412,55 +8397,53 @@
         <v>22</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L135" s="21" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M135" s="21"/>
       <c r="N135" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O135" s="21" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="P135" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="R135" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="S135" s="22" t="s">
-        <v>451</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="S135" s="22"/>
       <c r="T135" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="U135" s="24"/>
+        <v>572</v>
+      </c>
+      <c r="U135" s="24" t="s">
+        <v>652</v>
+      </c>
       <c r="V135" s="24"/>
       <c r="W135" s="24"/>
-      <c r="X135" s="24" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="136">
+      <c r="X135" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>22</v>
@@ -8469,159 +8452,161 @@
         <v>22</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M136" s="21"/>
       <c r="N136" s="21" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="O136" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="P136" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q136" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="R136" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="S136" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="T136" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="U136" s="24"/>
+      <c r="V136" s="24"/>
+      <c r="W136" s="24"/>
+      <c r="X136" s="24" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="137">
+      <c r="A137" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="P136" s="21" t="n">
+      <c r="E137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K137" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="L137" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="O137" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="P137" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="Q136" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="R136" s="21" t="s">
-        <v>663</v>
-      </c>
-      <c r="S136" s="22"/>
-      <c r="T136" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="U136" s="24"/>
-      <c r="V136" s="24" t="s">
+      <c r="Q137" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="W136" s="24"/>
-      <c r="X136" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="137">
-      <c r="A137" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="R137" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="E137" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K137" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="L137" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="M137" s="26"/>
-      <c r="N137" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="O137" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="P137" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q137" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="R137" s="21"/>
       <c r="S137" s="22"/>
       <c r="T137" s="23" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="U137" s="24"/>
-      <c r="V137" s="24"/>
+      <c r="V137" s="24" t="s">
+        <v>668</v>
+      </c>
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K138" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="L138" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="M138" s="26"/>
+      <c r="N138" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="O138" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K138" s="21" t="s">
+      <c r="P138" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q138" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="L138" s="21" t="s">
+      <c r="R138" s="21"/>
+      <c r="S138" s="22"/>
+      <c r="T138" s="23" t="s">
         <v>674</v>
-      </c>
-      <c r="M138" s="21"/>
-      <c r="N138" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="O138" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="P138" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="R138" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="S138" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="T138" s="28" t="s">
-        <v>679</v>
       </c>
       <c r="U138" s="24"/>
       <c r="V138" s="24"/>
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>22</v>
@@ -8630,55 +8615,53 @@
         <v>22</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O139" s="21" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="P139" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q139" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="R139" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="S139" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="T139" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="U139" s="24" t="s">
-        <v>687</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q139" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="R139" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="S139" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="T139" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="U139" s="24"/>
       <c r="V139" s="24"/>
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>22</v>
@@ -8687,47 +8670,104 @@
         <v>22</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K140" s="21" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="M140" s="21"/>
       <c r="N140" s="21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O140" s="21" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="P140" s="21" t="n">
         <v>2</v>
       </c>
       <c r="Q140" s="21" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="R140" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="S140" s="22"/>
+        <v>688</v>
+      </c>
+      <c r="S140" s="22" t="s">
+        <v>404</v>
+      </c>
       <c r="T140" s="23" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="U140" s="24" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="V140" s="24"/>
       <c r="W140" s="24"/>
-      <c r="X140" s="24" t="s">
+      <c r="X140" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="141">
+      <c r="A141" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K141" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="L141" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="O141" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="P141" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q141" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="R141" s="21" t="s">
         <v>696</v>
+      </c>
+      <c r="S141" s="22"/>
+      <c r="T141" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="U141" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="V141" s="24"/>
+      <c r="W141" s="24"/>
+      <c r="X141" s="24" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="700">
   <si>
     <t>table</t>
   </si>
@@ -575,6 +575,15 @@
     <t>Number of distinct small molecules in this library</t>
   </si>
   <si>
+    <t>display_concentration</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Concentration (nM,uM,mM)</t>
+  </si>
+  <si>
     <t>attachedfile</t>
   </si>
   <si>
@@ -663,15 +672,6 @@
   </si>
   <si>
     <t>The type of Control Well recorded for this Datarecord</t>
-  </si>
-  <si>
-    <t>omero_image_id</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>The image recorded for this Datarecord</t>
   </si>
   <si>
     <t>smallmolecule</t>
@@ -2385,7 +2385,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2458,29 +2458,29 @@
   <dimension ref="A1:X141"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A25" xSplit="2036" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="C27" xSplit="1892" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A25" activeCellId="0" pane="bottomLeft" sqref="A25"/>
-      <selection activeCell="F49" activeCellId="0" pane="bottomRight" sqref="F49"/>
+      <selection activeCell="C1" activeCellId="0" pane="topRight" sqref="C1"/>
+      <selection activeCell="A27" activeCellId="0" pane="bottomLeft" sqref="A27"/>
+      <selection activeCell="O51" activeCellId="0" pane="bottomRight" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.9764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.4"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.1725490196078"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.3294117647059"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.3411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.1254901960784"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.8588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.7137254901961"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.50588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.50588235294118"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.0862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.4470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="28.5450980392157"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.3019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="56.6078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="45.5647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.2"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="21.9686274509804"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="21.8235294117647"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="9.54901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.54901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
@@ -4054,10 +4054,10 @@
         <v>171</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>23</v>
@@ -4086,10 +4086,10 @@
         <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>23</v>
@@ -4199,43 +4199,41 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="E51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>22</v>
+      <c r="H51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="52">
       <c r="A52" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -4247,7 +4245,7 @@
         <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>22</v>
@@ -4256,44 +4254,47 @@
         <v>51</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
-      <c r="A53" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>190</v>
+      <c r="A53" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K53" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>191</v>
+      <c r="M53" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>193</v>
@@ -4305,7 +4306,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>23</v>
@@ -4322,7 +4323,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>196</v>
@@ -4334,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>23</v>
@@ -4351,7 +4352,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>199</v>
@@ -4363,7 +4364,7 @@
         <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>23</v>
@@ -4380,7 +4381,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>202</v>
@@ -4388,17 +4389,14 @@
       <c r="E57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>56</v>
@@ -4412,7 +4410,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>205</v>
@@ -4427,10 +4425,10 @@
         <v>23</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>57</v>
@@ -4444,11 +4442,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="E59" s="1" t="s">
         <v>22</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>23</v>
@@ -4476,10 +4474,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>22</v>
@@ -4491,7 +4489,7 @@
         <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>23</v>
@@ -4500,18 +4498,18 @@
         <v>59</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -4523,7 +4521,7 @@
         <v>23</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>23</v>
@@ -4540,7 +4538,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>216</v>
@@ -4555,7 +4553,7 @@
         <v>23</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>23</v>
@@ -4790,7 +4788,7 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="67">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
         <v>242</v>
@@ -8328,7 +8326,7 @@
         <v>638</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="179.1" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="168.65" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>514</v>
       </c>
@@ -8438,7 +8436,7 @@
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="126.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>514</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="3" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="711">
   <si>
     <t>table</t>
   </si>
@@ -428,6 +428,24 @@
     <t>References for the protocol</t>
   </si>
   <si>
+    <t>dataset_type</t>
+  </si>
+  <si>
+    <t>Dataset Type</t>
+  </si>
+  <si>
+    <t>Distinguishes datasets that are used elsewhere, such as the Nominal Targets dataset.</t>
+  </si>
+  <si>
+    <t>usage_message</t>
+  </si>
+  <si>
+    <t>Usage Message</t>
+  </si>
+  <si>
+    <t>Instructions for users when viewing and searching this dataset</t>
+  </si>
+  <si>
     <t>library</t>
   </si>
   <si>
@@ -701,6 +719,9 @@
     <t>SM_Name</t>
   </si>
   <si>
+    <t>SM Name</t>
+  </si>
+  <si>
     <t>canonical structure</t>
   </si>
   <si>
@@ -1214,6 +1235,9 @@
     <t>PP_LINCS_ID</t>
   </si>
   <si>
+    <t>Protein LINCS ID</t>
+  </si>
+  <si>
     <t>Unique LINCS internal identifier</t>
   </si>
   <si>
@@ -1673,7 +1697,7 @@
     <t>CL_Center_Specific_ID</t>
   </si>
   <si>
-    <t>Facility ID</t>
+    <t>Cell Facility ID</t>
   </si>
   <si>
     <t>LINCS center-specific cell line ID; batch specific ID</t>
@@ -2394,7 +2418,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2464,32 +2488,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y142"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A60" xSplit="1892" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="K37" xSplit="4189" ySplit="2250"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A60" activeCellId="0" pane="bottomLeft" sqref="A60"/>
-      <selection activeCell="K60" activeCellId="0" pane="bottomRight" sqref="K60"/>
+      <selection activeCell="K1" activeCellId="0" pane="topRight" sqref="K1"/>
+      <selection activeCell="A37" activeCellId="0" pane="bottomLeft" sqref="A37"/>
+      <selection activeCell="L37" activeCellId="0" pane="bottomRight" sqref="L37:L65"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.0862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.4470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.5450980392157"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.3019607843137"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="56.6078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="45.5647058823529"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.2"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="21.9686274509804"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.8235294117647"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.54901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.54901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.1960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.6901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.4352941176471"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="56.8901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="45.7921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.2705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.078431372549"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.9333333333333"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.59607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
@@ -3776,87 +3800,94 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>23</v>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>35</v>
       </c>
       <c r="N36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="37">
+      <c r="A37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="37">
-      <c r="A37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>23</v>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>36</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>32</v>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>37</v>
@@ -3870,7 +3901,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>148</v>
@@ -3881,14 +3912,14 @@
       <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>36</v>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>38</v>
@@ -3901,6 +3932,9 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="40">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>151</v>
       </c>
@@ -3911,7 +3945,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>24</v>
@@ -3920,24 +3954,30 @@
         <v>39</v>
       </c>
       <c r="N40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P40" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="41">
+      <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="41">
-      <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E41" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>24</v>
@@ -3946,24 +3986,24 @@
         <v>40</v>
       </c>
       <c r="N41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="42">
       <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -3982,11 +4022,14 @@
       <c r="B43" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>24</v>
@@ -3995,30 +4038,24 @@
         <v>42</v>
       </c>
       <c r="N43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P43" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="44">
+      <c r="B44" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G44" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>24</v>
@@ -4027,30 +4064,21 @@
         <v>43</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="45">
+      <c r="B45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="G45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="45">
-      <c r="A45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>24</v>
@@ -4059,15 +4087,15 @@
         <v>44</v>
       </c>
       <c r="N45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>172</v>
@@ -4082,7 +4110,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>24</v>
@@ -4098,23 +4126,23 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="47">
-      <c r="A47" s="7" t="s">
-        <v>165</v>
+      <c r="A47" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>24</v>
@@ -4130,23 +4158,23 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="48">
-      <c r="A48" s="7" t="s">
-        <v>165</v>
+      <c r="A48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>24</v>
@@ -4162,12 +4190,14 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="49">
-      <c r="A49" s="7"/>
+      <c r="A49" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>24</v>
@@ -4176,7 +4206,7 @@
         <v>24</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>24</v>
@@ -4192,12 +4222,14 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="50">
-      <c r="A50" s="7"/>
+      <c r="A50" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>24</v>
@@ -4206,7 +4238,7 @@
         <v>24</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>24</v>
@@ -4230,15 +4262,17 @@
         <v>23</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L51" s="4" t="n">
         <v>50</v>
       </c>
@@ -4258,13 +4292,13 @@
         <v>23</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>24</v>
@@ -4273,137 +4307,137 @@
         <v>51</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="E53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="3"/>
       <c r="L53" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P53" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P53" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
+      <c r="A54" s="7"/>
+      <c r="B54" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
-      <c r="A54" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="E54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>23</v>
+      <c r="G54" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>15</v>
+      <c r="N54" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
-      <c r="A55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>197</v>
+      <c r="A55" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F55" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="N55" s="9" t="s">
-        <v>198</v>
+      <c r="N55" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="P55" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
+      <c r="A56" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
-      <c r="A56" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>200</v>
+      <c r="B56" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F56" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>201</v>
+      <c r="N56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>203</v>
@@ -4415,7 +4449,7 @@
         <v>24</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>24</v>
@@ -4432,7 +4466,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>206</v>
@@ -4444,7 +4478,7 @@
         <v>24</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>24</v>
@@ -4461,7 +4495,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>209</v>
@@ -4469,17 +4503,14 @@
       <c r="E59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>58</v>
@@ -4493,7 +4524,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>212</v>
@@ -4501,14 +4532,11 @@
       <c r="E60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>24</v>
@@ -4525,11 +4553,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="E61" s="1" t="s">
         <v>23</v>
       </c>
@@ -4540,10 +4568,10 @@
         <v>24</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>60</v>
@@ -4557,10 +4585,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>23</v>
@@ -4572,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>24</v>
@@ -4581,18 +4609,18 @@
         <v>61</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>23</v>
@@ -4604,7 +4632,7 @@
         <v>24</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>24</v>
@@ -4613,136 +4641,86 @@
         <v>62</v>
       </c>
       <c r="N63" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="64">
+      <c r="A64" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="64">
-      <c r="A64" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="N64" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="11" t="s">
+      <c r="P64" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L64" s="12" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="65">
+      <c r="A65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="E65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="N65" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8" t="s">
+      <c r="P65" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="P64" s="8" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="66">
+      <c r="A66" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" s="8" t="s">
+      <c r="B66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="S64" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="T64" s="8"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="65">
-      <c r="A65" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q65" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="66">
-      <c r="A66" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
         <v>23</v>
@@ -4754,41 +4732,43 @@
         <v>23</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="N66" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="O66" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q66" s="13" t="n">
         <v>1</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="S66" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T66" s="8"/>
-      <c r="U66" s="15"/>
+      <c r="U66" s="14"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
@@ -4796,10 +4776,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
       <c r="A67" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -4807,37 +4787,35 @@
         <v>23</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L67" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P67" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="Q67" s="13" t="n">
         <v>1</v>
@@ -4851,48 +4829,58 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="68">
-      <c r="A68" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="68">
+      <c r="A68" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="B68" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P68" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="12" t="s">
+      <c r="Q68" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8" t="s">
+      <c r="S68" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
       <c r="T68" s="8"/>
       <c r="U68" s="15"/>
       <c r="V68" s="7"/>
@@ -4900,44 +4888,54 @@
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="69">
+      <c r="A69" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="B69" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="N69" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" s="12" t="s">
+      <c r="O69" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P69" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q69" s="13"/>
+      <c r="Q69" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
@@ -4947,125 +4945,97 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="70">
-      <c r="A70" s="7" t="s">
-        <v>223</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="70">
+      <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70" s="12" t="s">
+      <c r="M70" s="8"/>
+      <c r="N70" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="M70" s="8" t="s">
+      <c r="O70" s="8"/>
+      <c r="P70" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R70" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
-      <c r="U70" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="U70" s="15"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
-      <c r="A71" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="B71" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="E71" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>225</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J71" s="11"/>
       <c r="K71" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8" t="s">
-        <v>228</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O71" s="8"/>
       <c r="P71" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="S71" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="T71" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="U71" s="15" t="s">
-        <v>269</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="15"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
@@ -5073,71 +5043,71 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="N72" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="O72" s="8" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q72" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="S72" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="T72" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="U72" s="15"/>
+        <v>267</v>
+      </c>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5145,45 +5115,51 @@
         <v>23</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q73" s="13" t="n">
         <v>1</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="15"/>
+        <v>273</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="U73" s="15" t="s">
+        <v>276</v>
+      </c>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
@@ -5191,10 +5167,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5208,29 +5184,29 @@
         <v>23</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q74" s="13" t="n">
         <v>2</v>
@@ -5238,62 +5214,66 @@
       <c r="R74" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
+      <c r="S74" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>283</v>
+      </c>
       <c r="U74" s="15"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G75" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P75" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P75" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="Q75" s="13" t="n">
         <v>1</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -5305,52 +5285,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G76" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>296</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N76" s="8"/>
       <c r="O76" s="8" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q76" s="13" t="n">
         <v>2</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
@@ -5360,12 +5340,12 @@
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -5377,52 +5357,52 @@
         <v>23</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L77" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="M77" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q77" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R77" s="8"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
-      <c r="U77" s="15" t="s">
-        <v>303</v>
-      </c>
+      <c r="U77" s="15"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5431,200 +5411,208 @@
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J78" s="11"/>
+      <c r="J78" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="K78" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L78" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
+      <c r="L78" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P78" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q78" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="15"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
       <c r="A79" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J79" s="11"/>
+      <c r="J79" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="K79" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7" t="s">
+      <c r="L79" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N79" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="O79" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P79" s="7" t="s">
+      <c r="O79" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="P79" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
+      <c r="Q79" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="80">
-      <c r="A80" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+      <c r="A80" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="B80" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>225</v>
-      </c>
+      <c r="J80" s="11"/>
       <c r="K80" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="12" t="s">
+      <c r="L80" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="O80" s="7"/>
+      <c r="P80" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P80" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="15"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>225</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J81" s="11"/>
       <c r="K81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="12" t="s">
+      <c r="L81" s="7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P81" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M81" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q81" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="82">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -5632,211 +5620,205 @@
         <v>23</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q82" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
-      <c r="U82" s="15" t="s">
-        <v>325</v>
-      </c>
+      <c r="U82" s="15"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>258</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>258</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
       <c r="P83" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q83" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R83" s="8" t="s">
-        <v>331</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R83" s="8"/>
       <c r="S83" s="8"/>
       <c r="T83" s="8"/>
-      <c r="U83" s="15"/>
+      <c r="U83" s="14" t="s">
+        <v>326</v>
+      </c>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="84">
-      <c r="A84" s="7" t="s">
-        <v>251</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="84">
+      <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D84" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q84" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S84" s="8"/>
       <c r="T84" s="8"/>
-      <c r="U84" s="15"/>
+      <c r="U84" s="15" t="s">
+        <v>332</v>
+      </c>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C85" s="7"/>
+        <v>333</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="N85" s="8"/>
+        <v>335</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="O85" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q85" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="R85" s="8"/>
+      <c r="R85" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
       <c r="U85" s="15"/>
@@ -5845,12 +5827,12 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5864,36 +5846,36 @@
         <v>23</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K86" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L86" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P86" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="Q86" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="N86" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="P86" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q86" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
       <c r="U86" s="15"/>
@@ -5904,51 +5886,51 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G87" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="M87" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q87" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R87" s="8" t="s">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R87" s="8"/>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
       <c r="U87" s="15"/>
@@ -5957,46 +5939,50 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H88" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="M88" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L88" s="12" t="s">
+      <c r="N88" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="M88" s="8" t="s">
+      <c r="O88" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P88" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="P88" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="Q88" s="13" t="n">
         <v>2</v>
@@ -6004,9 +5990,7 @@
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
-      <c r="U88" s="15" t="s">
-        <v>303</v>
-      </c>
+      <c r="U88" s="15"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
@@ -6014,10 +5998,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -6029,35 +6013,35 @@
         <v>23</v>
       </c>
       <c r="H89" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L89" s="12" t="s">
+      <c r="M89" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="M89" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q89" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -6067,107 +6051,107 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H90" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="M90" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q90" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R90" s="8" t="s">
-        <v>363</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
-      <c r="U90" s="15"/>
+      <c r="U90" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q91" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R91" s="8" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -6177,12 +6161,12 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -6194,34 +6178,36 @@
         <v>23</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K92" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q92" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="R92" s="8"/>
+      <c r="R92" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
       <c r="U92" s="15"/>
@@ -6230,52 +6216,52 @@
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K93" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q93" s="13" t="n">
         <v>3</v>
       </c>
       <c r="R93" s="8" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -6285,104 +6271,136 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="M94" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="N94" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="95">
+      <c r="N94" s="8"/>
+      <c r="O94" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P94" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q94" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="N95" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q95" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="I96" s="3" t="s">
         <v>24</v>
       </c>
@@ -6390,7 +6408,7 @@
         <v>23</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>159</v>
@@ -6399,179 +6417,147 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="97">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G97" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="M97" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="98">
+      <c r="A98" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P97" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q97" s="13" t="n">
+      <c r="B98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="99">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q99" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="R97" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="15"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="98">
-      <c r="A98" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="K98" s="17"/>
-      <c r="L98" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="M98" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="N98" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="O98" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="P98" s="18" t="s">
+      <c r="R99" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="15"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="100">
+      <c r="A100" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="Q98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R98" s="18" t="s">
+      <c r="B100" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="S98" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="T98" s="18"/>
-      <c r="U98" s="19"/>
-      <c r="V98" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="99">
-      <c r="A99" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="K99" s="17"/>
-      <c r="L99" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="M99" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="P99" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R99" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="100">
-      <c r="A100" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
         <v>23</v>
@@ -6583,51 +6569,49 @@
         <v>23</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K100" s="17"/>
       <c r="L100" s="18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="N100" s="18"/>
+        <v>398</v>
+      </c>
+      <c r="N100" s="18" t="s">
+        <v>399</v>
+      </c>
       <c r="O100" s="18" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P100" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q100" s="5" t="n">
         <v>1</v>
       </c>
       <c r="R100" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="S100" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="T100" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="U100" s="19" t="s">
-        <v>407</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="T100" s="18"/>
+      <c r="U100" s="19"/>
       <c r="V100" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>408</v>
+        <v>239</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6641,53 +6625,47 @@
         <v>23</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K101" s="17"/>
       <c r="L101" s="18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q101" s="5" t="n">
         <v>1</v>
       </c>
       <c r="R101" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="S101" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="T101" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="U101" s="19" t="s">
-        <v>407</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="19"/>
       <c r="V101" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -6701,45 +6679,51 @@
         <v>23</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K102" s="17"/>
       <c r="L102" s="18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N102" s="18"/>
       <c r="O102" s="18" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="P102" s="18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
+      <c r="R102" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="S102" s="18" t="s">
+        <v>403</v>
+      </c>
       <c r="T102" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="U102" s="19"/>
+        <v>414</v>
+      </c>
+      <c r="U102" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="V102" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -6747,51 +6731,59 @@
         <v>23</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K103" s="17"/>
       <c r="L103" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="M103" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="N103" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="M103" s="18" t="s">
+      <c r="O103" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="P103" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="P103" s="18" t="s">
-        <v>421</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
+      <c r="R103" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="S103" s="18" t="s">
+        <v>403</v>
+      </c>
       <c r="T103" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="U103" s="19"/>
+      <c r="U103" s="19" t="s">
+        <v>415</v>
+      </c>
       <c r="V103" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6799,165 +6791,157 @@
         <v>23</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K104" s="17"/>
       <c r="L104" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M104" s="18" t="s">
         <v>424</v>
-      </c>
-      <c r="M104" s="18" t="s">
-        <v>425</v>
       </c>
       <c r="N104" s="18"/>
       <c r="O104" s="18" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R104" s="18" t="s">
-        <v>427</v>
-      </c>
+      <c r="R104" s="18"/>
       <c r="S104" s="18"/>
       <c r="T104" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U104" s="19"/>
       <c r="V104" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F105" s="7"/>
+      <c r="F105" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G105" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K105" s="17"/>
       <c r="L105" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N105" s="18"/>
       <c r="O105" s="18" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
       <c r="P105" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q105" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R105" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="S105" s="18" t="s">
-        <v>434</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
       <c r="T105" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="U105" s="19" t="s">
-        <v>436</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="U105" s="19"/>
       <c r="V105" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F106" s="7"/>
+      <c r="F106" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G106" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K106" s="17"/>
       <c r="L106" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M106" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N106" s="18"/>
       <c r="O106" s="18" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
       <c r="P106" s="18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q106" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="S106" s="18" t="s">
-        <v>442</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="S106" s="18"/>
       <c r="T106" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="U106" s="19" t="s">
-        <v>444</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="U106" s="19"/>
       <c r="V106" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6969,49 +6953,51 @@
         <v>23</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="18" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M107" s="18" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N107" s="18"/>
       <c r="O107" s="18" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P107" s="18" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q107" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="R107" s="18"/>
+      <c r="R107" s="18" t="s">
+        <v>441</v>
+      </c>
       <c r="S107" s="18" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="T107" s="18" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="U107" s="19" t="s">
         <v>444</v>
       </c>
       <c r="V107" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -7023,49 +7009,51 @@
         <v>23</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K108" s="17"/>
       <c r="L108" s="18" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M108" s="18" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N108" s="18"/>
       <c r="O108" s="18" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="P108" s="18" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="Q108" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R108" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="R108" s="18" t="s">
+        <v>449</v>
+      </c>
       <c r="S108" s="18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="T108" s="18" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="U108" s="19" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="V108" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -7077,51 +7065,49 @@
         <v>23</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K109" s="17"/>
       <c r="L109" s="18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M109" s="18" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N109" s="18"/>
       <c r="O109" s="18" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="P109" s="18" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q109" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="R109" s="18" t="s">
-        <v>462</v>
-      </c>
+      <c r="R109" s="18"/>
       <c r="S109" s="18" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T109" s="18" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="U109" s="19" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="V109" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7133,51 +7119,49 @@
         <v>23</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K110" s="17"/>
       <c r="L110" s="18" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M110" s="18" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N110" s="18"/>
       <c r="O110" s="18" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P110" s="18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q110" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R110" s="18" t="s">
-        <v>468</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R110" s="18"/>
       <c r="S110" s="18" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="T110" s="18" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="U110" s="19" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="V110" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7189,51 +7173,51 @@
         <v>23</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K111" s="17"/>
       <c r="L111" s="18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N111" s="18"/>
       <c r="O111" s="18" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
       <c r="P111" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q111" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
+      </c>
+      <c r="Q111" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="T111" s="18" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="U111" s="19" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="V111" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -7245,51 +7229,51 @@
         <v>23</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="18" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M112" s="18" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="N112" s="18"/>
       <c r="O112" s="18" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
       <c r="P112" s="18" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Q112" s="5" t="n">
         <v>2</v>
       </c>
       <c r="R112" s="18" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="T112" s="18" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="U112" s="19" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="V112" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -7301,51 +7285,51 @@
         <v>23</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K113" s="17"/>
       <c r="L113" s="18" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M113" s="18" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N113" s="18"/>
       <c r="O113" s="18" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P113" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q113" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="R113" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="S113" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="T113" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="U113" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="V113" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="114">
+      <c r="A114" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q113" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R113" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="S113" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="T113" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="U113" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="V113" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="114">
-      <c r="A114" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -7357,49 +7341,51 @@
         <v>23</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K114" s="17"/>
       <c r="L114" s="18" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M114" s="18" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N114" s="18"/>
       <c r="O114" s="18" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="P114" s="18" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q114" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="R114" s="18"/>
+      <c r="R114" s="18" t="s">
+        <v>476</v>
+      </c>
       <c r="S114" s="18" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
       <c r="T114" s="18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="U114" s="19" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="V114" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="115">
       <c r="A115" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -7411,364 +7397,369 @@
         <v>23</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K115" s="17"/>
       <c r="L115" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="M115" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="P115" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q115" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="S115" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="T115" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="U115" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="V115" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="116">
+      <c r="A116" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="M115" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q115" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="T115" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="U115" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="V115" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="116">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="C116" s="7"/>
-      <c r="D116" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F116" s="7"/>
       <c r="G116" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K116" s="17"/>
       <c r="L116" s="18" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M116" s="18" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="N116" s="18"/>
       <c r="O116" s="18" t="s">
-        <v>509</v>
+        <v>265</v>
       </c>
       <c r="P116" s="18" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q116" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R116" s="18"/>
       <c r="S116" s="18" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="T116" s="18" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="U116" s="19" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="V116" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="117">
-      <c r="A117" s="7"/>
+      <c r="A117" s="7" t="s">
+        <v>394</v>
+      </c>
       <c r="B117" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C117" s="7"/>
-      <c r="D117" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F117" s="7"/>
       <c r="G117" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K117" s="17"/>
       <c r="L117" s="18" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M117" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="N117" s="18"/>
-      <c r="O117" s="18" t="s">
-        <v>509</v>
-      </c>
+      <c r="O117" s="18"/>
       <c r="P117" s="18" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q117" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117" s="18"/>
       <c r="S117" s="18" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="T117" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="U117" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="V117" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="118">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="K118" s="17"/>
+      <c r="L118" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="M118" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="U117" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="V117" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="118">
-      <c r="A118" s="1" t="s">
+      <c r="N118" s="18"/>
+      <c r="O118" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="P118" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" s="7" t="s">
+      <c r="Q118" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="T118" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="U118" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="V118" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="119">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="K119" s="17"/>
+      <c r="L119" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="M119" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="P119" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q119" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="T119" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="U119" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="V119" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="120">
+      <c r="A120" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="K118" s="7"/>
-      <c r="L118" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="M118" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="N118" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="O118" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="P118" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q118" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R118" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="S118" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="T118" s="22"/>
-      <c r="U118" s="23"/>
-      <c r="V118" s="24" t="s">
+      <c r="I120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J120" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="W118" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="X118" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y118" s="24" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="119">
-      <c r="A119" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="K119" s="7"/>
-      <c r="L119" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="M119" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="N119" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="O119" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="P119" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q119" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R119" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="S119" s="21"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="23"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="24"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="120">
-      <c r="A120" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="21" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M120" s="21" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="N120" s="21" t="s">
-        <v>411</v>
+        <v>530</v>
       </c>
       <c r="O120" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P120" s="21" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Q120" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R120" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="S120" s="21"/>
+        <v>533</v>
+      </c>
+      <c r="S120" s="21" t="s">
+        <v>534</v>
+      </c>
       <c r="T120" s="22"/>
       <c r="U120" s="23"/>
-      <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="24"/>
-      <c r="Y120" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="121">
+      <c r="V120" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="W120" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="X120" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y120" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="M121" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="M121" s="21" t="s">
+      <c r="N121" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="N121" s="21"/>
       <c r="O121" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P121" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q121" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" s="21" t="s">
         <v>543</v>
-      </c>
-      <c r="Q121" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R121" s="21" t="s">
-        <v>544</v>
       </c>
       <c r="S121" s="21"/>
       <c r="T121" s="22"/>
@@ -7778,45 +7769,52 @@
       <c r="X121" s="24"/>
       <c r="Y121" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>545</v>
+        <v>416</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F122" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G122" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="M122" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="N122" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="O122" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="P122" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="M122" s="21" t="s">
+      <c r="Q122" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R122" s="21" t="s">
         <v>547</v>
-      </c>
-      <c r="N122" s="21"/>
-      <c r="O122" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R122" s="21" t="s">
-        <v>549</v>
       </c>
       <c r="S122" s="21"/>
       <c r="T122" s="22"/>
@@ -7828,50 +7826,45 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>102</v>
+        <v>548</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G123" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="M123" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="M123" s="21" t="s">
+      <c r="N123" s="21"/>
+      <c r="O123" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="P123" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="N123" s="21" t="s">
+      <c r="Q123" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="O123" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="P123" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q123" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R123" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="S123" s="21"/>
       <c r="T123" s="22"/>
@@ -7881,12 +7874,12 @@
       <c r="X123" s="24"/>
       <c r="Y123" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>23</v>
@@ -7895,110 +7888,101 @@
         <v>23</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M124" s="21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N124" s="21"/>
       <c r="O124" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="P124" s="21" t="s">
-        <v>559</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="P124" s="21"/>
       <c r="Q124" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R124" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="S124" s="21" t="s">
-        <v>561</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="S124" s="21"/>
       <c r="T124" s="22"/>
       <c r="U124" s="23"/>
-      <c r="V124" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="W124" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="X124" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y124" s="24" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="125">
+      <c r="V124" s="24"/>
+      <c r="W124" s="24"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F125" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G125" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="21" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M125" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="N125" s="21"/>
+        <v>559</v>
+      </c>
+      <c r="N125" s="21" t="s">
+        <v>560</v>
+      </c>
       <c r="O125" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P125" s="21" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="Q125" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R125" s="25" t="s">
-        <v>569</v>
+      <c r="R125" s="21" t="s">
+        <v>562</v>
       </c>
       <c r="S125" s="21"/>
       <c r="T125" s="22"/>
       <c r="U125" s="23"/>
       <c r="V125" s="24"/>
-      <c r="W125" s="24" t="s">
-        <v>570</v>
-      </c>
+      <c r="W125" s="24"/>
       <c r="X125" s="24"/>
       <c r="Y125" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>423</v>
+        <v>563</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>23</v>
@@ -8007,153 +7991,151 @@
         <v>23</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="21" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M126" s="21" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="N126" s="21"/>
       <c r="O126" s="21" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q126" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R126" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="S126" s="21"/>
+        <v>568</v>
+      </c>
+      <c r="S126" s="21" t="s">
+        <v>569</v>
+      </c>
       <c r="T126" s="22"/>
-      <c r="U126" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="V126" s="24"/>
-      <c r="W126" s="24"/>
-      <c r="X126" s="24"/>
-      <c r="Y126" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="127">
+      <c r="U126" s="23"/>
+      <c r="V126" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="W126" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="X126" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y126" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>576</v>
+        <v>344</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G127" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M127" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="N127" s="21"/>
       <c r="O127" s="21" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="P127" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q127" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R127" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="S127" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="T127" s="22" t="s">
-        <v>582</v>
-      </c>
+      <c r="R127" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="S127" s="21"/>
+      <c r="T127" s="22"/>
       <c r="U127" s="23"/>
-      <c r="V127" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="W127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24" t="s">
+        <v>578</v>
+      </c>
       <c r="X127" s="24"/>
       <c r="Y127" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>584</v>
+        <v>431</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G128" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="21" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="M128" s="21" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="N128" s="21"/>
       <c r="O128" s="21" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="Q128" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R128" s="21"/>
-      <c r="S128" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="T128" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="U128" s="23"/>
+      <c r="R128" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="S128" s="21"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="23" t="s">
+        <v>583</v>
+      </c>
       <c r="V128" s="24"/>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
@@ -8161,10 +8143,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>23</v>
@@ -8176,60 +8158,54 @@
         <v>23</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="21" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M129" s="21" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="N129" s="21"/>
       <c r="O129" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="Q129" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R129" s="21" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T129" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U129" s="23"/>
       <c r="V129" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="W129" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="X129" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="Y129" s="24" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="130">
+        <v>591</v>
+      </c>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>23</v>
@@ -8241,108 +8217,115 @@
         <v>23</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K130" s="7"/>
       <c r="L130" s="21" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M130" s="21" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="N130" s="21"/>
       <c r="O130" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="Q130" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R130" s="26" t="s">
-        <v>603</v>
-      </c>
+      <c r="R130" s="21"/>
       <c r="S130" s="21" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="T130" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="U130" s="23" t="s">
-        <v>606</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="U130" s="23"/>
       <c r="V130" s="24"/>
-      <c r="W130" s="24" t="s">
-        <v>607</v>
-      </c>
+      <c r="W130" s="24"/>
       <c r="X130" s="24"/>
       <c r="Y130" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F131" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G131" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K131" s="7"/>
-      <c r="L131" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="M131" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="P131" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q131" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R131" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="S131" s="26"/>
-      <c r="T131" s="27"/>
-      <c r="U131" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-      <c r="Y131" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="132">
+      <c r="L131" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="M131" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="P131" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q131" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="S131" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="T131" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="U131" s="23"/>
+      <c r="V131" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="W131" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="X131" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y131" s="24" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>23</v>
@@ -8354,60 +8337,56 @@
         <v>23</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="21" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M132" s="21" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="N132" s="21"/>
       <c r="O132" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P132" s="21" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="Q132" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R132" s="21" t="s">
-        <v>619</v>
+      <c r="R132" s="26" t="s">
+        <v>611</v>
       </c>
       <c r="S132" s="21" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="T132" s="22" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="U132" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="V132" s="24" t="s">
-        <v>623</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="V132" s="24"/>
       <c r="W132" s="24" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="X132" s="24"/>
-      <c r="Y132" s="24" t="s">
-        <v>625</v>
-      </c>
+      <c r="Y132" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>23</v>
@@ -8416,112 +8395,115 @@
         <v>23</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K133" s="7"/>
-      <c r="L133" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="M133" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="N133" s="21"/>
-      <c r="O133" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="P133" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q133" s="21" t="n">
+      <c r="L133" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="M133" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="N133" s="26"/>
+      <c r="O133" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="P133" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q133" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="R133" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="S133" s="21" t="s">
-        <v>631</v>
-      </c>
-      <c r="T133" s="22"/>
-      <c r="U133" s="23" t="s">
-        <v>632</v>
+      <c r="R133" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="S133" s="26"/>
+      <c r="T133" s="27"/>
+      <c r="U133" s="28" t="s">
+        <v>622</v>
       </c>
       <c r="V133" s="24"/>
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
       <c r="Y133" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F134" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G134" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="21" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="M134" s="21" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="N134" s="21"/>
       <c r="O134" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P134" s="21" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="Q134" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R134" s="21"/>
+      <c r="R134" s="21" t="s">
+        <v>627</v>
+      </c>
       <c r="S134" s="21" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="T134" s="22" t="s">
-        <v>457</v>
+        <v>629</v>
       </c>
       <c r="U134" s="23" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="V134" s="24" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="W134" s="24" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="X134" s="24"/>
       <c r="Y134" s="24" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="168.65" outlineLevel="0" r="135">
+        <v>633</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>23</v>
@@ -8530,54 +8512,52 @@
         <v>23</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="21" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="M135" s="21" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="N135" s="21"/>
       <c r="O135" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P135" s="21" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="Q135" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R135" s="21" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="T135" s="22" t="s">
-        <v>457</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="T135" s="22"/>
       <c r="U135" s="23" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="V135" s="24"/>
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
       <c r="Y135" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>23</v>
@@ -8586,54 +8566,58 @@
         <v>23</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K136" s="7"/>
       <c r="L136" s="21" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="M136" s="21" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="N136" s="21"/>
       <c r="O136" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P136" s="21" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="Q136" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R136" s="21" t="s">
-        <v>653</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R136" s="21"/>
       <c r="S136" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="T136" s="22"/>
+        <v>645</v>
+      </c>
+      <c r="T136" s="22" t="s">
+        <v>465</v>
+      </c>
       <c r="U136" s="23" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="V136" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="W136" s="24"/>
+        <v>647</v>
+      </c>
+      <c r="W136" s="24" t="s">
+        <v>648</v>
+      </c>
       <c r="X136" s="24"/>
-      <c r="Y136" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="126.85" outlineLevel="0" r="137">
+      <c r="Y136" s="24" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="168.65" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>23</v>
@@ -8642,56 +8626,54 @@
         <v>23</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K137" s="7"/>
       <c r="L137" s="21" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M137" s="21" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="N137" s="21"/>
       <c r="O137" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P137" s="21" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="Q137" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R137" s="21" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="S137" s="21" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="T137" s="22" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="U137" s="23" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="V137" s="24"/>
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
-      <c r="Y137" s="24" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="138">
+      <c r="Y137" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>23</v>
@@ -8700,54 +8682,54 @@
         <v>23</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K138" s="7"/>
       <c r="L138" s="21" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="M138" s="21" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="N138" s="21"/>
       <c r="O138" s="21" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="P138" s="21" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="Q138" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R138" s="21" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="S138" s="21" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="T138" s="22"/>
       <c r="U138" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="V138" s="24"/>
-      <c r="W138" s="24" t="s">
-        <v>671</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="V138" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="W138" s="24"/>
       <c r="X138" s="24"/>
       <c r="Y138" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="126.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>23</v>
@@ -8756,50 +8738,56 @@
         <v>23</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K139" s="7"/>
       <c r="L139" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="M139" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="N139" s="26"/>
+        <v>665</v>
+      </c>
+      <c r="M139" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="N139" s="21"/>
       <c r="O139" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P139" s="21" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Q139" s="21" t="n">
         <v>2</v>
       </c>
       <c r="R139" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="S139" s="21"/>
-      <c r="T139" s="22"/>
+        <v>668</v>
+      </c>
+      <c r="S139" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="T139" s="22" t="s">
+        <v>465</v>
+      </c>
       <c r="U139" s="23" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="V139" s="24"/>
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
-      <c r="Y139" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="140">
+      <c r="Y139" s="24" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>23</v>
@@ -8808,54 +8796,54 @@
         <v>23</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K140" s="7"/>
       <c r="L140" s="21" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="N140" s="21"/>
       <c r="O140" s="21" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="P140" s="21" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="Q140" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R140" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="S140" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="T140" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="U140" s="28" t="s">
-        <v>685</v>
+      <c r="R140" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="S140" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="T140" s="22"/>
+      <c r="U140" s="23" t="s">
+        <v>678</v>
       </c>
       <c r="V140" s="24"/>
-      <c r="W140" s="24"/>
+      <c r="W140" s="24" t="s">
+        <v>679</v>
+      </c>
       <c r="X140" s="24"/>
       <c r="Y140" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>23</v>
@@ -8864,56 +8852,50 @@
         <v>23</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="M141" s="21" t="s">
-        <v>688</v>
-      </c>
-      <c r="N141" s="21"/>
+        <v>681</v>
+      </c>
+      <c r="M141" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="N141" s="26"/>
       <c r="O141" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P141" s="21" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q141" s="21" t="n">
         <v>2</v>
       </c>
       <c r="R141" s="21" t="s">
-        <v>690</v>
-      </c>
-      <c r="S141" s="21" t="s">
-        <v>691</v>
-      </c>
-      <c r="T141" s="22" t="s">
-        <v>407</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="S141" s="21"/>
+      <c r="T141" s="22"/>
       <c r="U141" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="V141" s="24" t="s">
-        <v>693</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="V141" s="24"/>
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
       <c r="Y141" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>23</v>
@@ -8922,48 +8904,162 @@
         <v>23</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="21" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="M142" s="21" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="N142" s="21"/>
       <c r="O142" s="21" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P142" s="21" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="Q142" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R142" s="21" t="s">
-        <v>698</v>
-      </c>
-      <c r="S142" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="T142" s="22"/>
-      <c r="U142" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="V142" s="24" t="s">
-        <v>701</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R142" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="S142" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="T142" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="U142" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="V142" s="24"/>
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
-      <c r="Y142" s="24" t="s">
+      <c r="Y142" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="143">
+      <c r="A143" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K143" s="7"/>
+      <c r="L143" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="M143" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="N143" s="21"/>
+      <c r="O143" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="P143" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q143" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="S143" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="T143" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="U143" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="V143" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="W143" s="24"/>
+      <c r="X143" s="24"/>
+      <c r="Y143" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="144">
+      <c r="A144" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>702</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K144" s="7"/>
+      <c r="L144" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="M144" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="N144" s="21"/>
+      <c r="O144" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="P144" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q144" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R144" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="S144" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="T144" s="22"/>
+      <c r="U144" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="V144" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="W144" s="24"/>
+      <c r="X144" s="24"/>
+      <c r="Y144" s="24" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -2418,7 +2418,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2491,29 +2491,29 @@
   <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="K37" xSplit="4189" ySplit="2250"/>
+      <pane activePane="bottomRight" topLeftCell="A64" xSplit="2802" ySplit="1980"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="K1" activeCellId="0" pane="topRight" sqref="K1"/>
-      <selection activeCell="A37" activeCellId="0" pane="bottomLeft" sqref="A37"/>
-      <selection activeCell="L37" activeCellId="0" pane="bottomRight" sqref="L37:L65"/>
+      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
+      <selection activeCell="A64" activeCellId="0" pane="bottomLeft" sqref="A64"/>
+      <selection activeCell="E70" activeCellId="0" pane="bottomRight" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.1960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.6901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.4352941176471"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="56.8901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="45.7921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.2705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.9333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.3019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.1607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.1607843137255"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.1607843137255"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.8352941176471"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.5647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="57.1686274509804"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="46.0156862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.3450980392157"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0392156862745"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.64313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
@@ -4898,7 +4898,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
@@ -5658,7 +5658,7 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.2" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
         <v>229</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -431,7 +431,7 @@
     <t>dataset_type</t>
   </si>
   <si>
-    <t>Dataset Type</t>
+    <t>Bioassay</t>
   </si>
   <si>
     <t>Distinguishes datasets that are used elsewhere, such as the Nominal Targets dataset.</t>
@@ -2292,10 +2292,10 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -2418,7 +2418,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2491,32 +2491,32 @@
   <dimension ref="A1:Y144"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A64" xSplit="2802" ySplit="1980"/>
+      <pane activePane="bottomRight" topLeftCell="D22" xSplit="2862" ySplit="1978"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A64" activeCellId="0" pane="bottomLeft" sqref="A64"/>
-      <selection activeCell="E70" activeCellId="0" pane="bottomRight" sqref="E70"/>
+      <selection activeCell="D1" activeCellId="0" pane="topRight" sqref="D1"/>
+      <selection activeCell="A22" activeCellId="0" pane="bottomLeft" sqref="A22"/>
+      <selection activeCell="N36" activeCellId="0" pane="bottomRight" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.1607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.1607843137255"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.1607843137255"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.8352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.5647058823529"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="57.1686274509804"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.5294117647059"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="46.0156862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.3450980392157"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.1843137254902"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0392156862745"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.64313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.4117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.2156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.9764705882353"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.6980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="57.4509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6117647058824"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="46.243137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.4156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.2941176470588"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.68627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.68627450980392"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="70" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="U3" s="4"/>
       <c r="V3" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="U8" s="4"/>
       <c r="V8" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="U17" s="4"/>
       <c r="V17" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="U19" s="4"/>
       <c r="V19" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="7" t="s">
         <v>101</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="7" t="s">
         <v>101</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="7" t="s">
         <v>101</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>115</v>
@@ -3581,7 +3581,7 @@
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="7" t="s">
         <v>101</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>125</v>
@@ -3701,7 +3701,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="7" t="s">
         <v>101</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="7" t="s">
         <v>101</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="7" t="s">
         <v>101</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="7" t="s">
         <v>101</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>24</v>
@@ -3833,7 +3833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="7" t="s">
         <v>101</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="B42" s="1" t="s">
         <v>157</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="B43" s="1" t="s">
         <v>161</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="B44" s="1" t="s">
         <v>164</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="B45" s="1" t="s">
         <v>167</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
         <v>171</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="7" t="s">
         <v>171</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="7" t="s">
         <v>171</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>187</v>
@@ -4283,7 +4283,7 @@
         <v>189</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>190</v>
@@ -4313,7 +4313,7 @@
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>193</v>
@@ -4341,7 +4341,7 @@
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
       <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>196</v>
@@ -4371,7 +4371,7 @@
         <v>198</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
       <c r="A55" s="9" t="s">
         <v>199</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
       <c r="A56" s="9" t="s">
         <v>199</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
         <v>199</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>199</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
         <v>199</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
         <v>221</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>223</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
         <v>221</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
         <v>221</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="66">
       <c r="A66" s="7" t="s">
         <v>229</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="67">
       <c r="A67" s="7" t="s">
         <v>229</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.9" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="66.85" outlineLevel="0" r="68">
       <c r="A68" s="7" t="s">
         <v>229</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="69">
       <c r="A69" s="7" t="s">
         <v>229</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="70">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
         <v>253</v>
@@ -4994,7 +4994,7 @@
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="71">
       <c r="B71" s="7" t="s">
         <v>257</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
         <v>229</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="73">
       <c r="A73" s="7" t="s">
         <v>229</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="74">
       <c r="A74" s="7" t="s">
         <v>229</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
         <v>229</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
         <v>229</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
         <v>229</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
         <v>229</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="79">
       <c r="A79" s="7" t="s">
         <v>229</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="7" t="s">
         <v>229</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="82">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
         <v>317</v>
@@ -5658,7 +5658,7 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
         <v>229</v>
       </c>
@@ -5711,7 +5711,7 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="90.25" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="93.1" outlineLevel="0" r="84">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
         <v>327</v>
@@ -5766,7 +5766,7 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="85">
       <c r="A85" s="7" t="s">
         <v>258</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
         <v>258</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="87">
       <c r="A87" s="7" t="s">
         <v>258</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.55" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
         <v>258</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
         <v>258</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
         <v>258</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
         <v>258</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
         <v>258</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
         <v>258</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
         <v>258</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
         <v>258</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
         <v>258</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97">
       <c r="A97" s="7" t="s">
         <v>258</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98">
       <c r="A98" s="7" t="s">
         <v>258</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.85" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="99">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
         <v>389</v>
@@ -6548,7 +6548,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97.5" outlineLevel="0" r="100">
       <c r="A100" s="7" t="s">
         <v>394</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="U100" s="19"/>
       <c r="V100" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="101">
       <c r="A101" s="7" t="s">
         <v>394</v>
       </c>
@@ -6660,7 +6660,7 @@
       <c r="U101" s="19"/>
       <c r="V101" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="102">
       <c r="A102" s="7" t="s">
         <v>394</v>
       </c>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="V102" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
         <v>394</v>
       </c>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="V103" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
         <v>394</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="U104" s="19"/>
       <c r="V104" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
         <v>394</v>
       </c>
@@ -6882,7 +6882,7 @@
       <c r="U105" s="19"/>
       <c r="V105" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
         <v>394</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="U106" s="19"/>
       <c r="V106" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
         <v>394</v>
       </c>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="V107" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
         <v>394</v>
       </c>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="V108" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
         <v>394</v>
       </c>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="V109" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
         <v>394</v>
       </c>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="V110" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="70" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
         <v>394</v>
       </c>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="V111" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
         <v>394</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="V112" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="111.25" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
         <v>394</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="V113" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="83.75" outlineLevel="0" r="114">
       <c r="A114" s="7" t="s">
         <v>394</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="V114" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="138.75" outlineLevel="0" r="115">
       <c r="A115" s="7" t="s">
         <v>394</v>
       </c>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="V115" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="116">
       <c r="A116" s="7" t="s">
         <v>394</v>
       </c>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="V116" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117">
       <c r="A117" s="7" t="s">
         <v>394</v>
       </c>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="V117" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="118">
       <c r="A118" s="7"/>
       <c r="B118" s="7" t="s">
         <v>514</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="V118" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="119">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
         <v>520</v>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="V119" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>525</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>538</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
         <v>525</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="X121" s="24"/>
       <c r="Y121" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
         <v>525</v>
       </c>
@@ -7824,7 +7824,7 @@
       <c r="X122" s="24"/>
       <c r="Y122" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
         <v>525</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="X123" s="24"/>
       <c r="Y123" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>525</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="X124" s="24"/>
       <c r="Y124" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
         <v>525</v>
       </c>
@@ -7977,7 +7977,7 @@
       <c r="X125" s="24"/>
       <c r="Y125" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.25" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
         <v>525</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
         <v>525</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="X127" s="24"/>
       <c r="Y127" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
         <v>525</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="X128" s="24"/>
       <c r="Y128" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
         <v>525</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="X129" s="24"/>
       <c r="Y129" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
         <v>525</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="X130" s="24"/>
       <c r="Y130" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
         <v>525</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>606</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.25" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
         <v>525</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="X132" s="24"/>
       <c r="Y132" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
         <v>525</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="X133" s="24"/>
       <c r="Y133" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.25" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>525</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>633</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
         <v>525</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="X135" s="24"/>
       <c r="Y135" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="81.25" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>525</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>649</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="168.65" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="151.25" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
         <v>525</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="X137" s="24"/>
       <c r="Y137" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
         <v>525</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="X138" s="24"/>
       <c r="Y138" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="126.85" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="111.25" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
         <v>525</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>671</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
         <v>525</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="X140" s="24"/>
       <c r="Y140" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
         <v>525</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="X141" s="24"/>
       <c r="Y141" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
         <v>525</v>
       </c>
@@ -8946,7 +8946,7 @@
       <c r="X142" s="24"/>
       <c r="Y142" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
         <v>525</v>
       </c>
@@ -9004,7 +9004,7 @@
       <c r="X143" s="24"/>
       <c r="Y143" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
         <v>525</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="720">
   <si>
     <t>table</t>
   </si>
@@ -683,6 +683,15 @@
     <t>datarecord</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Datarecord ID</t>
+  </si>
+  <si>
+    <t>The internal identifier assigned to the Datarecord.  Will not be consistent between copies (downloads) of this Dataset.</t>
+  </si>
+  <si>
     <t>Recorded Plate</t>
   </si>
   <si>
@@ -702,6 +711,24 @@
   </si>
   <si>
     <t>The type of Control Well recorded for this Datarecord</t>
+  </si>
+  <si>
+    <t>datacolumn</t>
+  </si>
+  <si>
+    <t>Endpoint Name</t>
+  </si>
+  <si>
+    <t>The name given to the endpoint</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Endpoint Unit</t>
+  </si>
+  <si>
+    <t>The unit of the value displayed</t>
   </si>
   <si>
     <t>smallmolecule</t>
@@ -2292,10 +2319,10 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -2418,7 +2445,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2488,32 +2515,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y147"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="D22" xSplit="2862" ySplit="1978"/>
+      <pane activePane="bottomRight" topLeftCell="B50" xSplit="2926" ySplit="1978"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="D1" activeCellId="0" pane="topRight" sqref="D1"/>
-      <selection activeCell="A22" activeCellId="0" pane="bottomLeft" sqref="A22"/>
-      <selection activeCell="N36" activeCellId="0" pane="bottomRight" sqref="N36"/>
+      <selection activeCell="B1" activeCellId="0" pane="topRight" sqref="B1"/>
+      <selection activeCell="A50" activeCellId="0" pane="bottomLeft" sqref="A50"/>
+      <selection activeCell="N69" activeCellId="0" pane="bottomRight" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.4117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.2156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.2156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.2156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="28.9764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.6980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="57.4509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6117647058824"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="46.243137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.4156862745098"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.2941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.68627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.68627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.2705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.2705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.2705882352941"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.121568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="26.8352941176471"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="57.7372549019608"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.6901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="46.478431372549"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.4901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.4039215686274"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.2588235294118"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.74117647058823"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.74117647058823"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="70" outlineLevel="0" r="1">
@@ -4620,7 +4647,7 @@
         <v>221</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>23</v>
@@ -4637,14 +4664,17 @@
       <c r="I63" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K63" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L63" s="4" t="n">
         <v>62</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
@@ -4652,7 +4682,7 @@
         <v>221</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>23</v>
@@ -4669,14 +4699,17 @@
       <c r="I64" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K64" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L64" s="4" t="n">
         <v>63</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
@@ -4684,7 +4717,7 @@
         <v>221</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>23</v>
@@ -4701,6 +4734,9 @@
       <c r="I65" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K65" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L65" s="4" t="n">
         <v>64</v>
       </c>
@@ -4711,249 +4747,183 @@
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="66">
-      <c r="A66" s="7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L66" s="12" t="s">
+      <c r="E67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="A68" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M66" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="O66" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="Q66" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R66" s="8" t="s">
+      <c r="P68" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S66" s="8" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="69">
+      <c r="A69" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="T66" s="8"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="67">
-      <c r="A67" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="B69" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="66.85" outlineLevel="0" r="68">
-      <c r="A68" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q68" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="S68" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="T68" s="8"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="69">
-      <c r="A69" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q69" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
+      <c r="R69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="T69" s="8"/>
-      <c r="U69" s="15"/>
+      <c r="U69" s="14"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="70">
-      <c r="A70" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="70">
+      <c r="A70" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="B70" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
         <v>23</v>
       </c>
@@ -4961,30 +4931,36 @@
         <v>23</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="K70" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="O70" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="P70" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q70" s="13"/>
+        <v>251</v>
+      </c>
+      <c r="Q70" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
@@ -4994,46 +4970,58 @@
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="66.85" outlineLevel="0" r="71">
+      <c r="A71" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="B71" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q71" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="S71" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
       <c r="T71" s="8"/>
       <c r="U71" s="15"/>
       <c r="V71" s="7"/>
@@ -5041,17 +5029,17 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="72">
       <c r="A72" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>24</v>
@@ -5060,224 +5048,196 @@
         <v>23</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q72" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="R72" s="8" t="s">
-        <v>267</v>
-      </c>
+      <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
-      <c r="U72" s="15" t="s">
-        <v>268</v>
-      </c>
+      <c r="U72" s="15"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="73">
-      <c r="A73" s="7" t="s">
-        <v>229</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="73">
+      <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="E73" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>231</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J73" s="11"/>
       <c r="K73" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8" t="s">
-        <v>235</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="O73" s="8"/>
       <c r="P73" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R73" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="S73" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="T73" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="U73" s="15" t="s">
-        <v>276</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="15"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="74">
-      <c r="A74" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="B74" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="E74" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>24</v>
+      <c r="F74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>231</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8" t="s">
-        <v>235</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="O74" s="8"/>
       <c r="P74" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q74" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="S74" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="T74" s="16" t="s">
-        <v>283</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
       <c r="U74" s="15"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="75">
       <c r="A75" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="N75" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="O75" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q75" s="13" t="n">
         <v>1</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
-      <c r="U75" s="15"/>
+      <c r="U75" s="15" t="s">
+        <v>277</v>
+      </c>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
@@ -5285,10 +5245,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="76">
       <c r="A76" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5296,155 +5256,165 @@
         <v>23</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Q76" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="15"/>
+        <v>282</v>
+      </c>
+      <c r="S76" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="T76" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="U76" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="77">
       <c r="A77" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G77" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N77" s="8"/>
       <c r="O77" s="8" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="Q77" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
+        <v>290</v>
+      </c>
+      <c r="S77" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="T77" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="U77" s="15"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="78">
       <c r="A78" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G78" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>303</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N78" s="8"/>
       <c r="O78" s="8" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q78" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -5454,69 +5424,69 @@
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="79">
       <c r="A79" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G79" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>308</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N79" s="8"/>
       <c r="O79" s="8" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q79" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="R79" s="8"/>
+      <c r="R79" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
-      <c r="U79" s="15" t="s">
-        <v>310</v>
-      </c>
+      <c r="U79" s="15"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="80">
       <c r="A80" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -5525,205 +5495,223 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J80" s="11"/>
+      <c r="J80" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="K80" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
+      <c r="L80" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q80" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="15"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="81">
       <c r="A81" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J81" s="11"/>
+      <c r="J81" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="K81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="7" t="n">
-        <v>1001</v>
-      </c>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
+      <c r="L81" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q81" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="15"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="82">
-      <c r="A82" s="7"/>
+      <c r="A82" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="B82" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C82" s="7"/>
-      <c r="D82" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="N82" s="8"/>
+        <v>316</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="O82" s="8" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q82" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R82" s="8" t="s">
-        <v>299</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R82" s="8"/>
       <c r="S82" s="8"/>
       <c r="T82" s="8"/>
-      <c r="U82" s="15"/>
+      <c r="U82" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>231</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q83" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="14" t="s">
-        <v>326</v>
-      </c>
+      <c r="L83" s="7" t="n">
+        <v>1002</v>
+      </c>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="93.1" outlineLevel="0" r="84">
-      <c r="A84" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="84">
+      <c r="A84" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="B84" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>158</v>
@@ -5731,93 +5719,77 @@
       <c r="I84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>231</v>
-      </c>
+      <c r="J84" s="11"/>
       <c r="K84" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="P84" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q84" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R84" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="15" t="s">
-        <v>332</v>
-      </c>
+      <c r="L84" s="7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="85">
-      <c r="A85" s="7" t="s">
-        <v>258</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="85">
+      <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="N85" s="8" t="s">
-        <v>336</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N85" s="8"/>
       <c r="O85" s="8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q85" s="13" t="n">
         <v>1</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="S85" s="8"/>
       <c r="T85" s="8"/>
@@ -5827,113 +5799,109 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="86">
       <c r="A86" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="N86" s="8"/>
-      <c r="O86" s="8" t="s">
-        <v>265</v>
-      </c>
+      <c r="O86" s="8"/>
       <c r="P86" s="8" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q86" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R86" s="8" t="s">
-        <v>343</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R86" s="8"/>
       <c r="S86" s="8"/>
       <c r="T86" s="8"/>
-      <c r="U86" s="15"/>
+      <c r="U86" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="87">
-      <c r="A87" s="7" t="s">
-        <v>258</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="93.1" outlineLevel="0" r="87">
+      <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D87" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q87" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R87" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="R87" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="S87" s="8"/>
       <c r="T87" s="8"/>
-      <c r="U87" s="15"/>
+      <c r="U87" s="15" t="s">
+        <v>341</v>
+      </c>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
@@ -5941,53 +5909,57 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="88">
       <c r="A88" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C88" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K88" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q88" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R88" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R88" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="S88" s="8"/>
       <c r="T88" s="8"/>
       <c r="U88" s="15"/>
@@ -5996,52 +5968,54 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="89">
       <c r="A89" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G89" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q89" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R89" s="8" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -6051,108 +6025,110 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="90">
       <c r="A90" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G90" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>357</v>
+        <v>54</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q90" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
-      <c r="U90" s="15" t="s">
-        <v>310</v>
-      </c>
+      <c r="U90" s="15"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="40.6" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G91" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H91" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P91" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="P91" s="8" t="s">
-        <v>364</v>
-      </c>
       <c r="Q91" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R91" s="8" t="s">
-        <v>288</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R91" s="8"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
       <c r="U91" s="15"/>
@@ -6163,50 +6139,50 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K92" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q92" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -6218,104 +6194,106 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K93" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q93" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R93" s="8" t="s">
-        <v>370</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
-      <c r="U93" s="15"/>
+      <c r="U93" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K94" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Q94" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R94" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="R94" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
       <c r="U94" s="15"/>
@@ -6326,50 +6304,50 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K95" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Q95" s="13" t="n">
         <v>3</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -6379,353 +6357,348 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q96" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="15"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q97" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="15"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="98">
+      <c r="A98" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q98" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="A99" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="7" t="s">
+      <c r="E99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="N96" s="7" t="s">
+      <c r="I99" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="N99" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="P99" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97">
-      <c r="A97" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100">
+      <c r="A100" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" s="7" t="s">
+      <c r="E100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="N97" s="7" t="s">
+      <c r="I100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="N100" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="P100" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98">
-      <c r="A98" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101">
+      <c r="A101" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" s="7" t="s">
+      <c r="E101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I98" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="N98" s="7" t="s">
+      <c r="I101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="N101" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="P101" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="99">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L99" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M99" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="P99" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q99" s="13" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.5" outlineLevel="0" r="102">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P102" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q102" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="R99" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97.5" outlineLevel="0" r="100">
-      <c r="A100" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="R102" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="15"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97.5" outlineLevel="0" r="103">
+      <c r="A103" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="K100" s="17"/>
-      <c r="L100" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="M100" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="N100" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="O100" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="P100" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R100" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="S100" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="T100" s="18"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="101">
-      <c r="A101" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="K101" s="17"/>
-      <c r="L101" s="18" t="s">
+      <c r="C103" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="M101" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="N101" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="O101" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="P101" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R101" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="102">
-      <c r="A102" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J102" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="K102" s="17"/>
-      <c r="L102" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="M102" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="P102" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R102" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="S102" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="T102" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="U102" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="V102" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="103">
-      <c r="A103" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
         <v>23</v>
@@ -6737,53 +6710,49 @@
         <v>23</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K103" s="17"/>
       <c r="L103" s="18" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M103" s="18" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="P103" s="18" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>1</v>
       </c>
       <c r="R103" s="18" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="S103" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="T103" s="18"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="104">
+      <c r="A104" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="T103" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="U103" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="V103" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104">
-      <c r="A104" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="B104" s="7" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -6797,45 +6766,47 @@
         <v>23</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K104" s="17"/>
       <c r="L104" s="18" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M104" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="N104" s="18"/>
+        <v>414</v>
+      </c>
+      <c r="N104" s="18" t="s">
+        <v>415</v>
+      </c>
       <c r="O104" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R104" s="18"/>
+      <c r="R104" s="18" t="s">
+        <v>417</v>
+      </c>
       <c r="S104" s="18"/>
-      <c r="T104" s="18" t="s">
-        <v>426</v>
-      </c>
+      <c r="T104" s="18"/>
       <c r="U104" s="19"/>
       <c r="V104" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -6843,51 +6814,57 @@
         <v>23</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K105" s="17"/>
       <c r="L105" s="18" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="N105" s="18"/>
       <c r="O105" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P105" s="18" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q105" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
+      <c r="R105" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="S105" s="18" t="s">
+        <v>412</v>
+      </c>
       <c r="T105" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="U105" s="19"/>
+        <v>423</v>
+      </c>
+      <c r="U105" s="19" t="s">
+        <v>424</v>
+      </c>
       <c r="V105" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -6895,219 +6872,217 @@
         <v>23</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K106" s="17"/>
       <c r="L106" s="18" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M106" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="N106" s="18"/>
+        <v>427</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>428</v>
+      </c>
       <c r="O106" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P106" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q106" s="5" t="n">
         <v>1</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="S106" s="18"/>
+        <v>430</v>
+      </c>
+      <c r="S106" s="18" t="s">
+        <v>412</v>
+      </c>
       <c r="T106" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="U106" s="19"/>
+        <v>431</v>
+      </c>
+      <c r="U106" s="19" t="s">
+        <v>424</v>
+      </c>
       <c r="V106" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="7"/>
+      <c r="F107" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G107" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M107" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="N107" s="18"/>
       <c r="O107" s="18" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="P107" s="18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q107" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R107" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="S107" s="18" t="s">
-        <v>442</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
       <c r="T107" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="U107" s="19" t="s">
-        <v>444</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="U107" s="19"/>
       <c r="V107" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="7"/>
+      <c r="F108" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G108" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K108" s="17"/>
       <c r="L108" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M108" s="18" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="N108" s="18"/>
       <c r="O108" s="18" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="P108" s="18" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q108" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R108" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="S108" s="18" t="s">
-        <v>450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
       <c r="T108" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="U108" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="U108" s="19"/>
       <c r="V108" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="109">
       <c r="A109" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="7"/>
+      <c r="F109" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G109" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K109" s="17"/>
       <c r="L109" s="18" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="M109" s="18" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="N109" s="18"/>
       <c r="O109" s="18" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="P109" s="18" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="Q109" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18" t="s">
-        <v>457</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R109" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="S109" s="18"/>
       <c r="T109" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="U109" s="19" t="s">
-        <v>452</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="U109" s="19"/>
       <c r="V109" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="110">
       <c r="A110" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -7119,49 +7094,51 @@
         <v>23</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K110" s="17"/>
       <c r="L110" s="18" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M110" s="18" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="N110" s="18"/>
       <c r="O110" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P110" s="18" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="Q110" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="R110" s="18" t="s">
+        <v>450</v>
+      </c>
       <c r="S110" s="18" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="T110" s="18" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="U110" s="19" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="V110" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="70" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="56.25" outlineLevel="0" r="111">
       <c r="A111" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -7173,51 +7150,51 @@
         <v>23</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K111" s="17"/>
       <c r="L111" s="18" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="N111" s="18"/>
       <c r="O111" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P111" s="18" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Q111" s="5" t="n">
         <v>2</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="T111" s="18" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="U111" s="19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="V111" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="112">
       <c r="A112" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -7229,51 +7206,49 @@
         <v>23</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="18" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M112" s="18" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="N112" s="18"/>
       <c r="O112" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P112" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="Q112" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="R112" s="18" t="s">
-        <v>476</v>
-      </c>
+      <c r="R112" s="18"/>
       <c r="S112" s="18" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="T112" s="18" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="U112" s="19" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="V112" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="111.25" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="113">
       <c r="A113" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -7285,51 +7260,49 @@
         <v>23</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K113" s="17"/>
       <c r="L113" s="18" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M113" s="18" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="N113" s="18"/>
       <c r="O113" s="18" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="P113" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q113" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="R113" s="18" t="s">
-        <v>483</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="Q113" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" s="18"/>
       <c r="S113" s="18" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="T113" s="18" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="U113" s="19" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="V113" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="83.75" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="70" outlineLevel="0" r="114">
       <c r="A114" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -7341,51 +7314,51 @@
         <v>23</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K114" s="17"/>
       <c r="L114" s="18" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="M114" s="18" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="N114" s="18"/>
       <c r="O114" s="18" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="P114" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="Q114" s="5" t="n">
         <v>2</v>
       </c>
       <c r="R114" s="18" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="S114" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="T114" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="U114" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="V114" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="115">
+      <c r="A115" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="T114" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="U114" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="V114" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="138.75" outlineLevel="0" r="115">
-      <c r="A115" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="B115" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -7397,51 +7370,51 @@
         <v>23</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K115" s="17"/>
       <c r="L115" s="18" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M115" s="18" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="N115" s="18"/>
       <c r="O115" s="18" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="P115" s="18" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="Q115" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R115" s="18" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="S115" s="18" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="T115" s="18" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="U115" s="19" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="V115" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="111.25" outlineLevel="0" r="116">
       <c r="A116" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -7453,49 +7426,51 @@
         <v>23</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K116" s="17"/>
       <c r="L116" s="18" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="M116" s="18" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="N116" s="18"/>
       <c r="O116" s="18" t="s">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="P116" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q116" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R116" s="18"/>
+        <v>490</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="R116" s="18" t="s">
+        <v>492</v>
+      </c>
       <c r="S116" s="18" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="T116" s="18" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="U116" s="19" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="V116" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="83.75" outlineLevel="0" r="117">
       <c r="A117" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -7507,412 +7482,425 @@
         <v>23</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K117" s="17"/>
       <c r="L117" s="18" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="M117" s="18" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
+      <c r="O117" s="18" t="s">
+        <v>409</v>
+      </c>
       <c r="P117" s="18" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="Q117" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="R117" s="18"/>
+      <c r="R117" s="18" t="s">
+        <v>485</v>
+      </c>
       <c r="S117" s="18" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="T117" s="18" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="U117" s="19" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="V117" s="18"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="118">
-      <c r="A118" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="138.75" outlineLevel="0" r="118">
+      <c r="A118" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="B118" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C118" s="7"/>
-      <c r="D118" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K118" s="17"/>
       <c r="L118" s="18" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="M118" s="18" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="N118" s="18"/>
       <c r="O118" s="18" t="s">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="P118" s="18" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="Q118" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R118" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="R118" s="18" t="s">
+        <v>505</v>
+      </c>
       <c r="S118" s="18" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="T118" s="18" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="U118" s="19" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="V118" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="119">
-      <c r="A119" s="7"/>
+      <c r="A119" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="B119" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C119" s="7"/>
-      <c r="D119" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F119" s="7"/>
       <c r="G119" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K119" s="17"/>
       <c r="L119" s="18" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M119" s="18" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="N119" s="18"/>
       <c r="O119" s="18" t="s">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="P119" s="18" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="Q119" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R119" s="18"/>
       <c r="S119" s="18" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="T119" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="U119" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="V119" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="120">
+      <c r="A120" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K120" s="17"/>
+      <c r="L120" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="M120" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q120" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="T120" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="U120" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="V120" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="42.5" outlineLevel="0" r="121">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K121" s="17"/>
+      <c r="L121" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="U119" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="V119" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="120">
-      <c r="A120" s="1" t="s">
+      <c r="M121" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="N121" s="18"/>
+      <c r="O121" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="P121" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q121" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="T121" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="U121" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="V121" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.75" outlineLevel="0" r="122">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="K122" s="17"/>
+      <c r="L122" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="M122" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="P122" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q122" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="T122" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="U122" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="V122" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="123">
+      <c r="A123" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" s="7" t="s">
+      <c r="C123" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="K120" s="7"/>
-      <c r="L120" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="M120" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="N120" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="O120" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="P120" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q120" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R120" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="S120" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="T120" s="22"/>
-      <c r="U120" s="23"/>
-      <c r="V120" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="W120" s="24" t="s">
+      <c r="I123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="X120" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="Y120" s="24" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="121">
-      <c r="A121" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="K121" s="7"/>
-      <c r="L121" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="M121" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="N121" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="O121" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="P121" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q121" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R121" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="S121" s="21"/>
-      <c r="T121" s="22"/>
-      <c r="U121" s="23"/>
-      <c r="V121" s="24"/>
-      <c r="W121" s="24"/>
-      <c r="X121" s="24"/>
-      <c r="Y121" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="122">
-      <c r="A122" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="K122" s="7"/>
-      <c r="L122" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="M122" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="N122" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="O122" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="P122" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q122" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R122" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="S122" s="21"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="24"/>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
-      <c r="A123" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="21" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="M123" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="N123" s="21"/>
+        <v>538</v>
+      </c>
+      <c r="N123" s="21" t="s">
+        <v>539</v>
+      </c>
       <c r="O123" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P123" s="21" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q123" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R123" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="S123" s="21"/>
+        <v>542</v>
+      </c>
+      <c r="S123" s="21" t="s">
+        <v>543</v>
+      </c>
       <c r="T123" s="22"/>
       <c r="U123" s="23"/>
-      <c r="V123" s="24"/>
-      <c r="W123" s="24"/>
-      <c r="X123" s="24"/>
-      <c r="Y123" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+      <c r="V123" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="W123" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="X123" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y123" s="24" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="21" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M124" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="N124" s="21"/>
+        <v>550</v>
+      </c>
+      <c r="N124" s="21" t="s">
+        <v>551</v>
+      </c>
       <c r="O124" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="P124" s="21"/>
+        <v>540</v>
+      </c>
+      <c r="P124" s="21" t="s">
+        <v>416</v>
+      </c>
       <c r="Q124" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R124" s="21" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="S124" s="21"/>
       <c r="T124" s="22"/>
@@ -7922,12 +7910,12 @@
       <c r="X124" s="24"/>
       <c r="Y124" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>102</v>
+        <v>425</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>23</v>
@@ -7939,35 +7927,35 @@
         <v>23</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="21" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M125" s="21" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N125" s="21" t="s">
-        <v>560</v>
+        <v>428</v>
       </c>
       <c r="O125" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="P125" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q125" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R125" s="21" t="s">
         <v>556</v>
-      </c>
-      <c r="P125" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q125" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R125" s="21" t="s">
-        <v>562</v>
       </c>
       <c r="S125" s="21"/>
       <c r="T125" s="22"/>
@@ -7977,12 +7965,12 @@
       <c r="X125" s="24"/>
       <c r="Y125" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.25" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>23</v>
@@ -7991,58 +7979,48 @@
         <v>23</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="21" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M126" s="21" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N126" s="21"/>
       <c r="O126" s="21" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="P126" s="21" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Q126" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R126" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="S126" s="21" t="s">
-        <v>569</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="S126" s="21"/>
       <c r="T126" s="22"/>
       <c r="U126" s="23"/>
-      <c r="V126" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="W126" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="X126" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y126" s="24" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="127">
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>344</v>
+        <v>562</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>23</v>
@@ -8051,281 +8029,265 @@
         <v>23</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="21" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="M127" s="21" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="N127" s="21"/>
       <c r="O127" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="P127" s="21" t="s">
-        <v>576</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="P127" s="21"/>
       <c r="Q127" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R127" s="25" t="s">
-        <v>577</v>
+      <c r="R127" s="21" t="s">
+        <v>566</v>
       </c>
       <c r="S127" s="21"/>
       <c r="T127" s="22"/>
       <c r="U127" s="23"/>
       <c r="V127" s="24"/>
-      <c r="W127" s="24" t="s">
-        <v>578</v>
-      </c>
+      <c r="W127" s="24"/>
       <c r="X127" s="24"/>
       <c r="Y127" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>431</v>
+        <v>102</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F128" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G128" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="21" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="M128" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="N128" s="21"/>
+        <v>568</v>
+      </c>
+      <c r="N128" s="21" t="s">
+        <v>569</v>
+      </c>
       <c r="O128" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P128" s="21" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="Q128" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R128" s="21" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="S128" s="21"/>
       <c r="T128" s="22"/>
-      <c r="U128" s="23" t="s">
-        <v>583</v>
-      </c>
+      <c r="U128" s="23"/>
       <c r="V128" s="24"/>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
       <c r="Y128" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.25" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G129" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="21" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M129" s="21" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="N129" s="21"/>
       <c r="O129" s="21" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="P129" s="21" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="Q129" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R129" s="21" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="T129" s="22" t="s">
-        <v>590</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="T129" s="22"/>
       <c r="U129" s="23"/>
       <c r="V129" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="130">
+        <v>579</v>
+      </c>
+      <c r="W129" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="X129" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y129" s="24" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>592</v>
+        <v>353</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G130" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K130" s="7"/>
       <c r="L130" s="21" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="M130" s="21" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="N130" s="21"/>
       <c r="O130" s="21" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="P130" s="21" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q130" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R130" s="21"/>
-      <c r="S130" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="T130" s="22" t="s">
-        <v>597</v>
-      </c>
+      <c r="R130" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="S130" s="21"/>
+      <c r="T130" s="22"/>
       <c r="U130" s="23"/>
       <c r="V130" s="24"/>
-      <c r="W130" s="24"/>
+      <c r="W130" s="24" t="s">
+        <v>587</v>
+      </c>
       <c r="X130" s="24"/>
       <c r="Y130" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>598</v>
+        <v>440</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G131" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="21" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="M131" s="21" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="N131" s="21"/>
       <c r="O131" s="21" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="P131" s="21" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Q131" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R131" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="S131" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="T131" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="U131" s="23"/>
-      <c r="V131" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="W131" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="X131" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="Y131" s="24" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.25" outlineLevel="0" r="132">
+        <v>591</v>
+      </c>
+      <c r="S131" s="21"/>
+      <c r="T131" s="22"/>
+      <c r="U131" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+      <c r="Y131" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>23</v>
@@ -8337,108 +8299,109 @@
         <v>23</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="21" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="M132" s="21" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="N132" s="21"/>
       <c r="O132" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P132" s="21" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Q132" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R132" s="26" t="s">
-        <v>611</v>
+      <c r="R132" s="21" t="s">
+        <v>597</v>
       </c>
       <c r="S132" s="21" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="T132" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="U132" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="V132" s="24"/>
-      <c r="W132" s="24" t="s">
-        <v>615</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="U132" s="23"/>
+      <c r="V132" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="W132" s="24"/>
       <c r="X132" s="24"/>
       <c r="Y132" s="24"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F133" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G133" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K133" s="7"/>
-      <c r="L133" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="M133" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="N133" s="26"/>
-      <c r="O133" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="P133" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q133" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R133" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="S133" s="26"/>
-      <c r="T133" s="27"/>
-      <c r="U133" s="28" t="s">
-        <v>622</v>
-      </c>
+      <c r="L133" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="M133" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="N133" s="21"/>
+      <c r="O133" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="P133" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q133" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" s="21"/>
+      <c r="S133" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="T133" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="U133" s="23"/>
       <c r="V133" s="24"/>
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
       <c r="Y133" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.25" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>23</v>
@@ -8450,114 +8413,121 @@
         <v>23</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="21" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="M134" s="21" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="N134" s="21"/>
       <c r="O134" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P134" s="21" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="Q134" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R134" s="21" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="T134" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="U134" s="23" t="s">
-        <v>630</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="U134" s="23"/>
       <c r="V134" s="24" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="W134" s="24" t="s">
-        <v>632</v>
-      </c>
-      <c r="X134" s="24"/>
+        <v>613</v>
+      </c>
+      <c r="X134" s="24" t="s">
+        <v>614</v>
+      </c>
       <c r="Y134" s="24" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="135">
+        <v>615</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.25" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F135" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G135" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="21" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="M135" s="21" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="N135" s="21"/>
       <c r="O135" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P135" s="21" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="Q135" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R135" s="21" t="s">
-        <v>638</v>
+        <v>1</v>
+      </c>
+      <c r="R135" s="26" t="s">
+        <v>620</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="T135" s="22"/>
+        <v>621</v>
+      </c>
+      <c r="T135" s="22" t="s">
+        <v>622</v>
+      </c>
       <c r="U135" s="23" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="V135" s="24"/>
-      <c r="W135" s="24"/>
+      <c r="W135" s="24" t="s">
+        <v>624</v>
+      </c>
       <c r="X135" s="24"/>
       <c r="Y135" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="81.25" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>23</v>
@@ -8566,114 +8536,115 @@
         <v>23</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K136" s="7"/>
-      <c r="L136" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="M136" s="21" t="s">
-        <v>643</v>
-      </c>
-      <c r="N136" s="21"/>
-      <c r="O136" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="P136" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q136" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="T136" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="U136" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="V136" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="W136" s="24" t="s">
-        <v>648</v>
-      </c>
+      <c r="L136" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="M136" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="N136" s="26"/>
+      <c r="O136" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="P136" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q136" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R136" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="S136" s="26"/>
+      <c r="T136" s="27"/>
+      <c r="U136" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="V136" s="24"/>
+      <c r="W136" s="24"/>
       <c r="X136" s="24"/>
-      <c r="Y136" s="24" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="151.25" outlineLevel="0" r="137">
+      <c r="Y136" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.25" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F137" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G137" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K137" s="7"/>
       <c r="L137" s="21" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="M137" s="21" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="N137" s="21"/>
       <c r="O137" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P137" s="21" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="Q137" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R137" s="21" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="S137" s="21" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="T137" s="22" t="s">
-        <v>465</v>
+        <v>638</v>
       </c>
       <c r="U137" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="V137" s="24"/>
-      <c r="W137" s="24"/>
+        <v>639</v>
+      </c>
+      <c r="V137" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="W137" s="24" t="s">
+        <v>641</v>
+      </c>
       <c r="X137" s="24"/>
-      <c r="Y137" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="138">
+      <c r="Y137" s="24" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>23</v>
@@ -8682,54 +8653,52 @@
         <v>23</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K138" s="7"/>
       <c r="L138" s="21" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="M138" s="21" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="N138" s="21"/>
       <c r="O138" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P138" s="21" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="Q138" s="21" t="n">
         <v>2</v>
       </c>
       <c r="R138" s="21" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="S138" s="21" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="T138" s="22"/>
       <c r="U138" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="V138" s="24" t="s">
-        <v>663</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="V138" s="24"/>
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
       <c r="Y138" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="111.25" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="81.25" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>23</v>
@@ -8738,56 +8707,58 @@
         <v>23</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K139" s="7"/>
       <c r="L139" s="21" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="M139" s="21" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="N139" s="21"/>
       <c r="O139" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P139" s="21" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="Q139" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R139" s="21" t="s">
-        <v>668</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R139" s="21"/>
       <c r="S139" s="21" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="T139" s="22" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="U139" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="V139" s="24"/>
-      <c r="W139" s="24"/>
+        <v>655</v>
+      </c>
+      <c r="V139" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="W139" s="24" t="s">
+        <v>657</v>
+      </c>
       <c r="X139" s="24"/>
       <c r="Y139" s="24" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="140">
+        <v>658</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="151.25" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>23</v>
@@ -8796,54 +8767,54 @@
         <v>23</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K140" s="7"/>
       <c r="L140" s="21" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="N140" s="21"/>
       <c r="O140" s="21" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="P140" s="21" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="Q140" s="21" t="n">
         <v>1</v>
       </c>
       <c r="R140" s="21" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="S140" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="T140" s="22"/>
+        <v>664</v>
+      </c>
+      <c r="T140" s="22" t="s">
+        <v>474</v>
+      </c>
       <c r="U140" s="23" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="V140" s="24"/>
-      <c r="W140" s="24" t="s">
-        <v>679</v>
-      </c>
+      <c r="W140" s="24"/>
       <c r="X140" s="24"/>
       <c r="Y140" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>23</v>
@@ -8852,50 +8823,54 @@
         <v>23</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="21" t="s">
-        <v>681</v>
-      </c>
-      <c r="M141" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="N141" s="26"/>
+        <v>667</v>
+      </c>
+      <c r="M141" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="N141" s="21"/>
       <c r="O141" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P141" s="21" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="Q141" s="21" t="n">
         <v>2</v>
       </c>
       <c r="R141" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="S141" s="21"/>
+        <v>670</v>
+      </c>
+      <c r="S141" s="21" t="s">
+        <v>671</v>
+      </c>
       <c r="T141" s="22"/>
       <c r="U141" s="23" t="s">
-        <v>685</v>
-      </c>
-      <c r="V141" s="24"/>
+        <v>592</v>
+      </c>
+      <c r="V141" s="24" t="s">
+        <v>672</v>
+      </c>
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
       <c r="Y141" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="111.25" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>23</v>
@@ -8904,54 +8879,56 @@
         <v>23</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>366</v>
+        <v>94</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="21" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="M142" s="21" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="N142" s="21"/>
       <c r="O142" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P142" s="21" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="Q142" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R142" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="S142" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="T142" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="U142" s="28" t="s">
-        <v>693</v>
+        <v>2</v>
+      </c>
+      <c r="R142" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="S142" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="T142" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="U142" s="23" t="s">
+        <v>679</v>
       </c>
       <c r="V142" s="24"/>
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
-      <c r="Y142" s="24"/>
+      <c r="Y142" s="24" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>23</v>
@@ -8960,56 +8937,54 @@
         <v>23</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>372</v>
+        <v>98</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="21" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="M143" s="21" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="N143" s="21"/>
       <c r="O143" s="21" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="P143" s="21" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="Q143" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R143" s="21" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="S143" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="T143" s="22" t="s">
-        <v>415</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="T143" s="22"/>
       <c r="U143" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="V143" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="W143" s="24"/>
+        <v>687</v>
+      </c>
+      <c r="V143" s="24"/>
+      <c r="W143" s="24" t="s">
+        <v>688</v>
+      </c>
       <c r="X143" s="24"/>
       <c r="Y143" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.25" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>23</v>
@@ -9018,48 +8993,214 @@
         <v>23</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K144" s="7"/>
       <c r="L144" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="M144" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="N144" s="21"/>
+        <v>690</v>
+      </c>
+      <c r="M144" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="N144" s="26"/>
       <c r="O144" s="21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P144" s="21" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="Q144" s="21" t="n">
         <v>2</v>
       </c>
       <c r="R144" s="21" t="s">
-        <v>706</v>
-      </c>
-      <c r="S144" s="21" t="s">
-        <v>707</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="S144" s="21"/>
       <c r="T144" s="22"/>
       <c r="U144" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="V144" s="24" t="s">
-        <v>709</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="V144" s="24"/>
       <c r="W144" s="24"/>
       <c r="X144" s="24"/>
-      <c r="Y144" s="24" t="s">
+      <c r="Y144" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="145">
+      <c r="A145" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K145" s="7"/>
+      <c r="L145" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="M145" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="N145" s="21"/>
+      <c r="O145" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="P145" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q145" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="S145" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="T145" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="U145" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="V145" s="24"/>
+      <c r="W145" s="24"/>
+      <c r="X145" s="24"/>
+      <c r="Y145" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.25" outlineLevel="0" r="146">
+      <c r="A146" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K146" s="7"/>
+      <c r="L146" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="M146" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="N146" s="21"/>
+      <c r="O146" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="P146" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q146" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R146" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="S146" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="T146" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="U146" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="V146" s="24" t="s">
         <v>710</v>
+      </c>
+      <c r="W146" s="24"/>
+      <c r="X146" s="24"/>
+      <c r="Y146" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="31.25" outlineLevel="0" r="147">
+      <c r="A147" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K147" s="7"/>
+      <c r="L147" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="M147" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="N147" s="21"/>
+      <c r="O147" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="P147" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q147" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R147" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="S147" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="T147" s="22"/>
+      <c r="U147" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="V147" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="W147" s="24"/>
+      <c r="X147" s="24"/>
+      <c r="Y147" s="24" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -2500,7 +2500,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2513,29 +2513,29 @@
   <dimension ref="A1:AQ163"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="K65" xSplit="3053" ySplit="1978"/>
+      <pane activePane="bottomRight" topLeftCell="A62" xSplit="3128" ySplit="1978"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="K1" activeCellId="0" pane="topRight" sqref="K1"/>
-      <selection activeCell="A65" activeCellId="0" pane="bottomLeft" sqref="A65"/>
-      <selection activeCell="P82" activeCellId="0" pane="bottomRight" sqref="P82"/>
+      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
+      <selection activeCell="A62" activeCellId="0" pane="bottomLeft" sqref="A62"/>
+      <selection activeCell="H77" activeCellId="0" pane="bottomRight" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.8745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.3764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.3764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.3764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.4117647058823"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.1058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="58.3176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.8470588235294"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="46.9490196078431"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.6352941176471"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.6196078431373"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.83137254901961"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.556862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.243137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="58.6078431372549"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.9254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="47.1843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.87450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="67.5" outlineLevel="0" r="1" s="6">
@@ -3535,7 +3535,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="9" t="s">
         <v>101</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="9" t="s">
         <v>101</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>24</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>23</v>
@@ -5233,7 +5233,7 @@
         <v>24</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>23</v>
@@ -5279,7 +5279,7 @@
         <v>24</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>23</v>
@@ -5322,7 +5322,7 @@
         <v>24</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>23</v>
@@ -5365,7 +5365,7 @@
         <v>24</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>23</v>
@@ -5408,7 +5408,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>23</v>
@@ -5451,7 +5451,7 @@
         <v>24</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>23</v>
@@ -5494,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>23</v>
@@ -5580,7 +5580,7 @@
         <v>24</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>24</v>
@@ -5828,7 +5828,6 @@
       <c r="M82" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="N82" s="0"/>
       <c r="P82" s="1" t="s">
         <v>282</v>
       </c>
@@ -5864,7 +5863,6 @@
       <c r="M83" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N83" s="0"/>
       <c r="P83" s="1" t="s">
         <v>287</v>
       </c>
@@ -5900,7 +5898,6 @@
       <c r="M84" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N84" s="0"/>
       <c r="P84" s="1" t="s">
         <v>292</v>
       </c>
@@ -10455,7 +10452,7 @@
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.1" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.25" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
         <v>587</v>
       </c>
@@ -10530,7 +10527,7 @@
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="54.35" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="150" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
         <v>587</v>
       </c>
@@ -10668,7 +10665,7 @@
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
         <v>587</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="773">
   <si>
     <t>table</t>
   </si>
@@ -2500,7 +2500,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2513,29 +2513,29 @@
   <dimension ref="A1:AQ163"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A62" xSplit="3128" ySplit="1978"/>
+      <pane activePane="bottomRight" topLeftCell="A42" xSplit="3204" ySplit="1978"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A62" activeCellId="0" pane="bottomLeft" sqref="A62"/>
-      <selection activeCell="H77" activeCellId="0" pane="bottomRight" sqref="H77"/>
+      <selection activeCell="A42" activeCellId="0" pane="bottomLeft" sqref="A42"/>
+      <selection activeCell="K59" activeCellId="0" pane="bottomRight" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.556862745098"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.243137254902"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="58.6078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="15.9254901960784"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="47.1843137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.7137254901961"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.7294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6117647058824"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.87450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.0078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.3764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="58.8980392156863"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="47.4196078431373"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.7882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.8470588235294"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7294117647059"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.92156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.92156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="67.5" outlineLevel="0" r="1" s="6">
@@ -2639,6 +2639,9 @@
       <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
       </c>
@@ -2682,6 +2685,9 @@
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" s="1" t="n">
         <v>2</v>
       </c>
@@ -2725,6 +2731,9 @@
       <c r="I4" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L4" s="1" t="n">
         <v>3</v>
       </c>
@@ -2768,6 +2777,9 @@
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L5" s="1" t="n">
         <v>4</v>
       </c>
@@ -2811,6 +2823,9 @@
       <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="1" t="n">
         <v>5</v>
       </c>
@@ -2848,6 +2863,9 @@
       <c r="I7" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="1" t="n">
         <v>6</v>
       </c>
@@ -2885,6 +2903,9 @@
       <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2922,6 +2943,9 @@
       <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="1" t="n">
         <v>8</v>
       </c>
@@ -2959,6 +2983,9 @@
       <c r="I10" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="1" t="n">
         <v>9</v>
       </c>
@@ -2999,6 +3026,9 @@
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L11" s="1" t="n">
         <v>10</v>
       </c>
@@ -3039,6 +3069,9 @@
       <c r="I12" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L12" s="1" t="n">
         <v>11</v>
       </c>
@@ -3082,6 +3115,9 @@
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L13" s="1" t="n">
         <v>12</v>
       </c>
@@ -3122,6 +3158,9 @@
       <c r="I14" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L14" s="1" t="n">
         <v>13</v>
       </c>
@@ -3162,6 +3201,9 @@
       <c r="I15" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L15" s="1" t="n">
         <v>14</v>
       </c>
@@ -3199,6 +3241,9 @@
       <c r="I16" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L16" s="1" t="n">
         <v>15</v>
       </c>
@@ -3242,6 +3287,9 @@
       <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L17" s="1" t="n">
         <v>16</v>
       </c>
@@ -3282,6 +3330,9 @@
       <c r="I18" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L18" s="1" t="n">
         <v>17</v>
       </c>
@@ -3322,6 +3373,9 @@
       <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L19" s="1" t="n">
         <v>18</v>
       </c>
@@ -3359,6 +3413,9 @@
       <c r="I20" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L20" s="1" t="n">
         <v>19</v>
       </c>
@@ -3396,6 +3453,9 @@
       <c r="I21" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L21" s="1" t="n">
         <v>20</v>
       </c>
@@ -3433,6 +3493,9 @@
       <c r="I22" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L22" s="1" t="n">
         <v>21</v>
       </c>
@@ -3475,6 +3538,9 @@
       <c r="I23" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L23" s="1" t="n">
         <v>22</v>
       </c>
@@ -3517,6 +3583,9 @@
       <c r="I24" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K24" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L24" s="1" t="n">
         <v>23</v>
       </c>
@@ -3535,7 +3604,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="25">
       <c r="A25" s="9" t="s">
         <v>101</v>
       </c>
@@ -3553,6 +3622,9 @@
         <v>32</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="1" t="n">
@@ -3573,7 +3645,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="26">
       <c r="A26" s="9" t="s">
         <v>101</v>
       </c>
@@ -3591,6 +3663,9 @@
         <v>36</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="1" t="n">
@@ -3631,6 +3706,9 @@
       <c r="I27" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L27" s="1" t="n">
         <v>26</v>
       </c>
@@ -3671,6 +3749,9 @@
       <c r="I28" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K28" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L28" s="1" t="n">
         <v>27</v>
       </c>
@@ -3689,7 +3770,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="29">
       <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
@@ -3707,6 +3788,9 @@
         <v>48</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="1" t="n">
@@ -3727,7 +3811,7 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="30">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>
@@ -3745,6 +3829,9 @@
         <v>51</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="1" t="n">
@@ -3785,6 +3872,9 @@
       <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L31" s="1" t="n">
         <v>30</v>
       </c>
@@ -3823,6 +3913,9 @@
       <c r="I32" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K32" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L32" s="1" t="n">
         <v>31</v>
       </c>
@@ -3865,6 +3958,9 @@
       <c r="I33" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K33" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L33" s="1" t="n">
         <v>32</v>
       </c>
@@ -3905,6 +4001,9 @@
       <c r="I34" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K34" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L34" s="1" t="n">
         <v>33</v>
       </c>
@@ -3945,6 +4044,9 @@
       <c r="I35" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K35" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L35" s="1" t="n">
         <v>34</v>
       </c>
@@ -3987,6 +4089,9 @@
       <c r="I36" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K36" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L36" s="1" t="n">
         <v>35</v>
       </c>
@@ -4032,6 +4137,9 @@
       <c r="I37" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K37" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L37" s="1" t="n">
         <v>36</v>
       </c>
@@ -4072,6 +4180,9 @@
       <c r="I38" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K38" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L38" s="1" t="n">
         <v>37</v>
       </c>
@@ -4112,6 +4223,9 @@
       <c r="I39" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="K39" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L39" s="1" t="n">
         <v>38</v>
       </c>
@@ -4149,6 +4263,9 @@
       <c r="I40" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K40" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L40" s="1" t="n">
         <v>39</v>
       </c>
@@ -4189,6 +4306,9 @@
       <c r="I41" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K41" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L41" s="1" t="n">
         <v>40</v>
       </c>
@@ -4223,6 +4343,9 @@
       <c r="I42" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K42" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L42" s="1" t="n">
         <v>41</v>
       </c>
@@ -4257,6 +4380,9 @@
       <c r="I43" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K43" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L43" s="1" t="n">
         <v>42</v>
       </c>
@@ -4291,6 +4417,9 @@
       <c r="I44" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K44" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L44" s="1" t="n">
         <v>43</v>
       </c>
@@ -4322,6 +4451,9 @@
       <c r="I45" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K45" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L45" s="1" t="n">
         <v>44</v>
       </c>
@@ -4362,6 +4494,9 @@
       <c r="I46" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K46" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L46" s="1" t="n">
         <v>45</v>
       </c>
@@ -4402,6 +4537,9 @@
       <c r="I47" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K47" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L47" s="1" t="n">
         <v>46</v>
       </c>
@@ -4442,6 +4580,9 @@
       <c r="I48" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K48" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L48" s="1" t="n">
         <v>47</v>
       </c>
@@ -4482,6 +4623,9 @@
       <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K49" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L49" s="1" t="n">
         <v>48</v>
       </c>
@@ -4522,6 +4666,9 @@
       <c r="I50" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K50" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L50" s="1" t="n">
         <v>49</v>
       </c>
@@ -4560,6 +4707,9 @@
       <c r="I51" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K51" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L51" s="1" t="n">
         <v>50</v>
       </c>
@@ -4598,6 +4748,9 @@
       <c r="I52" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K52" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L52" s="1" t="n">
         <v>51</v>
       </c>
@@ -4634,6 +4787,9 @@
         <v>54</v>
       </c>
       <c r="I53" s="7"/>
+      <c r="K53" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L53" s="1" t="n">
         <v>52</v>
       </c>
@@ -4672,6 +4828,9 @@
       <c r="I54" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="K54" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L54" s="1" t="n">
         <v>53</v>
       </c>
@@ -4712,6 +4871,9 @@
       <c r="I55" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K55" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L55" s="1" t="n">
         <v>54</v>
       </c>
@@ -4752,6 +4914,9 @@
       <c r="I56" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K56" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L56" s="1" t="n">
         <v>55</v>
       </c>
@@ -4789,6 +4954,9 @@
       <c r="I57" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K57" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L57" s="1" t="n">
         <v>56</v>
       </c>
@@ -4826,6 +4994,9 @@
       <c r="I58" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K58" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L58" s="1" t="n">
         <v>57</v>
       </c>
@@ -4863,6 +5034,9 @@
       <c r="I59" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K59" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L59" s="1" t="n">
         <v>58</v>
       </c>
@@ -4900,6 +5074,9 @@
       <c r="I60" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K60" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L60" s="1" t="n">
         <v>59</v>
       </c>
@@ -4940,6 +5117,9 @@
       <c r="I61" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K61" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L61" s="1" t="n">
         <v>60</v>
       </c>
@@ -4979,6 +5159,9 @@
       </c>
       <c r="I62" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L62" s="1" t="n">
         <v>61</v>
@@ -7976,7 +8159,9 @@
       <c r="J119" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K119" s="13"/>
+      <c r="K119" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L119" s="1" t="s">
         <v>459</v>
       </c>
@@ -8047,7 +8232,9 @@
       <c r="J120" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K120" s="13"/>
+      <c r="K120" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L120" s="1" t="s">
         <v>466</v>
       </c>
@@ -8115,7 +8302,9 @@
       <c r="J121" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K121" s="13"/>
+      <c r="K121" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L121" s="1" t="s">
         <v>472</v>
       </c>
@@ -8189,7 +8378,9 @@
       <c r="J122" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K122" s="13"/>
+      <c r="K122" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L122" s="1" t="s">
         <v>479</v>
       </c>
@@ -8266,7 +8457,9 @@
       <c r="J123" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K123" s="13"/>
+      <c r="K123" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L123" s="1" t="s">
         <v>485</v>
       </c>
@@ -8331,7 +8524,9 @@
       <c r="J124" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K124" s="13"/>
+      <c r="K124" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L124" s="1" t="s">
         <v>489</v>
       </c>
@@ -8396,7 +8591,9 @@
       <c r="J125" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K125" s="13"/>
+      <c r="K125" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L125" s="1" t="s">
         <v>494</v>
       </c>
@@ -8462,7 +8659,9 @@
       <c r="J126" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K126" s="13"/>
+      <c r="K126" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L126" s="1" t="s">
         <v>500</v>
       </c>
@@ -8534,7 +8733,9 @@
       <c r="J127" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K127" s="13"/>
+      <c r="K127" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L127" s="1" t="s">
         <v>508</v>
       </c>
@@ -8606,7 +8807,9 @@
       <c r="J128" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K128" s="13"/>
+      <c r="K128" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L128" s="1" t="s">
         <v>516</v>
       </c>
@@ -8675,7 +8878,9 @@
       <c r="J129" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K129" s="13"/>
+      <c r="K129" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L129" s="1" t="s">
         <v>522</v>
       </c>
@@ -8744,7 +8949,9 @@
       <c r="J130" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K130" s="13"/>
+      <c r="K130" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L130" s="1" t="s">
         <v>529</v>
       </c>
@@ -8816,7 +9023,9 @@
       <c r="J131" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K131" s="13"/>
+      <c r="K131" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L131" s="1" t="s">
         <v>535</v>
       </c>
@@ -8888,7 +9097,9 @@
       <c r="J132" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K132" s="13"/>
+      <c r="K132" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L132" s="1" t="s">
         <v>541</v>
       </c>
@@ -8960,7 +9171,9 @@
       <c r="J133" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K133" s="13"/>
+      <c r="K133" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L133" s="1" t="s">
         <v>550</v>
       </c>
@@ -9032,7 +9245,9 @@
       <c r="J134" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K134" s="13"/>
+      <c r="K134" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L134" s="1" t="s">
         <v>555</v>
       </c>
@@ -9104,7 +9319,9 @@
       <c r="J135" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K135" s="13"/>
+      <c r="K135" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L135" s="1" t="s">
         <v>563</v>
       </c>
@@ -9173,7 +9390,9 @@
       <c r="J136" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K136" s="13"/>
+      <c r="K136" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L136" s="1" t="s">
         <v>570</v>
       </c>
@@ -9237,7 +9456,9 @@
       <c r="J137" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K137" s="13"/>
+      <c r="K137" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L137" s="1" t="s">
         <v>577</v>
       </c>
@@ -9304,7 +9525,9 @@
       <c r="J138" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="K138" s="13"/>
+      <c r="K138" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L138" s="1" t="s">
         <v>583</v>
       </c>
@@ -9376,7 +9599,9 @@
       <c r="J139" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K139" s="9"/>
+      <c r="K139" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L139" s="1" t="s">
         <v>590</v>
       </c>
@@ -9457,7 +9682,9 @@
       <c r="J140" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K140" s="9"/>
+      <c r="K140" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L140" s="1" t="s">
         <v>602</v>
       </c>
@@ -9523,7 +9750,9 @@
       <c r="J141" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K141" s="9"/>
+      <c r="K141" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L141" s="1" t="s">
         <v>606</v>
       </c>
@@ -9586,7 +9815,9 @@
       <c r="J142" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K142" s="9"/>
+      <c r="K142" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L142" s="1" t="s">
         <v>611</v>
       </c>
@@ -9646,7 +9877,9 @@
       <c r="J143" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K143" s="9"/>
+      <c r="K143" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L143" s="1" t="s">
         <v>616</v>
       </c>
@@ -9706,7 +9939,9 @@
       <c r="J144" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K144" s="9"/>
+      <c r="K144" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L144" s="1" t="s">
         <v>620</v>
       </c>
@@ -9769,7 +10004,9 @@
       <c r="J145" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K145" s="9"/>
+      <c r="K145" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L145" s="1" t="s">
         <v>626</v>
       </c>
@@ -9844,7 +10081,9 @@
       <c r="J146" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K146" s="9"/>
+      <c r="K146" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L146" s="1" t="s">
         <v>636</v>
       </c>
@@ -9907,7 +10146,9 @@
       <c r="J147" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K147" s="9"/>
+      <c r="K147" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L147" s="1" t="s">
         <v>641</v>
       </c>
@@ -9973,7 +10214,9 @@
       <c r="J148" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K148" s="9"/>
+      <c r="K148" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L148" s="1" t="s">
         <v>647</v>
       </c>
@@ -10045,7 +10288,9 @@
       <c r="J149" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K149" s="9"/>
+      <c r="K149" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L149" s="1" t="s">
         <v>655</v>
       </c>
@@ -10111,7 +10356,9 @@
       <c r="J150" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K150" s="9"/>
+      <c r="K150" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L150" s="1" t="s">
         <v>661</v>
       </c>
@@ -10192,7 +10439,9 @@
       <c r="J151" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K151" s="9"/>
+      <c r="K151" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L151" s="1" t="s">
         <v>670</v>
       </c>
@@ -10264,7 +10513,9 @@
       <c r="J152" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K152" s="9"/>
+      <c r="K152" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L152" s="1" t="s">
         <v>679</v>
       </c>
@@ -10330,7 +10581,9 @@
       <c r="J153" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K153" s="9"/>
+      <c r="K153" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L153" s="1" t="s">
         <v>686</v>
       </c>
@@ -10408,7 +10661,9 @@
       <c r="J154" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K154" s="9"/>
+      <c r="K154" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L154" s="1" t="s">
         <v>697</v>
       </c>
@@ -10474,7 +10729,9 @@
       <c r="J155" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K155" s="9"/>
+      <c r="K155" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L155" s="1" t="s">
         <v>704</v>
       </c>
@@ -10549,7 +10806,9 @@
       <c r="J156" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K156" s="9"/>
+      <c r="K156" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L156" s="1" t="s">
         <v>713</v>
       </c>
@@ -10618,7 +10877,9 @@
       <c r="J157" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K157" s="9"/>
+      <c r="K157" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L157" s="1" t="s">
         <v>720</v>
       </c>
@@ -10687,7 +10948,9 @@
       <c r="J158" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K158" s="9"/>
+      <c r="K158" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L158" s="1" t="s">
         <v>727</v>
       </c>
@@ -10759,7 +11022,9 @@
       <c r="J159" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K159" s="9"/>
+      <c r="K159" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L159" s="1" t="s">
         <v>735</v>
       </c>
@@ -10828,7 +11093,9 @@
       <c r="J160" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K160" s="9"/>
+      <c r="K160" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L160" s="1" t="s">
         <v>743</v>
       </c>
@@ -10891,7 +11158,9 @@
       <c r="J161" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K161" s="9"/>
+      <c r="K161" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L161" s="1" t="s">
         <v>749</v>
       </c>
@@ -10960,7 +11229,9 @@
       <c r="J162" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K162" s="9"/>
+      <c r="K162" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L162" s="1" t="s">
         <v>757</v>
       </c>
@@ -11032,7 +11303,9 @@
       <c r="J163" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="K163" s="9"/>
+      <c r="K163" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L163" s="1" t="s">
         <v>765</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="776">
   <si>
     <t>table</t>
   </si>
@@ -1185,6 +1185,15 @@
   </si>
   <si>
     <t>The software versions are available from IUPAC</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>SM:28</t>
+  </si>
+  <si>
+    <t>Is restricted molecule: only available to staff</t>
   </si>
   <si>
     <t>target_information_references</t>
@@ -2510,14 +2519,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ163"/>
+  <dimension ref="A1:AQ164"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A42" xSplit="3204" ySplit="1978"/>
+      <pane activePane="bottomRight" topLeftCell="A93" xSplit="3204" ySplit="1978"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A42" activeCellId="0" pane="bottomLeft" sqref="A42"/>
-      <selection activeCell="K59" activeCellId="0" pane="bottomRight" sqref="K59"/>
+      <selection activeCell="A93" activeCellId="0" pane="bottomLeft" sqref="A93"/>
+      <selection activeCell="E103" activeCellId="0" pane="bottomRight" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -4442,6 +4451,9 @@
       <c r="B45" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G45" s="9" t="s">
         <v>24</v>
       </c>
@@ -7004,7 +7016,9 @@
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9" t="s">
         <v>24</v>
@@ -7053,7 +7067,9 @@
       <c r="D101" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E101" s="9"/>
+      <c r="E101" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9" t="s">
         <v>23</v>
@@ -7158,21 +7174,23 @@
       <c r="AK102" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="A103" s="9"/>
+      <c r="A103" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="B103" s="9" t="s">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>24</v>
@@ -7181,28 +7199,22 @@
         <v>295</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="N103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P103" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="Q103" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R103" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="U103" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
@@ -7218,57 +7230,53 @@
       <c r="AK103" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="9" t="s">
-        <v>322</v>
-      </c>
+      <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="9"/>
+        <v>393</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="E104" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J104" s="12" t="s">
         <v>295</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L104" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="M104" s="1" t="s">
+      <c r="U104" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
@@ -7288,21 +7296,23 @@
         <v>322</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C105" s="9"/>
+        <v>399</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>329</v>
+      </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>23</v>
@@ -7314,22 +7324,25 @@
         <v>23</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
@@ -7349,7 +7362,7 @@
         <v>322</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -7363,7 +7376,7 @@
         <v>23</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>23</v>
@@ -7375,19 +7388,22 @@
         <v>23</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q106" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
@@ -7407,7 +7423,7 @@
         <v>322</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -7421,7 +7437,7 @@
         <v>23</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>23</v>
@@ -7433,22 +7449,19 @@
         <v>23</v>
       </c>
       <c r="L107" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q107" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
@@ -7468,46 +7481,48 @@
         <v>322</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G108" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>416</v>
+        <v>58</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J108" s="12" t="s">
         <v>295</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q108" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
@@ -7527,7 +7542,7 @@
         <v>322</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -7539,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>24</v>
@@ -7551,22 +7566,22 @@
         <v>24</v>
       </c>
       <c r="L109" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q109" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U109" s="1" t="s">
-        <v>373</v>
+      <c r="R109" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
@@ -7586,7 +7601,7 @@
         <v>322</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -7598,7 +7613,7 @@
         <v>23</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>24</v>
@@ -7610,22 +7625,22 @@
         <v>24</v>
       </c>
       <c r="L110" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>352</v>
+        <v>2</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
@@ -7645,22 +7660,22 @@
         <v>322</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>290</v>
+        <v>427</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J111" s="12" t="s">
         <v>295</v>
@@ -7669,22 +7684,22 @@
         <v>24</v>
       </c>
       <c r="L111" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q111" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
@@ -7698,19 +7713,13 @@
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
       <c r="AK111" s="1"/>
-      <c r="AL111" s="1"/>
-      <c r="AM111" s="1"/>
-      <c r="AN111" s="1"/>
-      <c r="AO111" s="1"/>
-      <c r="AP111" s="1"/>
-      <c r="AQ111" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
       <c r="A112" s="9" t="s">
         <v>322</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -7722,7 +7731,7 @@
         <v>23</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>434</v>
+        <v>290</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>23</v>
@@ -7734,22 +7743,22 @@
         <v>24</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q112" s="1" t="n">
         <v>3</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
@@ -7775,7 +7784,7 @@
         <v>322</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -7787,7 +7796,7 @@
         <v>23</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>23</v>
@@ -7799,19 +7808,22 @@
         <v>24</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q113" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
@@ -7837,19 +7849,19 @@
         <v>322</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>23</v>
@@ -7861,22 +7873,19 @@
         <v>24</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q114" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
@@ -7901,38 +7910,47 @@
       <c r="A115" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B115" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="9"/>
       <c r="G115" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="N115" s="1" t="s">
-        <v>160</v>
+      <c r="M115" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>161</v>
+        <v>450</v>
+      </c>
+      <c r="Q115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
@@ -7958,7 +7976,7 @@
         <v>322</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>172</v>
@@ -7982,13 +8000,13 @@
         <v>23</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
@@ -8014,7 +8032,7 @@
         <v>322</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>172</v>
@@ -8038,13 +8056,13 @@
         <v>23</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
@@ -8066,50 +8084,41 @@
       <c r="AQ117" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="9"/>
+      <c r="A118" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G118" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>452</v>
+        <v>159</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J118" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="K118" s="12" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M118" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>329</v>
+      <c r="N118" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q118" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R118" s="1" t="s">
-        <v>432</v>
+        <v>167</v>
       </c>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
@@ -8131,60 +8140,50 @@
       <c r="AQ118" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="M119" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119" s="13" t="s">
+      <c r="O119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P119" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="K119" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="Q119" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="S119" s="1" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
@@ -8207,12 +8206,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
       <c r="A120" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C120" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
         <v>23</v>
@@ -8224,37 +8225,40 @@
         <v>23</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J120" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K120" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L120" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P120" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="Q120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
@@ -8277,10 +8281,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
       <c r="A121" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>471</v>
+        <v>303</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -8294,43 +8298,37 @@
         <v>23</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J121" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K121" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L121" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P121" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="Q121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="S121" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="T121" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="U121" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
@@ -8353,10 +8351,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
       <c r="A122" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -8370,46 +8368,43 @@
         <v>23</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J122" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K122" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
@@ -8432,10 +8427,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
       <c r="A123" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -8449,34 +8444,46 @@
         <v>23</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K123" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L123" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P123" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="Q123" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R123" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="T123" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
@@ -8499,10 +8506,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
       <c r="A124" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -8510,40 +8517,40 @@
         <v>23</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G124" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J124" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K124" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L124" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="M124" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
@@ -8566,10 +8573,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
       <c r="A125" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -8583,37 +8590,34 @@
         <v>23</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J125" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K125" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q125" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R125" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="T125" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
@@ -8636,58 +8640,54 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
       <c r="A126" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F126" s="9"/>
+      <c r="F126" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G126" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K126" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L126" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="M126" s="1" t="s">
+      <c r="T126" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q126" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="S126" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="T126" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="U126" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
@@ -8710,10 +8710,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
       <c r="A127" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -8725,43 +8725,43 @@
         <v>23</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J127" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K127" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q127" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
@@ -8784,10 +8784,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
       <c r="A128" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -8799,40 +8799,43 @@
         <v>23</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K128" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q128" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="R128" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="S128" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
@@ -8855,10 +8858,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
       <c r="A129" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -8870,40 +8873,40 @@
         <v>23</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J129" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K129" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L129" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q129" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S129" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="T129" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="O129" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q129" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="U129" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
@@ -8926,10 +8929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
       <c r="A130" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -8941,43 +8944,40 @@
         <v>23</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J130" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K130" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q130" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
@@ -9000,10 +9000,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
       <c r="A131" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -9015,43 +9015,43 @@
         <v>23</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K131" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>329</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q131" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
@@ -9074,10 +9074,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
       <c r="A132" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -9089,43 +9089,43 @@
         <v>23</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J132" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K132" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L132" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q132" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R132" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="S132" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="T132" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="O132" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q132" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="R132" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="S132" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="T132" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="U132" s="1" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
@@ -9148,10 +9148,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
       <c r="A133" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -9163,43 +9163,43 @@
         <v>23</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K133" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L133" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T133" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="U133" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q133" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R133" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="S133" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="T133" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="U133" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
@@ -9222,10 +9222,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
       <c r="A134" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -9237,43 +9237,43 @@
         <v>23</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K134" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L134" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P134" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="Q134" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="T134" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="O134" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q134" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="S134" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="T134" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="U134" s="1" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
@@ -9296,10 +9296,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
       <c r="A135" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -9311,40 +9311,43 @@
         <v>23</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K135" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L135" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q135" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="T135" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="M135" s="1" t="s">
+      <c r="U135" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q135" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
@@ -9367,10 +9370,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
       <c r="A136" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -9382,37 +9385,40 @@
         <v>23</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K136" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q136" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
@@ -9434,54 +9440,53 @@
       <c r="AQ136" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
-      <c r="A137" s="9"/>
+      <c r="A137" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="B137" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K137" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L137" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q137" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="T137" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="M137" s="1" t="s">
+      <c r="U137" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q137" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S137" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="T137" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="U137" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
@@ -9505,7 +9510,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
       <c r="A138" s="9"/>
       <c r="B138" s="9" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9" t="s">
@@ -9523,34 +9528,34 @@
         <v>23</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K138" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L138" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="P138" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="Q138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
@@ -9572,71 +9577,54 @@
       <c r="AQ138" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="M139" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="O139" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="P139" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K139" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="Q139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R139" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="S139" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="V139" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="W139" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="X139" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="Y139" s="1" t="s">
-        <v>600</v>
+        <v>528</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
@@ -9659,52 +9647,70 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>601</v>
+        <v>145</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G140" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K140" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="Q140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
@@ -9727,52 +9733,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>478</v>
+        <v>604</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K141" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L141" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="M141" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="M141" s="1" t="s">
+      <c r="N141" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="N141" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="O141" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P141" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="Q141" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R141" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
@@ -9795,46 +9801,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K142" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M142" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E142" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K142" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L142" s="1" t="s">
+      <c r="N142" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P142" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="O142" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="Q142" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
@@ -9857,43 +9869,46 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K143" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="M143" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K143" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L143" s="1" t="s">
+      <c r="O143" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P143" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="M143" s="1" t="s">
+      <c r="Q143" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="O143" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q143" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R143" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
@@ -9916,52 +9931,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>102</v>
+        <v>618</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G144" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K144" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L144" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="M144" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="M144" s="1" t="s">
+      <c r="O144" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="Q144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
@@ -9984,61 +9990,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K145" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="N145" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E145" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K145" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L145" s="1" t="s">
+      <c r="O145" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="P145" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="O145" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="Q145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="S145" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="V145" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="W145" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="X145" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="Y145" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
@@ -10061,10 +10058,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>407</v>
+        <v>628</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>23</v>
@@ -10073,37 +10070,49 @@
         <v>23</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K146" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="Q146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="W146" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
@@ -10126,10 +10135,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>23</v>
@@ -10138,37 +10147,37 @@
         <v>23</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K147" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L147" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="P147" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="Q147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="U147" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
@@ -10191,58 +10200,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K148" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="P148" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I148" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J148" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K148" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="Q148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="T148" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="V148" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
@@ -10265,10 +10265,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>23</v>
@@ -10280,37 +10280,43 @@
         <v>23</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K149" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="Q149" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R149" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="S149" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
@@ -10333,67 +10339,52 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P150" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I150" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J150" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K150" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="O150" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="Q150" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R150" s="1" t="s">
-        <v>664</v>
-      </c>
       <c r="S150" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="V150" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="W150" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="X150" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="Y150" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
@@ -10416,10 +10407,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>23</v>
@@ -10431,46 +10422,52 @@
         <v>23</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K151" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="Q151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="U151" s="1" t="s">
-        <v>676</v>
+        <v>662</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="W151" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
@@ -10493,49 +10490,61 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="T152" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J152" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K152" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L152" s="1" t="s">
+      <c r="U152" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="M152" s="1" t="s">
+      <c r="W152" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="O152" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q152" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R152" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="U152" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
@@ -10558,67 +10567,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="P153" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J153" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K153" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L153" s="1" t="s">
+      <c r="Q153" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R153" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="M153" s="1" t="s">
+      <c r="U153" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q153" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="S153" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="V153" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="W153" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y153" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
@@ -10641,52 +10632,67 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="V154" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J154" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K154" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L154" s="1" t="s">
+      <c r="W154" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="M154" s="1" t="s">
+      <c r="Y154" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="O154" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P154" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q154" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R154" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="S154" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="U154" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
@@ -10707,63 +10713,54 @@
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.25" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R155" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E155" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H155" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K155" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L155" s="1" t="s">
+      <c r="S155" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="M155" s="1" t="s">
+      <c r="U155" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="O155" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P155" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q155" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S155" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="T155" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="U155" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="V155" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="W155" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="Y155" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
@@ -10784,12 +10781,12 @@
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="150" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.25" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>23</v>
@@ -10798,43 +10795,49 @@
         <v>23</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K156" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="Q156" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R156" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="S156" s="14" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="U156" s="1" t="s">
-        <v>718</v>
+        <v>711</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
@@ -10855,57 +10858,57 @@
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="150" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K157" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R157" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E157" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K157" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L157" s="1" t="s">
+      <c r="S157" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="M157" s="1" t="s">
+      <c r="T157" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U157" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P157" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q157" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R157" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="S157" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="U157" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="V157" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
@@ -10926,12 +10929,12 @@
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.85" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>23</v>
@@ -10940,46 +10943,43 @@
         <v>23</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I158" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K158" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q158" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="S158" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="T158" s="1" t="s">
-        <v>527</v>
+        <v>726</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="U158" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="Y158" s="1" t="s">
-        <v>733</v>
+        <v>648</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
@@ -11000,57 +11000,60 @@
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.85" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q159" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="S159" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H159" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J159" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K159" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L159" s="1" t="s">
+      <c r="T159" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U159" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="Y159" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q159" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R159" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="S159" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="U159" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="W159" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
@@ -11073,49 +11076,55 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="S160" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E160" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J160" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K160" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L160" s="1" t="s">
+      <c r="U160" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="W160" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q160" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="U160" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
@@ -11138,55 +11147,49 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K161" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P161" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J161" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K161" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L161" s="1" t="s">
+      <c r="Q161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="M161" s="1" t="s">
+      <c r="U161" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q161" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R161" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="S161" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
@@ -11209,58 +11212,55 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="S162" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K162" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L162" s="1" t="s">
+      <c r="T162" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="M162" s="1" t="s">
+      <c r="U162" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q162" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="S162" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="V162" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
@@ -11283,10 +11283,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>23</v>
@@ -11295,46 +11295,46 @@
         <v>23</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I163" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K163" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="Q163" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R163" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="U163" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Y163" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
@@ -11355,6 +11355,80 @@
       <c r="AP163" s="1"/>
       <c r="AQ163" s="1"/>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+      <c r="A164" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y164" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+      <c r="AG164" s="1"/>
+      <c r="AH164" s="1"/>
+      <c r="AI164" s="1"/>
+      <c r="AJ164" s="1"/>
+      <c r="AK164" s="1"/>
+      <c r="AL164" s="1"/>
+      <c r="AM164" s="1"/>
+      <c r="AN164" s="1"/>
+      <c r="AO164" s="1"/>
+      <c r="AP164" s="1"/>
+      <c r="AQ164" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="The version of the LINCS Data Working Group Standards Document from which this column definition was taken.  See https://sites.google.com/site/lincsdwgdevelopment/standards-and-use" ref="P11" r:id="rId1"/>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -719,19 +719,19 @@
     <t>datacolumn</t>
   </si>
   <si>
-    <t>Endpoint Name</t>
+    <t>Datapoint Name</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>The name given to the endpoint</t>
+    <t>The name given to the data point</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>Endpoint Unit</t>
+    <t>Datapoint Unit</t>
   </si>
   <si>
     <t>Unit</t>
@@ -812,16 +812,16 @@
     <t>The order in which this endpoint should be displayed in an ordered list of endpoints</t>
   </si>
   <si>
-    <t>endpoint_value</t>
-  </si>
-  <si>
-    <t>Endpoint Value</t>
+    <t>datapoint_value</t>
+  </si>
+  <si>
+    <t>Datapoint Value</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>The measured or derived value included in the dataset</t>
+    <t>The measured, derived, or recorded value included in the dataset</t>
   </si>
   <si>
     <t>timepoint</t>
@@ -854,16 +854,16 @@
     <t>Description of this timepoint</t>
   </si>
   <si>
-    <t>endpoint_file</t>
-  </si>
-  <si>
-    <t>endpointFile</t>
-  </si>
-  <si>
-    <t>Endpoint File</t>
-  </si>
-  <si>
-    <t>URI for the endpoint (results) resource for this dataset</t>
+    <t>datapoint_file</t>
+  </si>
+  <si>
+    <t>datapointFile</t>
+  </si>
+  <si>
+    <t>Datapoint File</t>
+  </si>
+  <si>
+    <t>URI for the datapoint (results datacolumns and associated data columns) resource for this dataset</t>
   </si>
   <si>
     <t>saf_version</t>
@@ -2509,7 +2509,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2522,29 +2522,29 @@
   <dimension ref="A1:AQ164"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="A93" xSplit="3204" ySplit="1978"/>
+      <pane activePane="bottomRight" topLeftCell="J67" xSplit="3356" ySplit="1978"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
-      <selection activeCell="A93" activeCellId="0" pane="bottomLeft" sqref="A93"/>
-      <selection activeCell="E103" activeCellId="0" pane="bottomRight" sqref="E103"/>
+      <selection activeCell="J1" activeCellId="0" pane="topRight" sqref="J1"/>
+      <selection activeCell="A67" activeCellId="0" pane="bottomLeft" sqref="A67"/>
+      <selection activeCell="P68" activeCellId="0" pane="bottomRight" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.0078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7019607843137"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.3764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="58.8980392156863"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="47.4196078431373"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.7882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.8470588235294"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7294117647059"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="9.92156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.92156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.0078431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.6470588235294"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="59.4941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="47.8901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.9333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="23.0823529411765"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9647058823529"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="10.0196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="67.5" outlineLevel="0" r="1" s="6">
@@ -3613,7 +3613,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="9" t="s">
         <v>101</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="9" t="s">
         <v>101</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="9" t="s">
         <v>101</v>
       </c>

--- a/sampledata/fieldinformation.xlsx
+++ b/sampledata/fieldinformation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="779">
   <si>
     <t>table</t>
   </si>
@@ -941,6 +941,9 @@
     <t>alternative_names</t>
   </si>
   <si>
+    <t>sm_alternative_names</t>
+  </si>
+  <si>
     <t>SM:3</t>
   </si>
   <si>
@@ -1424,6 +1427,9 @@
     <t>UniProt</t>
   </si>
   <si>
+    <t>protein_lincs_id</t>
+  </si>
+  <si>
     <t>PP:2</t>
   </si>
   <si>
@@ -1884,6 +1890,9 @@
   </si>
   <si>
     <t>LINCS center using the cell line</t>
+  </si>
+  <si>
+    <t>cell_facility_id</t>
   </si>
   <si>
     <t>CL:6</t>
@@ -2461,7 +2470,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -2497,6 +2506,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -2509,7 +2519,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2522,29 +2532,29 @@
   <dimension ref="A1:AQ164"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomRight" topLeftCell="J67" xSplit="3356" ySplit="1978"/>
+      <pane activePane="bottomLeft" topLeftCell="A39" xSplit="3830" ySplit="1925"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="J1" activeCellId="0" pane="topRight" sqref="J1"/>
-      <selection activeCell="A67" activeCellId="0" pane="bottomLeft" sqref="A67"/>
-      <selection activeCell="P68" activeCellId="0" pane="bottomRight" sqref="P68"/>
+      <selection activeCell="A1" activeCellId="0" pane="topRight" sqref="A1"/>
+      <selection activeCell="A78" activeCellId="0" pane="bottomLeft" sqref="A78"/>
+      <selection activeCell="A39" activeCellId="0" pane="bottomRight" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.1529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.5960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.5960784313726"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.5960784313726"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.0078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="27.6470588235294"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="59.4941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1607843137255"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="47.8901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="23.0823529411765"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9647058823529"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="10.0196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.443137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="1" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="30.6235294117647"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.2"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="60.6862745098039"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.4862745098039"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="48.8470588235294"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="23.5529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.4352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="1" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="67.5" outlineLevel="0" r="1" s="6">
@@ -2626,7 +2636,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2682,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2718,7 +2728,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2764,7 +2774,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2820,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2853,7 +2863,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2893,7 +2903,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2933,7 +2943,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2973,7 +2983,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -3013,7 +3023,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3056,7 +3066,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3102,7 +3112,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3145,7 +3155,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3188,7 +3198,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3231,7 +3241,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3274,7 +3284,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -3317,7 +3327,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.6" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -3360,7 +3370,7 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="f